--- a/Protocol/Morph Protocol.xlsx
+++ b/Protocol/Morph Protocol.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27951" windowHeight="12968"/>
+    <workbookView windowWidth="32065" windowHeight="5477" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Connection" sheetId="13" r:id="rId1"/>
@@ -109,7 +109,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="285">
   <si>
     <t>Field</t>
   </si>
@@ -151,6 +151,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Note:</t>
     </r>
     <r>
@@ -583,6 +591,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Symbol"/>
+        <charset val="2"/>
+      </rPr>
       <t>·</t>
     </r>
     <r>
@@ -930,16 +944,10 @@
     <t>(ValueName), (TypeName), ArrayElemCount, (ArrayElemType), Values</t>
   </si>
   <si>
-    <t>Numeric</t>
-  </si>
-  <si>
     <t>p</t>
   </si>
   <si>
     <t>IsSpecial</t>
-  </si>
-  <si>
-    <t>Basic</t>
   </si>
   <si>
     <t>c</t>
@@ -1018,6 +1026,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Number of </t>
     </r>
     <r>
@@ -2753,7 +2768,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="285">
+  <cellXfs count="273">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2807,15 +2822,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2921,9 +2927,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2993,21 +2996,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3117,15 +3105,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3812,7 +3791,7 @@
   <sheetPr/>
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -3828,10 +3807,10 @@
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="43" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="43" t="s">
+      <c r="B1" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="40" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="11" t="s">
@@ -3907,7 +3886,7 @@
       <c r="A13" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="282">
+      <c r="B13" s="270">
         <v>57344</v>
       </c>
     </row>
@@ -3915,12 +3894,12 @@
       <c r="A14" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="285" t="s">
+      <c r="B14" s="273" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="15" spans="2:2">
-      <c r="B15" s="284"/>
+      <c r="B15" s="272"/>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="11" t="s">
@@ -3931,7 +3910,7 @@
       <c r="A17" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="282">
+      <c r="B17" s="270">
         <v>57429</v>
       </c>
     </row>
@@ -3939,12 +3918,12 @@
       <c r="A18" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="285" t="s">
+      <c r="B18" s="273" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="19" spans="2:2">
-      <c r="B19" s="284"/>
+      <c r="B19" s="272"/>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
@@ -3984,39 +3963,39 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14414414414414" defaultRowHeight="14.55"/>
   <cols>
-    <col min="1" max="4" width="3" style="161" customWidth="1"/>
-    <col min="5" max="8" width="3" style="162" customWidth="1"/>
-    <col min="9" max="10" width="6" style="31" customWidth="1"/>
-    <col min="11" max="11" width="15" style="163" customWidth="1"/>
-    <col min="12" max="12" width="25" style="163" customWidth="1"/>
-    <col min="13" max="13" width="22.7117117117117" style="163" customWidth="1"/>
-    <col min="14" max="14" width="6.14414414414414" style="161" customWidth="1"/>
-    <col min="15" max="15" width="13.2882882882883" style="161" customWidth="1"/>
-    <col min="16" max="16" width="17.7117117117117" style="163" customWidth="1"/>
-    <col min="17" max="17" width="46.8558558558559" style="164" customWidth="1"/>
-    <col min="18" max="19" width="6.85585585585586" style="161" customWidth="1"/>
-    <col min="20" max="16384" width="9.14414414414414" style="163"/>
+    <col min="1" max="4" width="3" style="149" customWidth="1"/>
+    <col min="5" max="8" width="3" style="150" customWidth="1"/>
+    <col min="9" max="10" width="6" style="28" customWidth="1"/>
+    <col min="11" max="11" width="15" style="151" customWidth="1"/>
+    <col min="12" max="12" width="25" style="151" customWidth="1"/>
+    <col min="13" max="13" width="22.7117117117117" style="151" customWidth="1"/>
+    <col min="14" max="14" width="6.14414414414414" style="149" customWidth="1"/>
+    <col min="15" max="15" width="13.2882882882883" style="149" customWidth="1"/>
+    <col min="16" max="16" width="17.7117117117117" style="151" customWidth="1"/>
+    <col min="17" max="17" width="46.8558558558559" style="152" customWidth="1"/>
+    <col min="18" max="19" width="6.85585585585586" style="149" customWidth="1"/>
+    <col min="20" max="16384" width="9.14414414414414" style="151"/>
   </cols>
   <sheetData>
     <row r="1" s="12" customFormat="1" ht="30" customHeight="1" spans="1:19">
-      <c r="A1" s="165" t="s">
+      <c r="A1" s="153" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="166" t="s">
+      <c r="B1" s="154" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="166"/>
-      <c r="D1" s="166"/>
-      <c r="E1" s="167" t="s">
+      <c r="C1" s="154"/>
+      <c r="D1" s="154"/>
+      <c r="E1" s="155" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="167"/>
-      <c r="G1" s="167"/>
-      <c r="H1" s="167"/>
-      <c r="I1" s="167" t="s">
-        <v>1</v>
-      </c>
-      <c r="J1" s="167"/>
+      <c r="F1" s="155"/>
+      <c r="G1" s="155"/>
+      <c r="H1" s="155"/>
+      <c r="I1" s="155" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="155"/>
       <c r="K1" s="12" t="s">
         <v>27</v>
       </c>
@@ -4026,14 +4005,14 @@
       <c r="M1" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="N1" s="225" t="s">
+      <c r="N1" s="213" t="s">
         <v>30</v>
       </c>
-      <c r="O1" s="225"/>
+      <c r="O1" s="213"/>
       <c r="P1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="Q1" s="271" t="s">
+      <c r="Q1" s="259" t="s">
         <v>31</v>
       </c>
       <c r="R1" s="1" t="s">
@@ -4044,47 +4023,47 @@
       </c>
     </row>
     <row r="2" s="12" customFormat="1" spans="1:19">
-      <c r="A2" s="168">
+      <c r="A2" s="156">
         <v>7</v>
       </c>
-      <c r="B2" s="169">
+      <c r="B2" s="157">
         <v>6</v>
       </c>
-      <c r="C2" s="169">
+      <c r="C2" s="157">
         <v>5</v>
       </c>
-      <c r="D2" s="169">
+      <c r="D2" s="157">
         <v>4</v>
       </c>
-      <c r="E2" s="170">
+      <c r="E2" s="158">
         <v>3</v>
       </c>
-      <c r="F2" s="170">
+      <c r="F2" s="158">
         <v>2</v>
       </c>
-      <c r="G2" s="170">
-        <v>1</v>
-      </c>
-      <c r="H2" s="171">
-        <v>0</v>
-      </c>
-      <c r="I2" s="226" t="s">
+      <c r="G2" s="158">
+        <v>1</v>
+      </c>
+      <c r="H2" s="159">
+        <v>0</v>
+      </c>
+      <c r="I2" s="214" t="s">
         <v>34</v>
       </c>
-      <c r="J2" s="227" t="s">
+      <c r="J2" s="215" t="s">
         <v>35</v>
       </c>
-      <c r="K2" s="228"/>
-      <c r="L2" s="229"/>
-      <c r="M2" s="229"/>
-      <c r="N2" s="230" t="s">
+      <c r="K2" s="216"/>
+      <c r="L2" s="217"/>
+      <c r="M2" s="217"/>
+      <c r="N2" s="218" t="s">
         <v>36</v>
       </c>
-      <c r="O2" s="230" t="s">
+      <c r="O2" s="218" t="s">
         <v>37</v>
       </c>
-      <c r="P2" s="229"/>
-      <c r="Q2" s="272"/>
+      <c r="P2" s="217"/>
+      <c r="Q2" s="260"/>
       <c r="R2" s="1" t="str">
         <f>CONCATENATE(ROUND(AVERAGE(R3:R68)*100/3,0),"%")</f>
         <v>81%</v>
@@ -4094,2209 +4073,2209 @@
         <v>69%</v>
       </c>
     </row>
-    <row r="3" s="158" customFormat="1" spans="1:19">
-      <c r="A3" s="172"/>
-      <c r="B3" s="173"/>
-      <c r="C3" s="174"/>
-      <c r="D3" s="175"/>
-      <c r="E3" s="173">
-        <v>0</v>
-      </c>
-      <c r="F3" s="174">
-        <v>0</v>
-      </c>
-      <c r="G3" s="174">
-        <v>0</v>
-      </c>
-      <c r="H3" s="175">
-        <v>0</v>
-      </c>
-      <c r="I3" s="231">
+    <row r="3" s="146" customFormat="1" spans="1:19">
+      <c r="A3" s="160"/>
+      <c r="B3" s="161"/>
+      <c r="C3" s="162"/>
+      <c r="D3" s="163"/>
+      <c r="E3" s="161">
+        <v>0</v>
+      </c>
+      <c r="F3" s="162">
+        <v>0</v>
+      </c>
+      <c r="G3" s="162">
+        <v>0</v>
+      </c>
+      <c r="H3" s="163">
+        <v>0</v>
+      </c>
+      <c r="I3" s="219">
         <f>SUM(E3*8,F3*4,G3*2,H3)</f>
         <v>0</v>
       </c>
-      <c r="J3" s="232">
+      <c r="J3" s="220">
         <f>IF(I3&lt;=9,I3,CHAR(I3-10+CODE("A")))</f>
         <v>0</v>
       </c>
-      <c r="K3" s="233" t="s">
+      <c r="K3" s="221" t="s">
         <v>38</v>
       </c>
-      <c r="L3" s="234"/>
-      <c r="M3" s="235"/>
-      <c r="N3" s="173">
-        <v>1</v>
-      </c>
-      <c r="O3" s="174">
-        <v>1</v>
-      </c>
-      <c r="P3" s="236"/>
-      <c r="Q3" s="273" t="s">
+      <c r="L3" s="222"/>
+      <c r="M3" s="223"/>
+      <c r="N3" s="161">
+        <v>1</v>
+      </c>
+      <c r="O3" s="162">
+        <v>1</v>
+      </c>
+      <c r="P3" s="224"/>
+      <c r="Q3" s="261" t="s">
         <v>39</v>
       </c>
-      <c r="R3" s="274">
+      <c r="R3" s="262">
         <v>3</v>
       </c>
-      <c r="S3" s="274">
+      <c r="S3" s="262">
         <v>4</v>
       </c>
     </row>
-    <row r="4" s="158" customFormat="1" spans="1:19">
-      <c r="A4" s="172" t="s">
+    <row r="4" s="146" customFormat="1" spans="1:19">
+      <c r="A4" s="160" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="173" t="str">
+      <c r="B4" s="161" t="str">
         <f>IF(COUNTA(B5:B8)&gt;0,"z","")</f>
         <v>z</v>
       </c>
-      <c r="C4" s="174" t="str">
+      <c r="C4" s="162" t="str">
         <f>IF(COUNTA(C5:C8)&gt;0,"y","")</f>
         <v>y</v>
       </c>
-      <c r="D4" s="175" t="str">
+      <c r="D4" s="163" t="str">
         <f>IF(COUNTA(D5:D8)&gt;0,"x","")</f>
         <v>x</v>
       </c>
-      <c r="E4" s="173">
-        <v>1</v>
-      </c>
-      <c r="F4" s="174">
-        <v>0</v>
-      </c>
-      <c r="G4" s="174">
-        <v>0</v>
-      </c>
-      <c r="H4" s="175">
-        <v>0</v>
-      </c>
-      <c r="I4" s="231">
+      <c r="E4" s="161">
+        <v>1</v>
+      </c>
+      <c r="F4" s="162">
+        <v>0</v>
+      </c>
+      <c r="G4" s="162">
+        <v>0</v>
+      </c>
+      <c r="H4" s="163">
+        <v>0</v>
+      </c>
+      <c r="I4" s="219">
         <f>SUM(E4*8,F4*4,G4*2,H4)</f>
         <v>8</v>
       </c>
-      <c r="J4" s="232">
+      <c r="J4" s="220">
         <f>IF(I4&lt;=9,I4,CHAR(I4-10+CODE("A")))</f>
         <v>8</v>
       </c>
-      <c r="K4" s="233" t="s">
+      <c r="K4" s="221" t="s">
         <v>41</v>
       </c>
-      <c r="L4" s="233"/>
-      <c r="M4" s="237"/>
-      <c r="N4" s="238">
+      <c r="L4" s="221"/>
+      <c r="M4" s="225"/>
+      <c r="N4" s="226">
         <f>1+SUM(N5:N8)</f>
         <v>5</v>
       </c>
-      <c r="O4" s="239">
+      <c r="O4" s="227">
         <f>1+SUM(O5:O8)</f>
         <v>13</v>
       </c>
-      <c r="P4" s="236"/>
-      <c r="Q4" s="273" t="s">
+      <c r="P4" s="224"/>
+      <c r="Q4" s="261" t="s">
         <v>42</v>
       </c>
-      <c r="R4" s="274">
+      <c r="R4" s="262">
         <v>3</v>
       </c>
-      <c r="S4" s="274">
+      <c r="S4" s="262">
         <v>4</v>
       </c>
     </row>
     <row r="5" hidden="1" outlineLevel="1" spans="1:17">
-      <c r="A5" s="176"/>
-      <c r="B5" s="177"/>
-      <c r="C5" s="178"/>
-      <c r="D5" s="179" t="s">
+      <c r="A5" s="164"/>
+      <c r="B5" s="165"/>
+      <c r="C5" s="166"/>
+      <c r="D5" s="167" t="s">
         <v>43</v>
       </c>
-      <c r="E5" s="180"/>
-      <c r="F5" s="181"/>
-      <c r="G5" s="181"/>
-      <c r="H5" s="182"/>
-      <c r="I5" s="111"/>
-      <c r="J5" s="240"/>
-      <c r="K5" s="241"/>
-      <c r="L5" s="241"/>
-      <c r="M5" s="242" t="s">
+      <c r="E5" s="168"/>
+      <c r="F5" s="169"/>
+      <c r="G5" s="169"/>
+      <c r="H5" s="170"/>
+      <c r="I5" s="102"/>
+      <c r="J5" s="228"/>
+      <c r="K5" s="229"/>
+      <c r="L5" s="229"/>
+      <c r="M5" s="230" t="s">
         <v>44</v>
       </c>
-      <c r="N5" s="224"/>
-      <c r="O5" s="183">
+      <c r="N5" s="212"/>
+      <c r="O5" s="171">
         <v>4</v>
       </c>
-      <c r="P5" s="243" t="s">
+      <c r="P5" s="231" t="s">
         <v>45</v>
       </c>
-      <c r="Q5" s="275"/>
+      <c r="Q5" s="263"/>
     </row>
     <row r="6" hidden="1" outlineLevel="1" spans="1:17">
-      <c r="A6" s="176"/>
-      <c r="B6" s="177"/>
-      <c r="C6" s="183" t="s">
+      <c r="A6" s="164"/>
+      <c r="B6" s="165"/>
+      <c r="C6" s="171" t="s">
         <v>43</v>
       </c>
-      <c r="D6" s="179"/>
-      <c r="E6" s="180"/>
-      <c r="F6" s="181"/>
-      <c r="G6" s="181"/>
-      <c r="H6" s="182"/>
-      <c r="I6" s="111"/>
-      <c r="J6" s="240"/>
-      <c r="K6" s="241"/>
-      <c r="L6" s="241"/>
-      <c r="M6" s="242" t="s">
+      <c r="D6" s="167"/>
+      <c r="E6" s="168"/>
+      <c r="F6" s="169"/>
+      <c r="G6" s="169"/>
+      <c r="H6" s="170"/>
+      <c r="I6" s="102"/>
+      <c r="J6" s="228"/>
+      <c r="K6" s="229"/>
+      <c r="L6" s="229"/>
+      <c r="M6" s="230" t="s">
         <v>46</v>
       </c>
-      <c r="N6" s="224"/>
-      <c r="O6" s="183"/>
-      <c r="P6" s="243"/>
-      <c r="Q6" s="275"/>
+      <c r="N6" s="212"/>
+      <c r="O6" s="171"/>
+      <c r="P6" s="231"/>
+      <c r="Q6" s="263"/>
     </row>
     <row r="7" hidden="1" outlineLevel="1" spans="1:17">
-      <c r="A7" s="176"/>
-      <c r="B7" s="177"/>
-      <c r="C7" s="183"/>
-      <c r="D7" s="184"/>
-      <c r="E7" s="180"/>
-      <c r="F7" s="181"/>
-      <c r="G7" s="181"/>
-      <c r="H7" s="182"/>
-      <c r="I7" s="111"/>
-      <c r="J7" s="240"/>
-      <c r="K7" s="241"/>
-      <c r="L7" s="241"/>
-      <c r="M7" s="242"/>
-      <c r="N7" s="224">
+      <c r="A7" s="164"/>
+      <c r="B7" s="165"/>
+      <c r="C7" s="171"/>
+      <c r="D7" s="172"/>
+      <c r="E7" s="168"/>
+      <c r="F7" s="169"/>
+      <c r="G7" s="169"/>
+      <c r="H7" s="170"/>
+      <c r="I7" s="102"/>
+      <c r="J7" s="228"/>
+      <c r="K7" s="229"/>
+      <c r="L7" s="229"/>
+      <c r="M7" s="230"/>
+      <c r="N7" s="212">
         <v>4</v>
       </c>
-      <c r="O7" s="183">
+      <c r="O7" s="171">
         <v>4</v>
       </c>
-      <c r="P7" s="243" t="s">
+      <c r="P7" s="231" t="s">
         <v>47</v>
       </c>
-      <c r="Q7" s="275"/>
-    </row>
-    <row r="8" s="159" customFormat="1" hidden="1" outlineLevel="1" spans="1:19">
-      <c r="A8" s="185"/>
-      <c r="B8" s="186" t="s">
+      <c r="Q7" s="263"/>
+    </row>
+    <row r="8" s="147" customFormat="1" hidden="1" outlineLevel="1" spans="1:19">
+      <c r="A8" s="173"/>
+      <c r="B8" s="174" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="187"/>
-      <c r="D8" s="188"/>
-      <c r="E8" s="189"/>
-      <c r="F8" s="190"/>
-      <c r="G8" s="190"/>
-      <c r="H8" s="191"/>
-      <c r="I8" s="111"/>
-      <c r="J8" s="240"/>
-      <c r="K8" s="152"/>
-      <c r="L8" s="152"/>
-      <c r="M8" s="244" t="s">
+      <c r="C8" s="175"/>
+      <c r="D8" s="176"/>
+      <c r="E8" s="177"/>
+      <c r="F8" s="178"/>
+      <c r="G8" s="178"/>
+      <c r="H8" s="179"/>
+      <c r="I8" s="102"/>
+      <c r="J8" s="228"/>
+      <c r="K8" s="140"/>
+      <c r="L8" s="140"/>
+      <c r="M8" s="232" t="s">
         <v>48</v>
       </c>
-      <c r="N8" s="199"/>
-      <c r="O8" s="187">
+      <c r="N8" s="187"/>
+      <c r="O8" s="175">
         <v>4</v>
       </c>
-      <c r="P8" s="245" t="s">
+      <c r="P8" s="233" t="s">
         <v>49</v>
       </c>
-      <c r="Q8" s="276"/>
-      <c r="R8" s="82"/>
-      <c r="S8" s="82"/>
-    </row>
-    <row r="9" s="159" customFormat="1" hidden="1" outlineLevel="1" spans="1:19">
-      <c r="A9" s="192"/>
-      <c r="B9" s="193"/>
-      <c r="C9" s="194"/>
-      <c r="D9" s="195"/>
-      <c r="E9" s="196"/>
-      <c r="F9" s="197"/>
-      <c r="G9" s="197"/>
-      <c r="H9" s="198"/>
-      <c r="I9" s="111"/>
-      <c r="J9" s="240"/>
-      <c r="K9" s="246"/>
-      <c r="L9" s="246"/>
-      <c r="M9" s="247"/>
-      <c r="N9" s="248">
-        <v>0</v>
-      </c>
-      <c r="O9" s="194" t="s">
+      <c r="Q8" s="264"/>
+      <c r="R8" s="78"/>
+      <c r="S8" s="78"/>
+    </row>
+    <row r="9" s="147" customFormat="1" hidden="1" outlineLevel="1" spans="1:19">
+      <c r="A9" s="180"/>
+      <c r="B9" s="181"/>
+      <c r="C9" s="182"/>
+      <c r="D9" s="183"/>
+      <c r="E9" s="184"/>
+      <c r="F9" s="185"/>
+      <c r="G9" s="185"/>
+      <c r="H9" s="186"/>
+      <c r="I9" s="102"/>
+      <c r="J9" s="228"/>
+      <c r="K9" s="234"/>
+      <c r="L9" s="234"/>
+      <c r="M9" s="235"/>
+      <c r="N9" s="236">
+        <v>0</v>
+      </c>
+      <c r="O9" s="182" t="s">
         <v>47</v>
       </c>
-      <c r="P9" s="249" t="s">
+      <c r="P9" s="237" t="s">
         <v>50</v>
       </c>
-      <c r="Q9" s="277"/>
-      <c r="R9" s="82"/>
-      <c r="S9" s="82"/>
+      <c r="Q9" s="265"/>
+      <c r="R9" s="78"/>
+      <c r="S9" s="78"/>
     </row>
     <row r="10" hidden="1" outlineLevel="1" spans="1:17">
-      <c r="A10" s="192"/>
-      <c r="B10" s="193"/>
-      <c r="C10" s="194"/>
-      <c r="D10" s="195"/>
-      <c r="E10" s="196"/>
-      <c r="F10" s="197"/>
-      <c r="G10" s="197"/>
-      <c r="H10" s="198"/>
-      <c r="I10" s="111"/>
-      <c r="J10" s="240"/>
-      <c r="K10" s="246"/>
-      <c r="L10" s="246" t="s">
+      <c r="A10" s="180"/>
+      <c r="B10" s="181"/>
+      <c r="C10" s="182"/>
+      <c r="D10" s="183"/>
+      <c r="E10" s="184"/>
+      <c r="F10" s="185"/>
+      <c r="G10" s="185"/>
+      <c r="H10" s="186"/>
+      <c r="I10" s="102"/>
+      <c r="J10" s="228"/>
+      <c r="K10" s="234"/>
+      <c r="L10" s="234" t="s">
         <v>51</v>
       </c>
-      <c r="M10" s="247"/>
-      <c r="N10" s="248">
-        <v>0</v>
-      </c>
-      <c r="O10" s="194" t="s">
+      <c r="M10" s="235"/>
+      <c r="N10" s="236">
+        <v>0</v>
+      </c>
+      <c r="O10" s="182" t="s">
         <v>49</v>
       </c>
-      <c r="P10" s="249" t="s">
+      <c r="P10" s="237" t="s">
         <v>52</v>
       </c>
-      <c r="Q10" s="277"/>
-    </row>
-    <row r="11" s="158" customFormat="1" collapsed="1" spans="1:19">
-      <c r="A11" s="172" t="s">
+      <c r="Q10" s="265"/>
+    </row>
+    <row r="11" s="146" customFormat="1" collapsed="1" spans="1:19">
+      <c r="A11" s="160" t="s">
         <v>40</v>
       </c>
-      <c r="B11" s="173" t="str">
+      <c r="B11" s="161" t="str">
         <f>IF(COUNTA(B12:B14)&gt;0,"z","")</f>
         <v/>
       </c>
-      <c r="C11" s="174" t="str">
+      <c r="C11" s="162" t="str">
         <f>IF(COUNTA(C12:C14)&gt;0,"y","")</f>
         <v/>
       </c>
-      <c r="D11" s="175" t="str">
+      <c r="D11" s="163" t="str">
         <f>IF(COUNTA(D12:D14)&gt;0,"x","")</f>
         <v>x</v>
       </c>
-      <c r="E11" s="173">
-        <v>0</v>
-      </c>
-      <c r="F11" s="174">
-        <v>1</v>
-      </c>
-      <c r="G11" s="174">
-        <v>0</v>
-      </c>
-      <c r="H11" s="175">
-        <v>0</v>
-      </c>
-      <c r="I11" s="231">
+      <c r="E11" s="161">
+        <v>0</v>
+      </c>
+      <c r="F11" s="162">
+        <v>1</v>
+      </c>
+      <c r="G11" s="162">
+        <v>0</v>
+      </c>
+      <c r="H11" s="163">
+        <v>0</v>
+      </c>
+      <c r="I11" s="219">
         <f>SUM(E11*8,F11*4,G11*2,H11)</f>
         <v>4</v>
       </c>
-      <c r="J11" s="232">
+      <c r="J11" s="220">
         <f>IF(I11&lt;=9,I11,CHAR(I11-10+CODE("A")))</f>
         <v>4</v>
       </c>
-      <c r="K11" s="233" t="s">
+      <c r="K11" s="221" t="s">
         <v>53</v>
       </c>
-      <c r="L11" s="233"/>
-      <c r="M11" s="237"/>
-      <c r="N11" s="238">
+      <c r="L11" s="221"/>
+      <c r="M11" s="225"/>
+      <c r="N11" s="226">
         <f>1+SUM(N12:N14)</f>
         <v>5</v>
       </c>
-      <c r="O11" s="239" t="str">
+      <c r="O11" s="227" t="str">
         <f>CONCATENATE(1+SUM(O12:O14)," + 2 GB")</f>
         <v>9 + 2 GB</v>
       </c>
-      <c r="P11" s="236"/>
-      <c r="Q11" s="273"/>
-      <c r="R11" s="274">
+      <c r="P11" s="224"/>
+      <c r="Q11" s="261"/>
+      <c r="R11" s="262">
         <v>3</v>
       </c>
-      <c r="S11" s="274">
+      <c r="S11" s="262">
         <v>4</v>
       </c>
     </row>
     <row r="12" ht="15" hidden="1" customHeight="1" outlineLevel="1" spans="1:17">
-      <c r="A12" s="176"/>
-      <c r="B12" s="177"/>
-      <c r="C12" s="183"/>
-      <c r="D12" s="179" t="s">
+      <c r="A12" s="164"/>
+      <c r="B12" s="165"/>
+      <c r="C12" s="171"/>
+      <c r="D12" s="167" t="s">
         <v>43</v>
       </c>
-      <c r="E12" s="180"/>
-      <c r="F12" s="181"/>
-      <c r="G12" s="181"/>
-      <c r="H12" s="182"/>
-      <c r="I12" s="111"/>
-      <c r="J12" s="240"/>
-      <c r="K12" s="241"/>
-      <c r="L12" s="241"/>
-      <c r="M12" s="242" t="s">
+      <c r="E12" s="168"/>
+      <c r="F12" s="169"/>
+      <c r="G12" s="169"/>
+      <c r="H12" s="170"/>
+      <c r="I12" s="102"/>
+      <c r="J12" s="228"/>
+      <c r="K12" s="229"/>
+      <c r="L12" s="229"/>
+      <c r="M12" s="230" t="s">
         <v>54</v>
       </c>
-      <c r="N12" s="177"/>
-      <c r="O12" s="178">
+      <c r="N12" s="165"/>
+      <c r="O12" s="166">
         <v>4</v>
       </c>
-      <c r="P12" s="243" t="s">
+      <c r="P12" s="231" t="s">
         <v>55</v>
       </c>
-      <c r="Q12" s="275"/>
+      <c r="Q12" s="263"/>
     </row>
     <row r="13" ht="15" hidden="1" customHeight="1" outlineLevel="1" spans="1:17">
-      <c r="A13" s="185"/>
-      <c r="B13" s="199"/>
-      <c r="C13" s="200"/>
-      <c r="D13" s="201"/>
-      <c r="E13" s="189"/>
-      <c r="F13" s="190"/>
-      <c r="G13" s="190"/>
-      <c r="H13" s="191"/>
-      <c r="I13" s="111"/>
-      <c r="J13" s="240"/>
-      <c r="K13" s="152"/>
-      <c r="L13" s="152"/>
-      <c r="M13" s="244"/>
-      <c r="N13" s="199">
+      <c r="A13" s="173"/>
+      <c r="B13" s="187"/>
+      <c r="C13" s="188"/>
+      <c r="D13" s="189"/>
+      <c r="E13" s="177"/>
+      <c r="F13" s="178"/>
+      <c r="G13" s="178"/>
+      <c r="H13" s="179"/>
+      <c r="I13" s="102"/>
+      <c r="J13" s="228"/>
+      <c r="K13" s="140"/>
+      <c r="L13" s="140"/>
+      <c r="M13" s="232"/>
+      <c r="N13" s="187">
         <v>4</v>
       </c>
-      <c r="O13" s="187">
+      <c r="O13" s="175">
         <v>4</v>
       </c>
-      <c r="P13" s="245" t="s">
+      <c r="P13" s="233" t="s">
         <v>30</v>
       </c>
-      <c r="Q13" s="276"/>
+      <c r="Q13" s="264"/>
     </row>
     <row r="14" ht="15" hidden="1" customHeight="1" outlineLevel="1" spans="1:17">
-      <c r="A14" s="202"/>
-      <c r="B14" s="203"/>
-      <c r="C14" s="204"/>
-      <c r="D14" s="205"/>
-      <c r="E14" s="206"/>
-      <c r="F14" s="207"/>
-      <c r="G14" s="207"/>
-      <c r="H14" s="208"/>
-      <c r="I14" s="111"/>
-      <c r="J14" s="240"/>
-      <c r="K14" s="250"/>
-      <c r="L14" s="250"/>
-      <c r="M14" s="251"/>
-      <c r="N14" s="203">
-        <v>0</v>
-      </c>
-      <c r="O14" s="217" t="s">
+      <c r="A14" s="190"/>
+      <c r="B14" s="191"/>
+      <c r="C14" s="192"/>
+      <c r="D14" s="193"/>
+      <c r="E14" s="194"/>
+      <c r="F14" s="195"/>
+      <c r="G14" s="195"/>
+      <c r="H14" s="196"/>
+      <c r="I14" s="102"/>
+      <c r="J14" s="228"/>
+      <c r="K14" s="238"/>
+      <c r="L14" s="238"/>
+      <c r="M14" s="239"/>
+      <c r="N14" s="191">
+        <v>0</v>
+      </c>
+      <c r="O14" s="205" t="s">
         <v>56</v>
       </c>
-      <c r="P14" s="252" t="s">
+      <c r="P14" s="240" t="s">
         <v>53</v>
       </c>
-      <c r="Q14" s="278"/>
-    </row>
-    <row r="15" s="158" customFormat="1" collapsed="1" spans="1:19">
-      <c r="A15" s="172" t="s">
+      <c r="Q14" s="266"/>
+    </row>
+    <row r="15" s="146" customFormat="1" collapsed="1" spans="1:19">
+      <c r="A15" s="160" t="s">
         <v>40</v>
       </c>
-      <c r="B15" s="173" t="str">
+      <c r="B15" s="161" t="str">
         <f>IF(COUNTA(B16:B17)&gt;0,"z","")</f>
         <v/>
       </c>
-      <c r="C15" s="174" t="str">
+      <c r="C15" s="162" t="str">
         <f>IF(COUNTA(C16:C17)&gt;0,"y","")</f>
         <v/>
       </c>
-      <c r="D15" s="175" t="str">
+      <c r="D15" s="163" t="str">
         <f>IF(COUNTA(D16:D17)&gt;0,"x","")</f>
         <v/>
       </c>
-      <c r="E15" s="173">
-        <v>1</v>
-      </c>
-      <c r="F15" s="174">
-        <v>1</v>
-      </c>
-      <c r="G15" s="174">
-        <v>0</v>
-      </c>
-      <c r="H15" s="175">
-        <v>0</v>
-      </c>
-      <c r="I15" s="231">
+      <c r="E15" s="161">
+        <v>1</v>
+      </c>
+      <c r="F15" s="162">
+        <v>1</v>
+      </c>
+      <c r="G15" s="162">
+        <v>0</v>
+      </c>
+      <c r="H15" s="163">
+        <v>0</v>
+      </c>
+      <c r="I15" s="219">
         <f>SUM(E15*8,F15*4,G15*2,H15)</f>
         <v>12</v>
       </c>
-      <c r="J15" s="232" t="str">
+      <c r="J15" s="220" t="str">
         <f>IF(I15&lt;=9,I15,CHAR(I15-10+CODE("A")))</f>
         <v>C</v>
       </c>
-      <c r="K15" s="237" t="s">
+      <c r="K15" s="225" t="s">
         <v>57</v>
       </c>
-      <c r="L15" s="234"/>
-      <c r="M15" s="235"/>
-      <c r="N15" s="238" t="s">
+      <c r="L15" s="222"/>
+      <c r="M15" s="223"/>
+      <c r="N15" s="226" t="s">
         <v>58</v>
       </c>
-      <c r="O15" s="239" t="s">
+      <c r="O15" s="227" t="s">
         <v>58</v>
       </c>
-      <c r="P15" s="236"/>
-      <c r="Q15" s="273" t="s">
+      <c r="P15" s="224"/>
+      <c r="Q15" s="261" t="s">
         <v>53</v>
       </c>
-      <c r="R15" s="274">
-        <v>0</v>
-      </c>
-      <c r="S15" s="274">
+      <c r="R15" s="262">
+        <v>0</v>
+      </c>
+      <c r="S15" s="262">
         <v>0</v>
       </c>
     </row>
     <row r="16" ht="15" hidden="1" customHeight="1" outlineLevel="1" spans="1:17">
-      <c r="A16" s="209"/>
-      <c r="B16" s="210"/>
-      <c r="C16" s="211"/>
-      <c r="D16" s="212"/>
-      <c r="E16" s="213"/>
-      <c r="F16" s="214"/>
-      <c r="G16" s="214"/>
-      <c r="H16" s="215"/>
-      <c r="I16" s="111"/>
-      <c r="J16" s="240"/>
-      <c r="K16" s="253"/>
-      <c r="L16" s="253"/>
-      <c r="M16" s="254"/>
-      <c r="N16" s="255"/>
-      <c r="O16" s="211"/>
-      <c r="P16" s="256"/>
-      <c r="Q16" s="279"/>
+      <c r="A16" s="197"/>
+      <c r="B16" s="198"/>
+      <c r="C16" s="199"/>
+      <c r="D16" s="200"/>
+      <c r="E16" s="201"/>
+      <c r="F16" s="202"/>
+      <c r="G16" s="202"/>
+      <c r="H16" s="203"/>
+      <c r="I16" s="102"/>
+      <c r="J16" s="228"/>
+      <c r="K16" s="241"/>
+      <c r="L16" s="241"/>
+      <c r="M16" s="242"/>
+      <c r="N16" s="243"/>
+      <c r="O16" s="199"/>
+      <c r="P16" s="244"/>
+      <c r="Q16" s="267"/>
     </row>
     <row r="17" ht="15" hidden="1" customHeight="1" outlineLevel="1" spans="1:17">
-      <c r="A17" s="202"/>
-      <c r="B17" s="216"/>
-      <c r="C17" s="217"/>
-      <c r="D17" s="218"/>
-      <c r="E17" s="206"/>
-      <c r="F17" s="207"/>
-      <c r="G17" s="207"/>
-      <c r="H17" s="208"/>
-      <c r="I17" s="111"/>
-      <c r="J17" s="240"/>
-      <c r="K17" s="250"/>
-      <c r="L17" s="250"/>
-      <c r="M17" s="251"/>
-      <c r="N17" s="203"/>
-      <c r="O17" s="217"/>
-      <c r="P17" s="252"/>
-      <c r="Q17" s="278"/>
-    </row>
-    <row r="18" s="158" customFormat="1" collapsed="1" spans="1:19">
-      <c r="A18" s="172" t="s">
+      <c r="A17" s="190"/>
+      <c r="B17" s="204"/>
+      <c r="C17" s="205"/>
+      <c r="D17" s="206"/>
+      <c r="E17" s="194"/>
+      <c r="F17" s="195"/>
+      <c r="G17" s="195"/>
+      <c r="H17" s="196"/>
+      <c r="I17" s="102"/>
+      <c r="J17" s="228"/>
+      <c r="K17" s="238"/>
+      <c r="L17" s="238"/>
+      <c r="M17" s="239"/>
+      <c r="N17" s="191"/>
+      <c r="O17" s="205"/>
+      <c r="P17" s="240"/>
+      <c r="Q17" s="266"/>
+    </row>
+    <row r="18" s="146" customFormat="1" collapsed="1" spans="1:19">
+      <c r="A18" s="160" t="s">
         <v>40</v>
       </c>
-      <c r="B18" s="173" t="str">
+      <c r="B18" s="161" t="str">
         <f>IF(COUNTA(B19:B22)&gt;0,"z","")</f>
         <v>z</v>
       </c>
-      <c r="C18" s="174" t="str">
+      <c r="C18" s="162" t="str">
         <f>IF(COUNTA(C19:C22)&gt;0,"y","")</f>
         <v>y</v>
       </c>
-      <c r="D18" s="175" t="str">
+      <c r="D18" s="163" t="str">
         <f>IF(COUNTA(D19:D22)&gt;0,"x","")</f>
         <v>x</v>
       </c>
-      <c r="E18" s="173">
-        <v>0</v>
-      </c>
-      <c r="F18" s="174">
-        <v>0</v>
-      </c>
-      <c r="G18" s="174">
-        <v>1</v>
-      </c>
-      <c r="H18" s="175">
-        <v>0</v>
-      </c>
-      <c r="I18" s="231">
+      <c r="E18" s="161">
+        <v>0</v>
+      </c>
+      <c r="F18" s="162">
+        <v>0</v>
+      </c>
+      <c r="G18" s="162">
+        <v>1</v>
+      </c>
+      <c r="H18" s="163">
+        <v>0</v>
+      </c>
+      <c r="I18" s="219">
         <f>SUM(E18*8,F18*4,G18*2,H18)</f>
         <v>2</v>
       </c>
-      <c r="J18" s="232">
+      <c r="J18" s="220">
         <f>IF(I18&lt;=9,I18,CHAR(I18-10+CODE("A")))</f>
         <v>2</v>
       </c>
-      <c r="K18" s="233" t="s">
+      <c r="K18" s="221" t="s">
         <v>59</v>
       </c>
-      <c r="L18" s="234"/>
-      <c r="M18" s="235"/>
-      <c r="N18" s="238">
+      <c r="L18" s="222"/>
+      <c r="M18" s="223"/>
+      <c r="N18" s="226">
         <v>5</v>
       </c>
-      <c r="O18" s="239" t="s">
+      <c r="O18" s="227" t="s">
         <v>60</v>
       </c>
-      <c r="P18" s="236"/>
-      <c r="Q18" s="273"/>
-      <c r="R18" s="274">
+      <c r="P18" s="224"/>
+      <c r="Q18" s="261"/>
+      <c r="R18" s="262">
         <v>3</v>
       </c>
-      <c r="S18" s="274">
+      <c r="S18" s="262">
         <v>4</v>
       </c>
     </row>
-    <row r="19" s="160" customFormat="1" hidden="1" outlineLevel="1" spans="1:19">
-      <c r="A19" s="219"/>
-      <c r="B19" s="213"/>
-      <c r="C19" s="220">
-        <v>0</v>
-      </c>
-      <c r="D19" s="221">
-        <v>0</v>
-      </c>
-      <c r="E19" s="213"/>
-      <c r="F19" s="214"/>
-      <c r="G19" s="214"/>
-      <c r="H19" s="215"/>
-      <c r="I19" s="111"/>
-      <c r="J19" s="240"/>
-      <c r="K19" s="257"/>
-      <c r="L19" s="257"/>
-      <c r="M19" s="258" t="s">
+    <row r="19" s="148" customFormat="1" hidden="1" outlineLevel="1" spans="1:19">
+      <c r="A19" s="207"/>
+      <c r="B19" s="201"/>
+      <c r="C19" s="208">
+        <v>0</v>
+      </c>
+      <c r="D19" s="209">
+        <v>0</v>
+      </c>
+      <c r="E19" s="201"/>
+      <c r="F19" s="202"/>
+      <c r="G19" s="202"/>
+      <c r="H19" s="203"/>
+      <c r="I19" s="102"/>
+      <c r="J19" s="228"/>
+      <c r="K19" s="245"/>
+      <c r="L19" s="245"/>
+      <c r="M19" s="246" t="s">
         <v>61</v>
       </c>
-      <c r="N19" s="222" t="s">
+      <c r="N19" s="210" t="s">
         <v>62</v>
       </c>
-      <c r="O19" s="220" t="s">
+      <c r="O19" s="208" t="s">
         <v>62</v>
       </c>
-      <c r="P19" s="259" t="s">
+      <c r="P19" s="247" t="s">
         <v>63</v>
       </c>
-      <c r="Q19" s="280" t="s">
+      <c r="Q19" s="268" t="s">
         <v>64</v>
       </c>
-      <c r="R19" s="162"/>
-      <c r="S19" s="162"/>
-    </row>
-    <row r="20" s="160" customFormat="1" hidden="1" outlineLevel="1" spans="1:19">
-      <c r="A20" s="219"/>
-      <c r="B20" s="213"/>
-      <c r="C20" s="220">
-        <v>0</v>
-      </c>
-      <c r="D20" s="221">
-        <v>1</v>
-      </c>
-      <c r="E20" s="213"/>
-      <c r="F20" s="214"/>
-      <c r="G20" s="214"/>
-      <c r="H20" s="215"/>
-      <c r="I20" s="111"/>
-      <c r="J20" s="240"/>
-      <c r="K20" s="257"/>
-      <c r="L20" s="257"/>
-      <c r="M20" s="258" t="s">
+      <c r="R19" s="150"/>
+      <c r="S19" s="150"/>
+    </row>
+    <row r="20" s="148" customFormat="1" hidden="1" outlineLevel="1" spans="1:19">
+      <c r="A20" s="207"/>
+      <c r="B20" s="201"/>
+      <c r="C20" s="208">
+        <v>0</v>
+      </c>
+      <c r="D20" s="209">
+        <v>1</v>
+      </c>
+      <c r="E20" s="201"/>
+      <c r="F20" s="202"/>
+      <c r="G20" s="202"/>
+      <c r="H20" s="203"/>
+      <c r="I20" s="102"/>
+      <c r="J20" s="228"/>
+      <c r="K20" s="245"/>
+      <c r="L20" s="245"/>
+      <c r="M20" s="246" t="s">
         <v>65</v>
       </c>
-      <c r="N20" s="222">
+      <c r="N20" s="210">
         <v>4</v>
       </c>
-      <c r="O20" s="220">
+      <c r="O20" s="208">
         <v>4</v>
       </c>
-      <c r="P20" s="259" t="s">
+      <c r="P20" s="247" t="s">
         <v>66</v>
       </c>
-      <c r="Q20" s="280" t="s">
+      <c r="Q20" s="268" t="s">
         <v>64</v>
       </c>
-      <c r="R20" s="162"/>
-      <c r="S20" s="162"/>
-    </row>
-    <row r="21" s="160" customFormat="1" hidden="1" outlineLevel="1" spans="1:19">
-      <c r="A21" s="219"/>
-      <c r="B21" s="222" t="s">
+      <c r="R20" s="150"/>
+      <c r="S20" s="150"/>
+    </row>
+    <row r="21" s="148" customFormat="1" hidden="1" outlineLevel="1" spans="1:19">
+      <c r="A21" s="207"/>
+      <c r="B21" s="210" t="s">
         <v>43</v>
       </c>
-      <c r="C21" s="220"/>
-      <c r="D21" s="221"/>
-      <c r="E21" s="213"/>
-      <c r="F21" s="214"/>
-      <c r="G21" s="214"/>
-      <c r="H21" s="215"/>
-      <c r="I21" s="111"/>
-      <c r="J21" s="240"/>
-      <c r="K21" s="257"/>
-      <c r="L21" s="257" t="s">
+      <c r="C21" s="208"/>
+      <c r="D21" s="209"/>
+      <c r="E21" s="201"/>
+      <c r="F21" s="202"/>
+      <c r="G21" s="202"/>
+      <c r="H21" s="203"/>
+      <c r="I21" s="102"/>
+      <c r="J21" s="228"/>
+      <c r="K21" s="245"/>
+      <c r="L21" s="245" t="s">
         <v>65</v>
       </c>
-      <c r="M21" s="258" t="s">
+      <c r="M21" s="246" t="s">
         <v>67</v>
       </c>
-      <c r="N21" s="222">
+      <c r="N21" s="210">
         <v>8</v>
       </c>
-      <c r="O21" s="220">
+      <c r="O21" s="208">
         <v>8</v>
       </c>
-      <c r="P21" s="259" t="s">
+      <c r="P21" s="247" t="s">
         <v>68</v>
       </c>
-      <c r="Q21" s="280"/>
-      <c r="R21" s="162"/>
-      <c r="S21" s="162"/>
+      <c r="Q21" s="268"/>
+      <c r="R21" s="150"/>
+      <c r="S21" s="150"/>
     </row>
     <row r="22" ht="15" hidden="1" customHeight="1" outlineLevel="1" spans="1:17">
-      <c r="A22" s="176"/>
-      <c r="B22" s="177"/>
-      <c r="C22" s="178">
-        <v>1</v>
-      </c>
-      <c r="D22" s="179">
-        <v>1</v>
-      </c>
-      <c r="E22" s="180"/>
-      <c r="F22" s="181"/>
-      <c r="G22" s="181"/>
-      <c r="H22" s="182"/>
-      <c r="I22" s="111"/>
-      <c r="J22" s="240"/>
-      <c r="K22" s="241"/>
-      <c r="L22" s="241"/>
-      <c r="M22" s="242" t="s">
+      <c r="A22" s="164"/>
+      <c r="B22" s="165"/>
+      <c r="C22" s="166">
+        <v>1</v>
+      </c>
+      <c r="D22" s="167">
+        <v>1</v>
+      </c>
+      <c r="E22" s="168"/>
+      <c r="F22" s="169"/>
+      <c r="G22" s="169"/>
+      <c r="H22" s="170"/>
+      <c r="I22" s="102"/>
+      <c r="J22" s="228"/>
+      <c r="K22" s="229"/>
+      <c r="L22" s="229"/>
+      <c r="M22" s="230" t="s">
         <v>69</v>
       </c>
-      <c r="N22" s="224">
+      <c r="N22" s="212">
         <v>4</v>
       </c>
-      <c r="O22" s="183">
+      <c r="O22" s="171">
         <v>4</v>
       </c>
-      <c r="P22" s="243" t="s">
+      <c r="P22" s="231" t="s">
         <v>70</v>
       </c>
-      <c r="Q22" s="275" t="s">
+      <c r="Q22" s="263" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="23" s="158" customFormat="1" collapsed="1" spans="1:19">
-      <c r="A23" s="172" t="s">
+    <row r="23" s="146" customFormat="1" collapsed="1" spans="1:19">
+      <c r="A23" s="160" t="s">
         <v>40</v>
       </c>
-      <c r="B23" s="173" t="str">
+      <c r="B23" s="161" t="str">
         <f>IF(COUNTA(B24:B25)&gt;0,"z","")</f>
         <v/>
       </c>
-      <c r="C23" s="174" t="str">
+      <c r="C23" s="162" t="str">
         <f>IF(COUNTA(C24:C25)&gt;0,"y","")</f>
         <v/>
       </c>
-      <c r="D23" s="175" t="str">
+      <c r="D23" s="163" t="str">
         <f>IF(COUNTA(D24:D25)&gt;0,"x","")</f>
         <v/>
       </c>
-      <c r="E23" s="173">
-        <v>1</v>
-      </c>
-      <c r="F23" s="174">
-        <v>0</v>
-      </c>
-      <c r="G23" s="174">
-        <v>1</v>
-      </c>
-      <c r="H23" s="175">
-        <v>0</v>
-      </c>
-      <c r="I23" s="231">
+      <c r="E23" s="161">
+        <v>1</v>
+      </c>
+      <c r="F23" s="162">
+        <v>0</v>
+      </c>
+      <c r="G23" s="162">
+        <v>1</v>
+      </c>
+      <c r="H23" s="163">
+        <v>0</v>
+      </c>
+      <c r="I23" s="219">
         <f>SUM(E23*8,F23*4,G23*2,H23)</f>
         <v>10</v>
       </c>
-      <c r="J23" s="232" t="str">
+      <c r="J23" s="220" t="str">
         <f>IF(I23&lt;=9,I23,CHAR(I23-10+CODE("A")))</f>
         <v>A</v>
       </c>
-      <c r="K23" s="233" t="s">
+      <c r="K23" s="221" t="s">
         <v>71</v>
       </c>
-      <c r="L23" s="234"/>
-      <c r="M23" s="235"/>
-      <c r="N23" s="238">
+      <c r="L23" s="222"/>
+      <c r="M23" s="223"/>
+      <c r="N23" s="226">
         <f>1+SUM(N24:N25)</f>
         <v>5</v>
       </c>
-      <c r="O23" s="239">
+      <c r="O23" s="227">
         <f>1+SUM(O24:O25)</f>
         <v>5</v>
       </c>
-      <c r="P23" s="236"/>
-      <c r="Q23" s="273" t="s">
+      <c r="P23" s="224"/>
+      <c r="Q23" s="261" t="s">
         <v>72</v>
       </c>
-      <c r="R23" s="274">
+      <c r="R23" s="262">
         <v>3</v>
       </c>
-      <c r="S23" s="274">
+      <c r="S23" s="262">
         <v>4</v>
       </c>
     </row>
-    <row r="24" s="160" customFormat="1" hidden="1" outlineLevel="1" spans="1:19">
-      <c r="A24" s="223"/>
-      <c r="B24" s="196"/>
-      <c r="C24" s="197"/>
-      <c r="D24" s="198"/>
-      <c r="E24" s="196"/>
-      <c r="F24" s="197"/>
-      <c r="G24" s="197"/>
-      <c r="H24" s="198"/>
-      <c r="I24" s="111"/>
-      <c r="J24" s="240"/>
-      <c r="K24" s="260"/>
-      <c r="L24" s="261"/>
-      <c r="M24" s="262"/>
-      <c r="N24" s="263">
+    <row r="24" s="148" customFormat="1" hidden="1" outlineLevel="1" spans="1:19">
+      <c r="A24" s="211"/>
+      <c r="B24" s="184"/>
+      <c r="C24" s="185"/>
+      <c r="D24" s="186"/>
+      <c r="E24" s="184"/>
+      <c r="F24" s="185"/>
+      <c r="G24" s="185"/>
+      <c r="H24" s="186"/>
+      <c r="I24" s="102"/>
+      <c r="J24" s="228"/>
+      <c r="K24" s="248"/>
+      <c r="L24" s="249"/>
+      <c r="M24" s="250"/>
+      <c r="N24" s="251">
         <v>4</v>
       </c>
-      <c r="O24" s="264">
+      <c r="O24" s="252">
         <v>4</v>
       </c>
-      <c r="P24" s="265" t="s">
+      <c r="P24" s="253" t="s">
         <v>73</v>
       </c>
-      <c r="Q24" s="281"/>
-      <c r="R24" s="162"/>
-      <c r="S24" s="162"/>
+      <c r="Q24" s="269"/>
+      <c r="R24" s="150"/>
+      <c r="S24" s="150"/>
     </row>
     <row r="25" ht="15" hidden="1" customHeight="1" outlineLevel="1" spans="1:17">
-      <c r="A25" s="202"/>
-      <c r="B25" s="203"/>
-      <c r="C25" s="217"/>
-      <c r="D25" s="218"/>
-      <c r="E25" s="206"/>
-      <c r="F25" s="207"/>
-      <c r="G25" s="207"/>
-      <c r="H25" s="208"/>
-      <c r="I25" s="111"/>
-      <c r="J25" s="240"/>
-      <c r="K25" s="250"/>
-      <c r="L25" s="250"/>
-      <c r="M25" s="251"/>
-      <c r="N25" s="216"/>
-      <c r="O25" s="204"/>
-      <c r="P25" s="252"/>
-      <c r="Q25" s="278"/>
-    </row>
-    <row r="26" s="158" customFormat="1" collapsed="1" spans="1:19">
-      <c r="A26" s="172" t="s">
+      <c r="A25" s="190"/>
+      <c r="B25" s="191"/>
+      <c r="C25" s="205"/>
+      <c r="D25" s="206"/>
+      <c r="E25" s="194"/>
+      <c r="F25" s="195"/>
+      <c r="G25" s="195"/>
+      <c r="H25" s="196"/>
+      <c r="I25" s="102"/>
+      <c r="J25" s="228"/>
+      <c r="K25" s="238"/>
+      <c r="L25" s="238"/>
+      <c r="M25" s="239"/>
+      <c r="N25" s="204"/>
+      <c r="O25" s="192"/>
+      <c r="P25" s="240"/>
+      <c r="Q25" s="266"/>
+    </row>
+    <row r="26" s="146" customFormat="1" collapsed="1" spans="1:19">
+      <c r="A26" s="160" t="s">
         <v>40</v>
       </c>
-      <c r="B26" s="173" t="str">
+      <c r="B26" s="161" t="str">
         <f>IF(COUNTA(B27:B30)&gt;0,"z","")</f>
         <v>z</v>
       </c>
-      <c r="C26" s="174" t="str">
+      <c r="C26" s="162" t="str">
         <f>IF(COUNTA(C27:C30)&gt;0,"y","")</f>
         <v>y</v>
       </c>
-      <c r="D26" s="175" t="str">
+      <c r="D26" s="163" t="str">
         <f>IF(COUNTA(D27:D30)&gt;0,"x","")</f>
         <v>x</v>
       </c>
-      <c r="E26" s="173">
-        <v>0</v>
-      </c>
-      <c r="F26" s="174">
-        <v>1</v>
-      </c>
-      <c r="G26" s="174">
-        <v>1</v>
-      </c>
-      <c r="H26" s="175">
-        <v>0</v>
-      </c>
-      <c r="I26" s="231">
+      <c r="E26" s="161">
+        <v>0</v>
+      </c>
+      <c r="F26" s="162">
+        <v>1</v>
+      </c>
+      <c r="G26" s="162">
+        <v>1</v>
+      </c>
+      <c r="H26" s="163">
+        <v>0</v>
+      </c>
+      <c r="I26" s="219">
         <f>SUM(E26*8,F26*4,G26*2,H26)</f>
         <v>6</v>
       </c>
-      <c r="J26" s="232">
+      <c r="J26" s="220">
         <f>IF(I26&lt;=9,I26,CHAR(I26-10+CODE("A")))</f>
         <v>6</v>
       </c>
-      <c r="K26" s="233" t="s">
+      <c r="K26" s="221" t="s">
         <v>74</v>
       </c>
-      <c r="L26" s="233"/>
-      <c r="M26" s="237"/>
-      <c r="N26" s="238" t="s">
+      <c r="L26" s="221"/>
+      <c r="M26" s="225"/>
+      <c r="N26" s="226" t="s">
         <v>60</v>
       </c>
-      <c r="O26" s="239" t="str">
+      <c r="O26" s="227" t="str">
         <f>CONCATENATE(1+SUM(O27:O30)," + str")</f>
         <v>1 + str</v>
       </c>
-      <c r="P26" s="236"/>
-      <c r="Q26" s="273" t="s">
+      <c r="P26" s="224"/>
+      <c r="Q26" s="261" t="s">
         <v>75</v>
       </c>
-      <c r="R26" s="274">
+      <c r="R26" s="262">
         <v>3</v>
       </c>
-      <c r="S26" s="274">
+      <c r="S26" s="262">
         <v>4</v>
       </c>
     </row>
     <row r="27" ht="15" hidden="1" customHeight="1" outlineLevel="1" spans="1:17">
-      <c r="A27" s="176"/>
-      <c r="B27" s="177"/>
-      <c r="C27" s="178"/>
-      <c r="D27" s="179"/>
-      <c r="E27" s="180"/>
-      <c r="F27" s="181"/>
-      <c r="G27" s="181"/>
-      <c r="H27" s="182"/>
-      <c r="I27" s="111"/>
-      <c r="J27" s="240"/>
-      <c r="K27" s="241"/>
-      <c r="L27" s="152"/>
-      <c r="M27" s="242"/>
-      <c r="N27" s="186" t="s">
+      <c r="A27" s="164"/>
+      <c r="B27" s="165"/>
+      <c r="C27" s="166"/>
+      <c r="D27" s="167"/>
+      <c r="E27" s="168"/>
+      <c r="F27" s="169"/>
+      <c r="G27" s="169"/>
+      <c r="H27" s="170"/>
+      <c r="I27" s="102"/>
+      <c r="J27" s="228"/>
+      <c r="K27" s="229"/>
+      <c r="L27" s="140"/>
+      <c r="M27" s="230"/>
+      <c r="N27" s="174" t="s">
         <v>62</v>
       </c>
-      <c r="O27" s="200" t="s">
+      <c r="O27" s="188" t="s">
         <v>62</v>
       </c>
-      <c r="P27" s="245" t="s">
+      <c r="P27" s="233" t="s">
         <v>76</v>
       </c>
-      <c r="Q27" s="275"/>
+      <c r="Q27" s="263"/>
     </row>
     <row r="28" ht="15" hidden="1" customHeight="1" outlineLevel="1" spans="1:17">
-      <c r="A28" s="185"/>
-      <c r="B28" s="186"/>
-      <c r="C28" s="200"/>
-      <c r="D28" s="201" t="s">
+      <c r="A28" s="173"/>
+      <c r="B28" s="174"/>
+      <c r="C28" s="188"/>
+      <c r="D28" s="189" t="s">
         <v>43</v>
       </c>
-      <c r="E28" s="189"/>
-      <c r="F28" s="190"/>
-      <c r="G28" s="190"/>
-      <c r="H28" s="191"/>
-      <c r="I28" s="111"/>
-      <c r="J28" s="240"/>
-      <c r="K28" s="152"/>
-      <c r="L28" s="152"/>
-      <c r="M28" s="244" t="s">
+      <c r="E28" s="177"/>
+      <c r="F28" s="178"/>
+      <c r="G28" s="178"/>
+      <c r="H28" s="179"/>
+      <c r="I28" s="102"/>
+      <c r="J28" s="228"/>
+      <c r="K28" s="140"/>
+      <c r="L28" s="140"/>
+      <c r="M28" s="232" t="s">
         <v>77</v>
       </c>
-      <c r="N28" s="186"/>
-      <c r="O28" s="200"/>
-      <c r="P28" s="245"/>
-      <c r="Q28" s="276"/>
+      <c r="N28" s="174"/>
+      <c r="O28" s="188"/>
+      <c r="P28" s="233"/>
+      <c r="Q28" s="264"/>
     </row>
     <row r="29" ht="15" hidden="1" customHeight="1" outlineLevel="1" spans="1:17">
-      <c r="A29" s="185"/>
-      <c r="B29" s="186"/>
-      <c r="C29" s="200" t="s">
+      <c r="A29" s="173"/>
+      <c r="B29" s="174"/>
+      <c r="C29" s="188" t="s">
         <v>43</v>
       </c>
-      <c r="D29" s="201"/>
-      <c r="E29" s="189"/>
-      <c r="F29" s="190"/>
-      <c r="G29" s="190"/>
-      <c r="H29" s="191"/>
-      <c r="I29" s="111"/>
-      <c r="J29" s="240"/>
-      <c r="K29" s="152"/>
-      <c r="L29" s="152" t="s">
+      <c r="D29" s="189"/>
+      <c r="E29" s="177"/>
+      <c r="F29" s="178"/>
+      <c r="G29" s="178"/>
+      <c r="H29" s="179"/>
+      <c r="I29" s="102"/>
+      <c r="J29" s="228"/>
+      <c r="K29" s="140"/>
+      <c r="L29" s="140" t="s">
         <v>78</v>
       </c>
-      <c r="M29" s="244" t="s">
+      <c r="M29" s="232" t="s">
         <v>79</v>
       </c>
-      <c r="N29" s="186"/>
-      <c r="O29" s="200"/>
-      <c r="P29" s="245"/>
-      <c r="Q29" s="276"/>
+      <c r="N29" s="174"/>
+      <c r="O29" s="188"/>
+      <c r="P29" s="233"/>
+      <c r="Q29" s="264"/>
     </row>
     <row r="30" ht="15" hidden="1" customHeight="1" outlineLevel="1" spans="1:17">
-      <c r="A30" s="202"/>
-      <c r="B30" s="203" t="s">
+      <c r="A30" s="190"/>
+      <c r="B30" s="191" t="s">
         <v>43</v>
       </c>
-      <c r="C30" s="217"/>
-      <c r="D30" s="205"/>
-      <c r="E30" s="206"/>
-      <c r="F30" s="207"/>
-      <c r="G30" s="207"/>
-      <c r="H30" s="208"/>
-      <c r="I30" s="111"/>
-      <c r="J30" s="240"/>
-      <c r="K30" s="250"/>
-      <c r="L30" s="152" t="s">
+      <c r="C30" s="205"/>
+      <c r="D30" s="193"/>
+      <c r="E30" s="194"/>
+      <c r="F30" s="195"/>
+      <c r="G30" s="195"/>
+      <c r="H30" s="196"/>
+      <c r="I30" s="102"/>
+      <c r="J30" s="228"/>
+      <c r="K30" s="238"/>
+      <c r="L30" s="140" t="s">
         <v>78</v>
       </c>
-      <c r="M30" s="244" t="s">
+      <c r="M30" s="232" t="s">
         <v>80</v>
       </c>
-      <c r="N30" s="203"/>
-      <c r="O30" s="217"/>
-      <c r="P30" s="252"/>
-      <c r="Q30" s="278"/>
-    </row>
-    <row r="31" s="33" customFormat="1" collapsed="1" spans="1:19">
-      <c r="A31" s="172" t="s">
+      <c r="N30" s="191"/>
+      <c r="O30" s="205"/>
+      <c r="P30" s="240"/>
+      <c r="Q30" s="266"/>
+    </row>
+    <row r="31" s="30" customFormat="1" collapsed="1" spans="1:19">
+      <c r="A31" s="160" t="s">
         <v>40</v>
       </c>
-      <c r="B31" s="173" t="str">
+      <c r="B31" s="161" t="str">
         <f>IF(COUNTA(B32:B34)&gt;0,"z","")</f>
         <v/>
       </c>
-      <c r="C31" s="174" t="str">
+      <c r="C31" s="162" t="str">
         <f>IF(COUNTA(C32:C34)&gt;0,"y","")</f>
         <v/>
       </c>
-      <c r="D31" s="175" t="str">
+      <c r="D31" s="163" t="str">
         <f>IF(COUNTA(D32:D34)&gt;0,"x","")</f>
         <v/>
       </c>
-      <c r="E31" s="173">
-        <v>1</v>
-      </c>
-      <c r="F31" s="174">
-        <v>1</v>
-      </c>
-      <c r="G31" s="174">
-        <v>1</v>
-      </c>
-      <c r="H31" s="175">
-        <v>0</v>
-      </c>
-      <c r="I31" s="231">
+      <c r="E31" s="161">
+        <v>1</v>
+      </c>
+      <c r="F31" s="162">
+        <v>1</v>
+      </c>
+      <c r="G31" s="162">
+        <v>1</v>
+      </c>
+      <c r="H31" s="163">
+        <v>0</v>
+      </c>
+      <c r="I31" s="219">
         <f>SUM(E31*8,F31*4,G31*2,H31)</f>
         <v>14</v>
       </c>
-      <c r="J31" s="232" t="str">
+      <c r="J31" s="220" t="str">
         <f>IF(I31&lt;=9,I31,CHAR(I31-10+CODE("A")))</f>
         <v>E</v>
       </c>
-      <c r="K31" s="233"/>
-      <c r="L31" s="234"/>
-      <c r="M31" s="235"/>
-      <c r="N31" s="238"/>
-      <c r="O31" s="239"/>
-      <c r="P31" s="236"/>
-      <c r="Q31" s="273"/>
-      <c r="R31" s="274"/>
-      <c r="S31" s="274"/>
+      <c r="K31" s="221"/>
+      <c r="L31" s="222"/>
+      <c r="M31" s="223"/>
+      <c r="N31" s="226"/>
+      <c r="O31" s="227"/>
+      <c r="P31" s="224"/>
+      <c r="Q31" s="261"/>
+      <c r="R31" s="262"/>
+      <c r="S31" s="262"/>
     </row>
     <row r="32" s="12" customFormat="1" ht="15" hidden="1" customHeight="1" outlineLevel="1" spans="1:19">
-      <c r="A32" s="176"/>
-      <c r="B32" s="177"/>
-      <c r="C32" s="178"/>
-      <c r="D32" s="179"/>
-      <c r="E32" s="180"/>
-      <c r="F32" s="181"/>
-      <c r="G32" s="181"/>
-      <c r="H32" s="182"/>
-      <c r="I32" s="111"/>
-      <c r="J32" s="240"/>
-      <c r="K32" s="241"/>
-      <c r="L32" s="241"/>
-      <c r="M32" s="242"/>
-      <c r="N32" s="224"/>
-      <c r="O32" s="183"/>
-      <c r="P32" s="243"/>
-      <c r="Q32" s="275"/>
-      <c r="R32" s="161"/>
-      <c r="S32" s="161"/>
+      <c r="A32" s="164"/>
+      <c r="B32" s="165"/>
+      <c r="C32" s="166"/>
+      <c r="D32" s="167"/>
+      <c r="E32" s="168"/>
+      <c r="F32" s="169"/>
+      <c r="G32" s="169"/>
+      <c r="H32" s="170"/>
+      <c r="I32" s="102"/>
+      <c r="J32" s="228"/>
+      <c r="K32" s="229"/>
+      <c r="L32" s="229"/>
+      <c r="M32" s="230"/>
+      <c r="N32" s="212"/>
+      <c r="O32" s="171"/>
+      <c r="P32" s="231"/>
+      <c r="Q32" s="263"/>
+      <c r="R32" s="149"/>
+      <c r="S32" s="149"/>
     </row>
     <row r="33" s="12" customFormat="1" ht="15" hidden="1" customHeight="1" outlineLevel="1" spans="1:19">
-      <c r="A33" s="176"/>
-      <c r="B33" s="177"/>
-      <c r="C33" s="183"/>
-      <c r="D33" s="184"/>
-      <c r="E33" s="180"/>
-      <c r="F33" s="181"/>
-      <c r="G33" s="181"/>
-      <c r="H33" s="182"/>
-      <c r="I33" s="111"/>
-      <c r="J33" s="240"/>
-      <c r="K33" s="241"/>
-      <c r="L33" s="241"/>
-      <c r="M33" s="242"/>
-      <c r="N33" s="224"/>
-      <c r="O33" s="183"/>
-      <c r="P33" s="243"/>
-      <c r="Q33" s="275"/>
-      <c r="R33" s="161"/>
-      <c r="S33" s="161"/>
+      <c r="A33" s="164"/>
+      <c r="B33" s="165"/>
+      <c r="C33" s="171"/>
+      <c r="D33" s="172"/>
+      <c r="E33" s="168"/>
+      <c r="F33" s="169"/>
+      <c r="G33" s="169"/>
+      <c r="H33" s="170"/>
+      <c r="I33" s="102"/>
+      <c r="J33" s="228"/>
+      <c r="K33" s="229"/>
+      <c r="L33" s="229"/>
+      <c r="M33" s="230"/>
+      <c r="N33" s="212"/>
+      <c r="O33" s="171"/>
+      <c r="P33" s="231"/>
+      <c r="Q33" s="263"/>
+      <c r="R33" s="149"/>
+      <c r="S33" s="149"/>
     </row>
     <row r="34" s="12" customFormat="1" ht="15" hidden="1" customHeight="1" outlineLevel="1" spans="1:19">
-      <c r="A34" s="202"/>
-      <c r="B34" s="203"/>
-      <c r="C34" s="204"/>
-      <c r="D34" s="205"/>
-      <c r="E34" s="206"/>
-      <c r="F34" s="207"/>
-      <c r="G34" s="207"/>
-      <c r="H34" s="208"/>
-      <c r="I34" s="111"/>
-      <c r="J34" s="240"/>
-      <c r="K34" s="250"/>
-      <c r="L34" s="250"/>
-      <c r="M34" s="251"/>
-      <c r="N34" s="203"/>
-      <c r="O34" s="217"/>
-      <c r="P34" s="252"/>
-      <c r="Q34" s="278"/>
-      <c r="R34" s="161"/>
-      <c r="S34" s="161"/>
-    </row>
-    <row r="35" s="158" customFormat="1" collapsed="1" spans="1:19">
-      <c r="A35" s="172" t="s">
+      <c r="A34" s="190"/>
+      <c r="B34" s="191"/>
+      <c r="C34" s="192"/>
+      <c r="D34" s="193"/>
+      <c r="E34" s="194"/>
+      <c r="F34" s="195"/>
+      <c r="G34" s="195"/>
+      <c r="H34" s="196"/>
+      <c r="I34" s="102"/>
+      <c r="J34" s="228"/>
+      <c r="K34" s="238"/>
+      <c r="L34" s="238"/>
+      <c r="M34" s="239"/>
+      <c r="N34" s="191"/>
+      <c r="O34" s="205"/>
+      <c r="P34" s="240"/>
+      <c r="Q34" s="266"/>
+      <c r="R34" s="149"/>
+      <c r="S34" s="149"/>
+    </row>
+    <row r="35" s="146" customFormat="1" collapsed="1" spans="1:19">
+      <c r="A35" s="160" t="s">
         <v>40</v>
       </c>
-      <c r="B35" s="173" t="str">
+      <c r="B35" s="161" t="str">
         <f>IF(COUNTA(B36)&gt;0,"z","")</f>
         <v/>
       </c>
-      <c r="C35" s="174" t="str">
+      <c r="C35" s="162" t="str">
         <f>IF(COUNTA(C36)&gt;0,"y","")</f>
         <v/>
       </c>
-      <c r="D35" s="175" t="str">
+      <c r="D35" s="163" t="str">
         <f>IF(COUNTA(D36)&gt;0,"x","")</f>
         <v/>
       </c>
-      <c r="E35" s="173">
-        <v>0</v>
-      </c>
-      <c r="F35" s="174">
-        <v>0</v>
-      </c>
-      <c r="G35" s="174">
-        <v>0</v>
-      </c>
-      <c r="H35" s="175">
-        <v>1</v>
-      </c>
-      <c r="I35" s="231">
+      <c r="E35" s="161">
+        <v>0</v>
+      </c>
+      <c r="F35" s="162">
+        <v>0</v>
+      </c>
+      <c r="G35" s="162">
+        <v>0</v>
+      </c>
+      <c r="H35" s="163">
+        <v>1</v>
+      </c>
+      <c r="I35" s="219">
         <f>SUM(E35*8,F35*4,G35*2,H35)</f>
         <v>1</v>
       </c>
-      <c r="J35" s="232">
+      <c r="J35" s="220">
         <f>IF(I35&lt;=9,I35,CHAR(I35-10+CODE("A")))</f>
         <v>1</v>
       </c>
-      <c r="K35" s="233" t="s">
+      <c r="K35" s="221" t="s">
         <v>81</v>
       </c>
-      <c r="L35" s="234"/>
-      <c r="M35" s="235"/>
-      <c r="N35" s="238">
+      <c r="L35" s="222"/>
+      <c r="M35" s="223"/>
+      <c r="N35" s="226">
         <f>1+SUM(N36)</f>
         <v>5</v>
       </c>
-      <c r="O35" s="239">
+      <c r="O35" s="227">
         <f>1+SUM(O36)</f>
         <v>5</v>
       </c>
-      <c r="P35" s="236"/>
-      <c r="Q35" s="273" t="s">
+      <c r="P35" s="224"/>
+      <c r="Q35" s="261" t="s">
         <v>82</v>
       </c>
-      <c r="R35" s="274">
+      <c r="R35" s="262">
         <v>3</v>
       </c>
-      <c r="S35" s="274">
+      <c r="S35" s="262">
         <v>0</v>
       </c>
     </row>
     <row r="36" ht="15" hidden="1" customHeight="1" outlineLevel="1" spans="1:17">
-      <c r="A36" s="202"/>
-      <c r="B36" s="216"/>
-      <c r="C36" s="204"/>
-      <c r="D36" s="218"/>
-      <c r="E36" s="206"/>
-      <c r="F36" s="207"/>
-      <c r="G36" s="207"/>
-      <c r="H36" s="208"/>
-      <c r="I36" s="111"/>
-      <c r="J36" s="240"/>
-      <c r="K36" s="250"/>
-      <c r="L36" s="250"/>
-      <c r="M36" s="251"/>
-      <c r="N36" s="203">
+      <c r="A36" s="190"/>
+      <c r="B36" s="204"/>
+      <c r="C36" s="192"/>
+      <c r="D36" s="206"/>
+      <c r="E36" s="194"/>
+      <c r="F36" s="195"/>
+      <c r="G36" s="195"/>
+      <c r="H36" s="196"/>
+      <c r="I36" s="102"/>
+      <c r="J36" s="228"/>
+      <c r="K36" s="238"/>
+      <c r="L36" s="238"/>
+      <c r="M36" s="239"/>
+      <c r="N36" s="191">
         <v>4</v>
       </c>
-      <c r="O36" s="217">
+      <c r="O36" s="205">
         <v>4</v>
       </c>
-      <c r="P36" s="252" t="s">
+      <c r="P36" s="240" t="s">
         <v>83</v>
       </c>
-      <c r="Q36" s="278"/>
-    </row>
-    <row r="37" s="158" customFormat="1" collapsed="1" spans="1:19">
-      <c r="A37" s="172" t="s">
+      <c r="Q36" s="266"/>
+    </row>
+    <row r="37" s="146" customFormat="1" collapsed="1" spans="1:19">
+      <c r="A37" s="160" t="s">
         <v>40</v>
       </c>
-      <c r="B37" s="173" t="str">
+      <c r="B37" s="161" t="str">
         <f>IF(COUNTA(B38:B42)&gt;0,"z","")</f>
         <v>z</v>
       </c>
-      <c r="C37" s="174" t="str">
+      <c r="C37" s="162" t="str">
         <f>IF(COUNTA(C38:C42)&gt;0,"y","")</f>
         <v>y</v>
       </c>
-      <c r="D37" s="175" t="str">
+      <c r="D37" s="163" t="str">
         <f>IF(COUNTA(D38:D42)&gt;0,"x","")</f>
         <v>x</v>
       </c>
-      <c r="E37" s="173">
-        <v>1</v>
-      </c>
-      <c r="F37" s="174">
-        <v>0</v>
-      </c>
-      <c r="G37" s="174">
-        <v>0</v>
-      </c>
-      <c r="H37" s="175">
-        <v>1</v>
-      </c>
-      <c r="I37" s="231">
+      <c r="E37" s="161">
+        <v>1</v>
+      </c>
+      <c r="F37" s="162">
+        <v>0</v>
+      </c>
+      <c r="G37" s="162">
+        <v>0</v>
+      </c>
+      <c r="H37" s="163">
+        <v>1</v>
+      </c>
+      <c r="I37" s="219">
         <f>SUM(E37*8,F37*4,G37*2,H37)</f>
         <v>9</v>
       </c>
-      <c r="J37" s="232">
+      <c r="J37" s="220">
         <f>IF(I37&lt;=9,I37,CHAR(I37-10+CODE("A")))</f>
         <v>9</v>
       </c>
-      <c r="K37" s="233" t="s">
+      <c r="K37" s="221" t="s">
         <v>84</v>
       </c>
-      <c r="L37" s="233"/>
-      <c r="M37" s="237"/>
-      <c r="N37" s="238">
+      <c r="L37" s="221"/>
+      <c r="M37" s="225"/>
+      <c r="N37" s="226">
         <v>5</v>
       </c>
-      <c r="O37" s="239" t="s">
+      <c r="O37" s="227" t="s">
         <v>85</v>
       </c>
-      <c r="P37" s="236"/>
-      <c r="Q37" s="273" t="s">
+      <c r="P37" s="224"/>
+      <c r="Q37" s="261" t="s">
         <v>82</v>
       </c>
-      <c r="R37" s="274">
+      <c r="R37" s="262">
         <v>3</v>
       </c>
-      <c r="S37" s="274">
+      <c r="S37" s="262">
         <v>4</v>
       </c>
     </row>
     <row r="38" ht="15" hidden="1" customHeight="1" outlineLevel="1" spans="1:17">
-      <c r="A38" s="176"/>
-      <c r="B38" s="177"/>
-      <c r="C38" s="183"/>
-      <c r="D38" s="179" t="s">
+      <c r="A38" s="164"/>
+      <c r="B38" s="165"/>
+      <c r="C38" s="171"/>
+      <c r="D38" s="167" t="s">
         <v>43</v>
       </c>
-      <c r="E38" s="180"/>
-      <c r="F38" s="181"/>
-      <c r="G38" s="181"/>
-      <c r="H38" s="182"/>
-      <c r="I38" s="111"/>
-      <c r="J38" s="240"/>
-      <c r="K38" s="241"/>
-      <c r="L38" s="266"/>
-      <c r="M38" s="267" t="s">
+      <c r="E38" s="168"/>
+      <c r="F38" s="169"/>
+      <c r="G38" s="169"/>
+      <c r="H38" s="170"/>
+      <c r="I38" s="102"/>
+      <c r="J38" s="228"/>
+      <c r="K38" s="229"/>
+      <c r="L38" s="254"/>
+      <c r="M38" s="255" t="s">
         <v>86</v>
       </c>
-      <c r="N38" s="177"/>
-      <c r="O38" s="183"/>
-      <c r="P38" s="243"/>
-      <c r="Q38" s="275"/>
+      <c r="N38" s="165"/>
+      <c r="O38" s="171"/>
+      <c r="P38" s="231"/>
+      <c r="Q38" s="263"/>
     </row>
     <row r="39" ht="15" hidden="1" customHeight="1" outlineLevel="1" spans="1:17">
-      <c r="A39" s="185"/>
-      <c r="B39" s="199"/>
-      <c r="C39" s="200" t="s">
+      <c r="A39" s="173"/>
+      <c r="B39" s="187"/>
+      <c r="C39" s="188" t="s">
         <v>43</v>
       </c>
-      <c r="D39" s="201"/>
-      <c r="E39" s="189"/>
-      <c r="F39" s="190"/>
-      <c r="G39" s="190"/>
-      <c r="H39" s="191"/>
-      <c r="I39" s="111"/>
-      <c r="J39" s="240"/>
-      <c r="K39" s="152"/>
-      <c r="L39" s="152"/>
-      <c r="M39" s="244" t="s">
+      <c r="D39" s="189"/>
+      <c r="E39" s="177"/>
+      <c r="F39" s="178"/>
+      <c r="G39" s="178"/>
+      <c r="H39" s="179"/>
+      <c r="I39" s="102"/>
+      <c r="J39" s="228"/>
+      <c r="K39" s="140"/>
+      <c r="L39" s="140"/>
+      <c r="M39" s="232" t="s">
         <v>87</v>
       </c>
-      <c r="N39" s="186"/>
-      <c r="O39" s="200" t="s">
+      <c r="N39" s="174"/>
+      <c r="O39" s="188" t="s">
         <v>62</v>
       </c>
-      <c r="P39" s="245" t="s">
+      <c r="P39" s="233" t="s">
         <v>88</v>
       </c>
-      <c r="Q39" s="276"/>
+      <c r="Q39" s="264"/>
     </row>
     <row r="40" ht="15" hidden="1" customHeight="1" outlineLevel="1" spans="1:17">
-      <c r="A40" s="185"/>
-      <c r="B40" s="199"/>
-      <c r="C40" s="200"/>
-      <c r="D40" s="201"/>
-      <c r="E40" s="189"/>
-      <c r="F40" s="190"/>
-      <c r="G40" s="190"/>
-      <c r="H40" s="191"/>
-      <c r="I40" s="111"/>
-      <c r="J40" s="240"/>
-      <c r="K40" s="152"/>
-      <c r="L40" s="152" t="s">
+      <c r="A40" s="173"/>
+      <c r="B40" s="187"/>
+      <c r="C40" s="188"/>
+      <c r="D40" s="189"/>
+      <c r="E40" s="177"/>
+      <c r="F40" s="178"/>
+      <c r="G40" s="178"/>
+      <c r="H40" s="179"/>
+      <c r="I40" s="102"/>
+      <c r="J40" s="228"/>
+      <c r="K40" s="140"/>
+      <c r="L40" s="140" t="s">
         <v>89</v>
       </c>
-      <c r="M40" s="244"/>
-      <c r="N40" s="199"/>
-      <c r="O40" s="200">
+      <c r="M40" s="232"/>
+      <c r="N40" s="187"/>
+      <c r="O40" s="188">
         <v>4</v>
       </c>
-      <c r="P40" s="245" t="s">
+      <c r="P40" s="233" t="s">
         <v>90</v>
       </c>
-      <c r="Q40" s="276"/>
+      <c r="Q40" s="264"/>
     </row>
     <row r="41" ht="15" hidden="1" customHeight="1" outlineLevel="1" spans="1:17">
-      <c r="A41" s="185"/>
-      <c r="B41" s="199"/>
-      <c r="C41" s="200"/>
-      <c r="D41" s="201"/>
-      <c r="E41" s="189"/>
-      <c r="F41" s="190"/>
-      <c r="G41" s="190"/>
-      <c r="H41" s="191"/>
-      <c r="I41" s="111"/>
-      <c r="J41" s="240"/>
-      <c r="K41" s="152"/>
-      <c r="L41" s="152" t="s">
+      <c r="A41" s="173"/>
+      <c r="B41" s="187"/>
+      <c r="C41" s="188"/>
+      <c r="D41" s="189"/>
+      <c r="E41" s="177"/>
+      <c r="F41" s="178"/>
+      <c r="G41" s="178"/>
+      <c r="H41" s="179"/>
+      <c r="I41" s="102"/>
+      <c r="J41" s="228"/>
+      <c r="K41" s="140"/>
+      <c r="L41" s="140" t="s">
         <v>91</v>
       </c>
-      <c r="M41" s="244"/>
-      <c r="N41" s="199"/>
-      <c r="O41" s="200">
+      <c r="M41" s="232"/>
+      <c r="N41" s="187"/>
+      <c r="O41" s="188">
         <v>16</v>
       </c>
-      <c r="P41" s="245" t="s">
+      <c r="P41" s="233" t="s">
         <v>92</v>
       </c>
-      <c r="Q41" s="276"/>
+      <c r="Q41" s="264"/>
     </row>
     <row r="42" ht="15" hidden="1" customHeight="1" outlineLevel="1" spans="1:17">
-      <c r="A42" s="202"/>
-      <c r="B42" s="203" t="s">
+      <c r="A42" s="190"/>
+      <c r="B42" s="191" t="s">
         <v>43</v>
       </c>
-      <c r="C42" s="217"/>
-      <c r="D42" s="218"/>
-      <c r="E42" s="206"/>
-      <c r="F42" s="207"/>
-      <c r="G42" s="207"/>
-      <c r="H42" s="208"/>
-      <c r="I42" s="111"/>
-      <c r="J42" s="240"/>
-      <c r="K42" s="250"/>
-      <c r="L42" s="250"/>
-      <c r="M42" s="251" t="s">
+      <c r="C42" s="205"/>
+      <c r="D42" s="206"/>
+      <c r="E42" s="194"/>
+      <c r="F42" s="195"/>
+      <c r="G42" s="195"/>
+      <c r="H42" s="196"/>
+      <c r="I42" s="102"/>
+      <c r="J42" s="228"/>
+      <c r="K42" s="238"/>
+      <c r="L42" s="238"/>
+      <c r="M42" s="239" t="s">
         <v>93</v>
       </c>
-      <c r="N42" s="216"/>
-      <c r="O42" s="217">
+      <c r="N42" s="204"/>
+      <c r="O42" s="205">
         <v>2</v>
       </c>
-      <c r="P42" s="252" t="s">
+      <c r="P42" s="240" t="s">
         <v>94</v>
       </c>
-      <c r="Q42" s="278"/>
-    </row>
-    <row r="43" s="158" customFormat="1" collapsed="1" spans="1:19">
-      <c r="A43" s="172" t="s">
+      <c r="Q42" s="266"/>
+    </row>
+    <row r="43" s="146" customFormat="1" collapsed="1" spans="1:19">
+      <c r="A43" s="160" t="s">
         <v>40</v>
       </c>
-      <c r="B43" s="173" t="str">
+      <c r="B43" s="161" t="str">
         <f>IF(COUNTA(B44)&gt;0,"z","")</f>
         <v/>
       </c>
-      <c r="C43" s="174" t="str">
+      <c r="C43" s="162" t="str">
         <f>IF(COUNTA(C44)&gt;0,"y","")</f>
         <v/>
       </c>
-      <c r="D43" s="175" t="str">
+      <c r="D43" s="163" t="str">
         <f>IF(COUNTA(D44)&gt;0,"x","")</f>
         <v/>
       </c>
-      <c r="E43" s="173">
-        <v>0</v>
-      </c>
-      <c r="F43" s="174">
-        <v>1</v>
-      </c>
-      <c r="G43" s="174">
-        <v>0</v>
-      </c>
-      <c r="H43" s="175">
-        <v>1</v>
-      </c>
-      <c r="I43" s="231">
+      <c r="E43" s="161">
+        <v>0</v>
+      </c>
+      <c r="F43" s="162">
+        <v>1</v>
+      </c>
+      <c r="G43" s="162">
+        <v>0</v>
+      </c>
+      <c r="H43" s="163">
+        <v>1</v>
+      </c>
+      <c r="I43" s="219">
         <f>SUM(E43*8,F43*4,G43*2,H43)</f>
         <v>5</v>
       </c>
-      <c r="J43" s="232">
+      <c r="J43" s="220">
         <f>IF(I43&lt;=9,I43,CHAR(I43-10+CODE("A")))</f>
         <v>5</v>
       </c>
-      <c r="K43" s="237"/>
-      <c r="L43" s="234"/>
-      <c r="M43" s="235"/>
-      <c r="N43" s="238"/>
-      <c r="O43" s="239"/>
-      <c r="P43" s="268"/>
-      <c r="Q43" s="273"/>
-      <c r="R43" s="274"/>
-      <c r="S43" s="274"/>
+      <c r="K43" s="225"/>
+      <c r="L43" s="222"/>
+      <c r="M43" s="223"/>
+      <c r="N43" s="226"/>
+      <c r="O43" s="227"/>
+      <c r="P43" s="256"/>
+      <c r="Q43" s="261"/>
+      <c r="R43" s="262"/>
+      <c r="S43" s="262"/>
     </row>
     <row r="44" ht="15" hidden="1" customHeight="1" outlineLevel="1" spans="1:17">
-      <c r="A44" s="202"/>
-      <c r="B44" s="203"/>
-      <c r="C44" s="217"/>
-      <c r="D44" s="218"/>
-      <c r="E44" s="206"/>
-      <c r="F44" s="207"/>
-      <c r="G44" s="207"/>
-      <c r="H44" s="208"/>
-      <c r="I44" s="111"/>
-      <c r="J44" s="240"/>
-      <c r="K44" s="269"/>
-      <c r="L44" s="250"/>
-      <c r="M44" s="251"/>
-      <c r="N44" s="216"/>
-      <c r="O44" s="204"/>
-      <c r="P44" s="270"/>
-      <c r="Q44" s="278"/>
-    </row>
-    <row r="45" s="158" customFormat="1" collapsed="1" spans="1:19">
-      <c r="A45" s="172" t="s">
+      <c r="A44" s="190"/>
+      <c r="B44" s="191"/>
+      <c r="C44" s="205"/>
+      <c r="D44" s="206"/>
+      <c r="E44" s="194"/>
+      <c r="F44" s="195"/>
+      <c r="G44" s="195"/>
+      <c r="H44" s="196"/>
+      <c r="I44" s="102"/>
+      <c r="J44" s="228"/>
+      <c r="K44" s="257"/>
+      <c r="L44" s="238"/>
+      <c r="M44" s="239"/>
+      <c r="N44" s="204"/>
+      <c r="O44" s="192"/>
+      <c r="P44" s="258"/>
+      <c r="Q44" s="266"/>
+    </row>
+    <row r="45" s="146" customFormat="1" collapsed="1" spans="1:19">
+      <c r="A45" s="160" t="s">
         <v>40</v>
       </c>
-      <c r="B45" s="173" t="str">
+      <c r="B45" s="161" t="str">
         <f>IF(COUNTA(B46:B50)&gt;0,"z","")</f>
         <v/>
       </c>
-      <c r="C45" s="174" t="str">
+      <c r="C45" s="162" t="str">
         <f>IF(COUNTA(C46:C50)&gt;0,"y","")</f>
         <v/>
       </c>
-      <c r="D45" s="175" t="str">
+      <c r="D45" s="163" t="str">
         <f>IF(COUNTA(D46:D50)&gt;0,"x","")</f>
         <v/>
       </c>
-      <c r="E45" s="173">
-        <v>1</v>
-      </c>
-      <c r="F45" s="174">
-        <v>1</v>
-      </c>
-      <c r="G45" s="174">
-        <v>0</v>
-      </c>
-      <c r="H45" s="175">
-        <v>1</v>
-      </c>
-      <c r="I45" s="231">
+      <c r="E45" s="161">
+        <v>1</v>
+      </c>
+      <c r="F45" s="162">
+        <v>1</v>
+      </c>
+      <c r="G45" s="162">
+        <v>0</v>
+      </c>
+      <c r="H45" s="163">
+        <v>1</v>
+      </c>
+      <c r="I45" s="219">
         <f>SUM(E45*8,F45*4,G45*2,H45)</f>
         <v>13</v>
       </c>
-      <c r="J45" s="232" t="str">
+      <c r="J45" s="220" t="str">
         <f>IF(I45&lt;=9,I45,CHAR(I45-10+CODE("A")))</f>
         <v>D</v>
       </c>
-      <c r="K45" s="233"/>
-      <c r="L45" s="234"/>
-      <c r="M45" s="235"/>
-      <c r="N45" s="238"/>
-      <c r="O45" s="239"/>
-      <c r="P45" s="236"/>
-      <c r="Q45" s="273"/>
-      <c r="R45" s="274"/>
-      <c r="S45" s="274"/>
+      <c r="K45" s="221"/>
+      <c r="L45" s="222"/>
+      <c r="M45" s="223"/>
+      <c r="N45" s="226"/>
+      <c r="O45" s="227"/>
+      <c r="P45" s="224"/>
+      <c r="Q45" s="261"/>
+      <c r="R45" s="262"/>
+      <c r="S45" s="262"/>
     </row>
     <row r="46" ht="15" hidden="1" customHeight="1" outlineLevel="1" spans="1:17">
-      <c r="A46" s="185"/>
-      <c r="B46" s="199"/>
-      <c r="C46" s="200"/>
-      <c r="D46" s="201"/>
-      <c r="E46" s="189"/>
-      <c r="F46" s="190"/>
-      <c r="G46" s="190"/>
-      <c r="H46" s="191"/>
-      <c r="I46" s="111"/>
-      <c r="J46" s="240"/>
-      <c r="K46" s="152"/>
-      <c r="L46" s="152"/>
-      <c r="M46" s="244"/>
-      <c r="N46" s="186"/>
-      <c r="O46" s="200"/>
-      <c r="P46" s="245"/>
-      <c r="Q46" s="276"/>
+      <c r="A46" s="173"/>
+      <c r="B46" s="187"/>
+      <c r="C46" s="188"/>
+      <c r="D46" s="189"/>
+      <c r="E46" s="177"/>
+      <c r="F46" s="178"/>
+      <c r="G46" s="178"/>
+      <c r="H46" s="179"/>
+      <c r="I46" s="102"/>
+      <c r="J46" s="228"/>
+      <c r="K46" s="140"/>
+      <c r="L46" s="140"/>
+      <c r="M46" s="232"/>
+      <c r="N46" s="174"/>
+      <c r="O46" s="188"/>
+      <c r="P46" s="233"/>
+      <c r="Q46" s="264"/>
     </row>
     <row r="47" ht="15" hidden="1" customHeight="1" outlineLevel="1" spans="1:17">
-      <c r="A47" s="185"/>
-      <c r="B47" s="199"/>
-      <c r="C47" s="200"/>
-      <c r="D47" s="201"/>
-      <c r="E47" s="189"/>
-      <c r="F47" s="190"/>
-      <c r="G47" s="190"/>
-      <c r="H47" s="191"/>
-      <c r="I47" s="111"/>
-      <c r="J47" s="240"/>
-      <c r="K47" s="152"/>
-      <c r="L47" s="152"/>
-      <c r="M47" s="244"/>
-      <c r="N47" s="186"/>
-      <c r="O47" s="200"/>
-      <c r="P47" s="245"/>
-      <c r="Q47" s="276"/>
+      <c r="A47" s="173"/>
+      <c r="B47" s="187"/>
+      <c r="C47" s="188"/>
+      <c r="D47" s="189"/>
+      <c r="E47" s="177"/>
+      <c r="F47" s="178"/>
+      <c r="G47" s="178"/>
+      <c r="H47" s="179"/>
+      <c r="I47" s="102"/>
+      <c r="J47" s="228"/>
+      <c r="K47" s="140"/>
+      <c r="L47" s="140"/>
+      <c r="M47" s="232"/>
+      <c r="N47" s="174"/>
+      <c r="O47" s="188"/>
+      <c r="P47" s="233"/>
+      <c r="Q47" s="264"/>
     </row>
     <row r="48" ht="15" hidden="1" customHeight="1" outlineLevel="1" spans="1:17">
-      <c r="A48" s="185"/>
-      <c r="B48" s="199"/>
-      <c r="C48" s="200"/>
-      <c r="D48" s="201"/>
-      <c r="E48" s="189"/>
-      <c r="F48" s="190"/>
-      <c r="G48" s="190"/>
-      <c r="H48" s="191"/>
-      <c r="I48" s="111"/>
-      <c r="J48" s="240"/>
-      <c r="K48" s="152"/>
-      <c r="L48" s="152"/>
-      <c r="M48" s="244"/>
-      <c r="N48" s="186"/>
-      <c r="O48" s="200"/>
-      <c r="P48" s="245"/>
-      <c r="Q48" s="276"/>
+      <c r="A48" s="173"/>
+      <c r="B48" s="187"/>
+      <c r="C48" s="188"/>
+      <c r="D48" s="189"/>
+      <c r="E48" s="177"/>
+      <c r="F48" s="178"/>
+      <c r="G48" s="178"/>
+      <c r="H48" s="179"/>
+      <c r="I48" s="102"/>
+      <c r="J48" s="228"/>
+      <c r="K48" s="140"/>
+      <c r="L48" s="140"/>
+      <c r="M48" s="232"/>
+      <c r="N48" s="174"/>
+      <c r="O48" s="188"/>
+      <c r="P48" s="233"/>
+      <c r="Q48" s="264"/>
     </row>
     <row r="49" ht="15" hidden="1" customHeight="1" outlineLevel="1" spans="1:17">
-      <c r="A49" s="185"/>
-      <c r="B49" s="199"/>
-      <c r="C49" s="200"/>
-      <c r="D49" s="201"/>
-      <c r="E49" s="189"/>
-      <c r="F49" s="190"/>
-      <c r="G49" s="190"/>
-      <c r="H49" s="191"/>
-      <c r="I49" s="111"/>
-      <c r="J49" s="240"/>
-      <c r="K49" s="152"/>
-      <c r="L49" s="152"/>
-      <c r="M49" s="244"/>
-      <c r="N49" s="186"/>
-      <c r="O49" s="200"/>
-      <c r="P49" s="245"/>
-      <c r="Q49" s="276"/>
+      <c r="A49" s="173"/>
+      <c r="B49" s="187"/>
+      <c r="C49" s="188"/>
+      <c r="D49" s="189"/>
+      <c r="E49" s="177"/>
+      <c r="F49" s="178"/>
+      <c r="G49" s="178"/>
+      <c r="H49" s="179"/>
+      <c r="I49" s="102"/>
+      <c r="J49" s="228"/>
+      <c r="K49" s="140"/>
+      <c r="L49" s="140"/>
+      <c r="M49" s="232"/>
+      <c r="N49" s="174"/>
+      <c r="O49" s="188"/>
+      <c r="P49" s="233"/>
+      <c r="Q49" s="264"/>
     </row>
     <row r="50" ht="15" hidden="1" customHeight="1" outlineLevel="1" spans="1:17">
-      <c r="A50" s="202"/>
-      <c r="B50" s="203"/>
-      <c r="C50" s="204"/>
-      <c r="D50" s="205"/>
-      <c r="E50" s="206"/>
-      <c r="F50" s="207"/>
-      <c r="G50" s="207"/>
-      <c r="H50" s="208"/>
-      <c r="I50" s="111"/>
-      <c r="J50" s="240"/>
-      <c r="K50" s="250"/>
-      <c r="L50" s="250"/>
-      <c r="M50" s="251"/>
-      <c r="N50" s="216"/>
-      <c r="O50" s="204"/>
-      <c r="P50" s="252"/>
-      <c r="Q50" s="278"/>
-    </row>
-    <row r="51" s="158" customFormat="1" collapsed="1" spans="1:19">
-      <c r="A51" s="172" t="s">
+      <c r="A50" s="190"/>
+      <c r="B50" s="191"/>
+      <c r="C50" s="192"/>
+      <c r="D50" s="193"/>
+      <c r="E50" s="194"/>
+      <c r="F50" s="195"/>
+      <c r="G50" s="195"/>
+      <c r="H50" s="196"/>
+      <c r="I50" s="102"/>
+      <c r="J50" s="228"/>
+      <c r="K50" s="238"/>
+      <c r="L50" s="238"/>
+      <c r="M50" s="239"/>
+      <c r="N50" s="204"/>
+      <c r="O50" s="192"/>
+      <c r="P50" s="240"/>
+      <c r="Q50" s="266"/>
+    </row>
+    <row r="51" s="146" customFormat="1" collapsed="1" spans="1:19">
+      <c r="A51" s="160" t="s">
         <v>40</v>
       </c>
-      <c r="B51" s="173" t="str">
+      <c r="B51" s="161" t="str">
         <f>IF(COUNTA(B52:B59)&gt;0,"z","")</f>
         <v>z</v>
       </c>
-      <c r="C51" s="174" t="str">
+      <c r="C51" s="162" t="str">
         <f>IF(COUNTA(C52:C59)&gt;0,"y","")</f>
         <v>y</v>
       </c>
-      <c r="D51" s="175" t="str">
+      <c r="D51" s="163" t="str">
         <f>IF(COUNTA(D52:D59)&gt;0,"x","")</f>
         <v>x</v>
       </c>
-      <c r="E51" s="173">
-        <v>0</v>
-      </c>
-      <c r="F51" s="174">
-        <v>0</v>
-      </c>
-      <c r="G51" s="174">
-        <v>1</v>
-      </c>
-      <c r="H51" s="175">
-        <v>1</v>
-      </c>
-      <c r="I51" s="231">
+      <c r="E51" s="161">
+        <v>0</v>
+      </c>
+      <c r="F51" s="162">
+        <v>0</v>
+      </c>
+      <c r="G51" s="162">
+        <v>1</v>
+      </c>
+      <c r="H51" s="163">
+        <v>1</v>
+      </c>
+      <c r="I51" s="219">
         <f>SUM(E51*8,F51*4,G51*2,H51)</f>
         <v>3</v>
       </c>
-      <c r="J51" s="232">
+      <c r="J51" s="220">
         <f>IF(I51&lt;=9,I51,CHAR(I51-10+CODE("A")))</f>
         <v>3</v>
       </c>
-      <c r="K51" s="233" t="s">
+      <c r="K51" s="221" t="s">
         <v>95</v>
       </c>
-      <c r="L51" s="234"/>
-      <c r="M51" s="235"/>
-      <c r="N51" s="238">
+      <c r="L51" s="222"/>
+      <c r="M51" s="223"/>
+      <c r="N51" s="226">
         <v>9</v>
       </c>
-      <c r="O51" s="239">
+      <c r="O51" s="227">
         <v>9</v>
       </c>
-      <c r="P51" s="236"/>
-      <c r="Q51" s="273" t="s">
+      <c r="P51" s="224"/>
+      <c r="Q51" s="261" t="s">
         <v>42</v>
       </c>
-      <c r="R51" s="274">
+      <c r="R51" s="262">
         <v>3</v>
       </c>
-      <c r="S51" s="274">
+      <c r="S51" s="262">
         <v>4</v>
       </c>
     </row>
     <row r="52" ht="15" hidden="1" customHeight="1" outlineLevel="1" spans="1:17">
-      <c r="A52" s="176"/>
-      <c r="B52" s="224"/>
-      <c r="C52" s="183"/>
-      <c r="D52" s="179" t="s">
+      <c r="A52" s="164"/>
+      <c r="B52" s="212"/>
+      <c r="C52" s="171"/>
+      <c r="D52" s="167" t="s">
         <v>43</v>
       </c>
-      <c r="E52" s="180"/>
-      <c r="F52" s="181"/>
-      <c r="G52" s="181"/>
-      <c r="H52" s="182"/>
-      <c r="I52" s="111"/>
-      <c r="J52" s="240"/>
-      <c r="K52" s="241"/>
-      <c r="L52" s="241"/>
-      <c r="M52" s="242" t="s">
+      <c r="E52" s="168"/>
+      <c r="F52" s="169"/>
+      <c r="G52" s="169"/>
+      <c r="H52" s="170"/>
+      <c r="I52" s="102"/>
+      <c r="J52" s="228"/>
+      <c r="K52" s="229"/>
+      <c r="L52" s="229"/>
+      <c r="M52" s="230" t="s">
         <v>96</v>
       </c>
-      <c r="N52" s="177"/>
-      <c r="O52" s="178"/>
-      <c r="P52" s="243"/>
-      <c r="Q52" s="275"/>
+      <c r="N52" s="165"/>
+      <c r="O52" s="166"/>
+      <c r="P52" s="231"/>
+      <c r="Q52" s="263"/>
     </row>
     <row r="53" ht="15" hidden="1" customHeight="1" outlineLevel="1" spans="1:17">
-      <c r="A53" s="176"/>
-      <c r="B53" s="224"/>
-      <c r="C53" s="183" t="s">
+      <c r="A53" s="164"/>
+      <c r="B53" s="212"/>
+      <c r="C53" s="171" t="s">
         <v>43</v>
       </c>
-      <c r="D53" s="179"/>
-      <c r="E53" s="180"/>
-      <c r="F53" s="181"/>
-      <c r="G53" s="181"/>
-      <c r="H53" s="182"/>
-      <c r="I53" s="111"/>
-      <c r="J53" s="240"/>
-      <c r="K53" s="241"/>
-      <c r="L53" s="241"/>
-      <c r="M53" s="242" t="s">
+      <c r="D53" s="167"/>
+      <c r="E53" s="168"/>
+      <c r="F53" s="169"/>
+      <c r="G53" s="169"/>
+      <c r="H53" s="170"/>
+      <c r="I53" s="102"/>
+      <c r="J53" s="228"/>
+      <c r="K53" s="229"/>
+      <c r="L53" s="229"/>
+      <c r="M53" s="230" t="s">
         <v>97</v>
       </c>
-      <c r="N53" s="177"/>
-      <c r="O53" s="178"/>
-      <c r="P53" s="243"/>
-      <c r="Q53" s="275"/>
+      <c r="N53" s="165"/>
+      <c r="O53" s="166"/>
+      <c r="P53" s="231"/>
+      <c r="Q53" s="263"/>
     </row>
     <row r="54" ht="15" hidden="1" customHeight="1" outlineLevel="1" spans="1:17">
-      <c r="A54" s="176"/>
-      <c r="B54" s="224" t="s">
+      <c r="A54" s="164"/>
+      <c r="B54" s="212" t="s">
         <v>43</v>
       </c>
-      <c r="C54" s="183"/>
-      <c r="D54" s="179"/>
-      <c r="E54" s="180"/>
-      <c r="F54" s="181"/>
-      <c r="G54" s="181"/>
-      <c r="H54" s="182"/>
-      <c r="I54" s="111"/>
-      <c r="J54" s="240"/>
-      <c r="K54" s="241"/>
-      <c r="L54" s="241" t="s">
+      <c r="C54" s="171"/>
+      <c r="D54" s="167"/>
+      <c r="E54" s="168"/>
+      <c r="F54" s="169"/>
+      <c r="G54" s="169"/>
+      <c r="H54" s="170"/>
+      <c r="I54" s="102"/>
+      <c r="J54" s="228"/>
+      <c r="K54" s="229"/>
+      <c r="L54" s="229" t="s">
         <v>98</v>
       </c>
-      <c r="M54" s="242" t="s">
+      <c r="M54" s="230" t="s">
         <v>99</v>
       </c>
-      <c r="N54" s="177"/>
-      <c r="O54" s="178"/>
-      <c r="P54" s="243"/>
-      <c r="Q54" s="275"/>
+      <c r="N54" s="165"/>
+      <c r="O54" s="166"/>
+      <c r="P54" s="231"/>
+      <c r="Q54" s="263"/>
     </row>
     <row r="55" ht="15" hidden="1" customHeight="1" outlineLevel="1" spans="1:17">
-      <c r="A55" s="176"/>
-      <c r="B55" s="224" t="s">
+      <c r="A55" s="164"/>
+      <c r="B55" s="212" t="s">
         <v>43</v>
       </c>
-      <c r="C55" s="183"/>
-      <c r="D55" s="179"/>
-      <c r="E55" s="180"/>
-      <c r="F55" s="181"/>
-      <c r="G55" s="181"/>
-      <c r="H55" s="182"/>
-      <c r="I55" s="111"/>
-      <c r="J55" s="240"/>
-      <c r="K55" s="241"/>
-      <c r="L55" s="241" t="s">
+      <c r="C55" s="171"/>
+      <c r="D55" s="167"/>
+      <c r="E55" s="168"/>
+      <c r="F55" s="169"/>
+      <c r="G55" s="169"/>
+      <c r="H55" s="170"/>
+      <c r="I55" s="102"/>
+      <c r="J55" s="228"/>
+      <c r="K55" s="229"/>
+      <c r="L55" s="229" t="s">
         <v>100</v>
       </c>
-      <c r="M55" s="242" t="s">
+      <c r="M55" s="230" t="s">
         <v>101</v>
       </c>
-      <c r="N55" s="177"/>
-      <c r="O55" s="178"/>
-      <c r="P55" s="243"/>
-      <c r="Q55" s="275"/>
+      <c r="N55" s="165"/>
+      <c r="O55" s="166"/>
+      <c r="P55" s="231"/>
+      <c r="Q55" s="263"/>
     </row>
     <row r="56" ht="15" hidden="1" customHeight="1" outlineLevel="1" spans="1:17">
-      <c r="A56" s="176"/>
-      <c r="B56" s="224" t="s">
+      <c r="A56" s="164"/>
+      <c r="B56" s="212" t="s">
         <v>43</v>
       </c>
-      <c r="C56" s="183"/>
-      <c r="D56" s="179"/>
-      <c r="E56" s="180"/>
-      <c r="F56" s="181"/>
-      <c r="G56" s="181"/>
-      <c r="H56" s="182"/>
-      <c r="I56" s="111"/>
-      <c r="J56" s="240"/>
-      <c r="K56" s="241"/>
-      <c r="L56" s="241" t="s">
+      <c r="C56" s="171"/>
+      <c r="D56" s="167"/>
+      <c r="E56" s="168"/>
+      <c r="F56" s="169"/>
+      <c r="G56" s="169"/>
+      <c r="H56" s="170"/>
+      <c r="I56" s="102"/>
+      <c r="J56" s="228"/>
+      <c r="K56" s="229"/>
+      <c r="L56" s="229" t="s">
         <v>96</v>
       </c>
-      <c r="M56" s="242" t="s">
+      <c r="M56" s="230" t="s">
         <v>102</v>
       </c>
-      <c r="N56" s="177"/>
-      <c r="O56" s="178"/>
-      <c r="P56" s="243"/>
-      <c r="Q56" s="275"/>
+      <c r="N56" s="165"/>
+      <c r="O56" s="166"/>
+      <c r="P56" s="231"/>
+      <c r="Q56" s="263"/>
     </row>
     <row r="57" ht="15" hidden="1" customHeight="1" outlineLevel="1" spans="1:17">
-      <c r="A57" s="176"/>
-      <c r="B57" s="224"/>
-      <c r="C57" s="178"/>
-      <c r="D57" s="184"/>
-      <c r="E57" s="180"/>
-      <c r="F57" s="181"/>
-      <c r="G57" s="181"/>
-      <c r="H57" s="182"/>
-      <c r="I57" s="111"/>
-      <c r="J57" s="240"/>
-      <c r="K57" s="241"/>
-      <c r="L57" s="241" t="s">
+      <c r="A57" s="164"/>
+      <c r="B57" s="212"/>
+      <c r="C57" s="166"/>
+      <c r="D57" s="172"/>
+      <c r="E57" s="168"/>
+      <c r="F57" s="169"/>
+      <c r="G57" s="169"/>
+      <c r="H57" s="170"/>
+      <c r="I57" s="102"/>
+      <c r="J57" s="228"/>
+      <c r="K57" s="229"/>
+      <c r="L57" s="229" t="s">
         <v>103</v>
       </c>
-      <c r="M57" s="242"/>
-      <c r="N57" s="177">
+      <c r="M57" s="230"/>
+      <c r="N57" s="165">
         <v>4</v>
       </c>
-      <c r="O57" s="178">
+      <c r="O57" s="166">
         <v>4</v>
       </c>
-      <c r="P57" s="243" t="s">
+      <c r="P57" s="231" t="s">
         <v>104</v>
       </c>
-      <c r="Q57" s="275"/>
+      <c r="Q57" s="263"/>
     </row>
     <row r="58" ht="15" hidden="1" customHeight="1" outlineLevel="1" spans="1:17">
-      <c r="A58" s="176"/>
-      <c r="B58" s="224"/>
-      <c r="C58" s="183"/>
-      <c r="D58" s="179"/>
-      <c r="E58" s="180"/>
-      <c r="F58" s="181"/>
-      <c r="G58" s="181"/>
-      <c r="H58" s="182"/>
-      <c r="I58" s="111"/>
-      <c r="J58" s="240"/>
-      <c r="K58" s="241"/>
-      <c r="L58" s="241" t="s">
+      <c r="A58" s="164"/>
+      <c r="B58" s="212"/>
+      <c r="C58" s="171"/>
+      <c r="D58" s="167"/>
+      <c r="E58" s="168"/>
+      <c r="F58" s="169"/>
+      <c r="G58" s="169"/>
+      <c r="H58" s="170"/>
+      <c r="I58" s="102"/>
+      <c r="J58" s="228"/>
+      <c r="K58" s="229"/>
+      <c r="L58" s="229" t="s">
         <v>105</v>
       </c>
-      <c r="M58" s="242"/>
-      <c r="N58" s="177">
+      <c r="M58" s="230"/>
+      <c r="N58" s="165">
         <v>4</v>
       </c>
-      <c r="O58" s="178">
+      <c r="O58" s="166">
         <v>4</v>
       </c>
-      <c r="P58" s="243" t="s">
+      <c r="P58" s="231" t="s">
         <v>106</v>
       </c>
-      <c r="Q58" s="275"/>
+      <c r="Q58" s="263"/>
     </row>
     <row r="59" ht="15" hidden="1" customHeight="1" outlineLevel="1" spans="1:17">
-      <c r="A59" s="202"/>
-      <c r="B59" s="216"/>
-      <c r="C59" s="217"/>
-      <c r="D59" s="218"/>
-      <c r="E59" s="206"/>
-      <c r="F59" s="207"/>
-      <c r="G59" s="207"/>
-      <c r="H59" s="208"/>
-      <c r="I59" s="111"/>
-      <c r="J59" s="240"/>
-      <c r="K59" s="250"/>
-      <c r="L59" s="250" t="s">
+      <c r="A59" s="190"/>
+      <c r="B59" s="204"/>
+      <c r="C59" s="205"/>
+      <c r="D59" s="206"/>
+      <c r="E59" s="194"/>
+      <c r="F59" s="195"/>
+      <c r="G59" s="195"/>
+      <c r="H59" s="196"/>
+      <c r="I59" s="102"/>
+      <c r="J59" s="228"/>
+      <c r="K59" s="238"/>
+      <c r="L59" s="238" t="s">
         <v>107</v>
       </c>
-      <c r="M59" s="251"/>
-      <c r="N59" s="203">
+      <c r="M59" s="239"/>
+      <c r="N59" s="191">
         <v>4</v>
       </c>
-      <c r="O59" s="217">
+      <c r="O59" s="205">
         <v>4</v>
       </c>
-      <c r="P59" s="252" t="s">
+      <c r="P59" s="240" t="s">
         <v>108</v>
       </c>
-      <c r="Q59" s="278"/>
-    </row>
-    <row r="60" s="158" customFormat="1" collapsed="1" spans="1:19">
-      <c r="A60" s="172" t="s">
+      <c r="Q59" s="266"/>
+    </row>
+    <row r="60" s="146" customFormat="1" collapsed="1" spans="1:19">
+      <c r="A60" s="160" t="s">
         <v>40</v>
       </c>
-      <c r="B60" s="173" t="str">
+      <c r="B60" s="161" t="str">
         <f>IF(COUNTA(B61:B63)&gt;0,"z","")</f>
         <v/>
       </c>
-      <c r="C60" s="174" t="str">
+      <c r="C60" s="162" t="str">
         <f>IF(COUNTA(C61:C63)&gt;0,"y","")</f>
         <v/>
       </c>
-      <c r="D60" s="175" t="str">
+      <c r="D60" s="163" t="str">
         <f>IF(COUNTA(D61:D63)&gt;0,"x","")</f>
         <v/>
       </c>
-      <c r="E60" s="173">
-        <v>1</v>
-      </c>
-      <c r="F60" s="174">
-        <v>0</v>
-      </c>
-      <c r="G60" s="174">
-        <v>1</v>
-      </c>
-      <c r="H60" s="175">
-        <v>1</v>
-      </c>
-      <c r="I60" s="231">
+      <c r="E60" s="161">
+        <v>1</v>
+      </c>
+      <c r="F60" s="162">
+        <v>0</v>
+      </c>
+      <c r="G60" s="162">
+        <v>1</v>
+      </c>
+      <c r="H60" s="163">
+        <v>1</v>
+      </c>
+      <c r="I60" s="219">
         <f>SUM(E60*8,F60*4,G60*2,H60)</f>
         <v>11</v>
       </c>
-      <c r="J60" s="232" t="str">
+      <c r="J60" s="220" t="str">
         <f>IF(I60&lt;=9,I60,CHAR(I60-10+CODE("A")))</f>
         <v>B</v>
       </c>
-      <c r="K60" s="233" t="s">
+      <c r="K60" s="221" t="s">
         <v>109</v>
       </c>
-      <c r="L60" s="234"/>
-      <c r="M60" s="235"/>
-      <c r="N60" s="238" t="s">
+      <c r="L60" s="222"/>
+      <c r="M60" s="223"/>
+      <c r="N60" s="226" t="s">
         <v>58</v>
       </c>
-      <c r="O60" s="239" t="s">
+      <c r="O60" s="227" t="s">
         <v>58</v>
       </c>
-      <c r="P60" s="236"/>
-      <c r="Q60" s="273" t="s">
+      <c r="P60" s="224"/>
+      <c r="Q60" s="261" t="s">
         <v>53</v>
       </c>
-      <c r="R60" s="274">
-        <v>1</v>
-      </c>
-      <c r="S60" s="274">
+      <c r="R60" s="262">
+        <v>1</v>
+      </c>
+      <c r="S60" s="262">
         <v>0</v>
       </c>
     </row>
     <row r="61" ht="15" hidden="1" customHeight="1" outlineLevel="1" spans="1:17">
-      <c r="A61" s="176"/>
-      <c r="B61" s="177"/>
-      <c r="C61" s="178"/>
-      <c r="D61" s="179"/>
-      <c r="E61" s="180"/>
-      <c r="F61" s="181"/>
-      <c r="G61" s="181"/>
-      <c r="H61" s="182"/>
-      <c r="I61" s="111"/>
-      <c r="J61" s="240"/>
-      <c r="K61" s="241"/>
-      <c r="L61" s="241"/>
-      <c r="M61" s="242" t="s">
+      <c r="A61" s="164"/>
+      <c r="B61" s="165"/>
+      <c r="C61" s="166"/>
+      <c r="D61" s="167"/>
+      <c r="E61" s="168"/>
+      <c r="F61" s="169"/>
+      <c r="G61" s="169"/>
+      <c r="H61" s="170"/>
+      <c r="I61" s="102"/>
+      <c r="J61" s="228"/>
+      <c r="K61" s="229"/>
+      <c r="L61" s="229"/>
+      <c r="M61" s="230" t="s">
         <v>110</v>
       </c>
-      <c r="N61" s="177"/>
-      <c r="O61" s="178"/>
-      <c r="P61" s="243"/>
-      <c r="Q61" s="275"/>
+      <c r="N61" s="165"/>
+      <c r="O61" s="166"/>
+      <c r="P61" s="231"/>
+      <c r="Q61" s="263"/>
     </row>
     <row r="62" ht="15" hidden="1" customHeight="1" outlineLevel="1" spans="1:17">
-      <c r="A62" s="176"/>
-      <c r="B62" s="177"/>
-      <c r="C62" s="178"/>
-      <c r="D62" s="179"/>
-      <c r="E62" s="180"/>
-      <c r="F62" s="181"/>
-      <c r="G62" s="181"/>
-      <c r="H62" s="182"/>
-      <c r="I62" s="111"/>
-      <c r="J62" s="240"/>
-      <c r="K62" s="241"/>
-      <c r="L62" s="241"/>
-      <c r="M62" s="242" t="s">
+      <c r="A62" s="164"/>
+      <c r="B62" s="165"/>
+      <c r="C62" s="166"/>
+      <c r="D62" s="167"/>
+      <c r="E62" s="168"/>
+      <c r="F62" s="169"/>
+      <c r="G62" s="169"/>
+      <c r="H62" s="170"/>
+      <c r="I62" s="102"/>
+      <c r="J62" s="228"/>
+      <c r="K62" s="229"/>
+      <c r="L62" s="229"/>
+      <c r="M62" s="230" t="s">
         <v>111</v>
       </c>
-      <c r="N62" s="177"/>
-      <c r="O62" s="178"/>
-      <c r="P62" s="243"/>
-      <c r="Q62" s="275"/>
+      <c r="N62" s="165"/>
+      <c r="O62" s="166"/>
+      <c r="P62" s="231"/>
+      <c r="Q62" s="263"/>
     </row>
     <row r="63" ht="15" hidden="1" customHeight="1" outlineLevel="1" spans="1:17">
-      <c r="A63" s="202"/>
-      <c r="B63" s="216"/>
-      <c r="C63" s="217"/>
-      <c r="D63" s="205"/>
-      <c r="E63" s="206"/>
-      <c r="F63" s="207"/>
-      <c r="G63" s="207"/>
-      <c r="H63" s="208"/>
-      <c r="I63" s="111"/>
-      <c r="J63" s="240"/>
-      <c r="K63" s="250"/>
-      <c r="L63" s="250"/>
-      <c r="M63" s="251" t="s">
+      <c r="A63" s="190"/>
+      <c r="B63" s="204"/>
+      <c r="C63" s="205"/>
+      <c r="D63" s="193"/>
+      <c r="E63" s="194"/>
+      <c r="F63" s="195"/>
+      <c r="G63" s="195"/>
+      <c r="H63" s="196"/>
+      <c r="I63" s="102"/>
+      <c r="J63" s="228"/>
+      <c r="K63" s="238"/>
+      <c r="L63" s="238"/>
+      <c r="M63" s="239" t="s">
         <v>112</v>
       </c>
-      <c r="N63" s="216"/>
-      <c r="O63" s="204"/>
-      <c r="P63" s="252" t="s">
+      <c r="N63" s="204"/>
+      <c r="O63" s="192"/>
+      <c r="P63" s="240" t="s">
         <v>113</v>
       </c>
-      <c r="Q63" s="278"/>
-    </row>
-    <row r="64" s="158" customFormat="1" collapsed="1" spans="1:19">
-      <c r="A64" s="172" t="s">
+      <c r="Q63" s="266"/>
+    </row>
+    <row r="64" s="146" customFormat="1" collapsed="1" spans="1:19">
+      <c r="A64" s="160" t="s">
         <v>40</v>
       </c>
-      <c r="B64" s="173" t="str">
+      <c r="B64" s="161" t="str">
         <f>IF(COUNTA(B65:B67)&gt;0,"z","")</f>
         <v/>
       </c>
-      <c r="C64" s="174" t="str">
+      <c r="C64" s="162" t="str">
         <f>IF(COUNTA(C65:C67)&gt;0,"y","")</f>
         <v/>
       </c>
-      <c r="D64" s="175" t="str">
+      <c r="D64" s="163" t="str">
         <f>IF(COUNTA(D65:D67)&gt;0,"x","")</f>
         <v/>
       </c>
-      <c r="E64" s="173">
-        <v>0</v>
-      </c>
-      <c r="F64" s="174">
-        <v>1</v>
-      </c>
-      <c r="G64" s="174">
-        <v>1</v>
-      </c>
-      <c r="H64" s="175">
-        <v>1</v>
-      </c>
-      <c r="I64" s="231">
+      <c r="E64" s="161">
+        <v>0</v>
+      </c>
+      <c r="F64" s="162">
+        <v>1</v>
+      </c>
+      <c r="G64" s="162">
+        <v>1</v>
+      </c>
+      <c r="H64" s="163">
+        <v>1</v>
+      </c>
+      <c r="I64" s="219">
         <f>SUM(E64*8,F64*4,G64*2,H64)</f>
         <v>7</v>
       </c>
-      <c r="J64" s="232">
+      <c r="J64" s="220">
         <f>IF(I64&lt;=9,I64,CHAR(I64-10+CODE("A")))</f>
         <v>7</v>
       </c>
-      <c r="K64" s="233" t="s">
+      <c r="K64" s="221" t="s">
         <v>114</v>
       </c>
-      <c r="L64" s="233"/>
-      <c r="M64" s="237"/>
-      <c r="N64" s="238">
+      <c r="L64" s="221"/>
+      <c r="M64" s="225"/>
+      <c r="N64" s="226">
         <f>1+SUM(N65:N67)</f>
         <v>5</v>
       </c>
-      <c r="O64" s="239">
+      <c r="O64" s="227">
         <f>1+SUM(O65:O67)</f>
         <v>5</v>
       </c>
-      <c r="P64" s="236"/>
-      <c r="Q64" s="273" t="s">
+      <c r="P64" s="224"/>
+      <c r="Q64" s="261" t="s">
         <v>53</v>
       </c>
-      <c r="R64" s="274">
-        <v>1</v>
-      </c>
-      <c r="S64" s="274">
+      <c r="R64" s="262">
+        <v>1</v>
+      </c>
+      <c r="S64" s="262">
         <v>1</v>
       </c>
     </row>
     <row r="65" ht="15" hidden="1" customHeight="1" outlineLevel="1" spans="1:17">
-      <c r="A65" s="176"/>
-      <c r="B65" s="177"/>
-      <c r="C65" s="178"/>
-      <c r="D65" s="184"/>
-      <c r="E65" s="180"/>
-      <c r="F65" s="181"/>
-      <c r="G65" s="181"/>
-      <c r="H65" s="182"/>
-      <c r="I65" s="111"/>
-      <c r="J65" s="240"/>
-      <c r="K65" s="241"/>
-      <c r="L65" s="266"/>
-      <c r="M65" s="267"/>
-      <c r="N65" s="177">
+      <c r="A65" s="164"/>
+      <c r="B65" s="165"/>
+      <c r="C65" s="166"/>
+      <c r="D65" s="172"/>
+      <c r="E65" s="168"/>
+      <c r="F65" s="169"/>
+      <c r="G65" s="169"/>
+      <c r="H65" s="170"/>
+      <c r="I65" s="102"/>
+      <c r="J65" s="228"/>
+      <c r="K65" s="229"/>
+      <c r="L65" s="254"/>
+      <c r="M65" s="255"/>
+      <c r="N65" s="165">
         <v>4</v>
       </c>
-      <c r="O65" s="178">
+      <c r="O65" s="166">
         <v>4</v>
       </c>
-      <c r="P65" s="243" t="s">
+      <c r="P65" s="231" t="s">
         <v>115</v>
       </c>
-      <c r="Q65" s="275"/>
+      <c r="Q65" s="263"/>
     </row>
     <row r="66" ht="15" hidden="1" customHeight="1" outlineLevel="1" spans="1:17">
-      <c r="A66" s="176"/>
-      <c r="B66" s="177"/>
-      <c r="C66" s="178"/>
-      <c r="D66" s="179"/>
-      <c r="E66" s="180"/>
-      <c r="F66" s="181"/>
-      <c r="G66" s="181"/>
-      <c r="H66" s="182"/>
-      <c r="I66" s="111"/>
-      <c r="J66" s="240"/>
-      <c r="K66" s="241"/>
-      <c r="L66" s="241"/>
-      <c r="M66" s="242" t="s">
+      <c r="A66" s="164"/>
+      <c r="B66" s="165"/>
+      <c r="C66" s="166"/>
+      <c r="D66" s="167"/>
+      <c r="E66" s="168"/>
+      <c r="F66" s="169"/>
+      <c r="G66" s="169"/>
+      <c r="H66" s="170"/>
+      <c r="I66" s="102"/>
+      <c r="J66" s="228"/>
+      <c r="K66" s="229"/>
+      <c r="L66" s="229"/>
+      <c r="M66" s="230" t="s">
         <v>110</v>
       </c>
-      <c r="N66" s="177"/>
-      <c r="O66" s="178"/>
-      <c r="P66" s="243"/>
-      <c r="Q66" s="275"/>
+      <c r="N66" s="165"/>
+      <c r="O66" s="166"/>
+      <c r="P66" s="231"/>
+      <c r="Q66" s="263"/>
     </row>
     <row r="67" ht="15" hidden="1" customHeight="1" outlineLevel="1" spans="1:17">
-      <c r="A67" s="176"/>
-      <c r="B67" s="224"/>
-      <c r="C67" s="183"/>
-      <c r="D67" s="184"/>
-      <c r="E67" s="180"/>
-      <c r="F67" s="181"/>
-      <c r="G67" s="181"/>
-      <c r="H67" s="182"/>
-      <c r="I67" s="111"/>
-      <c r="J67" s="240"/>
-      <c r="K67" s="241"/>
-      <c r="L67" s="241"/>
-      <c r="M67" s="242" t="s">
+      <c r="A67" s="164"/>
+      <c r="B67" s="212"/>
+      <c r="C67" s="171"/>
+      <c r="D67" s="172"/>
+      <c r="E67" s="168"/>
+      <c r="F67" s="169"/>
+      <c r="G67" s="169"/>
+      <c r="H67" s="170"/>
+      <c r="I67" s="102"/>
+      <c r="J67" s="228"/>
+      <c r="K67" s="229"/>
+      <c r="L67" s="229"/>
+      <c r="M67" s="230" t="s">
         <v>116</v>
       </c>
-      <c r="N67" s="177"/>
-      <c r="O67" s="178"/>
-      <c r="P67" s="243"/>
-      <c r="Q67" s="275"/>
-    </row>
-    <row r="68" s="158" customFormat="1" collapsed="1" spans="1:19">
-      <c r="A68" s="172" t="s">
+      <c r="N67" s="165"/>
+      <c r="O67" s="166"/>
+      <c r="P67" s="231"/>
+      <c r="Q67" s="263"/>
+    </row>
+    <row r="68" s="146" customFormat="1" collapsed="1" spans="1:19">
+      <c r="A68" s="160" t="s">
         <v>40</v>
       </c>
-      <c r="B68" s="173" t="str">
+      <c r="B68" s="161" t="str">
         <f>IF(COUNTA(B69:B72)&gt;0,"z","")</f>
         <v/>
       </c>
-      <c r="C68" s="174" t="str">
+      <c r="C68" s="162" t="str">
         <f>IF(COUNTA(C69:C72)&gt;0,"y","")</f>
         <v/>
       </c>
-      <c r="D68" s="175" t="str">
+      <c r="D68" s="163" t="str">
         <f>IF(COUNTA(D69:D72)&gt;0,"x","")</f>
         <v/>
       </c>
-      <c r="E68" s="173">
-        <v>1</v>
-      </c>
-      <c r="F68" s="174">
-        <v>1</v>
-      </c>
-      <c r="G68" s="174">
-        <v>1</v>
-      </c>
-      <c r="H68" s="175">
-        <v>1</v>
-      </c>
-      <c r="I68" s="231">
+      <c r="E68" s="161">
+        <v>1</v>
+      </c>
+      <c r="F68" s="162">
+        <v>1</v>
+      </c>
+      <c r="G68" s="162">
+        <v>1</v>
+      </c>
+      <c r="H68" s="163">
+        <v>1</v>
+      </c>
+      <c r="I68" s="219">
         <f>SUM(E68*8,F68*4,G68*2,H68)</f>
         <v>15</v>
       </c>
-      <c r="J68" s="232" t="str">
+      <c r="J68" s="220" t="str">
         <f>IF(I68&lt;=9,I68,CHAR(I68-10+CODE("A")))</f>
         <v>F</v>
       </c>
-      <c r="K68" s="233"/>
-      <c r="L68" s="233"/>
-      <c r="M68" s="237"/>
-      <c r="N68" s="238"/>
-      <c r="O68" s="239"/>
-      <c r="P68" s="236"/>
-      <c r="Q68" s="273"/>
-      <c r="R68" s="274"/>
-      <c r="S68" s="274"/>
+      <c r="K68" s="221"/>
+      <c r="L68" s="221"/>
+      <c r="M68" s="225"/>
+      <c r="N68" s="226"/>
+      <c r="O68" s="227"/>
+      <c r="P68" s="224"/>
+      <c r="Q68" s="261"/>
+      <c r="R68" s="262"/>
+      <c r="S68" s="262"/>
     </row>
     <row r="69" ht="15" hidden="1" customHeight="1" outlineLevel="1" spans="1:17">
-      <c r="A69" s="176"/>
-      <c r="B69" s="177"/>
-      <c r="C69" s="178"/>
-      <c r="D69" s="184"/>
-      <c r="E69" s="180"/>
-      <c r="F69" s="181"/>
-      <c r="G69" s="181"/>
-      <c r="H69" s="182"/>
-      <c r="I69" s="111"/>
-      <c r="J69" s="240"/>
-      <c r="K69" s="241"/>
-      <c r="L69" s="241"/>
-      <c r="M69" s="242"/>
-      <c r="N69" s="177"/>
-      <c r="O69" s="178"/>
-      <c r="P69" s="243"/>
-      <c r="Q69" s="275"/>
+      <c r="A69" s="164"/>
+      <c r="B69" s="165"/>
+      <c r="C69" s="166"/>
+      <c r="D69" s="172"/>
+      <c r="E69" s="168"/>
+      <c r="F69" s="169"/>
+      <c r="G69" s="169"/>
+      <c r="H69" s="170"/>
+      <c r="I69" s="102"/>
+      <c r="J69" s="228"/>
+      <c r="K69" s="229"/>
+      <c r="L69" s="229"/>
+      <c r="M69" s="230"/>
+      <c r="N69" s="165"/>
+      <c r="O69" s="166"/>
+      <c r="P69" s="231"/>
+      <c r="Q69" s="263"/>
     </row>
     <row r="70" ht="15" hidden="1" customHeight="1" outlineLevel="1" spans="1:17">
-      <c r="A70" s="176"/>
-      <c r="B70" s="177"/>
-      <c r="C70" s="178"/>
-      <c r="D70" s="179"/>
-      <c r="E70" s="180"/>
-      <c r="F70" s="181"/>
-      <c r="G70" s="181"/>
-      <c r="H70" s="182"/>
-      <c r="I70" s="111"/>
-      <c r="J70" s="240"/>
-      <c r="K70" s="241"/>
-      <c r="L70" s="241"/>
-      <c r="M70" s="242"/>
-      <c r="N70" s="177"/>
-      <c r="O70" s="178"/>
-      <c r="P70" s="243"/>
-      <c r="Q70" s="275"/>
+      <c r="A70" s="164"/>
+      <c r="B70" s="165"/>
+      <c r="C70" s="166"/>
+      <c r="D70" s="167"/>
+      <c r="E70" s="168"/>
+      <c r="F70" s="169"/>
+      <c r="G70" s="169"/>
+      <c r="H70" s="170"/>
+      <c r="I70" s="102"/>
+      <c r="J70" s="228"/>
+      <c r="K70" s="229"/>
+      <c r="L70" s="229"/>
+      <c r="M70" s="230"/>
+      <c r="N70" s="165"/>
+      <c r="O70" s="166"/>
+      <c r="P70" s="231"/>
+      <c r="Q70" s="263"/>
     </row>
     <row r="71" ht="15" hidden="1" customHeight="1" outlineLevel="1" spans="1:17">
-      <c r="A71" s="176"/>
-      <c r="B71" s="177"/>
-      <c r="C71" s="178"/>
-      <c r="D71" s="184"/>
-      <c r="E71" s="180"/>
-      <c r="F71" s="181"/>
-      <c r="G71" s="181"/>
-      <c r="H71" s="182"/>
-      <c r="I71" s="111"/>
-      <c r="J71" s="240"/>
-      <c r="K71" s="241"/>
-      <c r="L71" s="241"/>
-      <c r="M71" s="242"/>
-      <c r="N71" s="177"/>
-      <c r="O71" s="178"/>
-      <c r="P71" s="243"/>
-      <c r="Q71" s="275"/>
+      <c r="A71" s="164"/>
+      <c r="B71" s="165"/>
+      <c r="C71" s="166"/>
+      <c r="D71" s="172"/>
+      <c r="E71" s="168"/>
+      <c r="F71" s="169"/>
+      <c r="G71" s="169"/>
+      <c r="H71" s="170"/>
+      <c r="I71" s="102"/>
+      <c r="J71" s="228"/>
+      <c r="K71" s="229"/>
+      <c r="L71" s="229"/>
+      <c r="M71" s="230"/>
+      <c r="N71" s="165"/>
+      <c r="O71" s="166"/>
+      <c r="P71" s="231"/>
+      <c r="Q71" s="263"/>
     </row>
     <row r="72" ht="15" hidden="1" customHeight="1" outlineLevel="1" spans="1:17">
-      <c r="A72" s="202"/>
-      <c r="B72" s="216"/>
-      <c r="C72" s="204"/>
-      <c r="D72" s="205"/>
-      <c r="E72" s="206"/>
-      <c r="F72" s="207"/>
-      <c r="G72" s="207"/>
-      <c r="H72" s="208"/>
-      <c r="I72" s="111"/>
-      <c r="J72" s="240"/>
-      <c r="K72" s="250"/>
-      <c r="L72" s="250"/>
-      <c r="M72" s="251"/>
-      <c r="N72" s="203"/>
-      <c r="O72" s="217"/>
-      <c r="P72" s="252"/>
-      <c r="Q72" s="278"/>
+      <c r="A72" s="190"/>
+      <c r="B72" s="204"/>
+      <c r="C72" s="192"/>
+      <c r="D72" s="193"/>
+      <c r="E72" s="194"/>
+      <c r="F72" s="195"/>
+      <c r="G72" s="195"/>
+      <c r="H72" s="196"/>
+      <c r="I72" s="102"/>
+      <c r="J72" s="228"/>
+      <c r="K72" s="238"/>
+      <c r="L72" s="238"/>
+      <c r="M72" s="239"/>
+      <c r="N72" s="191"/>
+      <c r="O72" s="205"/>
+      <c r="P72" s="240"/>
+      <c r="Q72" s="266"/>
     </row>
     <row r="73" collapsed="1"/>
     <row r="74" spans="2:16">
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
-      <c r="J74" s="29"/>
+      <c r="J74" s="26"/>
       <c r="K74" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="O74" s="163"/>
+      <c r="O74" s="151"/>
       <c r="P74" s="11" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="75" spans="10:16">
-      <c r="J75" s="31">
-        <v>0</v>
-      </c>
-      <c r="K75" s="163" t="s">
+      <c r="J75" s="28">
+        <v>0</v>
+      </c>
+      <c r="K75" s="151" t="s">
         <v>118</v>
       </c>
-      <c r="O75" s="31">
-        <v>0</v>
-      </c>
-      <c r="P75" s="163" t="s">
+      <c r="O75" s="28">
+        <v>0</v>
+      </c>
+      <c r="P75" s="151" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="76" spans="10:16">
-      <c r="J76" s="31">
+      <c r="J76" s="28">
         <v>1</v>
       </c>
       <c r="K76" t="s">
         <v>120</v>
       </c>
-      <c r="O76" s="31">
+      <c r="O76" s="28">
         <v>1</v>
       </c>
       <c r="P76" t="s">
@@ -6304,13 +6283,13 @@
       </c>
     </row>
     <row r="77" spans="10:16">
-      <c r="J77" s="31">
+      <c r="J77" s="28">
         <v>2</v>
       </c>
       <c r="K77" t="s">
         <v>122</v>
       </c>
-      <c r="O77" s="31">
+      <c r="O77" s="28">
         <v>2</v>
       </c>
       <c r="P77" t="s">
@@ -6318,13 +6297,13 @@
       </c>
     </row>
     <row r="78" spans="10:16">
-      <c r="J78" s="31">
+      <c r="J78" s="28">
         <v>3</v>
       </c>
-      <c r="K78" s="163" t="s">
+      <c r="K78" s="151" t="s">
         <v>124</v>
       </c>
-      <c r="O78" s="31">
+      <c r="O78" s="28">
         <v>3</v>
       </c>
       <c r="P78" t="s">
@@ -6332,8 +6311,8 @@
       </c>
     </row>
     <row r="79" spans="10:16">
-      <c r="J79" s="163"/>
-      <c r="O79" s="31">
+      <c r="J79" s="151"/>
+      <c r="O79" s="28">
         <v>4</v>
       </c>
       <c r="P79" t="s">
@@ -6358,7 +6337,7 @@
   <sheetPr/>
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -6381,31 +6360,31 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="149"/>
-      <c r="B2" s="150" t="s">
+      <c r="A2" s="137"/>
+      <c r="B2" s="138" t="s">
         <v>125</v>
       </c>
-      <c r="C2" s="151" t="s">
+      <c r="C2" s="139" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="152"/>
-      <c r="B3" s="153" t="s">
+      <c r="A3" s="140"/>
+      <c r="B3" s="141" t="s">
         <v>127</v>
       </c>
-      <c r="C3" s="154" t="s">
+      <c r="C3" s="142" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="155" t="s">
+      <c r="A4" s="143" t="s">
         <v>129</v>
       </c>
-      <c r="B4" s="70" t="s">
+      <c r="B4" s="67" t="s">
         <v>130</v>
       </c>
-      <c r="C4" s="156"/>
+      <c r="C4" s="144"/>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
@@ -6433,22 +6412,22 @@
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="157" t="s">
+      <c r="A12" s="145" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="157" t="s">
+      <c r="A13" s="145" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="157" t="s">
+      <c r="A14" s="145" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="157" t="s">
+      <c r="A15" s="145" t="s">
         <v>139</v>
       </c>
     </row>
@@ -6464,14 +6443,16 @@
   <sheetPr/>
   <dimension ref="A1:R47"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="K40" sqref="K40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14414414414414" defaultRowHeight="14.55"/>
   <cols>
-    <col min="1" max="1" width="9.14414414414414" style="2"/>
-    <col min="2" max="9" width="2.85585585585586" style="4" customWidth="1"/>
+    <col min="1" max="1" width="15.5135135135135" style="2" customWidth="1"/>
+    <col min="2" max="9" width="3.00900900900901" style="4" customWidth="1"/>
     <col min="10" max="11" width="18.2252252252252" style="4" customWidth="1"/>
     <col min="12" max="12" width="15.5945945945946" style="4" customWidth="1"/>
     <col min="13" max="13" width="24.9189189189189" style="4" customWidth="1"/>
@@ -6526,82 +6507,82 @@
         <v>142</v>
       </c>
     </row>
-    <row r="2" s="74" customFormat="1" ht="15.3" spans="2:14">
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="76"/>
-      <c r="I2" s="76"/>
-      <c r="M2" s="76"/>
-      <c r="N2" s="76"/>
+    <row r="2" s="70" customFormat="1" ht="15.3" spans="2:14">
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="72"/>
+      <c r="M2" s="72"/>
+      <c r="N2" s="72"/>
     </row>
     <row r="3" spans="2:15">
-      <c r="B3" s="77"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="80"/>
-      <c r="G3" s="78"/>
-      <c r="H3" s="78"/>
-      <c r="I3" s="125" t="s">
+      <c r="B3" s="73"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="74"/>
+      <c r="H3" s="74"/>
+      <c r="I3" s="116" t="s">
         <v>43</v>
       </c>
-      <c r="J3" s="126"/>
-      <c r="K3" s="127" t="s">
+      <c r="J3" s="117"/>
+      <c r="K3" s="118" t="s">
         <v>143</v>
       </c>
-      <c r="L3" s="127" t="s">
+      <c r="L3" s="118" t="s">
         <v>144</v>
       </c>
-      <c r="M3" s="125" t="s">
+      <c r="M3" s="116" t="s">
         <v>145</v>
       </c>
-      <c r="N3" s="125" t="s">
+      <c r="N3" s="116" t="s">
         <v>146</v>
       </c>
-      <c r="O3" s="128"/>
+      <c r="O3" s="119"/>
     </row>
     <row r="4" spans="2:15">
-      <c r="B4" s="81"/>
-      <c r="C4" s="82"/>
-      <c r="D4" s="82"/>
-      <c r="E4" s="83"/>
-      <c r="F4" s="84"/>
-      <c r="G4" s="82"/>
+      <c r="B4" s="77"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="78"/>
       <c r="H4" s="23" t="s">
         <v>43</v>
       </c>
       <c r="I4" s="24"/>
-      <c r="J4" s="129"/>
-      <c r="K4" s="55" t="s">
+      <c r="J4" s="120"/>
+      <c r="K4" s="52" t="s">
         <v>147</v>
       </c>
-      <c r="L4" s="53"/>
+      <c r="L4" s="50"/>
       <c r="M4" s="24"/>
       <c r="N4" s="24"/>
-      <c r="O4" s="130"/>
+      <c r="O4" s="121"/>
     </row>
     <row r="5" spans="2:15">
-      <c r="B5" s="81"/>
-      <c r="C5" s="82"/>
-      <c r="D5" s="82"/>
-      <c r="E5" s="83"/>
-      <c r="F5" s="84"/>
+      <c r="B5" s="77"/>
+      <c r="C5" s="78"/>
+      <c r="D5" s="78"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="80"/>
       <c r="G5" s="23" t="s">
         <v>43</v>
       </c>
       <c r="H5" s="23"/>
       <c r="I5" s="24"/>
-      <c r="J5" s="129" t="s">
+      <c r="J5" s="120" t="s">
         <v>148</v>
       </c>
-      <c r="K5" s="55" t="s">
+      <c r="K5" s="52" t="s">
         <v>149</v>
       </c>
-      <c r="L5" s="53" t="s">
+      <c r="L5" s="50" t="s">
         <v>150</v>
       </c>
       <c r="M5" s="24" t="s">
@@ -6610,147 +6591,147 @@
       <c r="N5" s="24" t="s">
         <v>146</v>
       </c>
-      <c r="O5" s="130"/>
+      <c r="O5" s="121"/>
     </row>
     <row r="6" spans="2:15">
-      <c r="B6" s="40"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="85"/>
-      <c r="F6" s="86" t="s">
+      <c r="B6" s="37"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="81"/>
+      <c r="F6" s="82" t="s">
         <v>43</v>
       </c>
-      <c r="G6" s="41"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="42"/>
-      <c r="J6" s="131" t="s">
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="39"/>
+      <c r="J6" s="122" t="s">
         <v>148</v>
       </c>
-      <c r="K6" s="62" t="s">
+      <c r="K6" s="59" t="s">
         <v>151</v>
       </c>
-      <c r="L6" s="69" t="s">
+      <c r="L6" s="66" t="s">
         <v>152</v>
       </c>
-      <c r="M6" s="42">
+      <c r="M6" s="39">
         <v>4</v>
       </c>
-      <c r="N6" s="42" t="s">
+      <c r="N6" s="39" t="s">
         <v>153</v>
       </c>
-      <c r="O6" s="132"/>
-    </row>
-    <row r="7" s="75" customFormat="1" spans="1:15">
-      <c r="A7" s="74" t="s">
+      <c r="O6" s="123"/>
+    </row>
+    <row r="7" s="71" customFormat="1" spans="1:15">
+      <c r="A7" s="70" t="s">
         <v>154</v>
       </c>
-      <c r="B7" s="87"/>
-      <c r="C7" s="88"/>
-      <c r="D7" s="88"/>
-      <c r="E7" s="89"/>
-      <c r="F7" s="90"/>
-      <c r="G7" s="88"/>
-      <c r="H7" s="88"/>
-      <c r="I7" s="133"/>
-      <c r="J7" s="134" t="s">
+      <c r="B7" s="83"/>
+      <c r="C7" s="84"/>
+      <c r="D7" s="84"/>
+      <c r="E7" s="85"/>
+      <c r="F7" s="86"/>
+      <c r="G7" s="84"/>
+      <c r="H7" s="84"/>
+      <c r="I7" s="124"/>
+      <c r="J7" s="125" t="s">
         <v>155</v>
       </c>
-      <c r="K7" s="135"/>
-      <c r="L7" s="135"/>
-      <c r="M7" s="133"/>
-      <c r="N7" s="133"/>
-      <c r="O7" s="136"/>
+      <c r="K7" s="126"/>
+      <c r="L7" s="126"/>
+      <c r="M7" s="124"/>
+      <c r="N7" s="124"/>
+      <c r="O7" s="127"/>
     </row>
     <row r="8" outlineLevel="1" spans="2:15">
-      <c r="B8" s="81"/>
-      <c r="C8" s="82"/>
-      <c r="D8" s="82"/>
-      <c r="E8" s="91" t="s">
+      <c r="B8" s="77"/>
+      <c r="C8" s="78"/>
+      <c r="D8" s="78"/>
+      <c r="E8" s="87" t="s">
         <v>43</v>
       </c>
-      <c r="F8" s="84"/>
-      <c r="G8" s="82"/>
+      <c r="F8" s="80"/>
+      <c r="G8" s="78"/>
       <c r="H8" s="23"/>
       <c r="I8" s="24"/>
-      <c r="J8" s="129"/>
-      <c r="K8" s="55" t="s">
+      <c r="J8" s="120"/>
+      <c r="K8" s="52" t="s">
         <v>156</v>
       </c>
-      <c r="L8" s="53"/>
+      <c r="L8" s="50"/>
       <c r="M8" s="24"/>
       <c r="N8" s="24"/>
-      <c r="O8" s="130"/>
-    </row>
-    <row r="9" s="75" customFormat="1" outlineLevel="1" spans="1:15">
-      <c r="A9" s="74" t="s">
+      <c r="O8" s="121"/>
+    </row>
+    <row r="9" s="71" customFormat="1" outlineLevel="1" spans="1:15">
+      <c r="A9" s="70" t="s">
         <v>114</v>
       </c>
-      <c r="B9" s="92"/>
-      <c r="C9" s="93"/>
-      <c r="D9" s="93"/>
-      <c r="E9" s="94"/>
-      <c r="F9" s="95"/>
-      <c r="G9" s="93"/>
-      <c r="H9" s="96"/>
-      <c r="I9" s="137"/>
-      <c r="J9" s="138" t="s">
+      <c r="B9" s="88"/>
+      <c r="C9" s="89"/>
+      <c r="D9" s="89"/>
+      <c r="E9" s="90"/>
+      <c r="F9" s="91"/>
+      <c r="G9" s="89"/>
+      <c r="H9" s="92"/>
+      <c r="I9" s="128"/>
+      <c r="J9" s="129" t="s">
         <v>157</v>
       </c>
-      <c r="K9" s="139"/>
-      <c r="L9" s="139"/>
-      <c r="M9" s="137"/>
-      <c r="N9" s="137"/>
-      <c r="O9" s="140"/>
+      <c r="K9" s="130"/>
+      <c r="L9" s="130"/>
+      <c r="M9" s="128"/>
+      <c r="N9" s="128"/>
+      <c r="O9" s="131"/>
     </row>
     <row r="10" outlineLevel="1" spans="2:15">
-      <c r="B10" s="81"/>
-      <c r="C10" s="82"/>
-      <c r="D10" s="82"/>
-      <c r="E10" s="91"/>
-      <c r="F10" s="84"/>
-      <c r="G10" s="82"/>
+      <c r="B10" s="77"/>
+      <c r="C10" s="78"/>
+      <c r="D10" s="78"/>
+      <c r="E10" s="87"/>
+      <c r="F10" s="80"/>
+      <c r="G10" s="78"/>
       <c r="H10" s="23"/>
       <c r="I10" s="24"/>
-      <c r="J10" s="131"/>
-      <c r="K10" s="55"/>
-      <c r="L10" s="69"/>
-      <c r="M10" s="42"/>
-      <c r="N10" s="42"/>
-      <c r="O10" s="130"/>
-    </row>
-    <row r="11" s="75" customFormat="1" outlineLevel="1" spans="1:15">
-      <c r="A11" s="74" t="s">
+      <c r="J10" s="122"/>
+      <c r="K10" s="52"/>
+      <c r="L10" s="66"/>
+      <c r="M10" s="39"/>
+      <c r="N10" s="39"/>
+      <c r="O10" s="121"/>
+    </row>
+    <row r="11" s="71" customFormat="1" outlineLevel="1" spans="1:15">
+      <c r="A11" s="70" t="s">
         <v>71</v>
       </c>
-      <c r="B11" s="92"/>
-      <c r="C11" s="93"/>
-      <c r="D11" s="93"/>
-      <c r="E11" s="94"/>
-      <c r="F11" s="95"/>
-      <c r="G11" s="93"/>
-      <c r="H11" s="96"/>
-      <c r="I11" s="137"/>
-      <c r="J11" s="134" t="s">
+      <c r="B11" s="88"/>
+      <c r="C11" s="89"/>
+      <c r="D11" s="89"/>
+      <c r="E11" s="90"/>
+      <c r="F11" s="91"/>
+      <c r="G11" s="89"/>
+      <c r="H11" s="92"/>
+      <c r="I11" s="128"/>
+      <c r="J11" s="125" t="s">
         <v>158</v>
       </c>
-      <c r="K11" s="139"/>
-      <c r="L11" s="135"/>
-      <c r="M11" s="133"/>
-      <c r="N11" s="133"/>
-      <c r="O11" s="140"/>
+      <c r="K11" s="130"/>
+      <c r="L11" s="126"/>
+      <c r="M11" s="124"/>
+      <c r="N11" s="124"/>
+      <c r="O11" s="131"/>
     </row>
     <row r="12" outlineLevel="1" spans="2:15">
-      <c r="B12" s="81"/>
-      <c r="C12" s="82"/>
-      <c r="D12" s="82"/>
-      <c r="E12" s="91"/>
-      <c r="F12" s="84"/>
-      <c r="G12" s="82"/>
+      <c r="B12" s="77"/>
+      <c r="C12" s="78"/>
+      <c r="D12" s="78"/>
+      <c r="E12" s="87"/>
+      <c r="F12" s="80"/>
+      <c r="G12" s="78"/>
       <c r="H12" s="23"/>
       <c r="I12" s="24"/>
-      <c r="J12" s="129"/>
-      <c r="K12" s="55"/>
-      <c r="L12" s="53" t="s">
+      <c r="J12" s="120"/>
+      <c r="K12" s="52"/>
+      <c r="L12" s="50" t="s">
         <v>66</v>
       </c>
       <c r="M12" s="24">
@@ -6759,24 +6740,24 @@
       <c r="N12" s="24" t="s">
         <v>153</v>
       </c>
-      <c r="O12" s="130"/>
+      <c r="O12" s="121"/>
     </row>
     <row r="13" outlineLevel="1" spans="2:15">
-      <c r="B13" s="81"/>
-      <c r="C13" s="82"/>
+      <c r="B13" s="77"/>
+      <c r="C13" s="78"/>
       <c r="D13" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="E13" s="83"/>
-      <c r="F13" s="84"/>
-      <c r="G13" s="82"/>
+      <c r="E13" s="79"/>
+      <c r="F13" s="80"/>
+      <c r="G13" s="78"/>
       <c r="H13" s="23"/>
       <c r="I13" s="24"/>
-      <c r="J13" s="129"/>
-      <c r="K13" s="53" t="s">
+      <c r="J13" s="120"/>
+      <c r="K13" s="50" t="s">
         <v>159</v>
       </c>
-      <c r="L13" s="53" t="s">
+      <c r="L13" s="50" t="s">
         <v>160</v>
       </c>
       <c r="M13" s="24">
@@ -6785,24 +6766,24 @@
       <c r="N13" s="24" t="s">
         <v>161</v>
       </c>
-      <c r="O13" s="130" t="s">
+      <c r="O13" s="121" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="14" outlineLevel="1" spans="2:15">
-      <c r="B14" s="97"/>
-      <c r="C14" s="98"/>
-      <c r="D14" s="99"/>
-      <c r="E14" s="100"/>
-      <c r="F14" s="101"/>
-      <c r="G14" s="98"/>
-      <c r="H14" s="99"/>
-      <c r="I14" s="141"/>
-      <c r="J14" s="142" t="s">
+      <c r="B14" s="77"/>
+      <c r="C14" s="78"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="79"/>
+      <c r="F14" s="80"/>
+      <c r="G14" s="78"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="120" t="s">
         <v>159</v>
       </c>
-      <c r="K14" s="53"/>
-      <c r="L14" s="53" t="s">
+      <c r="K14" s="50"/>
+      <c r="L14" s="50" t="s">
         <v>163</v>
       </c>
       <c r="M14" s="24" t="s">
@@ -6811,299 +6792,299 @@
       <c r="N14" s="24" t="s">
         <v>164</v>
       </c>
-      <c r="O14" s="143"/>
+      <c r="O14" s="121"/>
     </row>
     <row r="15" outlineLevel="1" spans="2:15">
-      <c r="B15" s="102"/>
-      <c r="C15" s="41" t="s">
+      <c r="B15" s="93"/>
+      <c r="C15" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="D15" s="103"/>
-      <c r="E15" s="104"/>
-      <c r="F15" s="105"/>
-      <c r="G15" s="103"/>
-      <c r="H15" s="41"/>
-      <c r="I15" s="42"/>
-      <c r="J15" s="131"/>
-      <c r="K15" s="62" t="s">
+      <c r="D15" s="94"/>
+      <c r="E15" s="95"/>
+      <c r="F15" s="96"/>
+      <c r="G15" s="94"/>
+      <c r="H15" s="38"/>
+      <c r="I15" s="39"/>
+      <c r="J15" s="122"/>
+      <c r="K15" s="59" t="s">
         <v>165</v>
       </c>
-      <c r="L15" s="69" t="s">
+      <c r="L15" s="66" t="s">
         <v>108</v>
       </c>
-      <c r="M15" s="42" t="s">
+      <c r="M15" s="39" t="s">
         <v>145</v>
       </c>
-      <c r="N15" s="42" t="s">
+      <c r="N15" s="39" t="s">
         <v>166</v>
       </c>
-      <c r="O15" s="132"/>
-    </row>
-    <row r="16" s="75" customFormat="1" spans="1:15">
-      <c r="A16" s="74" t="s">
-        <v>1</v>
-      </c>
-      <c r="B16" s="106"/>
-      <c r="C16" s="88"/>
-      <c r="D16" s="107"/>
-      <c r="E16" s="108"/>
-      <c r="F16" s="109"/>
-      <c r="G16" s="107"/>
-      <c r="H16" s="88"/>
-      <c r="I16" s="133"/>
-      <c r="J16" s="134" t="s">
+      <c r="O15" s="123"/>
+    </row>
+    <row r="16" s="71" customFormat="1" spans="1:15">
+      <c r="A16" s="70" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" s="97"/>
+      <c r="C16" s="84"/>
+      <c r="D16" s="98"/>
+      <c r="E16" s="99"/>
+      <c r="F16" s="100"/>
+      <c r="G16" s="98"/>
+      <c r="H16" s="84"/>
+      <c r="I16" s="124"/>
+      <c r="J16" s="125" t="s">
         <v>167</v>
       </c>
-      <c r="K16" s="135"/>
-      <c r="L16" s="135"/>
-      <c r="M16" s="133"/>
-      <c r="N16" s="133"/>
-      <c r="O16" s="136"/>
-    </row>
-    <row r="17" s="60" customFormat="1" outlineLevel="1" spans="1:15">
-      <c r="A17" s="110"/>
-      <c r="B17" s="111"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="31">
-        <v>0</v>
-      </c>
-      <c r="E17" s="112">
-        <v>0</v>
-      </c>
-      <c r="F17" s="113"/>
-      <c r="G17" s="31"/>
-      <c r="H17" s="29"/>
-      <c r="I17" s="30"/>
-      <c r="J17" s="144"/>
-      <c r="K17" s="55" t="s">
+      <c r="K16" s="126"/>
+      <c r="L16" s="126"/>
+      <c r="M16" s="124"/>
+      <c r="N16" s="124"/>
+      <c r="O16" s="127"/>
+    </row>
+    <row r="17" s="57" customFormat="1" outlineLevel="1" spans="1:15">
+      <c r="A17" s="101"/>
+      <c r="B17" s="102"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="28">
+        <v>0</v>
+      </c>
+      <c r="E17" s="103">
+        <v>0</v>
+      </c>
+      <c r="F17" s="104"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="132"/>
+      <c r="K17" s="52" t="s">
         <v>168</v>
       </c>
-      <c r="L17" s="55"/>
-      <c r="M17" s="30"/>
-      <c r="N17" s="30"/>
-      <c r="O17" s="145"/>
-    </row>
-    <row r="18" s="60" customFormat="1" outlineLevel="1" spans="1:15">
-      <c r="A18" s="110"/>
-      <c r="B18" s="111"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="31">
-        <v>1</v>
-      </c>
-      <c r="E18" s="112">
-        <v>0</v>
-      </c>
-      <c r="F18" s="113"/>
-      <c r="G18" s="31"/>
-      <c r="H18" s="29"/>
-      <c r="I18" s="30"/>
-      <c r="J18" s="144"/>
-      <c r="K18" s="55" t="s">
+      <c r="L17" s="52"/>
+      <c r="M17" s="27"/>
+      <c r="N17" s="27"/>
+      <c r="O17" s="133"/>
+    </row>
+    <row r="18" s="57" customFormat="1" outlineLevel="1" spans="1:15">
+      <c r="A18" s="101"/>
+      <c r="B18" s="102"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="28">
+        <v>1</v>
+      </c>
+      <c r="E18" s="103">
+        <v>0</v>
+      </c>
+      <c r="F18" s="104"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="132"/>
+      <c r="K18" s="52" t="s">
         <v>169</v>
       </c>
-      <c r="L18" s="55"/>
-      <c r="M18" s="30"/>
-      <c r="N18" s="30"/>
-      <c r="O18" s="145"/>
-    </row>
-    <row r="19" s="60" customFormat="1" outlineLevel="1" spans="1:15">
-      <c r="A19" s="110"/>
-      <c r="B19" s="111"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="31">
-        <v>0</v>
-      </c>
-      <c r="E19" s="112">
-        <v>1</v>
-      </c>
-      <c r="F19" s="113"/>
-      <c r="G19" s="31"/>
-      <c r="H19" s="29"/>
-      <c r="I19" s="30"/>
-      <c r="J19" s="144"/>
-      <c r="K19" s="55" t="s">
+      <c r="L18" s="52"/>
+      <c r="M18" s="27"/>
+      <c r="N18" s="27"/>
+      <c r="O18" s="133"/>
+    </row>
+    <row r="19" s="57" customFormat="1" outlineLevel="1" spans="1:15">
+      <c r="A19" s="101"/>
+      <c r="B19" s="102"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="28">
+        <v>0</v>
+      </c>
+      <c r="E19" s="103">
+        <v>1</v>
+      </c>
+      <c r="F19" s="104"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="26"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="132"/>
+      <c r="K19" s="52" t="s">
         <v>170</v>
       </c>
-      <c r="L19" s="55"/>
-      <c r="M19" s="30"/>
-      <c r="N19" s="30"/>
-      <c r="O19" s="145"/>
-    </row>
-    <row r="20" s="60" customFormat="1" outlineLevel="1" spans="1:15">
-      <c r="A20" s="110"/>
-      <c r="B20" s="111"/>
-      <c r="C20" s="29"/>
-      <c r="D20" s="31">
-        <v>1</v>
-      </c>
-      <c r="E20" s="112">
-        <v>1</v>
-      </c>
-      <c r="F20" s="113"/>
-      <c r="G20" s="31"/>
-      <c r="H20" s="29"/>
-      <c r="I20" s="30"/>
-      <c r="J20" s="144"/>
-      <c r="K20" s="55" t="s">
+      <c r="L19" s="52"/>
+      <c r="M19" s="27"/>
+      <c r="N19" s="27"/>
+      <c r="O19" s="133"/>
+    </row>
+    <row r="20" s="57" customFormat="1" outlineLevel="1" spans="1:15">
+      <c r="A20" s="101"/>
+      <c r="B20" s="102"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="28">
+        <v>1</v>
+      </c>
+      <c r="E20" s="103">
+        <v>1</v>
+      </c>
+      <c r="F20" s="104"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="26"/>
+      <c r="I20" s="27"/>
+      <c r="J20" s="132"/>
+      <c r="K20" s="52" t="s">
         <v>171</v>
       </c>
-      <c r="L20" s="55"/>
-      <c r="M20" s="30"/>
-      <c r="N20" s="30"/>
-      <c r="O20" s="145"/>
-    </row>
-    <row r="21" s="75" customFormat="1" outlineLevel="1" spans="1:15">
-      <c r="A21" s="74" t="s">
+      <c r="L20" s="52"/>
+      <c r="M20" s="27"/>
+      <c r="N20" s="27"/>
+      <c r="O20" s="133"/>
+    </row>
+    <row r="21" s="71" customFormat="1" outlineLevel="1" spans="1:15">
+      <c r="A21" s="70" t="s">
         <v>172</v>
       </c>
-      <c r="B21" s="92"/>
-      <c r="C21" s="96"/>
-      <c r="D21" s="93"/>
-      <c r="E21" s="114"/>
-      <c r="F21" s="95"/>
-      <c r="G21" s="93"/>
-      <c r="H21" s="96"/>
-      <c r="I21" s="137"/>
-      <c r="J21" s="138" t="s">
+      <c r="B21" s="88"/>
+      <c r="C21" s="92"/>
+      <c r="D21" s="89"/>
+      <c r="E21" s="105"/>
+      <c r="F21" s="91"/>
+      <c r="G21" s="89"/>
+      <c r="H21" s="92"/>
+      <c r="I21" s="128"/>
+      <c r="J21" s="129" t="s">
         <v>168</v>
       </c>
-      <c r="K21" s="139"/>
-      <c r="L21" s="139"/>
-      <c r="M21" s="137"/>
-      <c r="N21" s="137"/>
-      <c r="O21" s="140"/>
-    </row>
-    <row r="22" s="60" customFormat="1" outlineLevel="1" spans="1:15">
-      <c r="A22" s="110"/>
-      <c r="B22" s="111"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="31"/>
-      <c r="E22" s="112"/>
-      <c r="F22" s="113"/>
-      <c r="G22" s="31"/>
-      <c r="H22" s="29"/>
-      <c r="I22" s="30"/>
-      <c r="J22" s="144"/>
-      <c r="K22" s="55"/>
-      <c r="L22" s="55" t="s">
+      <c r="K21" s="130"/>
+      <c r="L21" s="130"/>
+      <c r="M21" s="128"/>
+      <c r="N21" s="128"/>
+      <c r="O21" s="131"/>
+    </row>
+    <row r="22" s="57" customFormat="1" outlineLevel="1" spans="1:15">
+      <c r="A22" s="101"/>
+      <c r="B22" s="102"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="103"/>
+      <c r="F22" s="104"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="26"/>
+      <c r="I22" s="27"/>
+      <c r="J22" s="132"/>
+      <c r="K22" s="52"/>
+      <c r="L22" s="52" t="s">
         <v>173</v>
       </c>
-      <c r="M22" s="30">
-        <v>1</v>
-      </c>
-      <c r="N22" s="30" t="s">
+      <c r="M22" s="27">
+        <v>1</v>
+      </c>
+      <c r="N22" s="27" t="s">
         <v>173</v>
       </c>
-      <c r="O22" s="145" t="s">
+      <c r="O22" s="133" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="23" s="75" customFormat="1" outlineLevel="1" spans="1:15">
-      <c r="A23" s="74" t="s">
+    <row r="23" s="71" customFormat="1" outlineLevel="1" spans="1:15">
+      <c r="A23" s="70" t="s">
         <v>175</v>
       </c>
-      <c r="B23" s="92"/>
-      <c r="C23" s="96"/>
-      <c r="D23" s="93"/>
-      <c r="E23" s="114"/>
-      <c r="F23" s="95"/>
-      <c r="G23" s="93"/>
-      <c r="H23" s="96"/>
-      <c r="I23" s="137"/>
-      <c r="J23" s="138" t="s">
+      <c r="B23" s="88"/>
+      <c r="C23" s="92"/>
+      <c r="D23" s="89"/>
+      <c r="E23" s="105"/>
+      <c r="F23" s="91"/>
+      <c r="G23" s="89"/>
+      <c r="H23" s="92"/>
+      <c r="I23" s="128"/>
+      <c r="J23" s="129" t="s">
         <v>169</v>
       </c>
-      <c r="K23" s="139"/>
-      <c r="L23" s="139"/>
-      <c r="M23" s="137"/>
-      <c r="N23" s="137"/>
-      <c r="O23" s="140"/>
-    </row>
-    <row r="24" s="60" customFormat="1" outlineLevel="1" spans="1:15">
-      <c r="A24" s="110"/>
-      <c r="B24" s="111"/>
-      <c r="C24" s="29" t="s">
+      <c r="K23" s="130"/>
+      <c r="L23" s="130"/>
+      <c r="M23" s="128"/>
+      <c r="N23" s="128"/>
+      <c r="O23" s="131"/>
+    </row>
+    <row r="24" s="57" customFormat="1" outlineLevel="1" spans="1:15">
+      <c r="A24" s="101"/>
+      <c r="B24" s="102"/>
+      <c r="C24" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="D24" s="31"/>
-      <c r="E24" s="112"/>
-      <c r="F24" s="113"/>
-      <c r="G24" s="31"/>
-      <c r="H24" s="29"/>
-      <c r="I24" s="30"/>
-      <c r="J24" s="144"/>
-      <c r="K24" s="55"/>
-      <c r="L24" s="55" t="s">
+      <c r="D24" s="28"/>
+      <c r="E24" s="103"/>
+      <c r="F24" s="104"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="26"/>
+      <c r="I24" s="27"/>
+      <c r="J24" s="132"/>
+      <c r="K24" s="52"/>
+      <c r="L24" s="52" t="s">
         <v>176</v>
       </c>
-      <c r="M24" s="30" t="s">
+      <c r="M24" s="27" t="s">
         <v>145</v>
       </c>
-      <c r="N24" s="30" t="s">
+      <c r="N24" s="27" t="s">
         <v>146</v>
       </c>
-      <c r="O24" s="145" t="s">
+      <c r="O24" s="133" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="25" s="60" customFormat="1" outlineLevel="1" spans="1:15">
-      <c r="A25" s="110"/>
-      <c r="B25" s="111"/>
-      <c r="C25" s="29"/>
-      <c r="D25" s="31"/>
-      <c r="E25" s="112"/>
-      <c r="F25" s="113"/>
-      <c r="G25" s="31"/>
-      <c r="H25" s="29"/>
-      <c r="I25" s="30"/>
-      <c r="J25" s="144"/>
-      <c r="K25" s="55"/>
-      <c r="L25" s="55" t="s">
+    <row r="25" s="57" customFormat="1" outlineLevel="1" spans="1:15">
+      <c r="A25" s="101"/>
+      <c r="B25" s="102"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="103"/>
+      <c r="F25" s="104"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="26"/>
+      <c r="I25" s="27"/>
+      <c r="J25" s="132"/>
+      <c r="K25" s="52"/>
+      <c r="L25" s="52" t="s">
         <v>173</v>
       </c>
-      <c r="M25" s="30" t="s">
+      <c r="M25" s="27" t="s">
         <v>145</v>
       </c>
-      <c r="N25" s="30" t="s">
+      <c r="N25" s="27" t="s">
         <v>173</v>
       </c>
-      <c r="O25" s="145" t="s">
+      <c r="O25" s="133" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="26" s="75" customFormat="1" outlineLevel="1" spans="1:15">
-      <c r="A26" s="74" t="s">
+    <row r="26" s="71" customFormat="1" outlineLevel="1" spans="1:15">
+      <c r="A26" s="70" t="s">
         <v>178</v>
       </c>
-      <c r="B26" s="92"/>
-      <c r="C26" s="96"/>
-      <c r="D26" s="93"/>
-      <c r="E26" s="114"/>
-      <c r="F26" s="95"/>
-      <c r="G26" s="93"/>
-      <c r="H26" s="96"/>
-      <c r="I26" s="137"/>
-      <c r="J26" s="138" t="s">
+      <c r="B26" s="88"/>
+      <c r="C26" s="92"/>
+      <c r="D26" s="89"/>
+      <c r="E26" s="105"/>
+      <c r="F26" s="91"/>
+      <c r="G26" s="89"/>
+      <c r="H26" s="92"/>
+      <c r="I26" s="128"/>
+      <c r="J26" s="129" t="s">
         <v>170</v>
       </c>
-      <c r="K26" s="139"/>
-      <c r="L26" s="139"/>
-      <c r="M26" s="137"/>
-      <c r="N26" s="137"/>
-      <c r="O26" s="140"/>
+      <c r="K26" s="130"/>
+      <c r="L26" s="130"/>
+      <c r="M26" s="128"/>
+      <c r="N26" s="128"/>
+      <c r="O26" s="131"/>
     </row>
     <row r="27" outlineLevel="1" spans="2:15">
-      <c r="B27" s="81"/>
-      <c r="C27" s="82"/>
-      <c r="D27" s="82"/>
-      <c r="E27" s="91"/>
-      <c r="F27" s="84"/>
-      <c r="G27" s="82"/>
+      <c r="B27" s="77"/>
+      <c r="C27" s="78"/>
+      <c r="D27" s="78"/>
+      <c r="E27" s="87"/>
+      <c r="F27" s="80"/>
+      <c r="G27" s="78"/>
       <c r="H27" s="23"/>
       <c r="I27" s="24"/>
-      <c r="J27" s="129"/>
-      <c r="K27" s="53"/>
-      <c r="L27" s="53" t="s">
+      <c r="J27" s="120"/>
+      <c r="K27" s="50"/>
+      <c r="L27" s="50" t="s">
         <v>179</v>
       </c>
       <c r="M27" s="24">
@@ -7112,22 +7093,22 @@
       <c r="N27" s="24" t="s">
         <v>153</v>
       </c>
-      <c r="O27" s="146" t="s">
+      <c r="O27" s="134" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="28" outlineLevel="1" spans="2:15">
-      <c r="B28" s="81"/>
-      <c r="C28" s="82"/>
-      <c r="D28" s="82"/>
-      <c r="E28" s="91"/>
-      <c r="F28" s="84"/>
-      <c r="G28" s="82"/>
+      <c r="B28" s="77"/>
+      <c r="C28" s="78"/>
+      <c r="D28" s="78"/>
+      <c r="E28" s="87"/>
+      <c r="F28" s="80"/>
+      <c r="G28" s="78"/>
       <c r="H28" s="23"/>
       <c r="I28" s="24"/>
-      <c r="J28" s="129"/>
-      <c r="K28" s="53"/>
-      <c r="L28" s="53" t="s">
+      <c r="J28" s="120"/>
+      <c r="K28" s="50"/>
+      <c r="L28" s="50" t="s">
         <v>181</v>
       </c>
       <c r="M28" s="24" t="s">
@@ -7136,43 +7117,43 @@
       <c r="N28" s="24" t="s">
         <v>182</v>
       </c>
-      <c r="O28" s="146" t="s">
+      <c r="O28" s="134" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="29" s="75" customFormat="1" outlineLevel="1" spans="1:15">
-      <c r="A29" s="74" t="s">
+    <row r="29" s="71" customFormat="1" outlineLevel="1" spans="1:15">
+      <c r="A29" s="70" t="s">
         <v>184</v>
       </c>
-      <c r="B29" s="92"/>
-      <c r="C29" s="96"/>
-      <c r="D29" s="93"/>
-      <c r="E29" s="114"/>
-      <c r="F29" s="95"/>
-      <c r="G29" s="93"/>
-      <c r="H29" s="96"/>
-      <c r="I29" s="137"/>
-      <c r="J29" s="138" t="s">
+      <c r="B29" s="88"/>
+      <c r="C29" s="92"/>
+      <c r="D29" s="89"/>
+      <c r="E29" s="105"/>
+      <c r="F29" s="91"/>
+      <c r="G29" s="89"/>
+      <c r="H29" s="92"/>
+      <c r="I29" s="128"/>
+      <c r="J29" s="129" t="s">
         <v>171</v>
       </c>
-      <c r="K29" s="139"/>
-      <c r="L29" s="139"/>
-      <c r="M29" s="137"/>
-      <c r="N29" s="137"/>
-      <c r="O29" s="140"/>
+      <c r="K29" s="130"/>
+      <c r="L29" s="130"/>
+      <c r="M29" s="128"/>
+      <c r="N29" s="128"/>
+      <c r="O29" s="131"/>
     </row>
     <row r="30" outlineLevel="1" spans="2:15">
-      <c r="B30" s="81"/>
+      <c r="B30" s="77"/>
       <c r="C30" s="23"/>
-      <c r="D30" s="82"/>
-      <c r="E30" s="83"/>
-      <c r="F30" s="84"/>
-      <c r="G30" s="82"/>
+      <c r="D30" s="78"/>
+      <c r="E30" s="79"/>
+      <c r="F30" s="80"/>
+      <c r="G30" s="78"/>
       <c r="H30" s="23"/>
       <c r="I30" s="24"/>
-      <c r="J30" s="129"/>
-      <c r="K30" s="53"/>
-      <c r="L30" s="53" t="s">
+      <c r="J30" s="120"/>
+      <c r="K30" s="50"/>
+      <c r="L30" s="50" t="s">
         <v>185</v>
       </c>
       <c r="M30" s="24">
@@ -7181,26 +7162,26 @@
       <c r="N30" s="24" t="s">
         <v>153</v>
       </c>
-      <c r="O30" s="146" t="s">
+      <c r="O30" s="134" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="31" outlineLevel="1" spans="2:15">
-      <c r="B31" s="81"/>
+      <c r="B31" s="77"/>
       <c r="C31" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="D31" s="82"/>
-      <c r="E31" s="83"/>
-      <c r="F31" s="84"/>
-      <c r="G31" s="82"/>
+      <c r="D31" s="78"/>
+      <c r="E31" s="79"/>
+      <c r="F31" s="80"/>
+      <c r="G31" s="78"/>
       <c r="H31" s="23"/>
       <c r="I31" s="24"/>
-      <c r="J31" s="129"/>
-      <c r="K31" s="53" t="s">
+      <c r="J31" s="120"/>
+      <c r="K31" s="50" t="s">
         <v>187</v>
       </c>
-      <c r="L31" s="53" t="s">
+      <c r="L31" s="50" t="s">
         <v>188</v>
       </c>
       <c r="M31" s="24" t="s">
@@ -7209,24 +7190,24 @@
       <c r="N31" s="24" t="s">
         <v>190</v>
       </c>
-      <c r="O31" s="146" t="s">
+      <c r="O31" s="134" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="32" outlineLevel="1" spans="2:15">
-      <c r="B32" s="81"/>
+      <c r="B32" s="77"/>
       <c r="C32" s="23"/>
-      <c r="D32" s="82"/>
-      <c r="E32" s="83"/>
-      <c r="F32" s="84"/>
-      <c r="G32" s="82"/>
+      <c r="D32" s="78"/>
+      <c r="E32" s="79"/>
+      <c r="F32" s="80"/>
+      <c r="G32" s="78"/>
       <c r="H32" s="23"/>
       <c r="I32" s="24"/>
-      <c r="J32" s="129" t="s">
+      <c r="J32" s="120" t="s">
         <v>187</v>
       </c>
-      <c r="K32" s="53"/>
-      <c r="L32" s="53" t="s">
+      <c r="K32" s="50"/>
+      <c r="L32" s="50" t="s">
         <v>181</v>
       </c>
       <c r="M32" s="24" t="s">
@@ -7235,75 +7216,75 @@
       <c r="N32" s="24" t="s">
         <v>182</v>
       </c>
-      <c r="O32" s="146" t="s">
+      <c r="O32" s="134" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="33" outlineLevel="1" spans="2:15">
-      <c r="B33" s="102"/>
-      <c r="C33" s="41"/>
-      <c r="D33" s="103"/>
-      <c r="E33" s="104"/>
-      <c r="F33" s="105"/>
-      <c r="G33" s="103"/>
-      <c r="H33" s="41"/>
-      <c r="I33" s="42"/>
-      <c r="J33" s="131" t="s">
+      <c r="B33" s="93"/>
+      <c r="C33" s="38"/>
+      <c r="D33" s="94"/>
+      <c r="E33" s="95"/>
+      <c r="F33" s="96"/>
+      <c r="G33" s="94"/>
+      <c r="H33" s="38"/>
+      <c r="I33" s="39"/>
+      <c r="J33" s="122" t="s">
         <v>193</v>
       </c>
-      <c r="K33" s="69"/>
-      <c r="L33" s="69" t="s">
+      <c r="K33" s="66"/>
+      <c r="L33" s="66" t="s">
         <v>181</v>
       </c>
-      <c r="M33" s="42" t="s">
+      <c r="M33" s="39" t="s">
         <v>145</v>
       </c>
-      <c r="N33" s="42" t="s">
+      <c r="N33" s="39" t="s">
         <v>182</v>
       </c>
-      <c r="O33" s="147" t="s">
+      <c r="O33" s="135" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="34" spans="2:18">
       <c r="B34" s="23"/>
       <c r="C34" s="23"/>
-      <c r="D34" s="82"/>
-      <c r="E34" s="82"/>
-      <c r="F34" s="82"/>
-      <c r="G34" s="82"/>
+      <c r="D34" s="78"/>
+      <c r="E34" s="78"/>
+      <c r="F34" s="78"/>
+      <c r="G34" s="78"/>
       <c r="H34" s="23"/>
       <c r="I34" s="23"/>
-      <c r="J34" s="53"/>
-      <c r="K34" s="53"/>
-      <c r="L34" s="53"/>
-      <c r="M34" s="53"/>
+      <c r="J34" s="50"/>
+      <c r="K34" s="50"/>
+      <c r="L34" s="50"/>
+      <c r="M34" s="50"/>
       <c r="N34" s="23"/>
       <c r="O34" s="23"/>
       <c r="P34" s="23"/>
-      <c r="Q34" s="53"/>
-      <c r="R34" s="53"/>
+      <c r="Q34" s="50"/>
+      <c r="R34" s="50"/>
     </row>
     <row r="35" spans="2:18">
-      <c r="B35" s="82"/>
-      <c r="C35" s="82"/>
-      <c r="D35" s="82"/>
-      <c r="E35" s="82"/>
-      <c r="F35" s="82"/>
-      <c r="G35" s="82"/>
+      <c r="B35" s="78"/>
+      <c r="C35" s="78"/>
+      <c r="D35" s="78"/>
+      <c r="E35" s="78"/>
+      <c r="F35" s="78"/>
+      <c r="G35" s="78"/>
       <c r="H35" s="23"/>
       <c r="I35" s="23"/>
-      <c r="J35" s="148" t="s">
+      <c r="J35" s="136" t="s">
         <v>141</v>
       </c>
-      <c r="K35" s="148"/>
-      <c r="L35" s="148"/>
-      <c r="M35" s="148"/>
-      <c r="N35" s="29"/>
+      <c r="K35" s="136"/>
+      <c r="L35" s="136"/>
+      <c r="M35" s="136"/>
+      <c r="N35" s="26"/>
       <c r="O35" s="23"/>
       <c r="P35" s="23"/>
       <c r="Q35" s="23"/>
-      <c r="R35" s="53"/>
+      <c r="R35" s="50"/>
     </row>
     <row r="36" spans="10:10">
       <c r="J36" s="4" t="s">
@@ -7319,48 +7300,48 @@
       <c r="A40" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="B40" s="115"/>
-      <c r="C40" s="116"/>
-      <c r="D40" s="117"/>
-      <c r="E40" s="118"/>
-      <c r="F40" s="116" t="s">
+      <c r="B40" s="106"/>
+      <c r="C40" s="107"/>
+      <c r="D40" s="108"/>
+      <c r="E40" s="109"/>
+      <c r="F40" s="107" t="s">
         <v>155</v>
       </c>
-      <c r="G40" s="118" t="s">
+      <c r="G40" s="109" t="s">
         <v>149</v>
       </c>
-      <c r="H40" s="118" t="s">
+      <c r="H40" s="109" t="s">
         <v>147</v>
       </c>
-      <c r="I40" s="117" t="s">
+      <c r="I40" s="108" t="s">
         <v>143</v>
       </c>
-      <c r="J40" s="43" t="s">
+      <c r="J40" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="K40" s="43" t="s">
+      <c r="K40" s="40" t="s">
         <v>197</v>
       </c>
-      <c r="L40" s="72" t="s">
+      <c r="L40" s="69" t="s">
         <v>198</v>
       </c>
       <c r="M40" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="N40" s="43"/>
+      <c r="N40" s="40"/>
     </row>
     <row r="41" customFormat="1" spans="1:14">
       <c r="A41" s="12"/>
-      <c r="B41" s="119"/>
-      <c r="C41" s="45"/>
-      <c r="D41" s="45"/>
-      <c r="E41" s="120"/>
-      <c r="F41" s="121"/>
-      <c r="G41" s="45"/>
-      <c r="H41" s="45">
-        <v>1</v>
-      </c>
-      <c r="I41" s="46" t="s">
+      <c r="B41" s="110"/>
+      <c r="C41" s="42"/>
+      <c r="D41" s="42"/>
+      <c r="E41" s="111"/>
+      <c r="F41" s="112"/>
+      <c r="G41" s="42"/>
+      <c r="H41" s="42">
+        <v>1</v>
+      </c>
+      <c r="I41" s="43" t="s">
         <v>58</v>
       </c>
       <c r="J41" s="3" t="str">
@@ -7381,13 +7362,13 @@
     </row>
     <row r="42" customFormat="1" spans="1:14">
       <c r="A42" s="12"/>
-      <c r="B42" s="122"/>
+      <c r="B42" s="113"/>
       <c r="C42" s="23"/>
       <c r="D42" s="23"/>
-      <c r="E42" s="91">
-        <v>0</v>
-      </c>
-      <c r="F42" s="123">
+      <c r="E42" s="87">
+        <v>0</v>
+      </c>
+      <c r="F42" s="114">
         <v>1</v>
       </c>
       <c r="G42" s="23" t="s">
@@ -7417,17 +7398,17 @@
     </row>
     <row r="43" customFormat="1" spans="1:14">
       <c r="A43" s="12"/>
-      <c r="B43" s="122"/>
+      <c r="B43" s="113"/>
       <c r="C43" s="23" t="s">
         <v>58</v>
       </c>
       <c r="D43" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="E43" s="91">
-        <v>1</v>
-      </c>
-      <c r="F43" s="123">
+      <c r="E43" s="87">
+        <v>1</v>
+      </c>
+      <c r="F43" s="114">
         <v>1</v>
       </c>
       <c r="G43" s="23" t="s">
@@ -7457,15 +7438,15 @@
     </row>
     <row r="44" customFormat="1" spans="1:14">
       <c r="A44" s="12"/>
-      <c r="B44" s="122"/>
+      <c r="B44" s="113"/>
       <c r="C44" s="23"/>
       <c r="D44" s="23">
         <v>0</v>
       </c>
-      <c r="E44" s="91">
-        <v>0</v>
-      </c>
-      <c r="F44" s="123">
+      <c r="E44" s="87">
+        <v>0</v>
+      </c>
+      <c r="F44" s="114">
         <v>0</v>
       </c>
       <c r="G44" s="23" t="s">
@@ -7495,15 +7476,15 @@
     </row>
     <row r="45" customFormat="1" spans="1:14">
       <c r="A45" s="12"/>
-      <c r="B45" s="122"/>
+      <c r="B45" s="113"/>
       <c r="C45" s="23"/>
       <c r="D45" s="23">
         <v>0</v>
       </c>
-      <c r="E45" s="91">
-        <v>1</v>
-      </c>
-      <c r="F45" s="123">
+      <c r="E45" s="87">
+        <v>1</v>
+      </c>
+      <c r="F45" s="114">
         <v>0</v>
       </c>
       <c r="G45" s="23" t="s">
@@ -7533,15 +7514,15 @@
     </row>
     <row r="46" customFormat="1" spans="1:14">
       <c r="A46" s="12"/>
-      <c r="B46" s="122"/>
+      <c r="B46" s="113"/>
       <c r="C46" s="23"/>
       <c r="D46" s="23">
         <v>1</v>
       </c>
-      <c r="E46" s="91">
-        <v>0</v>
-      </c>
-      <c r="F46" s="123">
+      <c r="E46" s="87">
+        <v>0</v>
+      </c>
+      <c r="F46" s="114">
         <v>0</v>
       </c>
       <c r="G46" s="23" t="s">
@@ -7571,26 +7552,26 @@
     </row>
     <row r="47" customFormat="1" spans="1:14">
       <c r="A47" s="12"/>
-      <c r="B47" s="124"/>
-      <c r="C47" s="41" t="s">
+      <c r="B47" s="115"/>
+      <c r="C47" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="D47" s="41">
-        <v>1</v>
-      </c>
-      <c r="E47" s="85">
-        <v>1</v>
-      </c>
-      <c r="F47" s="86">
-        <v>0</v>
-      </c>
-      <c r="G47" s="41" t="s">
+      <c r="D47" s="38">
+        <v>1</v>
+      </c>
+      <c r="E47" s="81">
+        <v>1</v>
+      </c>
+      <c r="F47" s="82">
+        <v>0</v>
+      </c>
+      <c r="G47" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="H47" s="41">
-        <v>0</v>
-      </c>
-      <c r="I47" s="42" t="s">
+      <c r="H47" s="38">
+        <v>0</v>
+      </c>
+      <c r="I47" s="39" t="s">
         <v>58</v>
       </c>
       <c r="J47" s="3" t="str">
@@ -7620,15 +7601,17 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N37"/>
+  <dimension ref="A1:N36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.55"/>
   <cols>
-    <col min="1" max="1" width="17" style="12" customWidth="1"/>
+    <col min="1" max="1" width="15.4414414414414" style="12" customWidth="1"/>
     <col min="2" max="9" width="3" style="3" customWidth="1"/>
     <col min="10" max="10" width="22.2342342342342" customWidth="1"/>
     <col min="11" max="11" width="22.2342342342342" style="3" customWidth="1"/>
@@ -7662,7 +7645,7 @@
       <c r="I1" s="15">
         <v>0</v>
       </c>
-      <c r="J1" s="47" t="s">
+      <c r="J1" s="44" t="s">
         <v>28</v>
       </c>
       <c r="K1" s="5" t="s">
@@ -7671,7 +7654,7 @@
       <c r="L1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="M1" s="48" t="s">
+      <c r="M1" s="45" t="s">
         <v>140</v>
       </c>
       <c r="N1" s="5" t="s">
@@ -7679,9 +7662,7 @@
       </c>
     </row>
     <row r="2" s="6" customFormat="1" spans="1:14">
-      <c r="A2" s="16" t="s">
-        <v>208</v>
-      </c>
+      <c r="A2" s="16"/>
       <c r="B2" s="17"/>
       <c r="C2" s="18"/>
       <c r="D2" s="18"/>
@@ -7690,11 +7671,11 @@
       <c r="G2" s="20"/>
       <c r="H2" s="18"/>
       <c r="I2" s="19"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="50"/>
-      <c r="L2" s="50"/>
-      <c r="M2" s="51"/>
-      <c r="N2" s="52"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="47"/>
+      <c r="L2" s="47"/>
+      <c r="M2" s="48"/>
+      <c r="N2" s="49"/>
     </row>
     <row r="3" s="7" customFormat="1" spans="1:14">
       <c r="A3" s="21"/>
@@ -7706,71 +7687,72 @@
       <c r="G3" s="23"/>
       <c r="H3" s="23"/>
       <c r="I3" s="24" t="s">
+        <v>208</v>
+      </c>
+      <c r="J3" s="50"/>
+      <c r="K3" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="J3" s="53"/>
-      <c r="K3" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="M3" s="53"/>
-      <c r="N3" s="54"/>
-    </row>
-    <row r="4" s="6" customFormat="1" spans="1:14">
-      <c r="A4" s="16" t="s">
-        <v>211</v>
-      </c>
+      <c r="M3" s="50"/>
+      <c r="N3" s="51"/>
+    </row>
+    <row r="4" s="8" customFormat="1" spans="1:14">
+      <c r="A4" s="5"/>
       <c r="B4" s="25"/>
       <c r="C4" s="26"/>
       <c r="D4" s="26"/>
       <c r="E4" s="27"/>
       <c r="F4" s="25"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="26" t="s">
+        <v>210</v>
+      </c>
       <c r="I4" s="27"/>
-      <c r="J4" s="49"/>
-      <c r="K4" s="50"/>
-      <c r="L4" s="50"/>
-      <c r="M4" s="51"/>
-      <c r="N4" s="52"/>
-    </row>
-    <row r="5" s="8" customFormat="1" spans="1:14">
-      <c r="A5" s="5"/>
-      <c r="B5" s="28"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="29" t="s">
+      <c r="J4" s="52"/>
+      <c r="K4" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="M4" s="53"/>
+      <c r="N4" s="54"/>
+    </row>
+    <row r="5" s="6" customFormat="1" spans="1:14">
+      <c r="A5" s="16" t="s">
         <v>212</v>
       </c>
-      <c r="I5" s="30"/>
-      <c r="J5" s="55"/>
-      <c r="K5" s="8" t="s">
+      <c r="B5" s="17"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="46" t="s">
         <v>213</v>
       </c>
-      <c r="M5" s="56"/>
-      <c r="N5" s="57"/>
-    </row>
-    <row r="6" s="6" customFormat="1" spans="1:14">
-      <c r="A6" s="16" t="s">
+      <c r="K5" s="47"/>
+      <c r="L5" s="47"/>
+      <c r="M5" s="48"/>
+      <c r="N5" s="49"/>
+    </row>
+    <row r="6" s="7" customFormat="1" outlineLevel="1" spans="1:14">
+      <c r="A6" s="21"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="23" t="s">
         <v>214</v>
       </c>
-      <c r="B6" s="17"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="49" t="s">
+      <c r="H6" s="23"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="50"/>
+      <c r="K6" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="K6" s="50"/>
-      <c r="L6" s="50"/>
-      <c r="M6" s="51"/>
-      <c r="N6" s="52"/>
+      <c r="M6" s="50"/>
+      <c r="N6" s="51"/>
     </row>
     <row r="7" s="7" customFormat="1" outlineLevel="1" spans="1:14">
       <c r="A7" s="21"/>
@@ -7778,215 +7760,218 @@
       <c r="C7" s="23"/>
       <c r="D7" s="23"/>
       <c r="E7" s="24"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="23" t="s">
+      <c r="F7" s="22" t="s">
         <v>216</v>
       </c>
+      <c r="G7" s="23"/>
       <c r="H7" s="23"/>
       <c r="I7" s="24"/>
-      <c r="J7" s="53"/>
+      <c r="J7" s="50"/>
       <c r="K7" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="M7" s="53"/>
-      <c r="N7" s="54"/>
-    </row>
-    <row r="8" s="7" customFormat="1" outlineLevel="1" spans="1:14">
-      <c r="A8" s="21"/>
-      <c r="B8" s="22"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="22" t="s">
+      <c r="M7" s="50"/>
+      <c r="N7" s="51"/>
+    </row>
+    <row r="8" s="8" customFormat="1" outlineLevel="1" spans="1:14">
+      <c r="A8" s="5"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26" t="s">
         <v>218</v>
       </c>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="53"/>
-      <c r="K8" s="7" t="s">
+      <c r="E8" s="27" t="s">
+        <v>218</v>
+      </c>
+      <c r="F8" s="25"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="52"/>
+      <c r="L8" s="8" t="s">
         <v>219</v>
       </c>
       <c r="M8" s="53"/>
       <c r="N8" s="54"/>
     </row>
-    <row r="9" s="8" customFormat="1" outlineLevel="1" spans="1:14">
-      <c r="A9" s="5"/>
-      <c r="B9" s="28"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29" t="s">
+    <row r="9" s="9" customFormat="1" outlineLevel="1" spans="1:14">
+      <c r="A9" s="29"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="52" t="s">
         <v>220</v>
       </c>
-      <c r="E9" s="30" t="s">
-        <v>220</v>
-      </c>
-      <c r="F9" s="28"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="55"/>
-      <c r="L9" s="8" t="s">
+      <c r="K9" s="8"/>
+      <c r="L9" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="M9" s="50" t="s">
         <v>221</v>
       </c>
-      <c r="M9" s="56"/>
-      <c r="N9" s="57"/>
+      <c r="N9" s="55" t="s">
+        <v>222</v>
+      </c>
     </row>
     <row r="10" s="9" customFormat="1" outlineLevel="1" spans="1:14">
-      <c r="A10" s="32"/>
-      <c r="B10" s="28"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="30"/>
-      <c r="J10" s="55" t="s">
-        <v>222</v>
+      <c r="A10" s="29"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="52" t="s">
+        <v>223</v>
       </c>
       <c r="K10" s="8"/>
-      <c r="L10" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="M10" s="53" t="s">
+      <c r="L10" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="M10" s="50" t="s">
+        <v>221</v>
+      </c>
+      <c r="N10" s="56" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="11" outlineLevel="1" spans="2:14">
+      <c r="B11" s="22"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="50" t="s">
         <v>223</v>
       </c>
-      <c r="N10" s="58" t="s">
+      <c r="K11" s="7"/>
+      <c r="L11" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="M11" s="50" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="11" s="9" customFormat="1" outlineLevel="1" spans="1:14">
-      <c r="A11" s="32"/>
-      <c r="B11" s="28"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="30"/>
-      <c r="J11" s="55" t="s">
-        <v>225</v>
-      </c>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8" t="s">
+      <c r="N11" s="55"/>
+    </row>
+    <row r="12" s="10" customFormat="1" spans="1:14">
+      <c r="A12" s="30" t="s">
         <v>226</v>
       </c>
-      <c r="M11" s="53" t="s">
-        <v>223</v>
-      </c>
-      <c r="N11" s="59" t="s">
+      <c r="B12" s="17"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="46" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="12" outlineLevel="1" spans="2:14">
-      <c r="B12" s="22"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="24"/>
-      <c r="J12" s="53" t="s">
-        <v>225</v>
-      </c>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="M12" s="53" t="s">
-        <v>226</v>
-      </c>
-      <c r="N12" s="58"/>
-    </row>
-    <row r="13" s="10" customFormat="1" spans="1:14">
-      <c r="A13" s="33" t="s">
+      <c r="K12" s="47"/>
+      <c r="L12" s="47"/>
+      <c r="M12" s="46"/>
+      <c r="N12" s="49"/>
+    </row>
+    <row r="13" outlineLevel="1" spans="2:14">
+      <c r="B13" s="22"/>
+      <c r="C13" s="23"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="23" t="s">
         <v>228</v>
       </c>
-      <c r="B13" s="17"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="49" t="s">
+      <c r="I13" s="24"/>
+      <c r="J13" s="50"/>
+      <c r="K13" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="K13" s="50"/>
-      <c r="L13" s="50"/>
-      <c r="M13" s="49"/>
-      <c r="N13" s="52"/>
-    </row>
-    <row r="14" outlineLevel="1" spans="2:14">
-      <c r="B14" s="22"/>
-      <c r="C14" s="23"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="23" t="s">
+      <c r="L13" s="7"/>
+      <c r="M13" s="50"/>
+      <c r="N13" s="51"/>
+    </row>
+    <row r="14" s="9" customFormat="1" outlineLevel="1" spans="1:14">
+      <c r="A14" s="29"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26">
+        <v>1</v>
+      </c>
+      <c r="E14" s="27">
+        <v>1</v>
+      </c>
+      <c r="F14" s="25"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="57"/>
+      <c r="K14" s="9" t="s">
         <v>230</v>
       </c>
-      <c r="I14" s="24"/>
-      <c r="J14" s="53"/>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="9" t="s">
         <v>231</v>
       </c>
-      <c r="L14" s="7"/>
-      <c r="M14" s="53"/>
+      <c r="M14" s="58"/>
       <c r="N14" s="54"/>
     </row>
-    <row r="15" s="9" customFormat="1" outlineLevel="1" spans="1:14">
-      <c r="A15" s="32"/>
-      <c r="B15" s="28"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="29">
-        <v>1</v>
-      </c>
-      <c r="E15" s="30">
-        <v>1</v>
-      </c>
-      <c r="F15" s="28"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="30"/>
-      <c r="J15" s="60"/>
-      <c r="K15" s="9" t="s">
+    <row r="15" s="8" customFormat="1" outlineLevel="1" spans="1:14">
+      <c r="A15" s="5"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26" t="s">
+        <v>218</v>
+      </c>
+      <c r="E15" s="27" t="s">
+        <v>218</v>
+      </c>
+      <c r="F15" s="25"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="52" t="s">
         <v>232</v>
       </c>
-      <c r="L15" s="9" t="s">
+      <c r="K15" s="8" t="s">
         <v>233</v>
       </c>
-      <c r="M15" s="61"/>
-      <c r="N15" s="57"/>
-    </row>
-    <row r="16" s="8" customFormat="1" outlineLevel="1" spans="1:14">
-      <c r="A16" s="5"/>
-      <c r="B16" s="28"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="29" t="s">
-        <v>220</v>
-      </c>
-      <c r="E16" s="30" t="s">
-        <v>220</v>
-      </c>
-      <c r="F16" s="28"/>
-      <c r="G16" s="31"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="30"/>
-      <c r="J16" s="55" t="s">
+      <c r="L15" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="M15" s="53"/>
+      <c r="N15" s="54" t="s">
         <v>234</v>
       </c>
-      <c r="K16" s="8" t="s">
+    </row>
+    <row r="16" outlineLevel="1" spans="2:14">
+      <c r="B16" s="22"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="L16" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="M16" s="56"/>
-      <c r="N16" s="57" t="s">
+      <c r="L16" t="s">
+        <v>1</v>
+      </c>
+      <c r="M16" s="58" t="s">
         <v>236</v>
+      </c>
+      <c r="N16" s="54" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="17" outlineLevel="1" spans="2:14">
@@ -7999,15 +7984,15 @@
       <c r="H17" s="23"/>
       <c r="I17" s="24"/>
       <c r="J17" s="7" t="s">
-        <v>237</v>
+        <v>87</v>
       </c>
       <c r="L17" t="s">
-        <v>1</v>
-      </c>
-      <c r="M17" s="61" t="s">
         <v>238</v>
       </c>
-      <c r="N17" s="57" t="s">
+      <c r="M17" s="58" t="s">
+        <v>236</v>
+      </c>
+      <c r="N17" s="55" t="s">
         <v>239</v>
       </c>
     </row>
@@ -8020,154 +8005,172 @@
       <c r="G18" s="23"/>
       <c r="H18" s="23"/>
       <c r="I18" s="24"/>
-      <c r="J18" s="7" t="s">
+      <c r="J18" s="50" t="s">
         <v>87</v>
       </c>
-      <c r="L18" t="s">
+      <c r="K18" s="7"/>
+      <c r="L18" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="M18" s="52" t="s">
+        <v>238</v>
+      </c>
+      <c r="N18" s="51"/>
+    </row>
+    <row r="19" s="10" customFormat="1" spans="1:14">
+      <c r="A19" s="30" t="s">
         <v>240</v>
       </c>
-      <c r="M18" s="61" t="s">
-        <v>238</v>
-      </c>
-      <c r="N18" s="58" t="s">
+      <c r="B19" s="17"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="46" t="s">
+        <v>209</v>
+      </c>
+      <c r="K19" s="47"/>
+      <c r="L19" s="47"/>
+      <c r="M19" s="46"/>
+      <c r="N19" s="49"/>
+    </row>
+    <row r="20" s="9" customFormat="1" outlineLevel="1" spans="1:14">
+      <c r="A20" s="29"/>
+      <c r="B20" s="25">
+        <v>0</v>
+      </c>
+      <c r="C20" s="26">
+        <v>0</v>
+      </c>
+      <c r="D20" s="26">
+        <v>0</v>
+      </c>
+      <c r="E20" s="27">
+        <v>0</v>
+      </c>
+      <c r="F20" s="25">
+        <v>0</v>
+      </c>
+      <c r="G20" s="26">
+        <v>0</v>
+      </c>
+      <c r="H20" s="26">
+        <v>0</v>
+      </c>
+      <c r="I20" s="27">
+        <v>1</v>
+      </c>
+      <c r="J20" s="52"/>
+      <c r="K20" s="8" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="19" outlineLevel="1" spans="2:14">
-      <c r="B19" s="22"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="23"/>
-      <c r="I19" s="24"/>
-      <c r="J19" s="53" t="s">
-        <v>87</v>
-      </c>
-      <c r="K19" s="7"/>
-      <c r="L19" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="M19" s="55" t="s">
-        <v>240</v>
-      </c>
-      <c r="N19" s="54"/>
-    </row>
-    <row r="20" s="10" customFormat="1" spans="1:14">
-      <c r="A20" s="33" t="s">
+      <c r="L20" s="8"/>
+      <c r="M20" s="52"/>
+      <c r="N20" s="54" t="s">
         <v>242</v>
       </c>
-      <c r="B20" s="17"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="49" t="s">
-        <v>210</v>
-      </c>
-      <c r="K20" s="50"/>
-      <c r="L20" s="50"/>
-      <c r="M20" s="49"/>
-      <c r="N20" s="52"/>
     </row>
     <row r="21" s="9" customFormat="1" outlineLevel="1" spans="1:14">
-      <c r="A21" s="32"/>
-      <c r="B21" s="28">
-        <v>0</v>
-      </c>
-      <c r="C21" s="29">
-        <v>0</v>
-      </c>
-      <c r="D21" s="29">
-        <v>0</v>
-      </c>
-      <c r="E21" s="30">
-        <v>0</v>
-      </c>
-      <c r="F21" s="28">
-        <v>0</v>
-      </c>
-      <c r="G21" s="29">
-        <v>0</v>
-      </c>
-      <c r="H21" s="29">
-        <v>0</v>
-      </c>
-      <c r="I21" s="30">
-        <v>1</v>
-      </c>
-      <c r="J21" s="55"/>
+      <c r="A21" s="29"/>
+      <c r="B21" s="25">
+        <v>1</v>
+      </c>
+      <c r="C21" s="26">
+        <v>0</v>
+      </c>
+      <c r="D21" s="26">
+        <v>0</v>
+      </c>
+      <c r="E21" s="27">
+        <v>0</v>
+      </c>
+      <c r="F21" s="25">
+        <v>0</v>
+      </c>
+      <c r="G21" s="26">
+        <v>0</v>
+      </c>
+      <c r="H21" s="26">
+        <v>0</v>
+      </c>
+      <c r="I21" s="27">
+        <v>1</v>
+      </c>
+      <c r="J21" s="52"/>
       <c r="K21" s="8" t="s">
         <v>243</v>
       </c>
       <c r="L21" s="8"/>
-      <c r="M21" s="55"/>
-      <c r="N21" s="57" t="s">
+      <c r="M21" s="52"/>
+      <c r="N21" s="54" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="22" s="9" customFormat="1" outlineLevel="1" spans="1:14">
-      <c r="A22" s="32"/>
-      <c r="B22" s="28">
-        <v>1</v>
-      </c>
-      <c r="C22" s="29">
-        <v>0</v>
-      </c>
-      <c r="D22" s="29">
-        <v>0</v>
-      </c>
-      <c r="E22" s="30">
-        <v>0</v>
-      </c>
-      <c r="F22" s="28">
-        <v>0</v>
-      </c>
-      <c r="G22" s="29">
-        <v>0</v>
-      </c>
-      <c r="H22" s="29">
-        <v>0</v>
-      </c>
-      <c r="I22" s="30">
-        <v>1</v>
-      </c>
-      <c r="J22" s="55"/>
-      <c r="K22" s="8" t="s">
+      <c r="A22" s="29"/>
+      <c r="B22" s="31">
+        <v>0</v>
+      </c>
+      <c r="C22" s="32">
+        <v>0</v>
+      </c>
+      <c r="D22" s="32">
+        <v>1</v>
+      </c>
+      <c r="E22" s="33">
+        <v>1</v>
+      </c>
+      <c r="F22" s="31">
+        <v>0</v>
+      </c>
+      <c r="G22" s="32">
+        <v>0</v>
+      </c>
+      <c r="H22" s="32">
+        <v>0</v>
+      </c>
+      <c r="I22" s="33">
+        <v>1</v>
+      </c>
+      <c r="J22" s="59"/>
+      <c r="K22" s="60" t="s">
         <v>245</v>
       </c>
-      <c r="L22" s="8"/>
-      <c r="M22" s="55"/>
-      <c r="N22" s="57" t="s">
+      <c r="L22" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="M22" s="59">
+        <v>8</v>
+      </c>
+      <c r="N22" s="61" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="23" s="9" customFormat="1" outlineLevel="1" spans="1:14">
-      <c r="A23" s="32"/>
+      <c r="A23" s="29"/>
       <c r="B23" s="34">
         <v>0</v>
       </c>
       <c r="C23" s="35">
-        <v>0</v>
-      </c>
-      <c r="D23" s="35">
-        <v>1</v>
-      </c>
-      <c r="E23" s="36">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="D23" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="E23" s="36" t="s">
+        <v>58</v>
       </c>
       <c r="F23" s="34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23" s="35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23" s="35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" s="36">
         <v>1</v>
@@ -8176,193 +8179,192 @@
       <c r="K23" s="63" t="s">
         <v>247</v>
       </c>
-      <c r="L23" s="63" t="s">
-        <v>1</v>
-      </c>
-      <c r="M23" s="62">
-        <v>8</v>
+      <c r="L23" s="63"/>
+      <c r="M23" s="62" t="s">
+        <v>145</v>
       </c>
       <c r="N23" s="64" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="24" s="9" customFormat="1" outlineLevel="1" spans="1:14">
-      <c r="A24" s="32"/>
-      <c r="B24" s="37">
-        <v>0</v>
-      </c>
-      <c r="C24" s="38">
-        <v>1</v>
-      </c>
-      <c r="D24" s="38" t="s">
+      <c r="A24" s="29"/>
+      <c r="B24" s="25">
+        <v>1</v>
+      </c>
+      <c r="C24" s="26">
+        <v>0</v>
+      </c>
+      <c r="D24" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="E24" s="39" t="s">
+      <c r="E24" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="F24" s="37"/>
-      <c r="G24" s="38">
-        <v>1</v>
-      </c>
-      <c r="H24" s="38">
-        <v>1</v>
-      </c>
-      <c r="I24" s="39">
-        <v>1</v>
-      </c>
-      <c r="J24" s="65"/>
-      <c r="K24" s="66" t="s">
+      <c r="F24" s="25">
+        <v>1</v>
+      </c>
+      <c r="G24" s="26">
+        <v>1</v>
+      </c>
+      <c r="H24" s="26">
+        <v>1</v>
+      </c>
+      <c r="I24" s="27">
+        <v>1</v>
+      </c>
+      <c r="J24" s="52"/>
+      <c r="K24" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="L24" s="66"/>
-      <c r="M24" s="65" t="s">
+      <c r="L24" s="8"/>
+      <c r="M24" s="52" t="s">
         <v>145</v>
       </c>
-      <c r="N24" s="67" t="s">
+      <c r="N24" s="65" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="25" s="9" customFormat="1" outlineLevel="1" spans="1:14">
-      <c r="A25" s="32"/>
-      <c r="B25" s="28">
-        <v>1</v>
-      </c>
-      <c r="C25" s="29">
-        <v>0</v>
-      </c>
-      <c r="D25" s="29" t="s">
+    <row r="25" outlineLevel="1" spans="2:14">
+      <c r="B25" s="37">
+        <v>1</v>
+      </c>
+      <c r="C25" s="38">
+        <v>1</v>
+      </c>
+      <c r="D25" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="E25" s="30" t="s">
+      <c r="E25" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="F25" s="28"/>
-      <c r="G25" s="29">
-        <v>1</v>
-      </c>
-      <c r="H25" s="29">
-        <v>1</v>
-      </c>
-      <c r="I25" s="30">
-        <v>1</v>
-      </c>
-      <c r="J25" s="55"/>
-      <c r="K25" s="8" t="s">
+      <c r="F25" s="37">
+        <v>1</v>
+      </c>
+      <c r="G25" s="38">
+        <v>1</v>
+      </c>
+      <c r="H25" s="38">
+        <v>1</v>
+      </c>
+      <c r="I25" s="39">
+        <v>1</v>
+      </c>
+      <c r="J25" s="66"/>
+      <c r="K25" s="67" t="s">
         <v>251</v>
       </c>
-      <c r="L25" s="8"/>
-      <c r="M25" s="55" t="s">
+      <c r="L25" s="67"/>
+      <c r="M25" s="59" t="s">
         <v>145</v>
       </c>
       <c r="N25" s="68" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="26" outlineLevel="1" spans="2:14">
-      <c r="B26" s="40">
-        <v>1</v>
-      </c>
-      <c r="C26" s="41">
-        <v>1</v>
-      </c>
-      <c r="D26" s="41" t="s">
-        <v>58</v>
-      </c>
-      <c r="E26" s="42" t="s">
-        <v>58</v>
-      </c>
-      <c r="F26" s="40"/>
-      <c r="G26" s="41">
-        <v>1</v>
-      </c>
-      <c r="H26" s="41">
-        <v>1</v>
-      </c>
-      <c r="I26" s="42">
-        <v>1</v>
-      </c>
-      <c r="J26" s="69"/>
-      <c r="K26" s="70" t="s">
+    <row r="26" spans="10:14">
+      <c r="J26" s="50"/>
+      <c r="K26"/>
+      <c r="M26" s="57"/>
+      <c r="N26" s="9"/>
+    </row>
+    <row r="27" s="11" customFormat="1" spans="1:13">
+      <c r="A27" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="B27" s="40"/>
+      <c r="C27" s="40"/>
+      <c r="D27" s="40"/>
+      <c r="E27" s="40"/>
+      <c r="F27" s="40"/>
+      <c r="G27" s="40"/>
+      <c r="H27" s="40"/>
+      <c r="I27" s="40"/>
+      <c r="J27" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="K27" s="40" t="s">
+        <v>197</v>
+      </c>
+      <c r="M27" s="69"/>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="12" t="s">
         <v>253</v>
       </c>
-      <c r="L26" s="70"/>
-      <c r="M26" s="62" t="s">
-        <v>145</v>
-      </c>
-      <c r="N26" s="71" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="27" spans="10:14">
-      <c r="J27" s="53"/>
-      <c r="K27"/>
-      <c r="M27" s="60"/>
-      <c r="N27" s="9"/>
-    </row>
-    <row r="28" s="11" customFormat="1" spans="1:13">
-      <c r="A28" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="B28" s="43"/>
-      <c r="C28" s="43"/>
-      <c r="D28" s="43"/>
-      <c r="E28" s="43"/>
-      <c r="F28" s="43"/>
-      <c r="G28" s="43"/>
-      <c r="H28" s="43"/>
-      <c r="I28" s="43"/>
-      <c r="J28" s="43" t="s">
-        <v>35</v>
-      </c>
-      <c r="K28" s="43" t="s">
-        <v>197</v>
-      </c>
-      <c r="M28" s="72"/>
+      <c r="B28" s="41"/>
+      <c r="C28" s="42"/>
+      <c r="D28" s="42">
+        <v>0</v>
+      </c>
+      <c r="E28" s="43">
+        <v>0</v>
+      </c>
+      <c r="F28" s="41">
+        <v>0</v>
+      </c>
+      <c r="G28" s="42">
+        <v>0</v>
+      </c>
+      <c r="H28" s="42">
+        <v>0</v>
+      </c>
+      <c r="I28" s="43">
+        <v>0</v>
+      </c>
+      <c r="J28" s="3" t="str">
+        <f>DEC2HEX(K28,2)</f>
+        <v>00</v>
+      </c>
+      <c r="K28" s="3">
+        <f>IF(B28=1,128,0)+IF(C28=1,64,0)+IF(D28=1,32,0)+IF(E28=1,16,0)+IF(F28=1,8,0)+IF(G28=1,4,0)+IF(H28=1,2,0)+IF(I28=1,1,0)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="12" t="s">
-        <v>255</v>
-      </c>
-      <c r="B29" s="44"/>
-      <c r="C29" s="45"/>
-      <c r="D29" s="45">
-        <v>0</v>
-      </c>
-      <c r="E29" s="46">
-        <v>0</v>
-      </c>
-      <c r="F29" s="44">
-        <v>0</v>
-      </c>
-      <c r="G29" s="45">
-        <v>0</v>
-      </c>
-      <c r="H29" s="45">
-        <v>0</v>
-      </c>
-      <c r="I29" s="46">
+        <v>254</v>
+      </c>
+      <c r="B29" s="22"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="23">
+        <v>0</v>
+      </c>
+      <c r="E29" s="24">
+        <v>1</v>
+      </c>
+      <c r="F29" s="22">
+        <v>0</v>
+      </c>
+      <c r="G29" s="23">
+        <v>0</v>
+      </c>
+      <c r="H29" s="23">
+        <v>0</v>
+      </c>
+      <c r="I29" s="24">
         <v>0</v>
       </c>
       <c r="J29" s="3" t="str">
         <f>DEC2HEX(K29,2)</f>
-        <v>00</v>
+        <v>10</v>
       </c>
       <c r="K29" s="3">
         <f>IF(B29=1,128,0)+IF(C29=1,64,0)+IF(D29=1,32,0)+IF(E29=1,16,0)+IF(F29=1,8,0)+IF(G29=1,4,0)+IF(H29=1,2,0)+IF(I29=1,1,0)</f>
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" spans="1:11">
       <c r="A30" s="12" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B30" s="22"/>
       <c r="C30" s="23"/>
       <c r="D30" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30" s="24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F30" s="22">
         <v>0</v>
@@ -8378,125 +8380,123 @@
       </c>
       <c r="J30" s="3" t="str">
         <f>DEC2HEX(K30,2)</f>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="K30" s="3">
         <f>IF(B30=1,128,0)+IF(C30=1,64,0)+IF(D30=1,32,0)+IF(E30=1,16,0)+IF(F30=1,8,0)+IF(G30=1,4,0)+IF(H30=1,2,0)+IF(I30=1,1,0)</f>
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="31" spans="1:11">
       <c r="A31" s="12" t="s">
-        <v>257</v>
-      </c>
-      <c r="B31" s="22"/>
-      <c r="C31" s="23"/>
-      <c r="D31" s="23">
-        <v>1</v>
-      </c>
-      <c r="E31" s="24">
-        <v>0</v>
-      </c>
-      <c r="F31" s="22">
-        <v>0</v>
-      </c>
-      <c r="G31" s="23">
-        <v>0</v>
-      </c>
-      <c r="H31" s="23">
-        <v>0</v>
-      </c>
-      <c r="I31" s="24">
+        <v>256</v>
+      </c>
+      <c r="B31" s="37"/>
+      <c r="C31" s="38"/>
+      <c r="D31" s="38">
+        <v>1</v>
+      </c>
+      <c r="E31" s="39">
+        <v>1</v>
+      </c>
+      <c r="F31" s="37">
+        <v>0</v>
+      </c>
+      <c r="G31" s="38">
+        <v>0</v>
+      </c>
+      <c r="H31" s="38">
+        <v>0</v>
+      </c>
+      <c r="I31" s="39">
         <v>0</v>
       </c>
       <c r="J31" s="3" t="str">
         <f>DEC2HEX(K31,2)</f>
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="K31" s="3">
         <f>IF(B31=1,128,0)+IF(C31=1,64,0)+IF(D31=1,32,0)+IF(E31=1,16,0)+IF(F31=1,8,0)+IF(G31=1,4,0)+IF(H31=1,2,0)+IF(I31=1,1,0)</f>
-        <v>32</v>
+        <v>48</v>
       </c>
     </row>
     <row r="32" spans="1:11">
       <c r="A32" s="12" t="s">
-        <v>258</v>
-      </c>
-      <c r="B32" s="40"/>
-      <c r="C32" s="41"/>
-      <c r="D32" s="41">
-        <v>1</v>
-      </c>
-      <c r="E32" s="42">
-        <v>1</v>
-      </c>
-      <c r="F32" s="40">
-        <v>0</v>
-      </c>
-      <c r="G32" s="41">
-        <v>0</v>
-      </c>
-      <c r="H32" s="41">
-        <v>0</v>
-      </c>
-      <c r="I32" s="42">
+        <v>257</v>
+      </c>
+      <c r="B32" s="37"/>
+      <c r="C32" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="D32" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="E32" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="F32" s="37">
+        <v>1</v>
+      </c>
+      <c r="G32" s="38">
+        <v>0</v>
+      </c>
+      <c r="H32" s="38">
+        <v>0</v>
+      </c>
+      <c r="I32" s="39">
         <v>0</v>
       </c>
       <c r="J32" s="3" t="str">
         <f>DEC2HEX(K32,2)</f>
-        <v>30</v>
+        <v>08</v>
       </c>
       <c r="K32" s="3">
         <f>IF(B32=1,128,0)+IF(C32=1,64,0)+IF(D32=1,32,0)+IF(E32=1,16,0)+IF(F32=1,8,0)+IF(G32=1,4,0)+IF(H32=1,2,0)+IF(I32=1,1,0)</f>
-        <v>48</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33" spans="1:11">
       <c r="A33" s="12" t="s">
-        <v>259</v>
-      </c>
-      <c r="B33" s="40"/>
-      <c r="C33" s="41" t="s">
-        <v>58</v>
-      </c>
-      <c r="D33" s="41" t="s">
-        <v>58</v>
-      </c>
-      <c r="E33" s="42" t="s">
-        <v>58</v>
-      </c>
-      <c r="F33" s="40">
-        <v>1</v>
-      </c>
-      <c r="G33" s="41">
-        <v>0</v>
-      </c>
-      <c r="H33" s="41">
-        <v>0</v>
-      </c>
-      <c r="I33" s="73">
+        <v>258</v>
+      </c>
+      <c r="B33" s="22"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="23">
+        <v>1</v>
+      </c>
+      <c r="E33" s="24">
+        <v>1</v>
+      </c>
+      <c r="F33" s="22"/>
+      <c r="G33" s="23">
+        <v>0</v>
+      </c>
+      <c r="H33" s="23">
+        <v>1</v>
+      </c>
+      <c r="I33" s="24">
         <v>0</v>
       </c>
       <c r="J33" s="3" t="str">
-        <f>DEC2HEX(K33,2)</f>
-        <v>08</v>
+        <f t="shared" ref="J33:J44" si="0">DEC2HEX(K33,2)</f>
+        <v>32</v>
       </c>
       <c r="K33" s="3">
-        <f>IF(B33=1,128,0)+IF(C33=1,64,0)+IF(D33=1,32,0)+IF(E33=1,16,0)+IF(F33=1,8,0)+IF(G33=1,4,0)+IF(H33=1,2,0)+IF(I33=1,1,0)</f>
-        <v>8</v>
+        <f t="shared" ref="K33:K44" si="1">IF(B33=1,128,0)+IF(C33=1,64,0)+IF(D33=1,32,0)+IF(E33=1,16,0)+IF(F33=1,8,0)+IF(G33=1,4,0)+IF(H33=1,2,0)+IF(I33=1,1,0)</f>
+        <v>50</v>
       </c>
     </row>
     <row r="34" spans="1:11">
       <c r="A34" s="12" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B34" s="22"/>
       <c r="C34" s="23"/>
-      <c r="D34" s="23">
-        <v>1</v>
-      </c>
-      <c r="E34" s="24">
-        <v>1</v>
+      <c r="D34" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="E34" s="24" t="s">
+        <v>58</v>
       </c>
       <c r="F34" s="22"/>
       <c r="G34" s="23">
@@ -8509,29 +8509,29 @@
         <v>0</v>
       </c>
       <c r="J34" s="3" t="str">
-        <f t="shared" ref="J34:J45" si="0">DEC2HEX(K34,2)</f>
-        <v>32</v>
+        <f t="shared" si="0"/>
+        <v>02</v>
       </c>
       <c r="K34" s="3">
-        <f t="shared" ref="K34:K45" si="1">IF(B34=1,128,0)+IF(C34=1,64,0)+IF(D34=1,32,0)+IF(E34=1,16,0)+IF(F34=1,8,0)+IF(G34=1,4,0)+IF(H34=1,2,0)+IF(I34=1,1,0)</f>
-        <v>50</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:11">
       <c r="A35" s="12" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B35" s="22"/>
       <c r="C35" s="23"/>
-      <c r="D35" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="E35" s="24" t="s">
-        <v>58</v>
+      <c r="D35" s="23">
+        <v>1</v>
+      </c>
+      <c r="E35" s="24">
+        <v>1</v>
       </c>
       <c r="F35" s="22"/>
       <c r="G35" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H35" s="23">
         <v>1</v>
@@ -8541,80 +8541,49 @@
       </c>
       <c r="J35" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>02</v>
+        <v>36</v>
       </c>
       <c r="K35" s="3">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>54</v>
       </c>
     </row>
     <row r="36" spans="1:11">
       <c r="A36" s="12" t="s">
-        <v>262</v>
-      </c>
-      <c r="B36" s="22"/>
-      <c r="C36" s="23"/>
-      <c r="D36" s="23">
-        <v>1</v>
-      </c>
-      <c r="E36" s="24">
-        <v>1</v>
-      </c>
-      <c r="F36" s="22"/>
-      <c r="G36" s="23">
-        <v>1</v>
-      </c>
-      <c r="H36" s="23">
-        <v>1</v>
-      </c>
-      <c r="I36" s="24">
+        <v>261</v>
+      </c>
+      <c r="B36" s="37"/>
+      <c r="C36" s="38"/>
+      <c r="D36" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="E36" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="F36" s="37"/>
+      <c r="G36" s="38">
+        <v>1</v>
+      </c>
+      <c r="H36" s="38">
+        <v>1</v>
+      </c>
+      <c r="I36" s="39">
         <v>0</v>
       </c>
       <c r="J36" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>36</v>
+        <v>06</v>
       </c>
       <c r="K36" s="3">
         <f t="shared" si="1"/>
-        <v>54</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11">
-      <c r="A37" s="12" t="s">
-        <v>263</v>
-      </c>
-      <c r="B37" s="40"/>
-      <c r="C37" s="41"/>
-      <c r="D37" s="41" t="s">
-        <v>58</v>
-      </c>
-      <c r="E37" s="42" t="s">
-        <v>58</v>
-      </c>
-      <c r="F37" s="40"/>
-      <c r="G37" s="41">
-        <v>1</v>
-      </c>
-      <c r="H37" s="41">
-        <v>1</v>
-      </c>
-      <c r="I37" s="42">
-        <v>0</v>
-      </c>
-      <c r="J37" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>06</v>
-      </c>
-      <c r="K37" s="3">
-        <f t="shared" si="1"/>
         <v>6</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="N24" r:id="rId1" location="time" display="http://www.w3.org/TR/xmlschema-2/#time"/>
-    <hyperlink ref="N25" r:id="rId1" location="date" display="http://www.w3.org/TR/xmlschema-2/#date"/>
-    <hyperlink ref="N26" r:id="rId1" location="dateTime" display="http://www.w3.org/TR/xmlschema-2/#dateTime"/>
+    <hyperlink ref="N23" r:id="rId1" location="time" display="http://www.w3.org/TR/xmlschema-2/#time"/>
+    <hyperlink ref="N24" r:id="rId1" location="date" display="http://www.w3.org/TR/xmlschema-2/#date"/>
+    <hyperlink ref="N25" r:id="rId1" location="dateTime" display="http://www.w3.org/TR/xmlschema-2/#dateTime"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="portrait"/>
@@ -8639,10 +8608,10 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>43</v>
@@ -8657,12 +8626,12 @@
         <v>108</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -8676,26 +8645,26 @@
         <v>0</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>267</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>269</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>108</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="I2" s="4"/>
       <c r="J2" s="4" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="K2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -8709,13 +8678,13 @@
         <v>0</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>108</v>
@@ -8725,10 +8694,10 @@
       </c>
       <c r="I3" s="4"/>
       <c r="J3" s="4" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="K3" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -8745,25 +8714,25 @@
         <v>0</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G4" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="I4" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="J4" t="s">
         <v>275</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="K4" s="4" t="s">
         <v>276</v>
-      </c>
-      <c r="J4" t="s">
-        <v>277</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -8780,25 +8749,25 @@
         <v>0</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="H5" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="J5" t="s">
         <v>275</v>
       </c>
-      <c r="I5" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="J5" t="s">
-        <v>277</v>
-      </c>
       <c r="K5" s="4" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -8812,28 +8781,28 @@
         <v>1</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G6" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="I6" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="H6" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="I6" s="4" t="s">
+      <c r="J6" t="s">
+        <v>275</v>
+      </c>
+      <c r="K6" s="4" t="s">
         <v>276</v>
-      </c>
-      <c r="J6" t="s">
-        <v>277</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -8847,28 +8816,28 @@
         <v>1</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="J7" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -8882,26 +8851,26 @@
         <v>0</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>108</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="I8" s="4"/>
       <c r="J8" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="K8" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -8915,13 +8884,13 @@
         <v>0</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>108</v>
@@ -8931,10 +8900,10 @@
       </c>
       <c r="I9" s="4"/>
       <c r="J9" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="K9" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -8948,28 +8917,28 @@
         <v>1</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E10" s="3">
         <v>0</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G10" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="I10" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="J10" t="s">
+        <v>283</v>
+      </c>
+      <c r="K10" t="s">
         <v>284</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>276</v>
-      </c>
-      <c r="J10" t="s">
-        <v>285</v>
-      </c>
-      <c r="K10" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -8983,28 +8952,28 @@
         <v>1</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E11" s="3">
         <v>0</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="H11" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="J11" t="s">
+        <v>283</v>
+      </c>
+      <c r="K11" t="s">
         <v>284</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="J11" t="s">
-        <v>285</v>
-      </c>
-      <c r="K11" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -9018,28 +8987,28 @@
         <v>1</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G12" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="I12" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="H12" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>276</v>
-      </c>
       <c r="J12" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="K12" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -9053,28 +9022,28 @@
         <v>1</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="J13" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="K13" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
   </sheetData>

--- a/Protocol/Morph Protocol.xlsx
+++ b/Protocol/Morph Protocol.xlsx
@@ -4,17 +4,31 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="32065" windowHeight="5477" activeTab="2"/>
+    <workbookView windowWidth="32065" windowHeight="5451" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Connection" sheetId="13" r:id="rId1"/>
     <sheet name="LinkType" sheetId="5" r:id="rId2"/>
     <sheet name="LinkType Data" sheetId="22" r:id="rId3"/>
     <sheet name="ValueType" sheetId="24" r:id="rId4"/>
-    <sheet name="SimpleType" sheetId="23" r:id="rId5"/>
-    <sheet name="LinkSequence" sheetId="21" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="25" r:id="rId5"/>
+    <sheet name="SimpleType" sheetId="23" r:id="rId6"/>
+    <sheet name="LinkSequence" sheetId="21" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -108,8 +122,76 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Author</author>
+  </authors>
+  <commentList>
+    <comment ref="O26" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t>This consists if Morph links.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O27" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t>This consists if Morph links.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N28" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Note:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+If the servet represents an array, or an object with a default array property, and we're specifying an element in that array, then this value specifies the array servlet, and the following value(s) represent the index.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O28" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t>This consists of a value (starting with a ValueType).</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="288">
   <si>
     <t>Field</t>
   </si>
@@ -944,6 +1026,15 @@
     <t>(ValueName), (TypeName), ArrayElemCount, (ArrayElemType), Values</t>
   </si>
   <si>
+    <t>IsException ?</t>
+  </si>
+  <si>
+    <t>Number of bytes that DevicePath consists of.</t>
+  </si>
+  <si>
+    <t>Exception</t>
+  </si>
+  <si>
     <t>p</t>
   </si>
   <si>
@@ -1268,7 +1359,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="5">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0;[Red]\-&quot;$&quot;#,##0"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
@@ -2768,7 +2859,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="273">
+  <cellXfs count="321">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2790,6 +2881,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2800,6 +2897,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2809,10 +2912,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2822,6 +2928,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2831,11 +2943,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2860,19 +2981,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2880,6 +3001,9 @@
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2893,6 +3017,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2927,6 +3054,154 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2948,12 +3223,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2969,9 +3238,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3006,12 +3272,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3023,9 +3283,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3071,9 +3328,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3083,15 +3337,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3105,9 +3350,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3149,9 +3391,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3357,15 +3596,11 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3807,10 +4042,10 @@
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="40" t="s">
+      <c r="B1" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="49" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="11" t="s">
@@ -3886,7 +4121,7 @@
       <c r="A13" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="270">
+      <c r="B13" s="318">
         <v>57344</v>
       </c>
     </row>
@@ -3894,12 +4129,12 @@
       <c r="A14" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="273" t="s">
+      <c r="B14" s="321" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="15" spans="2:2">
-      <c r="B15" s="272"/>
+      <c r="B15" s="320"/>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="11" t="s">
@@ -3910,7 +4145,7 @@
       <c r="A17" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="270">
+      <c r="B17" s="318">
         <v>57429</v>
       </c>
     </row>
@@ -3918,12 +4153,12 @@
       <c r="A18" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="273" t="s">
+      <c r="B18" s="321" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="19" spans="2:2">
-      <c r="B19" s="272"/>
+      <c r="B19" s="320"/>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
@@ -3958,44 +4193,44 @@
   <dimension ref="A1:S79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14414414414414" defaultRowHeight="14.55"/>
   <cols>
-    <col min="1" max="4" width="3" style="149" customWidth="1"/>
-    <col min="5" max="8" width="3" style="150" customWidth="1"/>
-    <col min="9" max="10" width="6" style="28" customWidth="1"/>
-    <col min="11" max="11" width="15" style="151" customWidth="1"/>
-    <col min="12" max="12" width="25" style="151" customWidth="1"/>
-    <col min="13" max="13" width="22.7117117117117" style="151" customWidth="1"/>
-    <col min="14" max="14" width="6.14414414414414" style="149" customWidth="1"/>
-    <col min="15" max="15" width="13.2882882882883" style="149" customWidth="1"/>
-    <col min="16" max="16" width="17.7117117117117" style="151" customWidth="1"/>
-    <col min="17" max="17" width="46.8558558558559" style="152" customWidth="1"/>
-    <col min="18" max="19" width="6.85585585585586" style="149" customWidth="1"/>
-    <col min="20" max="16384" width="9.14414414414414" style="151"/>
+    <col min="1" max="4" width="3" style="200" customWidth="1"/>
+    <col min="5" max="8" width="3" style="201" customWidth="1"/>
+    <col min="9" max="10" width="6" style="63" customWidth="1"/>
+    <col min="11" max="11" width="15" style="202" customWidth="1"/>
+    <col min="12" max="12" width="25" style="202" customWidth="1"/>
+    <col min="13" max="13" width="22.7117117117117" style="202" customWidth="1"/>
+    <col min="14" max="14" width="6.14414414414414" style="200" customWidth="1"/>
+    <col min="15" max="15" width="13.2882882882883" style="200" customWidth="1"/>
+    <col min="16" max="16" width="17.7117117117117" style="202" customWidth="1"/>
+    <col min="17" max="17" width="46.8558558558559" style="203" customWidth="1"/>
+    <col min="18" max="19" width="6.85585585585586" style="200" customWidth="1"/>
+    <col min="20" max="16384" width="9.14414414414414" style="202"/>
   </cols>
   <sheetData>
     <row r="1" s="12" customFormat="1" ht="30" customHeight="1" spans="1:19">
-      <c r="A1" s="153" t="s">
+      <c r="A1" s="204" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="154" t="s">
+      <c r="B1" s="87" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="154"/>
-      <c r="D1" s="154"/>
-      <c r="E1" s="155" t="s">
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="205" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="155"/>
-      <c r="G1" s="155"/>
-      <c r="H1" s="155"/>
-      <c r="I1" s="155" t="s">
-        <v>1</v>
-      </c>
-      <c r="J1" s="155"/>
+      <c r="F1" s="205"/>
+      <c r="G1" s="205"/>
+      <c r="H1" s="205"/>
+      <c r="I1" s="205" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="205"/>
       <c r="K1" s="12" t="s">
         <v>27</v>
       </c>
@@ -4005,14 +4240,14 @@
       <c r="M1" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="N1" s="213" t="s">
+      <c r="N1" s="263" t="s">
         <v>30</v>
       </c>
-      <c r="O1" s="213"/>
+      <c r="O1" s="263"/>
       <c r="P1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="Q1" s="259" t="s">
+      <c r="Q1" s="307" t="s">
         <v>31</v>
       </c>
       <c r="R1" s="1" t="s">
@@ -4023,47 +4258,47 @@
       </c>
     </row>
     <row r="2" s="12" customFormat="1" spans="1:19">
-      <c r="A2" s="156">
+      <c r="A2" s="206">
         <v>7</v>
       </c>
-      <c r="B2" s="157">
+      <c r="B2" s="207">
         <v>6</v>
       </c>
-      <c r="C2" s="157">
+      <c r="C2" s="207">
         <v>5</v>
       </c>
-      <c r="D2" s="157">
+      <c r="D2" s="207">
         <v>4</v>
       </c>
-      <c r="E2" s="158">
+      <c r="E2" s="208">
         <v>3</v>
       </c>
-      <c r="F2" s="158">
+      <c r="F2" s="208">
         <v>2</v>
       </c>
-      <c r="G2" s="158">
-        <v>1</v>
-      </c>
-      <c r="H2" s="159">
-        <v>0</v>
-      </c>
-      <c r="I2" s="214" t="s">
+      <c r="G2" s="208">
+        <v>1</v>
+      </c>
+      <c r="H2" s="209">
+        <v>0</v>
+      </c>
+      <c r="I2" s="264" t="s">
         <v>34</v>
       </c>
-      <c r="J2" s="215" t="s">
+      <c r="J2" s="265" t="s">
         <v>35</v>
       </c>
-      <c r="K2" s="216"/>
-      <c r="L2" s="217"/>
-      <c r="M2" s="217"/>
-      <c r="N2" s="218" t="s">
+      <c r="K2" s="266"/>
+      <c r="L2" s="267"/>
+      <c r="M2" s="267"/>
+      <c r="N2" s="268" t="s">
         <v>36</v>
       </c>
-      <c r="O2" s="218" t="s">
+      <c r="O2" s="268" t="s">
         <v>37</v>
       </c>
-      <c r="P2" s="217"/>
-      <c r="Q2" s="260"/>
+      <c r="P2" s="267"/>
+      <c r="Q2" s="308"/>
       <c r="R2" s="1" t="str">
         <f>CONCATENATE(ROUND(AVERAGE(R3:R68)*100/3,0),"%")</f>
         <v>81%</v>
@@ -4073,2209 +4308,2209 @@
         <v>69%</v>
       </c>
     </row>
-    <row r="3" s="146" customFormat="1" spans="1:19">
-      <c r="A3" s="160"/>
-      <c r="B3" s="161"/>
-      <c r="C3" s="162"/>
-      <c r="D3" s="163"/>
-      <c r="E3" s="161">
-        <v>0</v>
-      </c>
-      <c r="F3" s="162">
-        <v>0</v>
-      </c>
-      <c r="G3" s="162">
-        <v>0</v>
-      </c>
-      <c r="H3" s="163">
-        <v>0</v>
-      </c>
-      <c r="I3" s="219">
+    <row r="3" s="197" customFormat="1" spans="1:19">
+      <c r="A3" s="210"/>
+      <c r="B3" s="211"/>
+      <c r="C3" s="212"/>
+      <c r="D3" s="213"/>
+      <c r="E3" s="211">
+        <v>0</v>
+      </c>
+      <c r="F3" s="212">
+        <v>0</v>
+      </c>
+      <c r="G3" s="212">
+        <v>0</v>
+      </c>
+      <c r="H3" s="213">
+        <v>0</v>
+      </c>
+      <c r="I3" s="269">
         <f>SUM(E3*8,F3*4,G3*2,H3)</f>
         <v>0</v>
       </c>
-      <c r="J3" s="220">
+      <c r="J3" s="270">
         <f>IF(I3&lt;=9,I3,CHAR(I3-10+CODE("A")))</f>
         <v>0</v>
       </c>
-      <c r="K3" s="221" t="s">
+      <c r="K3" s="271" t="s">
         <v>38</v>
       </c>
-      <c r="L3" s="222"/>
-      <c r="M3" s="223"/>
-      <c r="N3" s="161">
-        <v>1</v>
-      </c>
-      <c r="O3" s="162">
-        <v>1</v>
-      </c>
-      <c r="P3" s="224"/>
-      <c r="Q3" s="261" t="s">
+      <c r="L3" s="272"/>
+      <c r="M3" s="273"/>
+      <c r="N3" s="211">
+        <v>1</v>
+      </c>
+      <c r="O3" s="212">
+        <v>1</v>
+      </c>
+      <c r="P3" s="274"/>
+      <c r="Q3" s="309" t="s">
         <v>39</v>
       </c>
-      <c r="R3" s="262">
+      <c r="R3" s="310">
         <v>3</v>
       </c>
-      <c r="S3" s="262">
+      <c r="S3" s="310">
         <v>4</v>
       </c>
     </row>
-    <row r="4" s="146" customFormat="1" spans="1:19">
-      <c r="A4" s="160" t="s">
+    <row r="4" s="197" customFormat="1" spans="1:19">
+      <c r="A4" s="210" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="161" t="str">
+      <c r="B4" s="211" t="str">
         <f>IF(COUNTA(B5:B8)&gt;0,"z","")</f>
         <v>z</v>
       </c>
-      <c r="C4" s="162" t="str">
+      <c r="C4" s="212" t="str">
         <f>IF(COUNTA(C5:C8)&gt;0,"y","")</f>
         <v>y</v>
       </c>
-      <c r="D4" s="163" t="str">
+      <c r="D4" s="213" t="str">
         <f>IF(COUNTA(D5:D8)&gt;0,"x","")</f>
         <v>x</v>
       </c>
-      <c r="E4" s="161">
-        <v>1</v>
-      </c>
-      <c r="F4" s="162">
-        <v>0</v>
-      </c>
-      <c r="G4" s="162">
-        <v>0</v>
-      </c>
-      <c r="H4" s="163">
-        <v>0</v>
-      </c>
-      <c r="I4" s="219">
+      <c r="E4" s="211">
+        <v>1</v>
+      </c>
+      <c r="F4" s="212">
+        <v>0</v>
+      </c>
+      <c r="G4" s="212">
+        <v>0</v>
+      </c>
+      <c r="H4" s="213">
+        <v>0</v>
+      </c>
+      <c r="I4" s="269">
         <f>SUM(E4*8,F4*4,G4*2,H4)</f>
         <v>8</v>
       </c>
-      <c r="J4" s="220">
+      <c r="J4" s="270">
         <f>IF(I4&lt;=9,I4,CHAR(I4-10+CODE("A")))</f>
         <v>8</v>
       </c>
-      <c r="K4" s="221" t="s">
+      <c r="K4" s="271" t="s">
         <v>41</v>
       </c>
-      <c r="L4" s="221"/>
-      <c r="M4" s="225"/>
-      <c r="N4" s="226">
+      <c r="L4" s="271"/>
+      <c r="M4" s="275"/>
+      <c r="N4" s="276">
         <f>1+SUM(N5:N8)</f>
         <v>5</v>
       </c>
-      <c r="O4" s="227">
+      <c r="O4" s="277">
         <f>1+SUM(O5:O8)</f>
         <v>13</v>
       </c>
-      <c r="P4" s="224"/>
-      <c r="Q4" s="261" t="s">
+      <c r="P4" s="274"/>
+      <c r="Q4" s="309" t="s">
         <v>42</v>
       </c>
-      <c r="R4" s="262">
+      <c r="R4" s="310">
         <v>3</v>
       </c>
-      <c r="S4" s="262">
+      <c r="S4" s="310">
         <v>4</v>
       </c>
     </row>
     <row r="5" hidden="1" outlineLevel="1" spans="1:17">
-      <c r="A5" s="164"/>
-      <c r="B5" s="165"/>
-      <c r="C5" s="166"/>
-      <c r="D5" s="167" t="s">
+      <c r="A5" s="214"/>
+      <c r="B5" s="215"/>
+      <c r="C5" s="216"/>
+      <c r="D5" s="217" t="s">
         <v>43</v>
       </c>
-      <c r="E5" s="168"/>
-      <c r="F5" s="169"/>
-      <c r="G5" s="169"/>
-      <c r="H5" s="170"/>
-      <c r="I5" s="102"/>
-      <c r="J5" s="228"/>
-      <c r="K5" s="229"/>
-      <c r="L5" s="229"/>
-      <c r="M5" s="230" t="s">
+      <c r="E5" s="218"/>
+      <c r="F5" s="219"/>
+      <c r="G5" s="219"/>
+      <c r="H5" s="220"/>
+      <c r="I5" s="109"/>
+      <c r="J5" s="110"/>
+      <c r="K5" s="278"/>
+      <c r="L5" s="278"/>
+      <c r="M5" s="279" t="s">
         <v>44</v>
       </c>
-      <c r="N5" s="212"/>
-      <c r="O5" s="171">
+      <c r="N5" s="262"/>
+      <c r="O5" s="221">
         <v>4</v>
       </c>
-      <c r="P5" s="231" t="s">
+      <c r="P5" s="280" t="s">
         <v>45</v>
       </c>
-      <c r="Q5" s="263"/>
+      <c r="Q5" s="311"/>
     </row>
     <row r="6" hidden="1" outlineLevel="1" spans="1:17">
-      <c r="A6" s="164"/>
-      <c r="B6" s="165"/>
-      <c r="C6" s="171" t="s">
+      <c r="A6" s="214"/>
+      <c r="B6" s="215"/>
+      <c r="C6" s="221" t="s">
         <v>43</v>
       </c>
-      <c r="D6" s="167"/>
-      <c r="E6" s="168"/>
-      <c r="F6" s="169"/>
-      <c r="G6" s="169"/>
-      <c r="H6" s="170"/>
-      <c r="I6" s="102"/>
-      <c r="J6" s="228"/>
-      <c r="K6" s="229"/>
-      <c r="L6" s="229"/>
-      <c r="M6" s="230" t="s">
+      <c r="D6" s="217"/>
+      <c r="E6" s="218"/>
+      <c r="F6" s="219"/>
+      <c r="G6" s="219"/>
+      <c r="H6" s="220"/>
+      <c r="I6" s="109"/>
+      <c r="J6" s="110"/>
+      <c r="K6" s="278"/>
+      <c r="L6" s="278"/>
+      <c r="M6" s="279" t="s">
         <v>46</v>
       </c>
-      <c r="N6" s="212"/>
-      <c r="O6" s="171"/>
-      <c r="P6" s="231"/>
-      <c r="Q6" s="263"/>
+      <c r="N6" s="262"/>
+      <c r="O6" s="221"/>
+      <c r="P6" s="280"/>
+      <c r="Q6" s="311"/>
     </row>
     <row r="7" hidden="1" outlineLevel="1" spans="1:17">
-      <c r="A7" s="164"/>
-      <c r="B7" s="165"/>
-      <c r="C7" s="171"/>
-      <c r="D7" s="172"/>
-      <c r="E7" s="168"/>
-      <c r="F7" s="169"/>
-      <c r="G7" s="169"/>
-      <c r="H7" s="170"/>
-      <c r="I7" s="102"/>
-      <c r="J7" s="228"/>
-      <c r="K7" s="229"/>
-      <c r="L7" s="229"/>
-      <c r="M7" s="230"/>
-      <c r="N7" s="212">
+      <c r="A7" s="214"/>
+      <c r="B7" s="215"/>
+      <c r="C7" s="221"/>
+      <c r="D7" s="222"/>
+      <c r="E7" s="218"/>
+      <c r="F7" s="219"/>
+      <c r="G7" s="219"/>
+      <c r="H7" s="220"/>
+      <c r="I7" s="109"/>
+      <c r="J7" s="110"/>
+      <c r="K7" s="278"/>
+      <c r="L7" s="278"/>
+      <c r="M7" s="279"/>
+      <c r="N7" s="262">
         <v>4</v>
       </c>
-      <c r="O7" s="171">
+      <c r="O7" s="221">
         <v>4</v>
       </c>
-      <c r="P7" s="231" t="s">
+      <c r="P7" s="280" t="s">
         <v>47</v>
       </c>
-      <c r="Q7" s="263"/>
-    </row>
-    <row r="8" s="147" customFormat="1" hidden="1" outlineLevel="1" spans="1:19">
-      <c r="A8" s="173"/>
-      <c r="B8" s="174" t="s">
+      <c r="Q7" s="311"/>
+    </row>
+    <row r="8" s="198" customFormat="1" hidden="1" outlineLevel="1" spans="1:19">
+      <c r="A8" s="223"/>
+      <c r="B8" s="224" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="175"/>
-      <c r="D8" s="176"/>
-      <c r="E8" s="177"/>
-      <c r="F8" s="178"/>
-      <c r="G8" s="178"/>
-      <c r="H8" s="179"/>
-      <c r="I8" s="102"/>
-      <c r="J8" s="228"/>
-      <c r="K8" s="140"/>
-      <c r="L8" s="140"/>
-      <c r="M8" s="232" t="s">
+      <c r="C8" s="225"/>
+      <c r="D8" s="226"/>
+      <c r="E8" s="227"/>
+      <c r="F8" s="228"/>
+      <c r="G8" s="228"/>
+      <c r="H8" s="229"/>
+      <c r="I8" s="109"/>
+      <c r="J8" s="110"/>
+      <c r="K8" s="191"/>
+      <c r="L8" s="191"/>
+      <c r="M8" s="281" t="s">
         <v>48</v>
       </c>
-      <c r="N8" s="187"/>
-      <c r="O8" s="175">
+      <c r="N8" s="237"/>
+      <c r="O8" s="225">
         <v>4</v>
       </c>
-      <c r="P8" s="233" t="s">
+      <c r="P8" s="282" t="s">
         <v>49</v>
       </c>
-      <c r="Q8" s="264"/>
-      <c r="R8" s="78"/>
-      <c r="S8" s="78"/>
-    </row>
-    <row r="9" s="147" customFormat="1" hidden="1" outlineLevel="1" spans="1:19">
-      <c r="A9" s="180"/>
-      <c r="B9" s="181"/>
-      <c r="C9" s="182"/>
-      <c r="D9" s="183"/>
-      <c r="E9" s="184"/>
-      <c r="F9" s="185"/>
-      <c r="G9" s="185"/>
-      <c r="H9" s="186"/>
-      <c r="I9" s="102"/>
-      <c r="J9" s="228"/>
-      <c r="K9" s="234"/>
-      <c r="L9" s="234"/>
-      <c r="M9" s="235"/>
-      <c r="N9" s="236">
-        <v>0</v>
-      </c>
-      <c r="O9" s="182" t="s">
+      <c r="Q8" s="312"/>
+      <c r="R8" s="88"/>
+      <c r="S8" s="88"/>
+    </row>
+    <row r="9" s="198" customFormat="1" hidden="1" outlineLevel="1" spans="1:19">
+      <c r="A9" s="230"/>
+      <c r="B9" s="231"/>
+      <c r="C9" s="232"/>
+      <c r="D9" s="233"/>
+      <c r="E9" s="234"/>
+      <c r="F9" s="235"/>
+      <c r="G9" s="235"/>
+      <c r="H9" s="236"/>
+      <c r="I9" s="109"/>
+      <c r="J9" s="110"/>
+      <c r="K9" s="111"/>
+      <c r="L9" s="111"/>
+      <c r="M9" s="283"/>
+      <c r="N9" s="284">
+        <v>0</v>
+      </c>
+      <c r="O9" s="232" t="s">
         <v>47</v>
       </c>
-      <c r="P9" s="237" t="s">
+      <c r="P9" s="285" t="s">
         <v>50</v>
       </c>
-      <c r="Q9" s="265"/>
-      <c r="R9" s="78"/>
-      <c r="S9" s="78"/>
+      <c r="Q9" s="313"/>
+      <c r="R9" s="88"/>
+      <c r="S9" s="88"/>
     </row>
     <row r="10" hidden="1" outlineLevel="1" spans="1:17">
-      <c r="A10" s="180"/>
-      <c r="B10" s="181"/>
-      <c r="C10" s="182"/>
-      <c r="D10" s="183"/>
-      <c r="E10" s="184"/>
-      <c r="F10" s="185"/>
-      <c r="G10" s="185"/>
-      <c r="H10" s="186"/>
-      <c r="I10" s="102"/>
-      <c r="J10" s="228"/>
-      <c r="K10" s="234"/>
-      <c r="L10" s="234" t="s">
+      <c r="A10" s="230"/>
+      <c r="B10" s="231"/>
+      <c r="C10" s="232"/>
+      <c r="D10" s="233"/>
+      <c r="E10" s="234"/>
+      <c r="F10" s="235"/>
+      <c r="G10" s="235"/>
+      <c r="H10" s="236"/>
+      <c r="I10" s="109"/>
+      <c r="J10" s="110"/>
+      <c r="K10" s="111"/>
+      <c r="L10" s="111" t="s">
         <v>51</v>
       </c>
-      <c r="M10" s="235"/>
-      <c r="N10" s="236">
-        <v>0</v>
-      </c>
-      <c r="O10" s="182" t="s">
+      <c r="M10" s="283"/>
+      <c r="N10" s="284">
+        <v>0</v>
+      </c>
+      <c r="O10" s="232" t="s">
         <v>49</v>
       </c>
-      <c r="P10" s="237" t="s">
+      <c r="P10" s="285" t="s">
         <v>52</v>
       </c>
-      <c r="Q10" s="265"/>
-    </row>
-    <row r="11" s="146" customFormat="1" collapsed="1" spans="1:19">
-      <c r="A11" s="160" t="s">
+      <c r="Q10" s="313"/>
+    </row>
+    <row r="11" s="197" customFormat="1" collapsed="1" spans="1:19">
+      <c r="A11" s="210" t="s">
         <v>40</v>
       </c>
-      <c r="B11" s="161" t="str">
+      <c r="B11" s="211" t="str">
         <f>IF(COUNTA(B12:B14)&gt;0,"z","")</f>
         <v/>
       </c>
-      <c r="C11" s="162" t="str">
+      <c r="C11" s="212" t="str">
         <f>IF(COUNTA(C12:C14)&gt;0,"y","")</f>
         <v/>
       </c>
-      <c r="D11" s="163" t="str">
+      <c r="D11" s="213" t="str">
         <f>IF(COUNTA(D12:D14)&gt;0,"x","")</f>
         <v>x</v>
       </c>
-      <c r="E11" s="161">
-        <v>0</v>
-      </c>
-      <c r="F11" s="162">
-        <v>1</v>
-      </c>
-      <c r="G11" s="162">
-        <v>0</v>
-      </c>
-      <c r="H11" s="163">
-        <v>0</v>
-      </c>
-      <c r="I11" s="219">
+      <c r="E11" s="211">
+        <v>0</v>
+      </c>
+      <c r="F11" s="212">
+        <v>1</v>
+      </c>
+      <c r="G11" s="212">
+        <v>0</v>
+      </c>
+      <c r="H11" s="213">
+        <v>0</v>
+      </c>
+      <c r="I11" s="269">
         <f>SUM(E11*8,F11*4,G11*2,H11)</f>
         <v>4</v>
       </c>
-      <c r="J11" s="220">
+      <c r="J11" s="270">
         <f>IF(I11&lt;=9,I11,CHAR(I11-10+CODE("A")))</f>
         <v>4</v>
       </c>
-      <c r="K11" s="221" t="s">
+      <c r="K11" s="271" t="s">
         <v>53</v>
       </c>
-      <c r="L11" s="221"/>
-      <c r="M11" s="225"/>
-      <c r="N11" s="226">
+      <c r="L11" s="271"/>
+      <c r="M11" s="275"/>
+      <c r="N11" s="276">
         <f>1+SUM(N12:N14)</f>
         <v>5</v>
       </c>
-      <c r="O11" s="227" t="str">
+      <c r="O11" s="277" t="str">
         <f>CONCATENATE(1+SUM(O12:O14)," + 2 GB")</f>
         <v>9 + 2 GB</v>
       </c>
-      <c r="P11" s="224"/>
-      <c r="Q11" s="261"/>
-      <c r="R11" s="262">
+      <c r="P11" s="274"/>
+      <c r="Q11" s="309"/>
+      <c r="R11" s="310">
         <v>3</v>
       </c>
-      <c r="S11" s="262">
+      <c r="S11" s="310">
         <v>4</v>
       </c>
     </row>
-    <row r="12" ht="15" hidden="1" customHeight="1" outlineLevel="1" spans="1:17">
-      <c r="A12" s="164"/>
-      <c r="B12" s="165"/>
-      <c r="C12" s="171"/>
-      <c r="D12" s="167" t="s">
+    <row r="12" ht="15" customHeight="1" outlineLevel="1" spans="1:17">
+      <c r="A12" s="214"/>
+      <c r="B12" s="215"/>
+      <c r="C12" s="221"/>
+      <c r="D12" s="217" t="s">
         <v>43</v>
       </c>
-      <c r="E12" s="168"/>
-      <c r="F12" s="169"/>
-      <c r="G12" s="169"/>
-      <c r="H12" s="170"/>
-      <c r="I12" s="102"/>
-      <c r="J12" s="228"/>
-      <c r="K12" s="229"/>
-      <c r="L12" s="229"/>
-      <c r="M12" s="230" t="s">
+      <c r="E12" s="218"/>
+      <c r="F12" s="219"/>
+      <c r="G12" s="219"/>
+      <c r="H12" s="220"/>
+      <c r="I12" s="109"/>
+      <c r="J12" s="110"/>
+      <c r="K12" s="278"/>
+      <c r="L12" s="278"/>
+      <c r="M12" s="279" t="s">
         <v>54</v>
       </c>
-      <c r="N12" s="165"/>
-      <c r="O12" s="166">
+      <c r="N12" s="215"/>
+      <c r="O12" s="216">
         <v>4</v>
       </c>
-      <c r="P12" s="231" t="s">
+      <c r="P12" s="280" t="s">
         <v>55</v>
       </c>
-      <c r="Q12" s="263"/>
-    </row>
-    <row r="13" ht="15" hidden="1" customHeight="1" outlineLevel="1" spans="1:17">
-      <c r="A13" s="173"/>
-      <c r="B13" s="187"/>
-      <c r="C13" s="188"/>
-      <c r="D13" s="189"/>
-      <c r="E13" s="177"/>
-      <c r="F13" s="178"/>
-      <c r="G13" s="178"/>
-      <c r="H13" s="179"/>
-      <c r="I13" s="102"/>
-      <c r="J13" s="228"/>
-      <c r="K13" s="140"/>
-      <c r="L13" s="140"/>
-      <c r="M13" s="232"/>
-      <c r="N13" s="187">
+      <c r="Q12" s="311"/>
+    </row>
+    <row r="13" ht="15" customHeight="1" outlineLevel="1" spans="1:17">
+      <c r="A13" s="223"/>
+      <c r="B13" s="237"/>
+      <c r="C13" s="238"/>
+      <c r="D13" s="239"/>
+      <c r="E13" s="227"/>
+      <c r="F13" s="228"/>
+      <c r="G13" s="228"/>
+      <c r="H13" s="229"/>
+      <c r="I13" s="109"/>
+      <c r="J13" s="110"/>
+      <c r="K13" s="191"/>
+      <c r="L13" s="191"/>
+      <c r="M13" s="281"/>
+      <c r="N13" s="237">
         <v>4</v>
       </c>
-      <c r="O13" s="175">
+      <c r="O13" s="225">
         <v>4</v>
       </c>
-      <c r="P13" s="233" t="s">
+      <c r="P13" s="282" t="s">
         <v>30</v>
       </c>
-      <c r="Q13" s="264"/>
-    </row>
-    <row r="14" ht="15" hidden="1" customHeight="1" outlineLevel="1" spans="1:17">
-      <c r="A14" s="190"/>
-      <c r="B14" s="191"/>
-      <c r="C14" s="192"/>
-      <c r="D14" s="193"/>
-      <c r="E14" s="194"/>
-      <c r="F14" s="195"/>
-      <c r="G14" s="195"/>
-      <c r="H14" s="196"/>
-      <c r="I14" s="102"/>
-      <c r="J14" s="228"/>
-      <c r="K14" s="238"/>
-      <c r="L14" s="238"/>
-      <c r="M14" s="239"/>
-      <c r="N14" s="191">
-        <v>0</v>
-      </c>
-      <c r="O14" s="205" t="s">
+      <c r="Q13" s="312"/>
+    </row>
+    <row r="14" ht="15" customHeight="1" outlineLevel="1" spans="1:17">
+      <c r="A14" s="240"/>
+      <c r="B14" s="241"/>
+      <c r="C14" s="242"/>
+      <c r="D14" s="243"/>
+      <c r="E14" s="244"/>
+      <c r="F14" s="245"/>
+      <c r="G14" s="245"/>
+      <c r="H14" s="246"/>
+      <c r="I14" s="109"/>
+      <c r="J14" s="110"/>
+      <c r="K14" s="286"/>
+      <c r="L14" s="286"/>
+      <c r="M14" s="287"/>
+      <c r="N14" s="241">
+        <v>0</v>
+      </c>
+      <c r="O14" s="255" t="s">
         <v>56</v>
       </c>
-      <c r="P14" s="240" t="s">
+      <c r="P14" s="288" t="s">
         <v>53</v>
       </c>
-      <c r="Q14" s="266"/>
-    </row>
-    <row r="15" s="146" customFormat="1" collapsed="1" spans="1:19">
-      <c r="A15" s="160" t="s">
+      <c r="Q14" s="314"/>
+    </row>
+    <row r="15" s="197" customFormat="1" spans="1:19">
+      <c r="A15" s="210" t="s">
         <v>40</v>
       </c>
-      <c r="B15" s="161" t="str">
+      <c r="B15" s="211" t="str">
         <f>IF(COUNTA(B16:B17)&gt;0,"z","")</f>
         <v/>
       </c>
-      <c r="C15" s="162" t="str">
+      <c r="C15" s="212" t="str">
         <f>IF(COUNTA(C16:C17)&gt;0,"y","")</f>
         <v/>
       </c>
-      <c r="D15" s="163" t="str">
+      <c r="D15" s="213" t="str">
         <f>IF(COUNTA(D16:D17)&gt;0,"x","")</f>
         <v/>
       </c>
-      <c r="E15" s="161">
-        <v>1</v>
-      </c>
-      <c r="F15" s="162">
-        <v>1</v>
-      </c>
-      <c r="G15" s="162">
-        <v>0</v>
-      </c>
-      <c r="H15" s="163">
-        <v>0</v>
-      </c>
-      <c r="I15" s="219">
+      <c r="E15" s="211">
+        <v>1</v>
+      </c>
+      <c r="F15" s="212">
+        <v>1</v>
+      </c>
+      <c r="G15" s="212">
+        <v>0</v>
+      </c>
+      <c r="H15" s="213">
+        <v>0</v>
+      </c>
+      <c r="I15" s="269">
         <f>SUM(E15*8,F15*4,G15*2,H15)</f>
         <v>12</v>
       </c>
-      <c r="J15" s="220" t="str">
+      <c r="J15" s="270" t="str">
         <f>IF(I15&lt;=9,I15,CHAR(I15-10+CODE("A")))</f>
         <v>C</v>
       </c>
-      <c r="K15" s="225" t="s">
+      <c r="K15" s="275" t="s">
         <v>57</v>
       </c>
-      <c r="L15" s="222"/>
-      <c r="M15" s="223"/>
-      <c r="N15" s="226" t="s">
+      <c r="L15" s="272"/>
+      <c r="M15" s="273"/>
+      <c r="N15" s="276" t="s">
         <v>58</v>
       </c>
-      <c r="O15" s="227" t="s">
+      <c r="O15" s="277" t="s">
         <v>58</v>
       </c>
-      <c r="P15" s="224"/>
-      <c r="Q15" s="261" t="s">
+      <c r="P15" s="274"/>
+      <c r="Q15" s="309" t="s">
         <v>53</v>
       </c>
-      <c r="R15" s="262">
-        <v>0</v>
-      </c>
-      <c r="S15" s="262">
+      <c r="R15" s="310">
+        <v>0</v>
+      </c>
+      <c r="S15" s="310">
         <v>0</v>
       </c>
     </row>
     <row r="16" ht="15" hidden="1" customHeight="1" outlineLevel="1" spans="1:17">
-      <c r="A16" s="197"/>
-      <c r="B16" s="198"/>
-      <c r="C16" s="199"/>
-      <c r="D16" s="200"/>
-      <c r="E16" s="201"/>
-      <c r="F16" s="202"/>
-      <c r="G16" s="202"/>
-      <c r="H16" s="203"/>
-      <c r="I16" s="102"/>
-      <c r="J16" s="228"/>
-      <c r="K16" s="241"/>
-      <c r="L16" s="241"/>
-      <c r="M16" s="242"/>
-      <c r="N16" s="243"/>
-      <c r="O16" s="199"/>
-      <c r="P16" s="244"/>
-      <c r="Q16" s="267"/>
+      <c r="A16" s="247"/>
+      <c r="B16" s="248"/>
+      <c r="C16" s="249"/>
+      <c r="D16" s="250"/>
+      <c r="E16" s="251"/>
+      <c r="F16" s="252"/>
+      <c r="G16" s="252"/>
+      <c r="H16" s="253"/>
+      <c r="I16" s="109"/>
+      <c r="J16" s="110"/>
+      <c r="K16" s="289"/>
+      <c r="L16" s="289"/>
+      <c r="M16" s="290"/>
+      <c r="N16" s="291"/>
+      <c r="O16" s="249"/>
+      <c r="P16" s="292"/>
+      <c r="Q16" s="315"/>
     </row>
     <row r="17" ht="15" hidden="1" customHeight="1" outlineLevel="1" spans="1:17">
-      <c r="A17" s="190"/>
-      <c r="B17" s="204"/>
-      <c r="C17" s="205"/>
-      <c r="D17" s="206"/>
-      <c r="E17" s="194"/>
-      <c r="F17" s="195"/>
-      <c r="G17" s="195"/>
-      <c r="H17" s="196"/>
-      <c r="I17" s="102"/>
-      <c r="J17" s="228"/>
-      <c r="K17" s="238"/>
-      <c r="L17" s="238"/>
-      <c r="M17" s="239"/>
-      <c r="N17" s="191"/>
-      <c r="O17" s="205"/>
-      <c r="P17" s="240"/>
-      <c r="Q17" s="266"/>
-    </row>
-    <row r="18" s="146" customFormat="1" collapsed="1" spans="1:19">
-      <c r="A18" s="160" t="s">
+      <c r="A17" s="240"/>
+      <c r="B17" s="254"/>
+      <c r="C17" s="255"/>
+      <c r="D17" s="256"/>
+      <c r="E17" s="244"/>
+      <c r="F17" s="245"/>
+      <c r="G17" s="245"/>
+      <c r="H17" s="246"/>
+      <c r="I17" s="109"/>
+      <c r="J17" s="110"/>
+      <c r="K17" s="286"/>
+      <c r="L17" s="286"/>
+      <c r="M17" s="287"/>
+      <c r="N17" s="241"/>
+      <c r="O17" s="255"/>
+      <c r="P17" s="288"/>
+      <c r="Q17" s="314"/>
+    </row>
+    <row r="18" s="197" customFormat="1" collapsed="1" spans="1:19">
+      <c r="A18" s="210" t="s">
         <v>40</v>
       </c>
-      <c r="B18" s="161" t="str">
+      <c r="B18" s="211" t="str">
         <f>IF(COUNTA(B19:B22)&gt;0,"z","")</f>
         <v>z</v>
       </c>
-      <c r="C18" s="162" t="str">
+      <c r="C18" s="212" t="str">
         <f>IF(COUNTA(C19:C22)&gt;0,"y","")</f>
         <v>y</v>
       </c>
-      <c r="D18" s="163" t="str">
+      <c r="D18" s="213" t="str">
         <f>IF(COUNTA(D19:D22)&gt;0,"x","")</f>
         <v>x</v>
       </c>
-      <c r="E18" s="161">
-        <v>0</v>
-      </c>
-      <c r="F18" s="162">
-        <v>0</v>
-      </c>
-      <c r="G18" s="162">
-        <v>1</v>
-      </c>
-      <c r="H18" s="163">
-        <v>0</v>
-      </c>
-      <c r="I18" s="219">
+      <c r="E18" s="211">
+        <v>0</v>
+      </c>
+      <c r="F18" s="212">
+        <v>0</v>
+      </c>
+      <c r="G18" s="212">
+        <v>1</v>
+      </c>
+      <c r="H18" s="213">
+        <v>0</v>
+      </c>
+      <c r="I18" s="269">
         <f>SUM(E18*8,F18*4,G18*2,H18)</f>
         <v>2</v>
       </c>
-      <c r="J18" s="220">
+      <c r="J18" s="270">
         <f>IF(I18&lt;=9,I18,CHAR(I18-10+CODE("A")))</f>
         <v>2</v>
       </c>
-      <c r="K18" s="221" t="s">
+      <c r="K18" s="271" t="s">
         <v>59</v>
       </c>
-      <c r="L18" s="222"/>
-      <c r="M18" s="223"/>
-      <c r="N18" s="226">
+      <c r="L18" s="272"/>
+      <c r="M18" s="273"/>
+      <c r="N18" s="276">
         <v>5</v>
       </c>
-      <c r="O18" s="227" t="s">
+      <c r="O18" s="277" t="s">
         <v>60</v>
       </c>
-      <c r="P18" s="224"/>
-      <c r="Q18" s="261"/>
-      <c r="R18" s="262">
+      <c r="P18" s="274"/>
+      <c r="Q18" s="309"/>
+      <c r="R18" s="310">
         <v>3</v>
       </c>
-      <c r="S18" s="262">
+      <c r="S18" s="310">
         <v>4</v>
       </c>
     </row>
-    <row r="19" s="148" customFormat="1" hidden="1" outlineLevel="1" spans="1:19">
-      <c r="A19" s="207"/>
-      <c r="B19" s="201"/>
-      <c r="C19" s="208">
-        <v>0</v>
-      </c>
-      <c r="D19" s="209">
-        <v>0</v>
-      </c>
-      <c r="E19" s="201"/>
-      <c r="F19" s="202"/>
-      <c r="G19" s="202"/>
-      <c r="H19" s="203"/>
-      <c r="I19" s="102"/>
-      <c r="J19" s="228"/>
-      <c r="K19" s="245"/>
-      <c r="L19" s="245"/>
-      <c r="M19" s="246" t="s">
+    <row r="19" s="199" customFormat="1" hidden="1" outlineLevel="1" spans="1:19">
+      <c r="A19" s="257"/>
+      <c r="B19" s="251"/>
+      <c r="C19" s="258">
+        <v>0</v>
+      </c>
+      <c r="D19" s="259">
+        <v>0</v>
+      </c>
+      <c r="E19" s="251"/>
+      <c r="F19" s="252"/>
+      <c r="G19" s="252"/>
+      <c r="H19" s="253"/>
+      <c r="I19" s="109"/>
+      <c r="J19" s="110"/>
+      <c r="K19" s="293"/>
+      <c r="L19" s="293"/>
+      <c r="M19" s="294" t="s">
         <v>61</v>
       </c>
-      <c r="N19" s="210" t="s">
+      <c r="N19" s="260" t="s">
         <v>62</v>
       </c>
-      <c r="O19" s="208" t="s">
+      <c r="O19" s="258" t="s">
         <v>62</v>
       </c>
-      <c r="P19" s="247" t="s">
+      <c r="P19" s="295" t="s">
         <v>63</v>
       </c>
-      <c r="Q19" s="268" t="s">
+      <c r="Q19" s="316" t="s">
         <v>64</v>
       </c>
-      <c r="R19" s="150"/>
-      <c r="S19" s="150"/>
-    </row>
-    <row r="20" s="148" customFormat="1" hidden="1" outlineLevel="1" spans="1:19">
-      <c r="A20" s="207"/>
-      <c r="B20" s="201"/>
-      <c r="C20" s="208">
-        <v>0</v>
-      </c>
-      <c r="D20" s="209">
-        <v>1</v>
-      </c>
-      <c r="E20" s="201"/>
-      <c r="F20" s="202"/>
-      <c r="G20" s="202"/>
-      <c r="H20" s="203"/>
-      <c r="I20" s="102"/>
-      <c r="J20" s="228"/>
-      <c r="K20" s="245"/>
-      <c r="L20" s="245"/>
-      <c r="M20" s="246" t="s">
+      <c r="R19" s="201"/>
+      <c r="S19" s="201"/>
+    </row>
+    <row r="20" s="199" customFormat="1" hidden="1" outlineLevel="1" spans="1:19">
+      <c r="A20" s="257"/>
+      <c r="B20" s="251"/>
+      <c r="C20" s="258">
+        <v>0</v>
+      </c>
+      <c r="D20" s="259">
+        <v>1</v>
+      </c>
+      <c r="E20" s="251"/>
+      <c r="F20" s="252"/>
+      <c r="G20" s="252"/>
+      <c r="H20" s="253"/>
+      <c r="I20" s="109"/>
+      <c r="J20" s="110"/>
+      <c r="K20" s="293"/>
+      <c r="L20" s="293"/>
+      <c r="M20" s="294" t="s">
         <v>65</v>
       </c>
-      <c r="N20" s="210">
+      <c r="N20" s="260">
         <v>4</v>
       </c>
-      <c r="O20" s="208">
+      <c r="O20" s="258">
         <v>4</v>
       </c>
-      <c r="P20" s="247" t="s">
+      <c r="P20" s="295" t="s">
         <v>66</v>
       </c>
-      <c r="Q20" s="268" t="s">
+      <c r="Q20" s="316" t="s">
         <v>64</v>
       </c>
-      <c r="R20" s="150"/>
-      <c r="S20" s="150"/>
-    </row>
-    <row r="21" s="148" customFormat="1" hidden="1" outlineLevel="1" spans="1:19">
-      <c r="A21" s="207"/>
-      <c r="B21" s="210" t="s">
+      <c r="R20" s="201"/>
+      <c r="S20" s="201"/>
+    </row>
+    <row r="21" s="199" customFormat="1" hidden="1" outlineLevel="1" spans="1:19">
+      <c r="A21" s="257"/>
+      <c r="B21" s="260" t="s">
         <v>43</v>
       </c>
-      <c r="C21" s="208"/>
-      <c r="D21" s="209"/>
-      <c r="E21" s="201"/>
-      <c r="F21" s="202"/>
-      <c r="G21" s="202"/>
-      <c r="H21" s="203"/>
-      <c r="I21" s="102"/>
-      <c r="J21" s="228"/>
-      <c r="K21" s="245"/>
-      <c r="L21" s="245" t="s">
+      <c r="C21" s="258"/>
+      <c r="D21" s="259"/>
+      <c r="E21" s="251"/>
+      <c r="F21" s="252"/>
+      <c r="G21" s="252"/>
+      <c r="H21" s="253"/>
+      <c r="I21" s="109"/>
+      <c r="J21" s="110"/>
+      <c r="K21" s="293"/>
+      <c r="L21" s="293" t="s">
         <v>65</v>
       </c>
-      <c r="M21" s="246" t="s">
+      <c r="M21" s="294" t="s">
         <v>67</v>
       </c>
-      <c r="N21" s="210">
+      <c r="N21" s="260">
         <v>8</v>
       </c>
-      <c r="O21" s="208">
+      <c r="O21" s="258">
         <v>8</v>
       </c>
-      <c r="P21" s="247" t="s">
+      <c r="P21" s="295" t="s">
         <v>68</v>
       </c>
-      <c r="Q21" s="268"/>
-      <c r="R21" s="150"/>
-      <c r="S21" s="150"/>
+      <c r="Q21" s="316"/>
+      <c r="R21" s="201"/>
+      <c r="S21" s="201"/>
     </row>
     <row r="22" ht="15" hidden="1" customHeight="1" outlineLevel="1" spans="1:17">
-      <c r="A22" s="164"/>
-      <c r="B22" s="165"/>
-      <c r="C22" s="166">
-        <v>1</v>
-      </c>
-      <c r="D22" s="167">
-        <v>1</v>
-      </c>
-      <c r="E22" s="168"/>
-      <c r="F22" s="169"/>
-      <c r="G22" s="169"/>
-      <c r="H22" s="170"/>
-      <c r="I22" s="102"/>
-      <c r="J22" s="228"/>
-      <c r="K22" s="229"/>
-      <c r="L22" s="229"/>
-      <c r="M22" s="230" t="s">
+      <c r="A22" s="214"/>
+      <c r="B22" s="215"/>
+      <c r="C22" s="216">
+        <v>1</v>
+      </c>
+      <c r="D22" s="217">
+        <v>1</v>
+      </c>
+      <c r="E22" s="218"/>
+      <c r="F22" s="219"/>
+      <c r="G22" s="219"/>
+      <c r="H22" s="220"/>
+      <c r="I22" s="109"/>
+      <c r="J22" s="110"/>
+      <c r="K22" s="278"/>
+      <c r="L22" s="278"/>
+      <c r="M22" s="279" t="s">
         <v>69</v>
       </c>
-      <c r="N22" s="212">
+      <c r="N22" s="262">
         <v>4</v>
       </c>
-      <c r="O22" s="171">
+      <c r="O22" s="221">
         <v>4</v>
       </c>
-      <c r="P22" s="231" t="s">
+      <c r="P22" s="280" t="s">
         <v>70</v>
       </c>
-      <c r="Q22" s="263" t="s">
+      <c r="Q22" s="311" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="23" s="146" customFormat="1" collapsed="1" spans="1:19">
-      <c r="A23" s="160" t="s">
+    <row r="23" s="197" customFormat="1" collapsed="1" spans="1:19">
+      <c r="A23" s="210" t="s">
         <v>40</v>
       </c>
-      <c r="B23" s="161" t="str">
+      <c r="B23" s="211" t="str">
         <f>IF(COUNTA(B24:B25)&gt;0,"z","")</f>
         <v/>
       </c>
-      <c r="C23" s="162" t="str">
+      <c r="C23" s="212" t="str">
         <f>IF(COUNTA(C24:C25)&gt;0,"y","")</f>
         <v/>
       </c>
-      <c r="D23" s="163" t="str">
+      <c r="D23" s="213" t="str">
         <f>IF(COUNTA(D24:D25)&gt;0,"x","")</f>
         <v/>
       </c>
-      <c r="E23" s="161">
-        <v>1</v>
-      </c>
-      <c r="F23" s="162">
-        <v>0</v>
-      </c>
-      <c r="G23" s="162">
-        <v>1</v>
-      </c>
-      <c r="H23" s="163">
-        <v>0</v>
-      </c>
-      <c r="I23" s="219">
+      <c r="E23" s="211">
+        <v>1</v>
+      </c>
+      <c r="F23" s="212">
+        <v>0</v>
+      </c>
+      <c r="G23" s="212">
+        <v>1</v>
+      </c>
+      <c r="H23" s="213">
+        <v>0</v>
+      </c>
+      <c r="I23" s="269">
         <f>SUM(E23*8,F23*4,G23*2,H23)</f>
         <v>10</v>
       </c>
-      <c r="J23" s="220" t="str">
+      <c r="J23" s="270" t="str">
         <f>IF(I23&lt;=9,I23,CHAR(I23-10+CODE("A")))</f>
         <v>A</v>
       </c>
-      <c r="K23" s="221" t="s">
+      <c r="K23" s="271" t="s">
         <v>71</v>
       </c>
-      <c r="L23" s="222"/>
-      <c r="M23" s="223"/>
-      <c r="N23" s="226">
+      <c r="L23" s="272"/>
+      <c r="M23" s="273"/>
+      <c r="N23" s="276">
         <f>1+SUM(N24:N25)</f>
         <v>5</v>
       </c>
-      <c r="O23" s="227">
+      <c r="O23" s="277">
         <f>1+SUM(O24:O25)</f>
         <v>5</v>
       </c>
-      <c r="P23" s="224"/>
-      <c r="Q23" s="261" t="s">
+      <c r="P23" s="274"/>
+      <c r="Q23" s="309" t="s">
         <v>72</v>
       </c>
-      <c r="R23" s="262">
+      <c r="R23" s="310">
         <v>3</v>
       </c>
-      <c r="S23" s="262">
+      <c r="S23" s="310">
         <v>4</v>
       </c>
     </row>
-    <row r="24" s="148" customFormat="1" hidden="1" outlineLevel="1" spans="1:19">
-      <c r="A24" s="211"/>
-      <c r="B24" s="184"/>
-      <c r="C24" s="185"/>
-      <c r="D24" s="186"/>
-      <c r="E24" s="184"/>
-      <c r="F24" s="185"/>
-      <c r="G24" s="185"/>
-      <c r="H24" s="186"/>
-      <c r="I24" s="102"/>
-      <c r="J24" s="228"/>
-      <c r="K24" s="248"/>
-      <c r="L24" s="249"/>
-      <c r="M24" s="250"/>
-      <c r="N24" s="251">
+    <row r="24" s="199" customFormat="1" hidden="1" outlineLevel="1" spans="1:19">
+      <c r="A24" s="261"/>
+      <c r="B24" s="234"/>
+      <c r="C24" s="235"/>
+      <c r="D24" s="236"/>
+      <c r="E24" s="234"/>
+      <c r="F24" s="235"/>
+      <c r="G24" s="235"/>
+      <c r="H24" s="236"/>
+      <c r="I24" s="109"/>
+      <c r="J24" s="110"/>
+      <c r="K24" s="296"/>
+      <c r="L24" s="297"/>
+      <c r="M24" s="298"/>
+      <c r="N24" s="299">
         <v>4</v>
       </c>
-      <c r="O24" s="252">
+      <c r="O24" s="300">
         <v>4</v>
       </c>
-      <c r="P24" s="253" t="s">
+      <c r="P24" s="301" t="s">
         <v>73</v>
       </c>
-      <c r="Q24" s="269"/>
-      <c r="R24" s="150"/>
-      <c r="S24" s="150"/>
+      <c r="Q24" s="317"/>
+      <c r="R24" s="201"/>
+      <c r="S24" s="201"/>
     </row>
     <row r="25" ht="15" hidden="1" customHeight="1" outlineLevel="1" spans="1:17">
-      <c r="A25" s="190"/>
-      <c r="B25" s="191"/>
-      <c r="C25" s="205"/>
-      <c r="D25" s="206"/>
-      <c r="E25" s="194"/>
-      <c r="F25" s="195"/>
-      <c r="G25" s="195"/>
-      <c r="H25" s="196"/>
-      <c r="I25" s="102"/>
-      <c r="J25" s="228"/>
-      <c r="K25" s="238"/>
-      <c r="L25" s="238"/>
-      <c r="M25" s="239"/>
-      <c r="N25" s="204"/>
-      <c r="O25" s="192"/>
-      <c r="P25" s="240"/>
-      <c r="Q25" s="266"/>
-    </row>
-    <row r="26" s="146" customFormat="1" collapsed="1" spans="1:19">
-      <c r="A26" s="160" t="s">
+      <c r="A25" s="240"/>
+      <c r="B25" s="241"/>
+      <c r="C25" s="255"/>
+      <c r="D25" s="256"/>
+      <c r="E25" s="244"/>
+      <c r="F25" s="245"/>
+      <c r="G25" s="245"/>
+      <c r="H25" s="246"/>
+      <c r="I25" s="109"/>
+      <c r="J25" s="110"/>
+      <c r="K25" s="286"/>
+      <c r="L25" s="286"/>
+      <c r="M25" s="287"/>
+      <c r="N25" s="254"/>
+      <c r="O25" s="242"/>
+      <c r="P25" s="288"/>
+      <c r="Q25" s="314"/>
+    </row>
+    <row r="26" s="197" customFormat="1" collapsed="1" spans="1:19">
+      <c r="A26" s="210" t="s">
         <v>40</v>
       </c>
-      <c r="B26" s="161" t="str">
+      <c r="B26" s="211" t="str">
         <f>IF(COUNTA(B27:B30)&gt;0,"z","")</f>
         <v>z</v>
       </c>
-      <c r="C26" s="162" t="str">
+      <c r="C26" s="212" t="str">
         <f>IF(COUNTA(C27:C30)&gt;0,"y","")</f>
         <v>y</v>
       </c>
-      <c r="D26" s="163" t="str">
+      <c r="D26" s="213" t="str">
         <f>IF(COUNTA(D27:D30)&gt;0,"x","")</f>
         <v>x</v>
       </c>
-      <c r="E26" s="161">
-        <v>0</v>
-      </c>
-      <c r="F26" s="162">
-        <v>1</v>
-      </c>
-      <c r="G26" s="162">
-        <v>1</v>
-      </c>
-      <c r="H26" s="163">
-        <v>0</v>
-      </c>
-      <c r="I26" s="219">
+      <c r="E26" s="211">
+        <v>0</v>
+      </c>
+      <c r="F26" s="212">
+        <v>1</v>
+      </c>
+      <c r="G26" s="212">
+        <v>1</v>
+      </c>
+      <c r="H26" s="213">
+        <v>0</v>
+      </c>
+      <c r="I26" s="269">
         <f>SUM(E26*8,F26*4,G26*2,H26)</f>
         <v>6</v>
       </c>
-      <c r="J26" s="220">
+      <c r="J26" s="270">
         <f>IF(I26&lt;=9,I26,CHAR(I26-10+CODE("A")))</f>
         <v>6</v>
       </c>
-      <c r="K26" s="221" t="s">
+      <c r="K26" s="271" t="s">
         <v>74</v>
       </c>
-      <c r="L26" s="221"/>
-      <c r="M26" s="225"/>
-      <c r="N26" s="226" t="s">
+      <c r="L26" s="271"/>
+      <c r="M26" s="275"/>
+      <c r="N26" s="276" t="s">
         <v>60</v>
       </c>
-      <c r="O26" s="227" t="str">
+      <c r="O26" s="277" t="str">
         <f>CONCATENATE(1+SUM(O27:O30)," + str")</f>
         <v>1 + str</v>
       </c>
-      <c r="P26" s="224"/>
-      <c r="Q26" s="261" t="s">
+      <c r="P26" s="274"/>
+      <c r="Q26" s="309" t="s">
         <v>75</v>
       </c>
-      <c r="R26" s="262">
+      <c r="R26" s="310">
         <v>3</v>
       </c>
-      <c r="S26" s="262">
+      <c r="S26" s="310">
         <v>4</v>
       </c>
     </row>
     <row r="27" ht="15" hidden="1" customHeight="1" outlineLevel="1" spans="1:17">
-      <c r="A27" s="164"/>
-      <c r="B27" s="165"/>
-      <c r="C27" s="166"/>
-      <c r="D27" s="167"/>
-      <c r="E27" s="168"/>
-      <c r="F27" s="169"/>
-      <c r="G27" s="169"/>
-      <c r="H27" s="170"/>
-      <c r="I27" s="102"/>
-      <c r="J27" s="228"/>
-      <c r="K27" s="229"/>
-      <c r="L27" s="140"/>
-      <c r="M27" s="230"/>
-      <c r="N27" s="174" t="s">
+      <c r="A27" s="214"/>
+      <c r="B27" s="215"/>
+      <c r="C27" s="216"/>
+      <c r="D27" s="217"/>
+      <c r="E27" s="218"/>
+      <c r="F27" s="219"/>
+      <c r="G27" s="219"/>
+      <c r="H27" s="220"/>
+      <c r="I27" s="109"/>
+      <c r="J27" s="110"/>
+      <c r="K27" s="278"/>
+      <c r="L27" s="191"/>
+      <c r="M27" s="279"/>
+      <c r="N27" s="224" t="s">
         <v>62</v>
       </c>
-      <c r="O27" s="188" t="s">
+      <c r="O27" s="238" t="s">
         <v>62</v>
       </c>
-      <c r="P27" s="233" t="s">
+      <c r="P27" s="282" t="s">
         <v>76</v>
       </c>
-      <c r="Q27" s="263"/>
+      <c r="Q27" s="311"/>
     </row>
     <row r="28" ht="15" hidden="1" customHeight="1" outlineLevel="1" spans="1:17">
-      <c r="A28" s="173"/>
-      <c r="B28" s="174"/>
-      <c r="C28" s="188"/>
-      <c r="D28" s="189" t="s">
+      <c r="A28" s="223"/>
+      <c r="B28" s="224"/>
+      <c r="C28" s="238"/>
+      <c r="D28" s="239" t="s">
         <v>43</v>
       </c>
-      <c r="E28" s="177"/>
-      <c r="F28" s="178"/>
-      <c r="G28" s="178"/>
-      <c r="H28" s="179"/>
-      <c r="I28" s="102"/>
-      <c r="J28" s="228"/>
-      <c r="K28" s="140"/>
-      <c r="L28" s="140"/>
-      <c r="M28" s="232" t="s">
+      <c r="E28" s="227"/>
+      <c r="F28" s="228"/>
+      <c r="G28" s="228"/>
+      <c r="H28" s="229"/>
+      <c r="I28" s="109"/>
+      <c r="J28" s="110"/>
+      <c r="K28" s="191"/>
+      <c r="L28" s="191"/>
+      <c r="M28" s="281" t="s">
         <v>77</v>
       </c>
-      <c r="N28" s="174"/>
-      <c r="O28" s="188"/>
-      <c r="P28" s="233"/>
-      <c r="Q28" s="264"/>
+      <c r="N28" s="224"/>
+      <c r="O28" s="238"/>
+      <c r="P28" s="282"/>
+      <c r="Q28" s="312"/>
     </row>
     <row r="29" ht="15" hidden="1" customHeight="1" outlineLevel="1" spans="1:17">
-      <c r="A29" s="173"/>
-      <c r="B29" s="174"/>
-      <c r="C29" s="188" t="s">
+      <c r="A29" s="223"/>
+      <c r="B29" s="224"/>
+      <c r="C29" s="238" t="s">
         <v>43</v>
       </c>
-      <c r="D29" s="189"/>
-      <c r="E29" s="177"/>
-      <c r="F29" s="178"/>
-      <c r="G29" s="178"/>
-      <c r="H29" s="179"/>
-      <c r="I29" s="102"/>
-      <c r="J29" s="228"/>
-      <c r="K29" s="140"/>
-      <c r="L29" s="140" t="s">
+      <c r="D29" s="239"/>
+      <c r="E29" s="227"/>
+      <c r="F29" s="228"/>
+      <c r="G29" s="228"/>
+      <c r="H29" s="229"/>
+      <c r="I29" s="109"/>
+      <c r="J29" s="110"/>
+      <c r="K29" s="191"/>
+      <c r="L29" s="191" t="s">
         <v>78</v>
       </c>
-      <c r="M29" s="232" t="s">
+      <c r="M29" s="281" t="s">
         <v>79</v>
       </c>
-      <c r="N29" s="174"/>
-      <c r="O29" s="188"/>
-      <c r="P29" s="233"/>
-      <c r="Q29" s="264"/>
+      <c r="N29" s="224"/>
+      <c r="O29" s="238"/>
+      <c r="P29" s="282"/>
+      <c r="Q29" s="312"/>
     </row>
     <row r="30" ht="15" hidden="1" customHeight="1" outlineLevel="1" spans="1:17">
-      <c r="A30" s="190"/>
-      <c r="B30" s="191" t="s">
+      <c r="A30" s="240"/>
+      <c r="B30" s="241" t="s">
         <v>43</v>
       </c>
-      <c r="C30" s="205"/>
-      <c r="D30" s="193"/>
-      <c r="E30" s="194"/>
-      <c r="F30" s="195"/>
-      <c r="G30" s="195"/>
-      <c r="H30" s="196"/>
-      <c r="I30" s="102"/>
-      <c r="J30" s="228"/>
-      <c r="K30" s="238"/>
-      <c r="L30" s="140" t="s">
+      <c r="C30" s="255"/>
+      <c r="D30" s="243"/>
+      <c r="E30" s="244"/>
+      <c r="F30" s="245"/>
+      <c r="G30" s="245"/>
+      <c r="H30" s="246"/>
+      <c r="I30" s="109"/>
+      <c r="J30" s="110"/>
+      <c r="K30" s="286"/>
+      <c r="L30" s="191" t="s">
         <v>78</v>
       </c>
-      <c r="M30" s="232" t="s">
+      <c r="M30" s="281" t="s">
         <v>80</v>
       </c>
-      <c r="N30" s="191"/>
-      <c r="O30" s="205"/>
-      <c r="P30" s="240"/>
-      <c r="Q30" s="266"/>
-    </row>
-    <row r="31" s="30" customFormat="1" collapsed="1" spans="1:19">
-      <c r="A31" s="160" t="s">
+      <c r="N30" s="241"/>
+      <c r="O30" s="255"/>
+      <c r="P30" s="288"/>
+      <c r="Q30" s="314"/>
+    </row>
+    <row r="31" s="38" customFormat="1" collapsed="1" spans="1:19">
+      <c r="A31" s="210" t="s">
         <v>40</v>
       </c>
-      <c r="B31" s="161" t="str">
+      <c r="B31" s="211" t="str">
         <f>IF(COUNTA(B32:B34)&gt;0,"z","")</f>
         <v/>
       </c>
-      <c r="C31" s="162" t="str">
+      <c r="C31" s="212" t="str">
         <f>IF(COUNTA(C32:C34)&gt;0,"y","")</f>
         <v/>
       </c>
-      <c r="D31" s="163" t="str">
+      <c r="D31" s="213" t="str">
         <f>IF(COUNTA(D32:D34)&gt;0,"x","")</f>
         <v/>
       </c>
-      <c r="E31" s="161">
-        <v>1</v>
-      </c>
-      <c r="F31" s="162">
-        <v>1</v>
-      </c>
-      <c r="G31" s="162">
-        <v>1</v>
-      </c>
-      <c r="H31" s="163">
-        <v>0</v>
-      </c>
-      <c r="I31" s="219">
+      <c r="E31" s="211">
+        <v>1</v>
+      </c>
+      <c r="F31" s="212">
+        <v>1</v>
+      </c>
+      <c r="G31" s="212">
+        <v>1</v>
+      </c>
+      <c r="H31" s="213">
+        <v>0</v>
+      </c>
+      <c r="I31" s="269">
         <f>SUM(E31*8,F31*4,G31*2,H31)</f>
         <v>14</v>
       </c>
-      <c r="J31" s="220" t="str">
+      <c r="J31" s="270" t="str">
         <f>IF(I31&lt;=9,I31,CHAR(I31-10+CODE("A")))</f>
         <v>E</v>
       </c>
-      <c r="K31" s="221"/>
-      <c r="L31" s="222"/>
-      <c r="M31" s="223"/>
-      <c r="N31" s="226"/>
-      <c r="O31" s="227"/>
-      <c r="P31" s="224"/>
-      <c r="Q31" s="261"/>
-      <c r="R31" s="262"/>
-      <c r="S31" s="262"/>
+      <c r="K31" s="271"/>
+      <c r="L31" s="272"/>
+      <c r="M31" s="273"/>
+      <c r="N31" s="276"/>
+      <c r="O31" s="277"/>
+      <c r="P31" s="274"/>
+      <c r="Q31" s="309"/>
+      <c r="R31" s="310"/>
+      <c r="S31" s="310"/>
     </row>
     <row r="32" s="12" customFormat="1" ht="15" hidden="1" customHeight="1" outlineLevel="1" spans="1:19">
-      <c r="A32" s="164"/>
-      <c r="B32" s="165"/>
-      <c r="C32" s="166"/>
-      <c r="D32" s="167"/>
-      <c r="E32" s="168"/>
-      <c r="F32" s="169"/>
-      <c r="G32" s="169"/>
-      <c r="H32" s="170"/>
-      <c r="I32" s="102"/>
-      <c r="J32" s="228"/>
-      <c r="K32" s="229"/>
-      <c r="L32" s="229"/>
-      <c r="M32" s="230"/>
-      <c r="N32" s="212"/>
-      <c r="O32" s="171"/>
-      <c r="P32" s="231"/>
-      <c r="Q32" s="263"/>
-      <c r="R32" s="149"/>
-      <c r="S32" s="149"/>
+      <c r="A32" s="214"/>
+      <c r="B32" s="215"/>
+      <c r="C32" s="216"/>
+      <c r="D32" s="217"/>
+      <c r="E32" s="218"/>
+      <c r="F32" s="219"/>
+      <c r="G32" s="219"/>
+      <c r="H32" s="220"/>
+      <c r="I32" s="109"/>
+      <c r="J32" s="110"/>
+      <c r="K32" s="278"/>
+      <c r="L32" s="278"/>
+      <c r="M32" s="279"/>
+      <c r="N32" s="262"/>
+      <c r="O32" s="221"/>
+      <c r="P32" s="280"/>
+      <c r="Q32" s="311"/>
+      <c r="R32" s="200"/>
+      <c r="S32" s="200"/>
     </row>
     <row r="33" s="12" customFormat="1" ht="15" hidden="1" customHeight="1" outlineLevel="1" spans="1:19">
-      <c r="A33" s="164"/>
-      <c r="B33" s="165"/>
-      <c r="C33" s="171"/>
-      <c r="D33" s="172"/>
-      <c r="E33" s="168"/>
-      <c r="F33" s="169"/>
-      <c r="G33" s="169"/>
-      <c r="H33" s="170"/>
-      <c r="I33" s="102"/>
-      <c r="J33" s="228"/>
-      <c r="K33" s="229"/>
-      <c r="L33" s="229"/>
-      <c r="M33" s="230"/>
-      <c r="N33" s="212"/>
-      <c r="O33" s="171"/>
-      <c r="P33" s="231"/>
-      <c r="Q33" s="263"/>
-      <c r="R33" s="149"/>
-      <c r="S33" s="149"/>
+      <c r="A33" s="214"/>
+      <c r="B33" s="215"/>
+      <c r="C33" s="221"/>
+      <c r="D33" s="222"/>
+      <c r="E33" s="218"/>
+      <c r="F33" s="219"/>
+      <c r="G33" s="219"/>
+      <c r="H33" s="220"/>
+      <c r="I33" s="109"/>
+      <c r="J33" s="110"/>
+      <c r="K33" s="278"/>
+      <c r="L33" s="278"/>
+      <c r="M33" s="279"/>
+      <c r="N33" s="262"/>
+      <c r="O33" s="221"/>
+      <c r="P33" s="280"/>
+      <c r="Q33" s="311"/>
+      <c r="R33" s="200"/>
+      <c r="S33" s="200"/>
     </row>
     <row r="34" s="12" customFormat="1" ht="15" hidden="1" customHeight="1" outlineLevel="1" spans="1:19">
-      <c r="A34" s="190"/>
-      <c r="B34" s="191"/>
-      <c r="C34" s="192"/>
-      <c r="D34" s="193"/>
-      <c r="E34" s="194"/>
-      <c r="F34" s="195"/>
-      <c r="G34" s="195"/>
-      <c r="H34" s="196"/>
-      <c r="I34" s="102"/>
-      <c r="J34" s="228"/>
-      <c r="K34" s="238"/>
-      <c r="L34" s="238"/>
-      <c r="M34" s="239"/>
-      <c r="N34" s="191"/>
-      <c r="O34" s="205"/>
-      <c r="P34" s="240"/>
-      <c r="Q34" s="266"/>
-      <c r="R34" s="149"/>
-      <c r="S34" s="149"/>
-    </row>
-    <row r="35" s="146" customFormat="1" collapsed="1" spans="1:19">
-      <c r="A35" s="160" t="s">
+      <c r="A34" s="240"/>
+      <c r="B34" s="241"/>
+      <c r="C34" s="242"/>
+      <c r="D34" s="243"/>
+      <c r="E34" s="244"/>
+      <c r="F34" s="245"/>
+      <c r="G34" s="245"/>
+      <c r="H34" s="246"/>
+      <c r="I34" s="109"/>
+      <c r="J34" s="110"/>
+      <c r="K34" s="286"/>
+      <c r="L34" s="286"/>
+      <c r="M34" s="287"/>
+      <c r="N34" s="241"/>
+      <c r="O34" s="255"/>
+      <c r="P34" s="288"/>
+      <c r="Q34" s="314"/>
+      <c r="R34" s="200"/>
+      <c r="S34" s="200"/>
+    </row>
+    <row r="35" s="197" customFormat="1" collapsed="1" spans="1:19">
+      <c r="A35" s="210" t="s">
         <v>40</v>
       </c>
-      <c r="B35" s="161" t="str">
+      <c r="B35" s="211" t="str">
         <f>IF(COUNTA(B36)&gt;0,"z","")</f>
         <v/>
       </c>
-      <c r="C35" s="162" t="str">
+      <c r="C35" s="212" t="str">
         <f>IF(COUNTA(C36)&gt;0,"y","")</f>
         <v/>
       </c>
-      <c r="D35" s="163" t="str">
+      <c r="D35" s="213" t="str">
         <f>IF(COUNTA(D36)&gt;0,"x","")</f>
         <v/>
       </c>
-      <c r="E35" s="161">
-        <v>0</v>
-      </c>
-      <c r="F35" s="162">
-        <v>0</v>
-      </c>
-      <c r="G35" s="162">
-        <v>0</v>
-      </c>
-      <c r="H35" s="163">
-        <v>1</v>
-      </c>
-      <c r="I35" s="219">
+      <c r="E35" s="211">
+        <v>0</v>
+      </c>
+      <c r="F35" s="212">
+        <v>0</v>
+      </c>
+      <c r="G35" s="212">
+        <v>0</v>
+      </c>
+      <c r="H35" s="213">
+        <v>1</v>
+      </c>
+      <c r="I35" s="269">
         <f>SUM(E35*8,F35*4,G35*2,H35)</f>
         <v>1</v>
       </c>
-      <c r="J35" s="220">
+      <c r="J35" s="270">
         <f>IF(I35&lt;=9,I35,CHAR(I35-10+CODE("A")))</f>
         <v>1</v>
       </c>
-      <c r="K35" s="221" t="s">
+      <c r="K35" s="271" t="s">
         <v>81</v>
       </c>
-      <c r="L35" s="222"/>
-      <c r="M35" s="223"/>
-      <c r="N35" s="226">
+      <c r="L35" s="272"/>
+      <c r="M35" s="273"/>
+      <c r="N35" s="276">
         <f>1+SUM(N36)</f>
         <v>5</v>
       </c>
-      <c r="O35" s="227">
+      <c r="O35" s="277">
         <f>1+SUM(O36)</f>
         <v>5</v>
       </c>
-      <c r="P35" s="224"/>
-      <c r="Q35" s="261" t="s">
+      <c r="P35" s="274"/>
+      <c r="Q35" s="309" t="s">
         <v>82</v>
       </c>
-      <c r="R35" s="262">
+      <c r="R35" s="310">
         <v>3</v>
       </c>
-      <c r="S35" s="262">
+      <c r="S35" s="310">
         <v>0</v>
       </c>
     </row>
     <row r="36" ht="15" hidden="1" customHeight="1" outlineLevel="1" spans="1:17">
-      <c r="A36" s="190"/>
-      <c r="B36" s="204"/>
-      <c r="C36" s="192"/>
-      <c r="D36" s="206"/>
-      <c r="E36" s="194"/>
-      <c r="F36" s="195"/>
-      <c r="G36" s="195"/>
-      <c r="H36" s="196"/>
-      <c r="I36" s="102"/>
-      <c r="J36" s="228"/>
-      <c r="K36" s="238"/>
-      <c r="L36" s="238"/>
-      <c r="M36" s="239"/>
-      <c r="N36" s="191">
+      <c r="A36" s="240"/>
+      <c r="B36" s="254"/>
+      <c r="C36" s="242"/>
+      <c r="D36" s="256"/>
+      <c r="E36" s="244"/>
+      <c r="F36" s="245"/>
+      <c r="G36" s="245"/>
+      <c r="H36" s="246"/>
+      <c r="I36" s="109"/>
+      <c r="J36" s="110"/>
+      <c r="K36" s="286"/>
+      <c r="L36" s="286"/>
+      <c r="M36" s="287"/>
+      <c r="N36" s="241">
         <v>4</v>
       </c>
-      <c r="O36" s="205">
+      <c r="O36" s="255">
         <v>4</v>
       </c>
-      <c r="P36" s="240" t="s">
+      <c r="P36" s="288" t="s">
         <v>83</v>
       </c>
-      <c r="Q36" s="266"/>
-    </row>
-    <row r="37" s="146" customFormat="1" collapsed="1" spans="1:19">
-      <c r="A37" s="160" t="s">
+      <c r="Q36" s="314"/>
+    </row>
+    <row r="37" s="197" customFormat="1" collapsed="1" spans="1:19">
+      <c r="A37" s="210" t="s">
         <v>40</v>
       </c>
-      <c r="B37" s="161" t="str">
+      <c r="B37" s="211" t="str">
         <f>IF(COUNTA(B38:B42)&gt;0,"z","")</f>
         <v>z</v>
       </c>
-      <c r="C37" s="162" t="str">
+      <c r="C37" s="212" t="str">
         <f>IF(COUNTA(C38:C42)&gt;0,"y","")</f>
         <v>y</v>
       </c>
-      <c r="D37" s="163" t="str">
+      <c r="D37" s="213" t="str">
         <f>IF(COUNTA(D38:D42)&gt;0,"x","")</f>
         <v>x</v>
       </c>
-      <c r="E37" s="161">
-        <v>1</v>
-      </c>
-      <c r="F37" s="162">
-        <v>0</v>
-      </c>
-      <c r="G37" s="162">
-        <v>0</v>
-      </c>
-      <c r="H37" s="163">
-        <v>1</v>
-      </c>
-      <c r="I37" s="219">
+      <c r="E37" s="211">
+        <v>1</v>
+      </c>
+      <c r="F37" s="212">
+        <v>0</v>
+      </c>
+      <c r="G37" s="212">
+        <v>0</v>
+      </c>
+      <c r="H37" s="213">
+        <v>1</v>
+      </c>
+      <c r="I37" s="269">
         <f>SUM(E37*8,F37*4,G37*2,H37)</f>
         <v>9</v>
       </c>
-      <c r="J37" s="220">
+      <c r="J37" s="270">
         <f>IF(I37&lt;=9,I37,CHAR(I37-10+CODE("A")))</f>
         <v>9</v>
       </c>
-      <c r="K37" s="221" t="s">
+      <c r="K37" s="271" t="s">
         <v>84</v>
       </c>
-      <c r="L37" s="221"/>
-      <c r="M37" s="225"/>
-      <c r="N37" s="226">
+      <c r="L37" s="271"/>
+      <c r="M37" s="275"/>
+      <c r="N37" s="276">
         <v>5</v>
       </c>
-      <c r="O37" s="227" t="s">
+      <c r="O37" s="277" t="s">
         <v>85</v>
       </c>
-      <c r="P37" s="224"/>
-      <c r="Q37" s="261" t="s">
+      <c r="P37" s="274"/>
+      <c r="Q37" s="309" t="s">
         <v>82</v>
       </c>
-      <c r="R37" s="262">
+      <c r="R37" s="310">
         <v>3</v>
       </c>
-      <c r="S37" s="262">
+      <c r="S37" s="310">
         <v>4</v>
       </c>
     </row>
     <row r="38" ht="15" hidden="1" customHeight="1" outlineLevel="1" spans="1:17">
-      <c r="A38" s="164"/>
-      <c r="B38" s="165"/>
-      <c r="C38" s="171"/>
-      <c r="D38" s="167" t="s">
+      <c r="A38" s="214"/>
+      <c r="B38" s="215"/>
+      <c r="C38" s="221"/>
+      <c r="D38" s="217" t="s">
         <v>43</v>
       </c>
-      <c r="E38" s="168"/>
-      <c r="F38" s="169"/>
-      <c r="G38" s="169"/>
-      <c r="H38" s="170"/>
-      <c r="I38" s="102"/>
-      <c r="J38" s="228"/>
-      <c r="K38" s="229"/>
-      <c r="L38" s="254"/>
-      <c r="M38" s="255" t="s">
+      <c r="E38" s="218"/>
+      <c r="F38" s="219"/>
+      <c r="G38" s="219"/>
+      <c r="H38" s="220"/>
+      <c r="I38" s="109"/>
+      <c r="J38" s="110"/>
+      <c r="K38" s="278"/>
+      <c r="L38" s="302"/>
+      <c r="M38" s="303" t="s">
         <v>86</v>
       </c>
-      <c r="N38" s="165"/>
-      <c r="O38" s="171"/>
-      <c r="P38" s="231"/>
-      <c r="Q38" s="263"/>
+      <c r="N38" s="215"/>
+      <c r="O38" s="221"/>
+      <c r="P38" s="280"/>
+      <c r="Q38" s="311"/>
     </row>
     <row r="39" ht="15" hidden="1" customHeight="1" outlineLevel="1" spans="1:17">
-      <c r="A39" s="173"/>
-      <c r="B39" s="187"/>
-      <c r="C39" s="188" t="s">
+      <c r="A39" s="223"/>
+      <c r="B39" s="237"/>
+      <c r="C39" s="238" t="s">
         <v>43</v>
       </c>
-      <c r="D39" s="189"/>
-      <c r="E39" s="177"/>
-      <c r="F39" s="178"/>
-      <c r="G39" s="178"/>
-      <c r="H39" s="179"/>
-      <c r="I39" s="102"/>
-      <c r="J39" s="228"/>
-      <c r="K39" s="140"/>
-      <c r="L39" s="140"/>
-      <c r="M39" s="232" t="s">
+      <c r="D39" s="239"/>
+      <c r="E39" s="227"/>
+      <c r="F39" s="228"/>
+      <c r="G39" s="228"/>
+      <c r="H39" s="229"/>
+      <c r="I39" s="109"/>
+      <c r="J39" s="110"/>
+      <c r="K39" s="191"/>
+      <c r="L39" s="191"/>
+      <c r="M39" s="281" t="s">
         <v>87</v>
       </c>
-      <c r="N39" s="174"/>
-      <c r="O39" s="188" t="s">
+      <c r="N39" s="224"/>
+      <c r="O39" s="238" t="s">
         <v>62</v>
       </c>
-      <c r="P39" s="233" t="s">
+      <c r="P39" s="282" t="s">
         <v>88</v>
       </c>
-      <c r="Q39" s="264"/>
+      <c r="Q39" s="312"/>
     </row>
     <row r="40" ht="15" hidden="1" customHeight="1" outlineLevel="1" spans="1:17">
-      <c r="A40" s="173"/>
-      <c r="B40" s="187"/>
-      <c r="C40" s="188"/>
-      <c r="D40" s="189"/>
-      <c r="E40" s="177"/>
-      <c r="F40" s="178"/>
-      <c r="G40" s="178"/>
-      <c r="H40" s="179"/>
-      <c r="I40" s="102"/>
-      <c r="J40" s="228"/>
-      <c r="K40" s="140"/>
-      <c r="L40" s="140" t="s">
+      <c r="A40" s="223"/>
+      <c r="B40" s="237"/>
+      <c r="C40" s="238"/>
+      <c r="D40" s="239"/>
+      <c r="E40" s="227"/>
+      <c r="F40" s="228"/>
+      <c r="G40" s="228"/>
+      <c r="H40" s="229"/>
+      <c r="I40" s="109"/>
+      <c r="J40" s="110"/>
+      <c r="K40" s="191"/>
+      <c r="L40" s="191" t="s">
         <v>89</v>
       </c>
-      <c r="M40" s="232"/>
-      <c r="N40" s="187"/>
-      <c r="O40" s="188">
+      <c r="M40" s="281"/>
+      <c r="N40" s="237"/>
+      <c r="O40" s="238">
         <v>4</v>
       </c>
-      <c r="P40" s="233" t="s">
+      <c r="P40" s="282" t="s">
         <v>90</v>
       </c>
-      <c r="Q40" s="264"/>
+      <c r="Q40" s="312"/>
     </row>
     <row r="41" ht="15" hidden="1" customHeight="1" outlineLevel="1" spans="1:17">
-      <c r="A41" s="173"/>
-      <c r="B41" s="187"/>
-      <c r="C41" s="188"/>
-      <c r="D41" s="189"/>
-      <c r="E41" s="177"/>
-      <c r="F41" s="178"/>
-      <c r="G41" s="178"/>
-      <c r="H41" s="179"/>
-      <c r="I41" s="102"/>
-      <c r="J41" s="228"/>
-      <c r="K41" s="140"/>
-      <c r="L41" s="140" t="s">
+      <c r="A41" s="223"/>
+      <c r="B41" s="237"/>
+      <c r="C41" s="238"/>
+      <c r="D41" s="239"/>
+      <c r="E41" s="227"/>
+      <c r="F41" s="228"/>
+      <c r="G41" s="228"/>
+      <c r="H41" s="229"/>
+      <c r="I41" s="109"/>
+      <c r="J41" s="110"/>
+      <c r="K41" s="191"/>
+      <c r="L41" s="191" t="s">
         <v>91</v>
       </c>
-      <c r="M41" s="232"/>
-      <c r="N41" s="187"/>
-      <c r="O41" s="188">
+      <c r="M41" s="281"/>
+      <c r="N41" s="237"/>
+      <c r="O41" s="238">
         <v>16</v>
       </c>
-      <c r="P41" s="233" t="s">
+      <c r="P41" s="282" t="s">
         <v>92</v>
       </c>
-      <c r="Q41" s="264"/>
+      <c r="Q41" s="312"/>
     </row>
     <row r="42" ht="15" hidden="1" customHeight="1" outlineLevel="1" spans="1:17">
-      <c r="A42" s="190"/>
-      <c r="B42" s="191" t="s">
+      <c r="A42" s="240"/>
+      <c r="B42" s="241" t="s">
         <v>43</v>
       </c>
-      <c r="C42" s="205"/>
-      <c r="D42" s="206"/>
-      <c r="E42" s="194"/>
-      <c r="F42" s="195"/>
-      <c r="G42" s="195"/>
-      <c r="H42" s="196"/>
-      <c r="I42" s="102"/>
-      <c r="J42" s="228"/>
-      <c r="K42" s="238"/>
-      <c r="L42" s="238"/>
-      <c r="M42" s="239" t="s">
+      <c r="C42" s="255"/>
+      <c r="D42" s="256"/>
+      <c r="E42" s="244"/>
+      <c r="F42" s="245"/>
+      <c r="G42" s="245"/>
+      <c r="H42" s="246"/>
+      <c r="I42" s="109"/>
+      <c r="J42" s="110"/>
+      <c r="K42" s="286"/>
+      <c r="L42" s="286"/>
+      <c r="M42" s="287" t="s">
         <v>93</v>
       </c>
-      <c r="N42" s="204"/>
-      <c r="O42" s="205">
+      <c r="N42" s="254"/>
+      <c r="O42" s="255">
         <v>2</v>
       </c>
-      <c r="P42" s="240" t="s">
+      <c r="P42" s="288" t="s">
         <v>94</v>
       </c>
-      <c r="Q42" s="266"/>
-    </row>
-    <row r="43" s="146" customFormat="1" collapsed="1" spans="1:19">
-      <c r="A43" s="160" t="s">
+      <c r="Q42" s="314"/>
+    </row>
+    <row r="43" s="197" customFormat="1" collapsed="1" spans="1:19">
+      <c r="A43" s="210" t="s">
         <v>40</v>
       </c>
-      <c r="B43" s="161" t="str">
+      <c r="B43" s="211" t="str">
         <f>IF(COUNTA(B44)&gt;0,"z","")</f>
         <v/>
       </c>
-      <c r="C43" s="162" t="str">
+      <c r="C43" s="212" t="str">
         <f>IF(COUNTA(C44)&gt;0,"y","")</f>
         <v/>
       </c>
-      <c r="D43" s="163" t="str">
+      <c r="D43" s="213" t="str">
         <f>IF(COUNTA(D44)&gt;0,"x","")</f>
         <v/>
       </c>
-      <c r="E43" s="161">
-        <v>0</v>
-      </c>
-      <c r="F43" s="162">
-        <v>1</v>
-      </c>
-      <c r="G43" s="162">
-        <v>0</v>
-      </c>
-      <c r="H43" s="163">
-        <v>1</v>
-      </c>
-      <c r="I43" s="219">
+      <c r="E43" s="211">
+        <v>0</v>
+      </c>
+      <c r="F43" s="212">
+        <v>1</v>
+      </c>
+      <c r="G43" s="212">
+        <v>0</v>
+      </c>
+      <c r="H43" s="213">
+        <v>1</v>
+      </c>
+      <c r="I43" s="269">
         <f>SUM(E43*8,F43*4,G43*2,H43)</f>
         <v>5</v>
       </c>
-      <c r="J43" s="220">
+      <c r="J43" s="270">
         <f>IF(I43&lt;=9,I43,CHAR(I43-10+CODE("A")))</f>
         <v>5</v>
       </c>
-      <c r="K43" s="225"/>
-      <c r="L43" s="222"/>
-      <c r="M43" s="223"/>
-      <c r="N43" s="226"/>
-      <c r="O43" s="227"/>
-      <c r="P43" s="256"/>
-      <c r="Q43" s="261"/>
-      <c r="R43" s="262"/>
-      <c r="S43" s="262"/>
+      <c r="K43" s="275"/>
+      <c r="L43" s="272"/>
+      <c r="M43" s="273"/>
+      <c r="N43" s="276"/>
+      <c r="O43" s="277"/>
+      <c r="P43" s="304"/>
+      <c r="Q43" s="309"/>
+      <c r="R43" s="310"/>
+      <c r="S43" s="310"/>
     </row>
     <row r="44" ht="15" hidden="1" customHeight="1" outlineLevel="1" spans="1:17">
-      <c r="A44" s="190"/>
-      <c r="B44" s="191"/>
-      <c r="C44" s="205"/>
-      <c r="D44" s="206"/>
-      <c r="E44" s="194"/>
-      <c r="F44" s="195"/>
-      <c r="G44" s="195"/>
-      <c r="H44" s="196"/>
-      <c r="I44" s="102"/>
-      <c r="J44" s="228"/>
-      <c r="K44" s="257"/>
-      <c r="L44" s="238"/>
-      <c r="M44" s="239"/>
-      <c r="N44" s="204"/>
-      <c r="O44" s="192"/>
-      <c r="P44" s="258"/>
-      <c r="Q44" s="266"/>
-    </row>
-    <row r="45" s="146" customFormat="1" collapsed="1" spans="1:19">
-      <c r="A45" s="160" t="s">
+      <c r="A44" s="240"/>
+      <c r="B44" s="241"/>
+      <c r="C44" s="255"/>
+      <c r="D44" s="256"/>
+      <c r="E44" s="244"/>
+      <c r="F44" s="245"/>
+      <c r="G44" s="245"/>
+      <c r="H44" s="246"/>
+      <c r="I44" s="109"/>
+      <c r="J44" s="110"/>
+      <c r="K44" s="305"/>
+      <c r="L44" s="286"/>
+      <c r="M44" s="287"/>
+      <c r="N44" s="254"/>
+      <c r="O44" s="242"/>
+      <c r="P44" s="306"/>
+      <c r="Q44" s="314"/>
+    </row>
+    <row r="45" s="197" customFormat="1" collapsed="1" spans="1:19">
+      <c r="A45" s="210" t="s">
         <v>40</v>
       </c>
-      <c r="B45" s="161" t="str">
+      <c r="B45" s="211" t="str">
         <f>IF(COUNTA(B46:B50)&gt;0,"z","")</f>
         <v/>
       </c>
-      <c r="C45" s="162" t="str">
+      <c r="C45" s="212" t="str">
         <f>IF(COUNTA(C46:C50)&gt;0,"y","")</f>
         <v/>
       </c>
-      <c r="D45" s="163" t="str">
+      <c r="D45" s="213" t="str">
         <f>IF(COUNTA(D46:D50)&gt;0,"x","")</f>
         <v/>
       </c>
-      <c r="E45" s="161">
-        <v>1</v>
-      </c>
-      <c r="F45" s="162">
-        <v>1</v>
-      </c>
-      <c r="G45" s="162">
-        <v>0</v>
-      </c>
-      <c r="H45" s="163">
-        <v>1</v>
-      </c>
-      <c r="I45" s="219">
+      <c r="E45" s="211">
+        <v>1</v>
+      </c>
+      <c r="F45" s="212">
+        <v>1</v>
+      </c>
+      <c r="G45" s="212">
+        <v>0</v>
+      </c>
+      <c r="H45" s="213">
+        <v>1</v>
+      </c>
+      <c r="I45" s="269">
         <f>SUM(E45*8,F45*4,G45*2,H45)</f>
         <v>13</v>
       </c>
-      <c r="J45" s="220" t="str">
+      <c r="J45" s="270" t="str">
         <f>IF(I45&lt;=9,I45,CHAR(I45-10+CODE("A")))</f>
         <v>D</v>
       </c>
-      <c r="K45" s="221"/>
-      <c r="L45" s="222"/>
-      <c r="M45" s="223"/>
-      <c r="N45" s="226"/>
-      <c r="O45" s="227"/>
-      <c r="P45" s="224"/>
-      <c r="Q45" s="261"/>
-      <c r="R45" s="262"/>
-      <c r="S45" s="262"/>
+      <c r="K45" s="271"/>
+      <c r="L45" s="272"/>
+      <c r="M45" s="273"/>
+      <c r="N45" s="276"/>
+      <c r="O45" s="277"/>
+      <c r="P45" s="274"/>
+      <c r="Q45" s="309"/>
+      <c r="R45" s="310"/>
+      <c r="S45" s="310"/>
     </row>
     <row r="46" ht="15" hidden="1" customHeight="1" outlineLevel="1" spans="1:17">
-      <c r="A46" s="173"/>
-      <c r="B46" s="187"/>
-      <c r="C46" s="188"/>
-      <c r="D46" s="189"/>
-      <c r="E46" s="177"/>
-      <c r="F46" s="178"/>
-      <c r="G46" s="178"/>
-      <c r="H46" s="179"/>
-      <c r="I46" s="102"/>
-      <c r="J46" s="228"/>
-      <c r="K46" s="140"/>
-      <c r="L46" s="140"/>
-      <c r="M46" s="232"/>
-      <c r="N46" s="174"/>
-      <c r="O46" s="188"/>
-      <c r="P46" s="233"/>
-      <c r="Q46" s="264"/>
+      <c r="A46" s="223"/>
+      <c r="B46" s="237"/>
+      <c r="C46" s="238"/>
+      <c r="D46" s="239"/>
+      <c r="E46" s="227"/>
+      <c r="F46" s="228"/>
+      <c r="G46" s="228"/>
+      <c r="H46" s="229"/>
+      <c r="I46" s="109"/>
+      <c r="J46" s="110"/>
+      <c r="K46" s="191"/>
+      <c r="L46" s="191"/>
+      <c r="M46" s="281"/>
+      <c r="N46" s="224"/>
+      <c r="O46" s="238"/>
+      <c r="P46" s="282"/>
+      <c r="Q46" s="312"/>
     </row>
     <row r="47" ht="15" hidden="1" customHeight="1" outlineLevel="1" spans="1:17">
-      <c r="A47" s="173"/>
-      <c r="B47" s="187"/>
-      <c r="C47" s="188"/>
-      <c r="D47" s="189"/>
-      <c r="E47" s="177"/>
-      <c r="F47" s="178"/>
-      <c r="G47" s="178"/>
-      <c r="H47" s="179"/>
-      <c r="I47" s="102"/>
-      <c r="J47" s="228"/>
-      <c r="K47" s="140"/>
-      <c r="L47" s="140"/>
-      <c r="M47" s="232"/>
-      <c r="N47" s="174"/>
-      <c r="O47" s="188"/>
-      <c r="P47" s="233"/>
-      <c r="Q47" s="264"/>
+      <c r="A47" s="223"/>
+      <c r="B47" s="237"/>
+      <c r="C47" s="238"/>
+      <c r="D47" s="239"/>
+      <c r="E47" s="227"/>
+      <c r="F47" s="228"/>
+      <c r="G47" s="228"/>
+      <c r="H47" s="229"/>
+      <c r="I47" s="109"/>
+      <c r="J47" s="110"/>
+      <c r="K47" s="191"/>
+      <c r="L47" s="191"/>
+      <c r="M47" s="281"/>
+      <c r="N47" s="224"/>
+      <c r="O47" s="238"/>
+      <c r="P47" s="282"/>
+      <c r="Q47" s="312"/>
     </row>
     <row r="48" ht="15" hidden="1" customHeight="1" outlineLevel="1" spans="1:17">
-      <c r="A48" s="173"/>
-      <c r="B48" s="187"/>
-      <c r="C48" s="188"/>
-      <c r="D48" s="189"/>
-      <c r="E48" s="177"/>
-      <c r="F48" s="178"/>
-      <c r="G48" s="178"/>
-      <c r="H48" s="179"/>
-      <c r="I48" s="102"/>
-      <c r="J48" s="228"/>
-      <c r="K48" s="140"/>
-      <c r="L48" s="140"/>
-      <c r="M48" s="232"/>
-      <c r="N48" s="174"/>
-      <c r="O48" s="188"/>
-      <c r="P48" s="233"/>
-      <c r="Q48" s="264"/>
+      <c r="A48" s="223"/>
+      <c r="B48" s="237"/>
+      <c r="C48" s="238"/>
+      <c r="D48" s="239"/>
+      <c r="E48" s="227"/>
+      <c r="F48" s="228"/>
+      <c r="G48" s="228"/>
+      <c r="H48" s="229"/>
+      <c r="I48" s="109"/>
+      <c r="J48" s="110"/>
+      <c r="K48" s="191"/>
+      <c r="L48" s="191"/>
+      <c r="M48" s="281"/>
+      <c r="N48" s="224"/>
+      <c r="O48" s="238"/>
+      <c r="P48" s="282"/>
+      <c r="Q48" s="312"/>
     </row>
     <row r="49" ht="15" hidden="1" customHeight="1" outlineLevel="1" spans="1:17">
-      <c r="A49" s="173"/>
-      <c r="B49" s="187"/>
-      <c r="C49" s="188"/>
-      <c r="D49" s="189"/>
-      <c r="E49" s="177"/>
-      <c r="F49" s="178"/>
-      <c r="G49" s="178"/>
-      <c r="H49" s="179"/>
-      <c r="I49" s="102"/>
-      <c r="J49" s="228"/>
-      <c r="K49" s="140"/>
-      <c r="L49" s="140"/>
-      <c r="M49" s="232"/>
-      <c r="N49" s="174"/>
-      <c r="O49" s="188"/>
-      <c r="P49" s="233"/>
-      <c r="Q49" s="264"/>
+      <c r="A49" s="223"/>
+      <c r="B49" s="237"/>
+      <c r="C49" s="238"/>
+      <c r="D49" s="239"/>
+      <c r="E49" s="227"/>
+      <c r="F49" s="228"/>
+      <c r="G49" s="228"/>
+      <c r="H49" s="229"/>
+      <c r="I49" s="109"/>
+      <c r="J49" s="110"/>
+      <c r="K49" s="191"/>
+      <c r="L49" s="191"/>
+      <c r="M49" s="281"/>
+      <c r="N49" s="224"/>
+      <c r="O49" s="238"/>
+      <c r="P49" s="282"/>
+      <c r="Q49" s="312"/>
     </row>
     <row r="50" ht="15" hidden="1" customHeight="1" outlineLevel="1" spans="1:17">
-      <c r="A50" s="190"/>
-      <c r="B50" s="191"/>
-      <c r="C50" s="192"/>
-      <c r="D50" s="193"/>
-      <c r="E50" s="194"/>
-      <c r="F50" s="195"/>
-      <c r="G50" s="195"/>
-      <c r="H50" s="196"/>
-      <c r="I50" s="102"/>
-      <c r="J50" s="228"/>
-      <c r="K50" s="238"/>
-      <c r="L50" s="238"/>
-      <c r="M50" s="239"/>
-      <c r="N50" s="204"/>
-      <c r="O50" s="192"/>
-      <c r="P50" s="240"/>
-      <c r="Q50" s="266"/>
-    </row>
-    <row r="51" s="146" customFormat="1" collapsed="1" spans="1:19">
-      <c r="A51" s="160" t="s">
+      <c r="A50" s="240"/>
+      <c r="B50" s="241"/>
+      <c r="C50" s="242"/>
+      <c r="D50" s="243"/>
+      <c r="E50" s="244"/>
+      <c r="F50" s="245"/>
+      <c r="G50" s="245"/>
+      <c r="H50" s="246"/>
+      <c r="I50" s="109"/>
+      <c r="J50" s="110"/>
+      <c r="K50" s="286"/>
+      <c r="L50" s="286"/>
+      <c r="M50" s="287"/>
+      <c r="N50" s="254"/>
+      <c r="O50" s="242"/>
+      <c r="P50" s="288"/>
+      <c r="Q50" s="314"/>
+    </row>
+    <row r="51" s="197" customFormat="1" collapsed="1" spans="1:19">
+      <c r="A51" s="210" t="s">
         <v>40</v>
       </c>
-      <c r="B51" s="161" t="str">
+      <c r="B51" s="211" t="str">
         <f>IF(COUNTA(B52:B59)&gt;0,"z","")</f>
         <v>z</v>
       </c>
-      <c r="C51" s="162" t="str">
+      <c r="C51" s="212" t="str">
         <f>IF(COUNTA(C52:C59)&gt;0,"y","")</f>
         <v>y</v>
       </c>
-      <c r="D51" s="163" t="str">
+      <c r="D51" s="213" t="str">
         <f>IF(COUNTA(D52:D59)&gt;0,"x","")</f>
         <v>x</v>
       </c>
-      <c r="E51" s="161">
-        <v>0</v>
-      </c>
-      <c r="F51" s="162">
-        <v>0</v>
-      </c>
-      <c r="G51" s="162">
-        <v>1</v>
-      </c>
-      <c r="H51" s="163">
-        <v>1</v>
-      </c>
-      <c r="I51" s="219">
+      <c r="E51" s="211">
+        <v>0</v>
+      </c>
+      <c r="F51" s="212">
+        <v>0</v>
+      </c>
+      <c r="G51" s="212">
+        <v>1</v>
+      </c>
+      <c r="H51" s="213">
+        <v>1</v>
+      </c>
+      <c r="I51" s="269">
         <f>SUM(E51*8,F51*4,G51*2,H51)</f>
         <v>3</v>
       </c>
-      <c r="J51" s="220">
+      <c r="J51" s="270">
         <f>IF(I51&lt;=9,I51,CHAR(I51-10+CODE("A")))</f>
         <v>3</v>
       </c>
-      <c r="K51" s="221" t="s">
+      <c r="K51" s="271" t="s">
         <v>95</v>
       </c>
-      <c r="L51" s="222"/>
-      <c r="M51" s="223"/>
-      <c r="N51" s="226">
+      <c r="L51" s="272"/>
+      <c r="M51" s="273"/>
+      <c r="N51" s="276">
         <v>9</v>
       </c>
-      <c r="O51" s="227">
+      <c r="O51" s="277">
         <v>9</v>
       </c>
-      <c r="P51" s="224"/>
-      <c r="Q51" s="261" t="s">
+      <c r="P51" s="274"/>
+      <c r="Q51" s="309" t="s">
         <v>42</v>
       </c>
-      <c r="R51" s="262">
+      <c r="R51" s="310">
         <v>3</v>
       </c>
-      <c r="S51" s="262">
+      <c r="S51" s="310">
         <v>4</v>
       </c>
     </row>
     <row r="52" ht="15" hidden="1" customHeight="1" outlineLevel="1" spans="1:17">
-      <c r="A52" s="164"/>
-      <c r="B52" s="212"/>
-      <c r="C52" s="171"/>
-      <c r="D52" s="167" t="s">
+      <c r="A52" s="214"/>
+      <c r="B52" s="262"/>
+      <c r="C52" s="221"/>
+      <c r="D52" s="217" t="s">
         <v>43</v>
       </c>
-      <c r="E52" s="168"/>
-      <c r="F52" s="169"/>
-      <c r="G52" s="169"/>
-      <c r="H52" s="170"/>
-      <c r="I52" s="102"/>
-      <c r="J52" s="228"/>
-      <c r="K52" s="229"/>
-      <c r="L52" s="229"/>
-      <c r="M52" s="230" t="s">
+      <c r="E52" s="218"/>
+      <c r="F52" s="219"/>
+      <c r="G52" s="219"/>
+      <c r="H52" s="220"/>
+      <c r="I52" s="109"/>
+      <c r="J52" s="110"/>
+      <c r="K52" s="278"/>
+      <c r="L52" s="278"/>
+      <c r="M52" s="279" t="s">
         <v>96</v>
       </c>
-      <c r="N52" s="165"/>
-      <c r="O52" s="166"/>
-      <c r="P52" s="231"/>
-      <c r="Q52" s="263"/>
+      <c r="N52" s="215"/>
+      <c r="O52" s="216"/>
+      <c r="P52" s="280"/>
+      <c r="Q52" s="311"/>
     </row>
     <row r="53" ht="15" hidden="1" customHeight="1" outlineLevel="1" spans="1:17">
-      <c r="A53" s="164"/>
-      <c r="B53" s="212"/>
-      <c r="C53" s="171" t="s">
+      <c r="A53" s="214"/>
+      <c r="B53" s="262"/>
+      <c r="C53" s="221" t="s">
         <v>43</v>
       </c>
-      <c r="D53" s="167"/>
-      <c r="E53" s="168"/>
-      <c r="F53" s="169"/>
-      <c r="G53" s="169"/>
-      <c r="H53" s="170"/>
-      <c r="I53" s="102"/>
-      <c r="J53" s="228"/>
-      <c r="K53" s="229"/>
-      <c r="L53" s="229"/>
-      <c r="M53" s="230" t="s">
+      <c r="D53" s="217"/>
+      <c r="E53" s="218"/>
+      <c r="F53" s="219"/>
+      <c r="G53" s="219"/>
+      <c r="H53" s="220"/>
+      <c r="I53" s="109"/>
+      <c r="J53" s="110"/>
+      <c r="K53" s="278"/>
+      <c r="L53" s="278"/>
+      <c r="M53" s="279" t="s">
         <v>97</v>
       </c>
-      <c r="N53" s="165"/>
-      <c r="O53" s="166"/>
-      <c r="P53" s="231"/>
-      <c r="Q53" s="263"/>
+      <c r="N53" s="215"/>
+      <c r="O53" s="216"/>
+      <c r="P53" s="280"/>
+      <c r="Q53" s="311"/>
     </row>
     <row r="54" ht="15" hidden="1" customHeight="1" outlineLevel="1" spans="1:17">
-      <c r="A54" s="164"/>
-      <c r="B54" s="212" t="s">
+      <c r="A54" s="214"/>
+      <c r="B54" s="262" t="s">
         <v>43</v>
       </c>
-      <c r="C54" s="171"/>
-      <c r="D54" s="167"/>
-      <c r="E54" s="168"/>
-      <c r="F54" s="169"/>
-      <c r="G54" s="169"/>
-      <c r="H54" s="170"/>
-      <c r="I54" s="102"/>
-      <c r="J54" s="228"/>
-      <c r="K54" s="229"/>
-      <c r="L54" s="229" t="s">
+      <c r="C54" s="221"/>
+      <c r="D54" s="217"/>
+      <c r="E54" s="218"/>
+      <c r="F54" s="219"/>
+      <c r="G54" s="219"/>
+      <c r="H54" s="220"/>
+      <c r="I54" s="109"/>
+      <c r="J54" s="110"/>
+      <c r="K54" s="278"/>
+      <c r="L54" s="278" t="s">
         <v>98</v>
       </c>
-      <c r="M54" s="230" t="s">
+      <c r="M54" s="279" t="s">
         <v>99</v>
       </c>
-      <c r="N54" s="165"/>
-      <c r="O54" s="166"/>
-      <c r="P54" s="231"/>
-      <c r="Q54" s="263"/>
+      <c r="N54" s="215"/>
+      <c r="O54" s="216"/>
+      <c r="P54" s="280"/>
+      <c r="Q54" s="311"/>
     </row>
     <row r="55" ht="15" hidden="1" customHeight="1" outlineLevel="1" spans="1:17">
-      <c r="A55" s="164"/>
-      <c r="B55" s="212" t="s">
+      <c r="A55" s="214"/>
+      <c r="B55" s="262" t="s">
         <v>43</v>
       </c>
-      <c r="C55" s="171"/>
-      <c r="D55" s="167"/>
-      <c r="E55" s="168"/>
-      <c r="F55" s="169"/>
-      <c r="G55" s="169"/>
-      <c r="H55" s="170"/>
-      <c r="I55" s="102"/>
-      <c r="J55" s="228"/>
-      <c r="K55" s="229"/>
-      <c r="L55" s="229" t="s">
+      <c r="C55" s="221"/>
+      <c r="D55" s="217"/>
+      <c r="E55" s="218"/>
+      <c r="F55" s="219"/>
+      <c r="G55" s="219"/>
+      <c r="H55" s="220"/>
+      <c r="I55" s="109"/>
+      <c r="J55" s="110"/>
+      <c r="K55" s="278"/>
+      <c r="L55" s="278" t="s">
         <v>100</v>
       </c>
-      <c r="M55" s="230" t="s">
+      <c r="M55" s="279" t="s">
         <v>101</v>
       </c>
-      <c r="N55" s="165"/>
-      <c r="O55" s="166"/>
-      <c r="P55" s="231"/>
-      <c r="Q55" s="263"/>
+      <c r="N55" s="215"/>
+      <c r="O55" s="216"/>
+      <c r="P55" s="280"/>
+      <c r="Q55" s="311"/>
     </row>
     <row r="56" ht="15" hidden="1" customHeight="1" outlineLevel="1" spans="1:17">
-      <c r="A56" s="164"/>
-      <c r="B56" s="212" t="s">
+      <c r="A56" s="214"/>
+      <c r="B56" s="262" t="s">
         <v>43</v>
       </c>
-      <c r="C56" s="171"/>
-      <c r="D56" s="167"/>
-      <c r="E56" s="168"/>
-      <c r="F56" s="169"/>
-      <c r="G56" s="169"/>
-      <c r="H56" s="170"/>
-      <c r="I56" s="102"/>
-      <c r="J56" s="228"/>
-      <c r="K56" s="229"/>
-      <c r="L56" s="229" t="s">
+      <c r="C56" s="221"/>
+      <c r="D56" s="217"/>
+      <c r="E56" s="218"/>
+      <c r="F56" s="219"/>
+      <c r="G56" s="219"/>
+      <c r="H56" s="220"/>
+      <c r="I56" s="109"/>
+      <c r="J56" s="110"/>
+      <c r="K56" s="278"/>
+      <c r="L56" s="278" t="s">
         <v>96</v>
       </c>
-      <c r="M56" s="230" t="s">
+      <c r="M56" s="279" t="s">
         <v>102</v>
       </c>
-      <c r="N56" s="165"/>
-      <c r="O56" s="166"/>
-      <c r="P56" s="231"/>
-      <c r="Q56" s="263"/>
+      <c r="N56" s="215"/>
+      <c r="O56" s="216"/>
+      <c r="P56" s="280"/>
+      <c r="Q56" s="311"/>
     </row>
     <row r="57" ht="15" hidden="1" customHeight="1" outlineLevel="1" spans="1:17">
-      <c r="A57" s="164"/>
-      <c r="B57" s="212"/>
-      <c r="C57" s="166"/>
-      <c r="D57" s="172"/>
-      <c r="E57" s="168"/>
-      <c r="F57" s="169"/>
-      <c r="G57" s="169"/>
-      <c r="H57" s="170"/>
-      <c r="I57" s="102"/>
-      <c r="J57" s="228"/>
-      <c r="K57" s="229"/>
-      <c r="L57" s="229" t="s">
+      <c r="A57" s="214"/>
+      <c r="B57" s="262"/>
+      <c r="C57" s="216"/>
+      <c r="D57" s="222"/>
+      <c r="E57" s="218"/>
+      <c r="F57" s="219"/>
+      <c r="G57" s="219"/>
+      <c r="H57" s="220"/>
+      <c r="I57" s="109"/>
+      <c r="J57" s="110"/>
+      <c r="K57" s="278"/>
+      <c r="L57" s="278" t="s">
         <v>103</v>
       </c>
-      <c r="M57" s="230"/>
-      <c r="N57" s="165">
+      <c r="M57" s="279"/>
+      <c r="N57" s="215">
         <v>4</v>
       </c>
-      <c r="O57" s="166">
+      <c r="O57" s="216">
         <v>4</v>
       </c>
-      <c r="P57" s="231" t="s">
+      <c r="P57" s="280" t="s">
         <v>104</v>
       </c>
-      <c r="Q57" s="263"/>
+      <c r="Q57" s="311"/>
     </row>
     <row r="58" ht="15" hidden="1" customHeight="1" outlineLevel="1" spans="1:17">
-      <c r="A58" s="164"/>
-      <c r="B58" s="212"/>
-      <c r="C58" s="171"/>
-      <c r="D58" s="167"/>
-      <c r="E58" s="168"/>
-      <c r="F58" s="169"/>
-      <c r="G58" s="169"/>
-      <c r="H58" s="170"/>
-      <c r="I58" s="102"/>
-      <c r="J58" s="228"/>
-      <c r="K58" s="229"/>
-      <c r="L58" s="229" t="s">
+      <c r="A58" s="214"/>
+      <c r="B58" s="262"/>
+      <c r="C58" s="221"/>
+      <c r="D58" s="217"/>
+      <c r="E58" s="218"/>
+      <c r="F58" s="219"/>
+      <c r="G58" s="219"/>
+      <c r="H58" s="220"/>
+      <c r="I58" s="109"/>
+      <c r="J58" s="110"/>
+      <c r="K58" s="278"/>
+      <c r="L58" s="278" t="s">
         <v>105</v>
       </c>
-      <c r="M58" s="230"/>
-      <c r="N58" s="165">
+      <c r="M58" s="279"/>
+      <c r="N58" s="215">
         <v>4</v>
       </c>
-      <c r="O58" s="166">
+      <c r="O58" s="216">
         <v>4</v>
       </c>
-      <c r="P58" s="231" t="s">
+      <c r="P58" s="280" t="s">
         <v>106</v>
       </c>
-      <c r="Q58" s="263"/>
+      <c r="Q58" s="311"/>
     </row>
     <row r="59" ht="15" hidden="1" customHeight="1" outlineLevel="1" spans="1:17">
-      <c r="A59" s="190"/>
-      <c r="B59" s="204"/>
-      <c r="C59" s="205"/>
-      <c r="D59" s="206"/>
-      <c r="E59" s="194"/>
-      <c r="F59" s="195"/>
-      <c r="G59" s="195"/>
-      <c r="H59" s="196"/>
-      <c r="I59" s="102"/>
-      <c r="J59" s="228"/>
-      <c r="K59" s="238"/>
-      <c r="L59" s="238" t="s">
+      <c r="A59" s="240"/>
+      <c r="B59" s="254"/>
+      <c r="C59" s="255"/>
+      <c r="D59" s="256"/>
+      <c r="E59" s="244"/>
+      <c r="F59" s="245"/>
+      <c r="G59" s="245"/>
+      <c r="H59" s="246"/>
+      <c r="I59" s="109"/>
+      <c r="J59" s="110"/>
+      <c r="K59" s="286"/>
+      <c r="L59" s="286" t="s">
         <v>107</v>
       </c>
-      <c r="M59" s="239"/>
-      <c r="N59" s="191">
+      <c r="M59" s="287"/>
+      <c r="N59" s="241">
         <v>4</v>
       </c>
-      <c r="O59" s="205">
+      <c r="O59" s="255">
         <v>4</v>
       </c>
-      <c r="P59" s="240" t="s">
+      <c r="P59" s="288" t="s">
         <v>108</v>
       </c>
-      <c r="Q59" s="266"/>
-    </row>
-    <row r="60" s="146" customFormat="1" collapsed="1" spans="1:19">
-      <c r="A60" s="160" t="s">
+      <c r="Q59" s="314"/>
+    </row>
+    <row r="60" s="197" customFormat="1" collapsed="1" spans="1:19">
+      <c r="A60" s="210" t="s">
         <v>40</v>
       </c>
-      <c r="B60" s="161" t="str">
+      <c r="B60" s="211" t="str">
         <f>IF(COUNTA(B61:B63)&gt;0,"z","")</f>
         <v/>
       </c>
-      <c r="C60" s="162" t="str">
+      <c r="C60" s="212" t="str">
         <f>IF(COUNTA(C61:C63)&gt;0,"y","")</f>
         <v/>
       </c>
-      <c r="D60" s="163" t="str">
+      <c r="D60" s="213" t="str">
         <f>IF(COUNTA(D61:D63)&gt;0,"x","")</f>
         <v/>
       </c>
-      <c r="E60" s="161">
-        <v>1</v>
-      </c>
-      <c r="F60" s="162">
-        <v>0</v>
-      </c>
-      <c r="G60" s="162">
-        <v>1</v>
-      </c>
-      <c r="H60" s="163">
-        <v>1</v>
-      </c>
-      <c r="I60" s="219">
+      <c r="E60" s="211">
+        <v>1</v>
+      </c>
+      <c r="F60" s="212">
+        <v>0</v>
+      </c>
+      <c r="G60" s="212">
+        <v>1</v>
+      </c>
+      <c r="H60" s="213">
+        <v>1</v>
+      </c>
+      <c r="I60" s="269">
         <f>SUM(E60*8,F60*4,G60*2,H60)</f>
         <v>11</v>
       </c>
-      <c r="J60" s="220" t="str">
+      <c r="J60" s="270" t="str">
         <f>IF(I60&lt;=9,I60,CHAR(I60-10+CODE("A")))</f>
         <v>B</v>
       </c>
-      <c r="K60" s="221" t="s">
+      <c r="K60" s="271" t="s">
         <v>109</v>
       </c>
-      <c r="L60" s="222"/>
-      <c r="M60" s="223"/>
-      <c r="N60" s="226" t="s">
+      <c r="L60" s="272"/>
+      <c r="M60" s="273"/>
+      <c r="N60" s="276" t="s">
         <v>58</v>
       </c>
-      <c r="O60" s="227" t="s">
+      <c r="O60" s="277" t="s">
         <v>58</v>
       </c>
-      <c r="P60" s="224"/>
-      <c r="Q60" s="261" t="s">
+      <c r="P60" s="274"/>
+      <c r="Q60" s="309" t="s">
         <v>53</v>
       </c>
-      <c r="R60" s="262">
-        <v>1</v>
-      </c>
-      <c r="S60" s="262">
+      <c r="R60" s="310">
+        <v>1</v>
+      </c>
+      <c r="S60" s="310">
         <v>0</v>
       </c>
     </row>
     <row r="61" ht="15" hidden="1" customHeight="1" outlineLevel="1" spans="1:17">
-      <c r="A61" s="164"/>
-      <c r="B61" s="165"/>
-      <c r="C61" s="166"/>
-      <c r="D61" s="167"/>
-      <c r="E61" s="168"/>
-      <c r="F61" s="169"/>
-      <c r="G61" s="169"/>
-      <c r="H61" s="170"/>
-      <c r="I61" s="102"/>
-      <c r="J61" s="228"/>
-      <c r="K61" s="229"/>
-      <c r="L61" s="229"/>
-      <c r="M61" s="230" t="s">
+      <c r="A61" s="214"/>
+      <c r="B61" s="215"/>
+      <c r="C61" s="216"/>
+      <c r="D61" s="217"/>
+      <c r="E61" s="218"/>
+      <c r="F61" s="219"/>
+      <c r="G61" s="219"/>
+      <c r="H61" s="220"/>
+      <c r="I61" s="109"/>
+      <c r="J61" s="110"/>
+      <c r="K61" s="278"/>
+      <c r="L61" s="278"/>
+      <c r="M61" s="279" t="s">
         <v>110</v>
       </c>
-      <c r="N61" s="165"/>
-      <c r="O61" s="166"/>
-      <c r="P61" s="231"/>
-      <c r="Q61" s="263"/>
+      <c r="N61" s="215"/>
+      <c r="O61" s="216"/>
+      <c r="P61" s="280"/>
+      <c r="Q61" s="311"/>
     </row>
     <row r="62" ht="15" hidden="1" customHeight="1" outlineLevel="1" spans="1:17">
-      <c r="A62" s="164"/>
-      <c r="B62" s="165"/>
-      <c r="C62" s="166"/>
-      <c r="D62" s="167"/>
-      <c r="E62" s="168"/>
-      <c r="F62" s="169"/>
-      <c r="G62" s="169"/>
-      <c r="H62" s="170"/>
-      <c r="I62" s="102"/>
-      <c r="J62" s="228"/>
-      <c r="K62" s="229"/>
-      <c r="L62" s="229"/>
-      <c r="M62" s="230" t="s">
+      <c r="A62" s="214"/>
+      <c r="B62" s="215"/>
+      <c r="C62" s="216"/>
+      <c r="D62" s="217"/>
+      <c r="E62" s="218"/>
+      <c r="F62" s="219"/>
+      <c r="G62" s="219"/>
+      <c r="H62" s="220"/>
+      <c r="I62" s="109"/>
+      <c r="J62" s="110"/>
+      <c r="K62" s="278"/>
+      <c r="L62" s="278"/>
+      <c r="M62" s="279" t="s">
         <v>111</v>
       </c>
-      <c r="N62" s="165"/>
-      <c r="O62" s="166"/>
-      <c r="P62" s="231"/>
-      <c r="Q62" s="263"/>
+      <c r="N62" s="215"/>
+      <c r="O62" s="216"/>
+      <c r="P62" s="280"/>
+      <c r="Q62" s="311"/>
     </row>
     <row r="63" ht="15" hidden="1" customHeight="1" outlineLevel="1" spans="1:17">
-      <c r="A63" s="190"/>
-      <c r="B63" s="204"/>
-      <c r="C63" s="205"/>
-      <c r="D63" s="193"/>
-      <c r="E63" s="194"/>
-      <c r="F63" s="195"/>
-      <c r="G63" s="195"/>
-      <c r="H63" s="196"/>
-      <c r="I63" s="102"/>
-      <c r="J63" s="228"/>
-      <c r="K63" s="238"/>
-      <c r="L63" s="238"/>
-      <c r="M63" s="239" t="s">
+      <c r="A63" s="240"/>
+      <c r="B63" s="254"/>
+      <c r="C63" s="255"/>
+      <c r="D63" s="243"/>
+      <c r="E63" s="244"/>
+      <c r="F63" s="245"/>
+      <c r="G63" s="245"/>
+      <c r="H63" s="246"/>
+      <c r="I63" s="109"/>
+      <c r="J63" s="110"/>
+      <c r="K63" s="286"/>
+      <c r="L63" s="286"/>
+      <c r="M63" s="287" t="s">
         <v>112</v>
       </c>
-      <c r="N63" s="204"/>
-      <c r="O63" s="192"/>
-      <c r="P63" s="240" t="s">
+      <c r="N63" s="254"/>
+      <c r="O63" s="242"/>
+      <c r="P63" s="288" t="s">
         <v>113</v>
       </c>
-      <c r="Q63" s="266"/>
-    </row>
-    <row r="64" s="146" customFormat="1" collapsed="1" spans="1:19">
-      <c r="A64" s="160" t="s">
+      <c r="Q63" s="314"/>
+    </row>
+    <row r="64" s="197" customFormat="1" collapsed="1" spans="1:19">
+      <c r="A64" s="210" t="s">
         <v>40</v>
       </c>
-      <c r="B64" s="161" t="str">
+      <c r="B64" s="211" t="str">
         <f>IF(COUNTA(B65:B67)&gt;0,"z","")</f>
         <v/>
       </c>
-      <c r="C64" s="162" t="str">
+      <c r="C64" s="212" t="str">
         <f>IF(COUNTA(C65:C67)&gt;0,"y","")</f>
         <v/>
       </c>
-      <c r="D64" s="163" t="str">
+      <c r="D64" s="213" t="str">
         <f>IF(COUNTA(D65:D67)&gt;0,"x","")</f>
         <v/>
       </c>
-      <c r="E64" s="161">
-        <v>0</v>
-      </c>
-      <c r="F64" s="162">
-        <v>1</v>
-      </c>
-      <c r="G64" s="162">
-        <v>1</v>
-      </c>
-      <c r="H64" s="163">
-        <v>1</v>
-      </c>
-      <c r="I64" s="219">
+      <c r="E64" s="211">
+        <v>0</v>
+      </c>
+      <c r="F64" s="212">
+        <v>1</v>
+      </c>
+      <c r="G64" s="212">
+        <v>1</v>
+      </c>
+      <c r="H64" s="213">
+        <v>1</v>
+      </c>
+      <c r="I64" s="269">
         <f>SUM(E64*8,F64*4,G64*2,H64)</f>
         <v>7</v>
       </c>
-      <c r="J64" s="220">
+      <c r="J64" s="270">
         <f>IF(I64&lt;=9,I64,CHAR(I64-10+CODE("A")))</f>
         <v>7</v>
       </c>
-      <c r="K64" s="221" t="s">
+      <c r="K64" s="271" t="s">
         <v>114</v>
       </c>
-      <c r="L64" s="221"/>
-      <c r="M64" s="225"/>
-      <c r="N64" s="226">
+      <c r="L64" s="271"/>
+      <c r="M64" s="275"/>
+      <c r="N64" s="276">
         <f>1+SUM(N65:N67)</f>
         <v>5</v>
       </c>
-      <c r="O64" s="227">
+      <c r="O64" s="277">
         <f>1+SUM(O65:O67)</f>
         <v>5</v>
       </c>
-      <c r="P64" s="224"/>
-      <c r="Q64" s="261" t="s">
+      <c r="P64" s="274"/>
+      <c r="Q64" s="309" t="s">
         <v>53</v>
       </c>
-      <c r="R64" s="262">
-        <v>1</v>
-      </c>
-      <c r="S64" s="262">
+      <c r="R64" s="310">
+        <v>1</v>
+      </c>
+      <c r="S64" s="310">
         <v>1</v>
       </c>
     </row>
     <row r="65" ht="15" hidden="1" customHeight="1" outlineLevel="1" spans="1:17">
-      <c r="A65" s="164"/>
-      <c r="B65" s="165"/>
-      <c r="C65" s="166"/>
-      <c r="D65" s="172"/>
-      <c r="E65" s="168"/>
-      <c r="F65" s="169"/>
-      <c r="G65" s="169"/>
-      <c r="H65" s="170"/>
-      <c r="I65" s="102"/>
-      <c r="J65" s="228"/>
-      <c r="K65" s="229"/>
-      <c r="L65" s="254"/>
-      <c r="M65" s="255"/>
-      <c r="N65" s="165">
+      <c r="A65" s="214"/>
+      <c r="B65" s="215"/>
+      <c r="C65" s="216"/>
+      <c r="D65" s="222"/>
+      <c r="E65" s="218"/>
+      <c r="F65" s="219"/>
+      <c r="G65" s="219"/>
+      <c r="H65" s="220"/>
+      <c r="I65" s="109"/>
+      <c r="J65" s="110"/>
+      <c r="K65" s="278"/>
+      <c r="L65" s="302"/>
+      <c r="M65" s="303"/>
+      <c r="N65" s="215">
         <v>4</v>
       </c>
-      <c r="O65" s="166">
+      <c r="O65" s="216">
         <v>4</v>
       </c>
-      <c r="P65" s="231" t="s">
+      <c r="P65" s="280" t="s">
         <v>115</v>
       </c>
-      <c r="Q65" s="263"/>
+      <c r="Q65" s="311"/>
     </row>
     <row r="66" ht="15" hidden="1" customHeight="1" outlineLevel="1" spans="1:17">
-      <c r="A66" s="164"/>
-      <c r="B66" s="165"/>
-      <c r="C66" s="166"/>
-      <c r="D66" s="167"/>
-      <c r="E66" s="168"/>
-      <c r="F66" s="169"/>
-      <c r="G66" s="169"/>
-      <c r="H66" s="170"/>
-      <c r="I66" s="102"/>
-      <c r="J66" s="228"/>
-      <c r="K66" s="229"/>
-      <c r="L66" s="229"/>
-      <c r="M66" s="230" t="s">
+      <c r="A66" s="214"/>
+      <c r="B66" s="215"/>
+      <c r="C66" s="216"/>
+      <c r="D66" s="217"/>
+      <c r="E66" s="218"/>
+      <c r="F66" s="219"/>
+      <c r="G66" s="219"/>
+      <c r="H66" s="220"/>
+      <c r="I66" s="109"/>
+      <c r="J66" s="110"/>
+      <c r="K66" s="278"/>
+      <c r="L66" s="278"/>
+      <c r="M66" s="279" t="s">
         <v>110</v>
       </c>
-      <c r="N66" s="165"/>
-      <c r="O66" s="166"/>
-      <c r="P66" s="231"/>
-      <c r="Q66" s="263"/>
+      <c r="N66" s="215"/>
+      <c r="O66" s="216"/>
+      <c r="P66" s="280"/>
+      <c r="Q66" s="311"/>
     </row>
     <row r="67" ht="15" hidden="1" customHeight="1" outlineLevel="1" spans="1:17">
-      <c r="A67" s="164"/>
-      <c r="B67" s="212"/>
-      <c r="C67" s="171"/>
-      <c r="D67" s="172"/>
-      <c r="E67" s="168"/>
-      <c r="F67" s="169"/>
-      <c r="G67" s="169"/>
-      <c r="H67" s="170"/>
-      <c r="I67" s="102"/>
-      <c r="J67" s="228"/>
-      <c r="K67" s="229"/>
-      <c r="L67" s="229"/>
-      <c r="M67" s="230" t="s">
+      <c r="A67" s="214"/>
+      <c r="B67" s="262"/>
+      <c r="C67" s="221"/>
+      <c r="D67" s="222"/>
+      <c r="E67" s="218"/>
+      <c r="F67" s="219"/>
+      <c r="G67" s="219"/>
+      <c r="H67" s="220"/>
+      <c r="I67" s="109"/>
+      <c r="J67" s="110"/>
+      <c r="K67" s="278"/>
+      <c r="L67" s="278"/>
+      <c r="M67" s="279" t="s">
         <v>116</v>
       </c>
-      <c r="N67" s="165"/>
-      <c r="O67" s="166"/>
-      <c r="P67" s="231"/>
-      <c r="Q67" s="263"/>
-    </row>
-    <row r="68" s="146" customFormat="1" collapsed="1" spans="1:19">
-      <c r="A68" s="160" t="s">
+      <c r="N67" s="215"/>
+      <c r="O67" s="216"/>
+      <c r="P67" s="280"/>
+      <c r="Q67" s="311"/>
+    </row>
+    <row r="68" s="197" customFormat="1" collapsed="1" spans="1:19">
+      <c r="A68" s="210" t="s">
         <v>40</v>
       </c>
-      <c r="B68" s="161" t="str">
+      <c r="B68" s="211" t="str">
         <f>IF(COUNTA(B69:B72)&gt;0,"z","")</f>
         <v/>
       </c>
-      <c r="C68" s="162" t="str">
+      <c r="C68" s="212" t="str">
         <f>IF(COUNTA(C69:C72)&gt;0,"y","")</f>
         <v/>
       </c>
-      <c r="D68" s="163" t="str">
+      <c r="D68" s="213" t="str">
         <f>IF(COUNTA(D69:D72)&gt;0,"x","")</f>
         <v/>
       </c>
-      <c r="E68" s="161">
-        <v>1</v>
-      </c>
-      <c r="F68" s="162">
-        <v>1</v>
-      </c>
-      <c r="G68" s="162">
-        <v>1</v>
-      </c>
-      <c r="H68" s="163">
-        <v>1</v>
-      </c>
-      <c r="I68" s="219">
+      <c r="E68" s="211">
+        <v>1</v>
+      </c>
+      <c r="F68" s="212">
+        <v>1</v>
+      </c>
+      <c r="G68" s="212">
+        <v>1</v>
+      </c>
+      <c r="H68" s="213">
+        <v>1</v>
+      </c>
+      <c r="I68" s="269">
         <f>SUM(E68*8,F68*4,G68*2,H68)</f>
         <v>15</v>
       </c>
-      <c r="J68" s="220" t="str">
+      <c r="J68" s="270" t="str">
         <f>IF(I68&lt;=9,I68,CHAR(I68-10+CODE("A")))</f>
         <v>F</v>
       </c>
-      <c r="K68" s="221"/>
-      <c r="L68" s="221"/>
-      <c r="M68" s="225"/>
-      <c r="N68" s="226"/>
-      <c r="O68" s="227"/>
-      <c r="P68" s="224"/>
-      <c r="Q68" s="261"/>
-      <c r="R68" s="262"/>
-      <c r="S68" s="262"/>
+      <c r="K68" s="271"/>
+      <c r="L68" s="271"/>
+      <c r="M68" s="275"/>
+      <c r="N68" s="276"/>
+      <c r="O68" s="277"/>
+      <c r="P68" s="274"/>
+      <c r="Q68" s="309"/>
+      <c r="R68" s="310"/>
+      <c r="S68" s="310"/>
     </row>
     <row r="69" ht="15" hidden="1" customHeight="1" outlineLevel="1" spans="1:17">
-      <c r="A69" s="164"/>
-      <c r="B69" s="165"/>
-      <c r="C69" s="166"/>
-      <c r="D69" s="172"/>
-      <c r="E69" s="168"/>
-      <c r="F69" s="169"/>
-      <c r="G69" s="169"/>
-      <c r="H69" s="170"/>
-      <c r="I69" s="102"/>
-      <c r="J69" s="228"/>
-      <c r="K69" s="229"/>
-      <c r="L69" s="229"/>
-      <c r="M69" s="230"/>
-      <c r="N69" s="165"/>
-      <c r="O69" s="166"/>
-      <c r="P69" s="231"/>
-      <c r="Q69" s="263"/>
+      <c r="A69" s="214"/>
+      <c r="B69" s="215"/>
+      <c r="C69" s="216"/>
+      <c r="D69" s="222"/>
+      <c r="E69" s="218"/>
+      <c r="F69" s="219"/>
+      <c r="G69" s="219"/>
+      <c r="H69" s="220"/>
+      <c r="I69" s="109"/>
+      <c r="J69" s="110"/>
+      <c r="K69" s="278"/>
+      <c r="L69" s="278"/>
+      <c r="M69" s="279"/>
+      <c r="N69" s="215"/>
+      <c r="O69" s="216"/>
+      <c r="P69" s="280"/>
+      <c r="Q69" s="311"/>
     </row>
     <row r="70" ht="15" hidden="1" customHeight="1" outlineLevel="1" spans="1:17">
-      <c r="A70" s="164"/>
-      <c r="B70" s="165"/>
-      <c r="C70" s="166"/>
-      <c r="D70" s="167"/>
-      <c r="E70" s="168"/>
-      <c r="F70" s="169"/>
-      <c r="G70" s="169"/>
-      <c r="H70" s="170"/>
-      <c r="I70" s="102"/>
-      <c r="J70" s="228"/>
-      <c r="K70" s="229"/>
-      <c r="L70" s="229"/>
-      <c r="M70" s="230"/>
-      <c r="N70" s="165"/>
-      <c r="O70" s="166"/>
-      <c r="P70" s="231"/>
-      <c r="Q70" s="263"/>
+      <c r="A70" s="214"/>
+      <c r="B70" s="215"/>
+      <c r="C70" s="216"/>
+      <c r="D70" s="217"/>
+      <c r="E70" s="218"/>
+      <c r="F70" s="219"/>
+      <c r="G70" s="219"/>
+      <c r="H70" s="220"/>
+      <c r="I70" s="109"/>
+      <c r="J70" s="110"/>
+      <c r="K70" s="278"/>
+      <c r="L70" s="278"/>
+      <c r="M70" s="279"/>
+      <c r="N70" s="215"/>
+      <c r="O70" s="216"/>
+      <c r="P70" s="280"/>
+      <c r="Q70" s="311"/>
     </row>
     <row r="71" ht="15" hidden="1" customHeight="1" outlineLevel="1" spans="1:17">
-      <c r="A71" s="164"/>
-      <c r="B71" s="165"/>
-      <c r="C71" s="166"/>
-      <c r="D71" s="172"/>
-      <c r="E71" s="168"/>
-      <c r="F71" s="169"/>
-      <c r="G71" s="169"/>
-      <c r="H71" s="170"/>
-      <c r="I71" s="102"/>
-      <c r="J71" s="228"/>
-      <c r="K71" s="229"/>
-      <c r="L71" s="229"/>
-      <c r="M71" s="230"/>
-      <c r="N71" s="165"/>
-      <c r="O71" s="166"/>
-      <c r="P71" s="231"/>
-      <c r="Q71" s="263"/>
+      <c r="A71" s="214"/>
+      <c r="B71" s="215"/>
+      <c r="C71" s="216"/>
+      <c r="D71" s="222"/>
+      <c r="E71" s="218"/>
+      <c r="F71" s="219"/>
+      <c r="G71" s="219"/>
+      <c r="H71" s="220"/>
+      <c r="I71" s="109"/>
+      <c r="J71" s="110"/>
+      <c r="K71" s="278"/>
+      <c r="L71" s="278"/>
+      <c r="M71" s="279"/>
+      <c r="N71" s="215"/>
+      <c r="O71" s="216"/>
+      <c r="P71" s="280"/>
+      <c r="Q71" s="311"/>
     </row>
     <row r="72" ht="15" hidden="1" customHeight="1" outlineLevel="1" spans="1:17">
-      <c r="A72" s="190"/>
-      <c r="B72" s="204"/>
-      <c r="C72" s="192"/>
-      <c r="D72" s="193"/>
-      <c r="E72" s="194"/>
-      <c r="F72" s="195"/>
-      <c r="G72" s="195"/>
-      <c r="H72" s="196"/>
-      <c r="I72" s="102"/>
-      <c r="J72" s="228"/>
-      <c r="K72" s="238"/>
-      <c r="L72" s="238"/>
-      <c r="M72" s="239"/>
-      <c r="N72" s="191"/>
-      <c r="O72" s="205"/>
-      <c r="P72" s="240"/>
-      <c r="Q72" s="266"/>
+      <c r="A72" s="240"/>
+      <c r="B72" s="254"/>
+      <c r="C72" s="242"/>
+      <c r="D72" s="243"/>
+      <c r="E72" s="244"/>
+      <c r="F72" s="245"/>
+      <c r="G72" s="245"/>
+      <c r="H72" s="246"/>
+      <c r="I72" s="109"/>
+      <c r="J72" s="110"/>
+      <c r="K72" s="286"/>
+      <c r="L72" s="286"/>
+      <c r="M72" s="287"/>
+      <c r="N72" s="241"/>
+      <c r="O72" s="255"/>
+      <c r="P72" s="288"/>
+      <c r="Q72" s="314"/>
     </row>
     <row r="73" collapsed="1"/>
     <row r="74" spans="2:16">
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
-      <c r="J74" s="26"/>
+      <c r="J74" s="33"/>
       <c r="K74" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="O74" s="151"/>
+      <c r="O74" s="202"/>
       <c r="P74" s="11" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="75" spans="10:16">
-      <c r="J75" s="28">
-        <v>0</v>
-      </c>
-      <c r="K75" s="151" t="s">
+      <c r="J75" s="63">
+        <v>0</v>
+      </c>
+      <c r="K75" s="202" t="s">
         <v>118</v>
       </c>
-      <c r="O75" s="28">
-        <v>0</v>
-      </c>
-      <c r="P75" s="151" t="s">
+      <c r="O75" s="63">
+        <v>0</v>
+      </c>
+      <c r="P75" s="202" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="76" spans="10:16">
-      <c r="J76" s="28">
+      <c r="J76" s="63">
         <v>1</v>
       </c>
       <c r="K76" t="s">
         <v>120</v>
       </c>
-      <c r="O76" s="28">
+      <c r="O76" s="63">
         <v>1</v>
       </c>
       <c r="P76" t="s">
@@ -6283,13 +6518,13 @@
       </c>
     </row>
     <row r="77" spans="10:16">
-      <c r="J77" s="28">
+      <c r="J77" s="63">
         <v>2</v>
       </c>
       <c r="K77" t="s">
         <v>122</v>
       </c>
-      <c r="O77" s="28">
+      <c r="O77" s="63">
         <v>2</v>
       </c>
       <c r="P77" t="s">
@@ -6297,13 +6532,13 @@
       </c>
     </row>
     <row r="78" spans="10:16">
-      <c r="J78" s="28">
+      <c r="J78" s="63">
         <v>3</v>
       </c>
-      <c r="K78" s="151" t="s">
+      <c r="K78" s="202" t="s">
         <v>124</v>
       </c>
-      <c r="O78" s="28">
+      <c r="O78" s="63">
         <v>3</v>
       </c>
       <c r="P78" t="s">
@@ -6311,8 +6546,8 @@
       </c>
     </row>
     <row r="79" spans="10:16">
-      <c r="J79" s="151"/>
-      <c r="O79" s="28">
+      <c r="J79" s="202"/>
+      <c r="O79" s="63">
         <v>4</v>
       </c>
       <c r="P79" t="s">
@@ -6337,7 +6572,7 @@
   <sheetPr/>
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -6360,31 +6595,31 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="137"/>
-      <c r="B2" s="138" t="s">
+      <c r="A2" s="188"/>
+      <c r="B2" s="189" t="s">
         <v>125</v>
       </c>
-      <c r="C2" s="139" t="s">
+      <c r="C2" s="190" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="140"/>
-      <c r="B3" s="141" t="s">
+      <c r="A3" s="191"/>
+      <c r="B3" s="192" t="s">
         <v>127</v>
       </c>
-      <c r="C3" s="142" t="s">
+      <c r="C3" s="193" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="143" t="s">
+      <c r="A4" s="194" t="s">
         <v>129</v>
       </c>
-      <c r="B4" s="67" t="s">
+      <c r="B4" s="79" t="s">
         <v>130</v>
       </c>
-      <c r="C4" s="144"/>
+      <c r="C4" s="195"/>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
@@ -6412,22 +6647,22 @@
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="145" t="s">
+      <c r="A12" s="196" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="145" t="s">
+      <c r="A13" s="196" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="145" t="s">
+      <c r="A14" s="196" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="145" t="s">
+      <c r="A15" s="196" t="s">
         <v>139</v>
       </c>
     </row>
@@ -6443,10 +6678,10 @@
   <sheetPr/>
   <dimension ref="A1:R47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="166" zoomScaleNormal="166" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="K40" sqref="K40"/>
+      <selection pane="bottomLeft" activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14414414414414" defaultRowHeight="14.55"/>
@@ -6507,784 +6742,784 @@
         <v>142</v>
       </c>
     </row>
-    <row r="2" s="70" customFormat="1" ht="15.3" spans="2:14">
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="72"/>
-      <c r="M2" s="72"/>
-      <c r="N2" s="72"/>
+    <row r="2" s="132" customFormat="1" ht="15.3" spans="2:14">
+      <c r="B2" s="134"/>
+      <c r="C2" s="134"/>
+      <c r="D2" s="134"/>
+      <c r="E2" s="134"/>
+      <c r="F2" s="134"/>
+      <c r="G2" s="134"/>
+      <c r="H2" s="134"/>
+      <c r="I2" s="134"/>
+      <c r="M2" s="134"/>
+      <c r="N2" s="134"/>
     </row>
     <row r="3" spans="2:15">
-      <c r="B3" s="73"/>
-      <c r="C3" s="74"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="76"/>
-      <c r="G3" s="74"/>
-      <c r="H3" s="74"/>
-      <c r="I3" s="116" t="s">
+      <c r="B3" s="135"/>
+      <c r="C3" s="136"/>
+      <c r="D3" s="136"/>
+      <c r="E3" s="137"/>
+      <c r="F3" s="138"/>
+      <c r="G3" s="136"/>
+      <c r="H3" s="136"/>
+      <c r="I3" s="172" t="s">
         <v>43</v>
       </c>
-      <c r="J3" s="117"/>
-      <c r="K3" s="118" t="s">
+      <c r="J3" s="173"/>
+      <c r="K3" s="174" t="s">
         <v>143</v>
       </c>
-      <c r="L3" s="118" t="s">
+      <c r="L3" s="174" t="s">
         <v>144</v>
       </c>
-      <c r="M3" s="116" t="s">
+      <c r="M3" s="172" t="s">
         <v>145</v>
       </c>
-      <c r="N3" s="116" t="s">
+      <c r="N3" s="172" t="s">
         <v>146</v>
       </c>
-      <c r="O3" s="119"/>
+      <c r="O3" s="175"/>
     </row>
     <row r="4" spans="2:15">
-      <c r="B4" s="77"/>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="80"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="23" t="s">
+      <c r="B4" s="98"/>
+      <c r="C4" s="88"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="139"/>
+      <c r="F4" s="140"/>
+      <c r="G4" s="88"/>
+      <c r="H4" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="I4" s="24"/>
-      <c r="J4" s="120"/>
-      <c r="K4" s="52" t="s">
+      <c r="I4" s="29"/>
+      <c r="J4" s="122"/>
+      <c r="K4" s="64" t="s">
         <v>147</v>
       </c>
-      <c r="L4" s="50"/>
-      <c r="M4" s="24"/>
-      <c r="N4" s="24"/>
-      <c r="O4" s="121"/>
+      <c r="L4" s="61"/>
+      <c r="M4" s="29"/>
+      <c r="N4" s="29"/>
+      <c r="O4" s="176"/>
     </row>
     <row r="5" spans="2:15">
-      <c r="B5" s="77"/>
-      <c r="C5" s="78"/>
-      <c r="D5" s="78"/>
-      <c r="E5" s="79"/>
-      <c r="F5" s="80"/>
-      <c r="G5" s="23" t="s">
+      <c r="B5" s="98"/>
+      <c r="C5" s="88"/>
+      <c r="D5" s="88"/>
+      <c r="E5" s="139"/>
+      <c r="F5" s="140"/>
+      <c r="G5" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="H5" s="23"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="120" t="s">
+      <c r="H5" s="28"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="122" t="s">
         <v>148</v>
       </c>
-      <c r="K5" s="52" t="s">
+      <c r="K5" s="64" t="s">
         <v>149</v>
       </c>
-      <c r="L5" s="50" t="s">
+      <c r="L5" s="61" t="s">
         <v>150</v>
       </c>
-      <c r="M5" s="24" t="s">
+      <c r="M5" s="29" t="s">
         <v>145</v>
       </c>
-      <c r="N5" s="24" t="s">
+      <c r="N5" s="29" t="s">
         <v>146</v>
       </c>
-      <c r="O5" s="121"/>
+      <c r="O5" s="176"/>
     </row>
     <row r="6" spans="2:15">
-      <c r="B6" s="37"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="81"/>
-      <c r="F6" s="82" t="s">
+      <c r="B6" s="47"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="141"/>
+      <c r="F6" s="142" t="s">
         <v>43</v>
       </c>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="39"/>
-      <c r="J6" s="122" t="s">
+      <c r="G6" s="48"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="53"/>
+      <c r="J6" s="177" t="s">
         <v>148</v>
       </c>
-      <c r="K6" s="59" t="s">
+      <c r="K6" s="71" t="s">
         <v>151</v>
       </c>
-      <c r="L6" s="66" t="s">
+      <c r="L6" s="78" t="s">
         <v>152</v>
       </c>
-      <c r="M6" s="39">
+      <c r="M6" s="53">
         <v>4</v>
       </c>
-      <c r="N6" s="39" t="s">
+      <c r="N6" s="53" t="s">
         <v>153</v>
       </c>
-      <c r="O6" s="123"/>
-    </row>
-    <row r="7" s="71" customFormat="1" spans="1:15">
-      <c r="A7" s="70" t="s">
+      <c r="O6" s="178"/>
+    </row>
+    <row r="7" s="133" customFormat="1" spans="1:15">
+      <c r="A7" s="132" t="s">
         <v>154</v>
       </c>
-      <c r="B7" s="83"/>
-      <c r="C7" s="84"/>
-      <c r="D7" s="84"/>
-      <c r="E7" s="85"/>
-      <c r="F7" s="86"/>
-      <c r="G7" s="84"/>
-      <c r="H7" s="84"/>
-      <c r="I7" s="124"/>
-      <c r="J7" s="125" t="s">
+      <c r="B7" s="143"/>
+      <c r="C7" s="105"/>
+      <c r="D7" s="105"/>
+      <c r="E7" s="144"/>
+      <c r="F7" s="145"/>
+      <c r="G7" s="105"/>
+      <c r="H7" s="105"/>
+      <c r="I7" s="114"/>
+      <c r="J7" s="123" t="s">
         <v>155</v>
       </c>
-      <c r="K7" s="126"/>
-      <c r="L7" s="126"/>
-      <c r="M7" s="124"/>
-      <c r="N7" s="124"/>
-      <c r="O7" s="127"/>
+      <c r="K7" s="84"/>
+      <c r="L7" s="84"/>
+      <c r="M7" s="114"/>
+      <c r="N7" s="114"/>
+      <c r="O7" s="179"/>
     </row>
     <row r="8" outlineLevel="1" spans="2:15">
-      <c r="B8" s="77"/>
-      <c r="C8" s="78"/>
-      <c r="D8" s="78"/>
-      <c r="E8" s="87" t="s">
+      <c r="B8" s="98"/>
+      <c r="C8" s="88"/>
+      <c r="D8" s="88"/>
+      <c r="E8" s="146" t="s">
         <v>43</v>
       </c>
-      <c r="F8" s="80"/>
-      <c r="G8" s="78"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="120"/>
-      <c r="K8" s="52" t="s">
+      <c r="F8" s="140"/>
+      <c r="G8" s="88"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="122"/>
+      <c r="K8" s="64" t="s">
         <v>156</v>
       </c>
-      <c r="L8" s="50"/>
-      <c r="M8" s="24"/>
-      <c r="N8" s="24"/>
-      <c r="O8" s="121"/>
-    </row>
-    <row r="9" s="71" customFormat="1" outlineLevel="1" spans="1:15">
-      <c r="A9" s="70" t="s">
+      <c r="L8" s="61"/>
+      <c r="M8" s="29"/>
+      <c r="N8" s="29"/>
+      <c r="O8" s="176"/>
+    </row>
+    <row r="9" s="133" customFormat="1" outlineLevel="1" spans="1:15">
+      <c r="A9" s="132" t="s">
         <v>114</v>
       </c>
-      <c r="B9" s="88"/>
-      <c r="C9" s="89"/>
-      <c r="D9" s="89"/>
-      <c r="E9" s="90"/>
-      <c r="F9" s="91"/>
-      <c r="G9" s="89"/>
-      <c r="H9" s="92"/>
-      <c r="I9" s="128"/>
-      <c r="J9" s="129" t="s">
+      <c r="B9" s="147"/>
+      <c r="C9" s="148"/>
+      <c r="D9" s="148"/>
+      <c r="E9" s="149"/>
+      <c r="F9" s="150"/>
+      <c r="G9" s="148"/>
+      <c r="H9" s="151"/>
+      <c r="I9" s="180"/>
+      <c r="J9" s="181" t="s">
         <v>157</v>
       </c>
-      <c r="K9" s="130"/>
-      <c r="L9" s="130"/>
-      <c r="M9" s="128"/>
-      <c r="N9" s="128"/>
-      <c r="O9" s="131"/>
+      <c r="K9" s="182"/>
+      <c r="L9" s="182"/>
+      <c r="M9" s="180"/>
+      <c r="N9" s="180"/>
+      <c r="O9" s="183"/>
     </row>
     <row r="10" outlineLevel="1" spans="2:15">
-      <c r="B10" s="77"/>
-      <c r="C10" s="78"/>
-      <c r="D10" s="78"/>
-      <c r="E10" s="87"/>
-      <c r="F10" s="80"/>
-      <c r="G10" s="78"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="24"/>
-      <c r="J10" s="122"/>
-      <c r="K10" s="52"/>
-      <c r="L10" s="66"/>
-      <c r="M10" s="39"/>
-      <c r="N10" s="39"/>
-      <c r="O10" s="121"/>
-    </row>
-    <row r="11" s="71" customFormat="1" outlineLevel="1" spans="1:15">
-      <c r="A11" s="70" t="s">
+      <c r="B10" s="98"/>
+      <c r="C10" s="88"/>
+      <c r="D10" s="88"/>
+      <c r="E10" s="146"/>
+      <c r="F10" s="140"/>
+      <c r="G10" s="88"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="29"/>
+      <c r="J10" s="177"/>
+      <c r="K10" s="64"/>
+      <c r="L10" s="78"/>
+      <c r="M10" s="53"/>
+      <c r="N10" s="53"/>
+      <c r="O10" s="176"/>
+    </row>
+    <row r="11" s="133" customFormat="1" outlineLevel="1" spans="1:15">
+      <c r="A11" s="132" t="s">
         <v>71</v>
       </c>
-      <c r="B11" s="88"/>
-      <c r="C11" s="89"/>
-      <c r="D11" s="89"/>
-      <c r="E11" s="90"/>
-      <c r="F11" s="91"/>
-      <c r="G11" s="89"/>
-      <c r="H11" s="92"/>
-      <c r="I11" s="128"/>
-      <c r="J11" s="125" t="s">
+      <c r="B11" s="147"/>
+      <c r="C11" s="148"/>
+      <c r="D11" s="148"/>
+      <c r="E11" s="149"/>
+      <c r="F11" s="150"/>
+      <c r="G11" s="148"/>
+      <c r="H11" s="151"/>
+      <c r="I11" s="180"/>
+      <c r="J11" s="123" t="s">
         <v>158</v>
       </c>
-      <c r="K11" s="130"/>
-      <c r="L11" s="126"/>
-      <c r="M11" s="124"/>
-      <c r="N11" s="124"/>
-      <c r="O11" s="131"/>
+      <c r="K11" s="182"/>
+      <c r="L11" s="84"/>
+      <c r="M11" s="114"/>
+      <c r="N11" s="114"/>
+      <c r="O11" s="183"/>
     </row>
     <row r="12" outlineLevel="1" spans="2:15">
-      <c r="B12" s="77"/>
-      <c r="C12" s="78"/>
-      <c r="D12" s="78"/>
-      <c r="E12" s="87"/>
-      <c r="F12" s="80"/>
-      <c r="G12" s="78"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="24"/>
-      <c r="J12" s="120"/>
-      <c r="K12" s="52"/>
-      <c r="L12" s="50" t="s">
+      <c r="B12" s="98"/>
+      <c r="C12" s="88"/>
+      <c r="D12" s="88"/>
+      <c r="E12" s="146"/>
+      <c r="F12" s="140"/>
+      <c r="G12" s="88"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="122"/>
+      <c r="K12" s="64"/>
+      <c r="L12" s="61" t="s">
         <v>66</v>
       </c>
-      <c r="M12" s="24">
+      <c r="M12" s="29">
         <v>4</v>
       </c>
-      <c r="N12" s="24" t="s">
+      <c r="N12" s="29" t="s">
         <v>153</v>
       </c>
-      <c r="O12" s="121"/>
+      <c r="O12" s="176"/>
     </row>
     <row r="13" outlineLevel="1" spans="2:15">
-      <c r="B13" s="77"/>
-      <c r="C13" s="78"/>
-      <c r="D13" s="23" t="s">
+      <c r="B13" s="98"/>
+      <c r="C13" s="88"/>
+      <c r="D13" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="E13" s="79"/>
-      <c r="F13" s="80"/>
-      <c r="G13" s="78"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="120"/>
-      <c r="K13" s="50" t="s">
+      <c r="E13" s="139"/>
+      <c r="F13" s="140"/>
+      <c r="G13" s="88"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="122"/>
+      <c r="K13" s="61" t="s">
         <v>159</v>
       </c>
-      <c r="L13" s="50" t="s">
+      <c r="L13" s="61" t="s">
         <v>160</v>
       </c>
-      <c r="M13" s="24">
+      <c r="M13" s="29">
         <v>8</v>
       </c>
-      <c r="N13" s="24" t="s">
+      <c r="N13" s="29" t="s">
         <v>161</v>
       </c>
-      <c r="O13" s="121" t="s">
+      <c r="O13" s="176" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="14" outlineLevel="1" spans="2:15">
-      <c r="B14" s="77"/>
-      <c r="C14" s="78"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="79"/>
-      <c r="F14" s="80"/>
-      <c r="G14" s="78"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="24"/>
-      <c r="J14" s="120" t="s">
+      <c r="B14" s="98"/>
+      <c r="C14" s="88"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="139"/>
+      <c r="F14" s="140"/>
+      <c r="G14" s="88"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="122" t="s">
         <v>159</v>
       </c>
-      <c r="K14" s="50"/>
-      <c r="L14" s="50" t="s">
+      <c r="K14" s="61"/>
+      <c r="L14" s="61" t="s">
         <v>163</v>
       </c>
-      <c r="M14" s="24" t="s">
+      <c r="M14" s="29" t="s">
         <v>145</v>
       </c>
-      <c r="N14" s="24" t="s">
+      <c r="N14" s="29" t="s">
         <v>164</v>
       </c>
-      <c r="O14" s="121"/>
+      <c r="O14" s="176"/>
     </row>
     <row r="15" outlineLevel="1" spans="2:15">
-      <c r="B15" s="93"/>
-      <c r="C15" s="38" t="s">
+      <c r="B15" s="152"/>
+      <c r="C15" s="48" t="s">
         <v>43</v>
       </c>
-      <c r="D15" s="94"/>
-      <c r="E15" s="95"/>
-      <c r="F15" s="96"/>
-      <c r="G15" s="94"/>
-      <c r="H15" s="38"/>
-      <c r="I15" s="39"/>
-      <c r="J15" s="122"/>
-      <c r="K15" s="59" t="s">
+      <c r="D15" s="153"/>
+      <c r="E15" s="154"/>
+      <c r="F15" s="155"/>
+      <c r="G15" s="153"/>
+      <c r="H15" s="48"/>
+      <c r="I15" s="53"/>
+      <c r="J15" s="177"/>
+      <c r="K15" s="71" t="s">
         <v>165</v>
       </c>
-      <c r="L15" s="66" t="s">
+      <c r="L15" s="78" t="s">
         <v>108</v>
       </c>
-      <c r="M15" s="39" t="s">
+      <c r="M15" s="53" t="s">
         <v>145</v>
       </c>
-      <c r="N15" s="39" t="s">
+      <c r="N15" s="53" t="s">
         <v>166</v>
       </c>
-      <c r="O15" s="123"/>
-    </row>
-    <row r="16" s="71" customFormat="1" spans="1:15">
-      <c r="A16" s="70" t="s">
-        <v>1</v>
-      </c>
-      <c r="B16" s="97"/>
-      <c r="C16" s="84"/>
-      <c r="D16" s="98"/>
-      <c r="E16" s="99"/>
-      <c r="F16" s="100"/>
-      <c r="G16" s="98"/>
-      <c r="H16" s="84"/>
-      <c r="I16" s="124"/>
-      <c r="J16" s="125" t="s">
+      <c r="O15" s="178"/>
+    </row>
+    <row r="16" s="133" customFormat="1" spans="1:15">
+      <c r="A16" s="132" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" s="104"/>
+      <c r="C16" s="105"/>
+      <c r="D16" s="90"/>
+      <c r="E16" s="156"/>
+      <c r="F16" s="157"/>
+      <c r="G16" s="90"/>
+      <c r="H16" s="105"/>
+      <c r="I16" s="114"/>
+      <c r="J16" s="123" t="s">
         <v>167</v>
       </c>
-      <c r="K16" s="126"/>
-      <c r="L16" s="126"/>
-      <c r="M16" s="124"/>
-      <c r="N16" s="124"/>
-      <c r="O16" s="127"/>
-    </row>
-    <row r="17" s="57" customFormat="1" outlineLevel="1" spans="1:15">
-      <c r="A17" s="101"/>
-      <c r="B17" s="102"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="28">
-        <v>0</v>
-      </c>
-      <c r="E17" s="103">
-        <v>0</v>
-      </c>
-      <c r="F17" s="104"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="26"/>
-      <c r="I17" s="27"/>
-      <c r="J17" s="132"/>
-      <c r="K17" s="52" t="s">
+      <c r="K16" s="84"/>
+      <c r="L16" s="84"/>
+      <c r="M16" s="114"/>
+      <c r="N16" s="114"/>
+      <c r="O16" s="179"/>
+    </row>
+    <row r="17" s="69" customFormat="1" outlineLevel="1" spans="1:15">
+      <c r="A17" s="158"/>
+      <c r="B17" s="109"/>
+      <c r="C17" s="33"/>
+      <c r="D17" s="63">
+        <v>0</v>
+      </c>
+      <c r="E17" s="159">
+        <v>0</v>
+      </c>
+      <c r="F17" s="160"/>
+      <c r="G17" s="63"/>
+      <c r="H17" s="33"/>
+      <c r="I17" s="34"/>
+      <c r="J17" s="124"/>
+      <c r="K17" s="64" t="s">
         <v>168</v>
       </c>
-      <c r="L17" s="52"/>
-      <c r="M17" s="27"/>
-      <c r="N17" s="27"/>
-      <c r="O17" s="133"/>
-    </row>
-    <row r="18" s="57" customFormat="1" outlineLevel="1" spans="1:15">
-      <c r="A18" s="101"/>
-      <c r="B18" s="102"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="28">
-        <v>1</v>
-      </c>
-      <c r="E18" s="103">
-        <v>0</v>
-      </c>
-      <c r="F18" s="104"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="26"/>
-      <c r="I18" s="27"/>
-      <c r="J18" s="132"/>
-      <c r="K18" s="52" t="s">
+      <c r="L17" s="64"/>
+      <c r="M17" s="34"/>
+      <c r="N17" s="34"/>
+      <c r="O17" s="184"/>
+    </row>
+    <row r="18" s="69" customFormat="1" outlineLevel="1" spans="1:15">
+      <c r="A18" s="158"/>
+      <c r="B18" s="109"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="63">
+        <v>1</v>
+      </c>
+      <c r="E18" s="159">
+        <v>0</v>
+      </c>
+      <c r="F18" s="160"/>
+      <c r="G18" s="63"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="34"/>
+      <c r="J18" s="124"/>
+      <c r="K18" s="64" t="s">
         <v>169</v>
       </c>
-      <c r="L18" s="52"/>
-      <c r="M18" s="27"/>
-      <c r="N18" s="27"/>
-      <c r="O18" s="133"/>
-    </row>
-    <row r="19" s="57" customFormat="1" outlineLevel="1" spans="1:15">
-      <c r="A19" s="101"/>
-      <c r="B19" s="102"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="28">
-        <v>0</v>
-      </c>
-      <c r="E19" s="103">
-        <v>1</v>
-      </c>
-      <c r="F19" s="104"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="26"/>
-      <c r="I19" s="27"/>
-      <c r="J19" s="132"/>
-      <c r="K19" s="52" t="s">
+      <c r="L18" s="64"/>
+      <c r="M18" s="34"/>
+      <c r="N18" s="34"/>
+      <c r="O18" s="184"/>
+    </row>
+    <row r="19" s="69" customFormat="1" outlineLevel="1" spans="1:15">
+      <c r="A19" s="158"/>
+      <c r="B19" s="109"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="63">
+        <v>0</v>
+      </c>
+      <c r="E19" s="159">
+        <v>1</v>
+      </c>
+      <c r="F19" s="160"/>
+      <c r="G19" s="63"/>
+      <c r="H19" s="33"/>
+      <c r="I19" s="34"/>
+      <c r="J19" s="124"/>
+      <c r="K19" s="64" t="s">
         <v>170</v>
       </c>
-      <c r="L19" s="52"/>
-      <c r="M19" s="27"/>
-      <c r="N19" s="27"/>
-      <c r="O19" s="133"/>
-    </row>
-    <row r="20" s="57" customFormat="1" outlineLevel="1" spans="1:15">
-      <c r="A20" s="101"/>
-      <c r="B20" s="102"/>
-      <c r="C20" s="26"/>
-      <c r="D20" s="28">
-        <v>1</v>
-      </c>
-      <c r="E20" s="103">
-        <v>1</v>
-      </c>
-      <c r="F20" s="104"/>
-      <c r="G20" s="28"/>
-      <c r="H20" s="26"/>
-      <c r="I20" s="27"/>
-      <c r="J20" s="132"/>
-      <c r="K20" s="52" t="s">
+      <c r="L19" s="64"/>
+      <c r="M19" s="34"/>
+      <c r="N19" s="34"/>
+      <c r="O19" s="184"/>
+    </row>
+    <row r="20" s="69" customFormat="1" outlineLevel="1" spans="1:15">
+      <c r="A20" s="158"/>
+      <c r="B20" s="109"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="63">
+        <v>1</v>
+      </c>
+      <c r="E20" s="159">
+        <v>1</v>
+      </c>
+      <c r="F20" s="160"/>
+      <c r="G20" s="63"/>
+      <c r="H20" s="33"/>
+      <c r="I20" s="34"/>
+      <c r="J20" s="124"/>
+      <c r="K20" s="64" t="s">
         <v>171</v>
       </c>
-      <c r="L20" s="52"/>
-      <c r="M20" s="27"/>
-      <c r="N20" s="27"/>
-      <c r="O20" s="133"/>
-    </row>
-    <row r="21" s="71" customFormat="1" outlineLevel="1" spans="1:15">
-      <c r="A21" s="70" t="s">
+      <c r="L20" s="64"/>
+      <c r="M20" s="34"/>
+      <c r="N20" s="34"/>
+      <c r="O20" s="184"/>
+    </row>
+    <row r="21" s="133" customFormat="1" outlineLevel="1" spans="1:15">
+      <c r="A21" s="132" t="s">
         <v>172</v>
       </c>
-      <c r="B21" s="88"/>
-      <c r="C21" s="92"/>
-      <c r="D21" s="89"/>
-      <c r="E21" s="105"/>
-      <c r="F21" s="91"/>
-      <c r="G21" s="89"/>
-      <c r="H21" s="92"/>
-      <c r="I21" s="128"/>
-      <c r="J21" s="129" t="s">
+      <c r="B21" s="147"/>
+      <c r="C21" s="151"/>
+      <c r="D21" s="148"/>
+      <c r="E21" s="161"/>
+      <c r="F21" s="150"/>
+      <c r="G21" s="148"/>
+      <c r="H21" s="151"/>
+      <c r="I21" s="180"/>
+      <c r="J21" s="181" t="s">
         <v>168</v>
       </c>
-      <c r="K21" s="130"/>
-      <c r="L21" s="130"/>
-      <c r="M21" s="128"/>
-      <c r="N21" s="128"/>
-      <c r="O21" s="131"/>
-    </row>
-    <row r="22" s="57" customFormat="1" outlineLevel="1" spans="1:15">
-      <c r="A22" s="101"/>
-      <c r="B22" s="102"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="28"/>
-      <c r="E22" s="103"/>
-      <c r="F22" s="104"/>
-      <c r="G22" s="28"/>
-      <c r="H22" s="26"/>
-      <c r="I22" s="27"/>
-      <c r="J22" s="132"/>
-      <c r="K22" s="52"/>
-      <c r="L22" s="52" t="s">
+      <c r="K21" s="182"/>
+      <c r="L21" s="182"/>
+      <c r="M21" s="180"/>
+      <c r="N21" s="180"/>
+      <c r="O21" s="183"/>
+    </row>
+    <row r="22" s="69" customFormat="1" outlineLevel="1" spans="1:15">
+      <c r="A22" s="158"/>
+      <c r="B22" s="109"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="63"/>
+      <c r="E22" s="159"/>
+      <c r="F22" s="160"/>
+      <c r="G22" s="63"/>
+      <c r="H22" s="33"/>
+      <c r="I22" s="34"/>
+      <c r="J22" s="124"/>
+      <c r="K22" s="64"/>
+      <c r="L22" s="64" t="s">
         <v>173</v>
       </c>
-      <c r="M22" s="27">
-        <v>1</v>
-      </c>
-      <c r="N22" s="27" t="s">
+      <c r="M22" s="34">
+        <v>1</v>
+      </c>
+      <c r="N22" s="34" t="s">
         <v>173</v>
       </c>
-      <c r="O22" s="133" t="s">
+      <c r="O22" s="184" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="23" s="71" customFormat="1" outlineLevel="1" spans="1:15">
-      <c r="A23" s="70" t="s">
+    <row r="23" s="133" customFormat="1" outlineLevel="1" spans="1:15">
+      <c r="A23" s="132" t="s">
         <v>175</v>
       </c>
-      <c r="B23" s="88"/>
-      <c r="C23" s="92"/>
-      <c r="D23" s="89"/>
-      <c r="E23" s="105"/>
-      <c r="F23" s="91"/>
-      <c r="G23" s="89"/>
-      <c r="H23" s="92"/>
-      <c r="I23" s="128"/>
-      <c r="J23" s="129" t="s">
+      <c r="B23" s="147"/>
+      <c r="C23" s="151"/>
+      <c r="D23" s="148"/>
+      <c r="E23" s="161"/>
+      <c r="F23" s="150"/>
+      <c r="G23" s="148"/>
+      <c r="H23" s="151"/>
+      <c r="I23" s="180"/>
+      <c r="J23" s="181" t="s">
         <v>169</v>
       </c>
-      <c r="K23" s="130"/>
-      <c r="L23" s="130"/>
-      <c r="M23" s="128"/>
-      <c r="N23" s="128"/>
-      <c r="O23" s="131"/>
-    </row>
-    <row r="24" s="57" customFormat="1" outlineLevel="1" spans="1:15">
-      <c r="A24" s="101"/>
-      <c r="B24" s="102"/>
-      <c r="C24" s="26" t="s">
+      <c r="K23" s="182"/>
+      <c r="L23" s="182"/>
+      <c r="M23" s="180"/>
+      <c r="N23" s="180"/>
+      <c r="O23" s="183"/>
+    </row>
+    <row r="24" s="69" customFormat="1" outlineLevel="1" spans="1:15">
+      <c r="A24" s="158"/>
+      <c r="B24" s="109"/>
+      <c r="C24" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="D24" s="28"/>
-      <c r="E24" s="103"/>
-      <c r="F24" s="104"/>
-      <c r="G24" s="28"/>
-      <c r="H24" s="26"/>
-      <c r="I24" s="27"/>
-      <c r="J24" s="132"/>
-      <c r="K24" s="52"/>
-      <c r="L24" s="52" t="s">
+      <c r="D24" s="63"/>
+      <c r="E24" s="159"/>
+      <c r="F24" s="160"/>
+      <c r="G24" s="63"/>
+      <c r="H24" s="33"/>
+      <c r="I24" s="34"/>
+      <c r="J24" s="124"/>
+      <c r="K24" s="64"/>
+      <c r="L24" s="64" t="s">
         <v>176</v>
       </c>
-      <c r="M24" s="27" t="s">
+      <c r="M24" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="N24" s="27" t="s">
+      <c r="N24" s="34" t="s">
         <v>146</v>
       </c>
-      <c r="O24" s="133" t="s">
+      <c r="O24" s="184" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="25" s="57" customFormat="1" outlineLevel="1" spans="1:15">
-      <c r="A25" s="101"/>
-      <c r="B25" s="102"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="28"/>
-      <c r="E25" s="103"/>
-      <c r="F25" s="104"/>
-      <c r="G25" s="28"/>
-      <c r="H25" s="26"/>
-      <c r="I25" s="27"/>
-      <c r="J25" s="132"/>
-      <c r="K25" s="52"/>
-      <c r="L25" s="52" t="s">
+    <row r="25" s="69" customFormat="1" outlineLevel="1" spans="1:15">
+      <c r="A25" s="158"/>
+      <c r="B25" s="109"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="63"/>
+      <c r="E25" s="159"/>
+      <c r="F25" s="160"/>
+      <c r="G25" s="63"/>
+      <c r="H25" s="33"/>
+      <c r="I25" s="34"/>
+      <c r="J25" s="124"/>
+      <c r="K25" s="64"/>
+      <c r="L25" s="64" t="s">
         <v>173</v>
       </c>
-      <c r="M25" s="27" t="s">
+      <c r="M25" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="N25" s="27" t="s">
+      <c r="N25" s="34" t="s">
         <v>173</v>
       </c>
-      <c r="O25" s="133" t="s">
+      <c r="O25" s="184" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="26" s="71" customFormat="1" outlineLevel="1" spans="1:15">
-      <c r="A26" s="70" t="s">
+    <row r="26" s="133" customFormat="1" outlineLevel="1" spans="1:15">
+      <c r="A26" s="132" t="s">
         <v>178</v>
       </c>
-      <c r="B26" s="88"/>
-      <c r="C26" s="92"/>
-      <c r="D26" s="89"/>
-      <c r="E26" s="105"/>
-      <c r="F26" s="91"/>
-      <c r="G26" s="89"/>
-      <c r="H26" s="92"/>
-      <c r="I26" s="128"/>
-      <c r="J26" s="129" t="s">
+      <c r="B26" s="147"/>
+      <c r="C26" s="151"/>
+      <c r="D26" s="148"/>
+      <c r="E26" s="161"/>
+      <c r="F26" s="150"/>
+      <c r="G26" s="148"/>
+      <c r="H26" s="151"/>
+      <c r="I26" s="180"/>
+      <c r="J26" s="181" t="s">
         <v>170</v>
       </c>
-      <c r="K26" s="130"/>
-      <c r="L26" s="130"/>
-      <c r="M26" s="128"/>
-      <c r="N26" s="128"/>
-      <c r="O26" s="131"/>
+      <c r="K26" s="182"/>
+      <c r="L26" s="182"/>
+      <c r="M26" s="180"/>
+      <c r="N26" s="180"/>
+      <c r="O26" s="183"/>
     </row>
     <row r="27" outlineLevel="1" spans="2:15">
-      <c r="B27" s="77"/>
-      <c r="C27" s="78"/>
-      <c r="D27" s="78"/>
-      <c r="E27" s="87"/>
-      <c r="F27" s="80"/>
-      <c r="G27" s="78"/>
-      <c r="H27" s="23"/>
-      <c r="I27" s="24"/>
-      <c r="J27" s="120"/>
-      <c r="K27" s="50"/>
-      <c r="L27" s="50" t="s">
+      <c r="B27" s="98"/>
+      <c r="C27" s="88"/>
+      <c r="D27" s="88"/>
+      <c r="E27" s="146"/>
+      <c r="F27" s="140"/>
+      <c r="G27" s="88"/>
+      <c r="H27" s="28"/>
+      <c r="I27" s="29"/>
+      <c r="J27" s="122"/>
+      <c r="K27" s="61"/>
+      <c r="L27" s="61" t="s">
         <v>179</v>
       </c>
-      <c r="M27" s="24">
+      <c r="M27" s="29">
         <v>4</v>
       </c>
-      <c r="N27" s="24" t="s">
+      <c r="N27" s="29" t="s">
         <v>153</v>
       </c>
-      <c r="O27" s="134" t="s">
+      <c r="O27" s="185" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="28" outlineLevel="1" spans="2:15">
-      <c r="B28" s="77"/>
-      <c r="C28" s="78"/>
-      <c r="D28" s="78"/>
-      <c r="E28" s="87"/>
-      <c r="F28" s="80"/>
-      <c r="G28" s="78"/>
-      <c r="H28" s="23"/>
-      <c r="I28" s="24"/>
-      <c r="J28" s="120"/>
-      <c r="K28" s="50"/>
-      <c r="L28" s="50" t="s">
+      <c r="B28" s="98"/>
+      <c r="C28" s="88"/>
+      <c r="D28" s="88"/>
+      <c r="E28" s="146"/>
+      <c r="F28" s="140"/>
+      <c r="G28" s="88"/>
+      <c r="H28" s="28"/>
+      <c r="I28" s="29"/>
+      <c r="J28" s="122"/>
+      <c r="K28" s="61"/>
+      <c r="L28" s="61" t="s">
         <v>181</v>
       </c>
-      <c r="M28" s="24" t="s">
+      <c r="M28" s="29" t="s">
         <v>145</v>
       </c>
-      <c r="N28" s="24" t="s">
+      <c r="N28" s="29" t="s">
         <v>182</v>
       </c>
-      <c r="O28" s="134" t="s">
+      <c r="O28" s="185" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="29" s="71" customFormat="1" outlineLevel="1" spans="1:15">
-      <c r="A29" s="70" t="s">
+    <row r="29" s="133" customFormat="1" outlineLevel="1" spans="1:15">
+      <c r="A29" s="132" t="s">
         <v>184</v>
       </c>
-      <c r="B29" s="88"/>
-      <c r="C29" s="92"/>
-      <c r="D29" s="89"/>
-      <c r="E29" s="105"/>
-      <c r="F29" s="91"/>
-      <c r="G29" s="89"/>
-      <c r="H29" s="92"/>
-      <c r="I29" s="128"/>
-      <c r="J29" s="129" t="s">
+      <c r="B29" s="147"/>
+      <c r="C29" s="151"/>
+      <c r="D29" s="148"/>
+      <c r="E29" s="161"/>
+      <c r="F29" s="150"/>
+      <c r="G29" s="148"/>
+      <c r="H29" s="151"/>
+      <c r="I29" s="180"/>
+      <c r="J29" s="181" t="s">
         <v>171</v>
       </c>
-      <c r="K29" s="130"/>
-      <c r="L29" s="130"/>
-      <c r="M29" s="128"/>
-      <c r="N29" s="128"/>
-      <c r="O29" s="131"/>
+      <c r="K29" s="182"/>
+      <c r="L29" s="182"/>
+      <c r="M29" s="180"/>
+      <c r="N29" s="180"/>
+      <c r="O29" s="183"/>
     </row>
     <row r="30" outlineLevel="1" spans="2:15">
-      <c r="B30" s="77"/>
-      <c r="C30" s="23"/>
-      <c r="D30" s="78"/>
-      <c r="E30" s="79"/>
-      <c r="F30" s="80"/>
-      <c r="G30" s="78"/>
-      <c r="H30" s="23"/>
-      <c r="I30" s="24"/>
-      <c r="J30" s="120"/>
-      <c r="K30" s="50"/>
-      <c r="L30" s="50" t="s">
+      <c r="B30" s="98"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="88"/>
+      <c r="E30" s="139"/>
+      <c r="F30" s="140"/>
+      <c r="G30" s="88"/>
+      <c r="H30" s="28"/>
+      <c r="I30" s="29"/>
+      <c r="J30" s="122"/>
+      <c r="K30" s="61"/>
+      <c r="L30" s="61" t="s">
         <v>185</v>
       </c>
-      <c r="M30" s="24">
+      <c r="M30" s="29">
         <v>4</v>
       </c>
-      <c r="N30" s="24" t="s">
+      <c r="N30" s="29" t="s">
         <v>153</v>
       </c>
-      <c r="O30" s="134" t="s">
+      <c r="O30" s="185" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="31" outlineLevel="1" spans="2:15">
-      <c r="B31" s="77"/>
-      <c r="C31" s="23" t="s">
+      <c r="B31" s="98"/>
+      <c r="C31" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="D31" s="78"/>
-      <c r="E31" s="79"/>
-      <c r="F31" s="80"/>
-      <c r="G31" s="78"/>
-      <c r="H31" s="23"/>
-      <c r="I31" s="24"/>
-      <c r="J31" s="120"/>
-      <c r="K31" s="50" t="s">
+      <c r="D31" s="88"/>
+      <c r="E31" s="139"/>
+      <c r="F31" s="140"/>
+      <c r="G31" s="88"/>
+      <c r="H31" s="28"/>
+      <c r="I31" s="29"/>
+      <c r="J31" s="122"/>
+      <c r="K31" s="61" t="s">
         <v>187</v>
       </c>
-      <c r="L31" s="50" t="s">
+      <c r="L31" s="61" t="s">
         <v>188</v>
       </c>
-      <c r="M31" s="24" t="s">
+      <c r="M31" s="29" t="s">
         <v>189</v>
       </c>
-      <c r="N31" s="24" t="s">
+      <c r="N31" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="O31" s="134" t="s">
+      <c r="O31" s="185" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="32" outlineLevel="1" spans="2:15">
-      <c r="B32" s="77"/>
-      <c r="C32" s="23"/>
-      <c r="D32" s="78"/>
-      <c r="E32" s="79"/>
-      <c r="F32" s="80"/>
-      <c r="G32" s="78"/>
-      <c r="H32" s="23"/>
-      <c r="I32" s="24"/>
-      <c r="J32" s="120" t="s">
+      <c r="B32" s="98"/>
+      <c r="C32" s="28"/>
+      <c r="D32" s="88"/>
+      <c r="E32" s="139"/>
+      <c r="F32" s="140"/>
+      <c r="G32" s="88"/>
+      <c r="H32" s="28"/>
+      <c r="I32" s="29"/>
+      <c r="J32" s="122" t="s">
         <v>187</v>
       </c>
-      <c r="K32" s="50"/>
-      <c r="L32" s="50" t="s">
+      <c r="K32" s="61"/>
+      <c r="L32" s="61" t="s">
         <v>181</v>
       </c>
-      <c r="M32" s="24" t="s">
+      <c r="M32" s="29" t="s">
         <v>145</v>
       </c>
-      <c r="N32" s="24" t="s">
+      <c r="N32" s="29" t="s">
         <v>182</v>
       </c>
-      <c r="O32" s="134" t="s">
+      <c r="O32" s="185" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="33" outlineLevel="1" spans="2:15">
-      <c r="B33" s="93"/>
-      <c r="C33" s="38"/>
-      <c r="D33" s="94"/>
-      <c r="E33" s="95"/>
-      <c r="F33" s="96"/>
-      <c r="G33" s="94"/>
-      <c r="H33" s="38"/>
-      <c r="I33" s="39"/>
-      <c r="J33" s="122" t="s">
+      <c r="B33" s="152"/>
+      <c r="C33" s="48"/>
+      <c r="D33" s="153"/>
+      <c r="E33" s="154"/>
+      <c r="F33" s="155"/>
+      <c r="G33" s="153"/>
+      <c r="H33" s="48"/>
+      <c r="I33" s="53"/>
+      <c r="J33" s="177" t="s">
         <v>193</v>
       </c>
-      <c r="K33" s="66"/>
-      <c r="L33" s="66" t="s">
+      <c r="K33" s="78"/>
+      <c r="L33" s="78" t="s">
         <v>181</v>
       </c>
-      <c r="M33" s="39" t="s">
+      <c r="M33" s="53" t="s">
         <v>145</v>
       </c>
-      <c r="N33" s="39" t="s">
+      <c r="N33" s="53" t="s">
         <v>182</v>
       </c>
-      <c r="O33" s="135" t="s">
+      <c r="O33" s="186" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="34" spans="2:18">
-      <c r="B34" s="23"/>
-      <c r="C34" s="23"/>
-      <c r="D34" s="78"/>
-      <c r="E34" s="78"/>
-      <c r="F34" s="78"/>
-      <c r="G34" s="78"/>
-      <c r="H34" s="23"/>
-      <c r="I34" s="23"/>
-      <c r="J34" s="50"/>
-      <c r="K34" s="50"/>
-      <c r="L34" s="50"/>
-      <c r="M34" s="50"/>
-      <c r="N34" s="23"/>
-      <c r="O34" s="23"/>
-      <c r="P34" s="23"/>
-      <c r="Q34" s="50"/>
-      <c r="R34" s="50"/>
+      <c r="B34" s="28"/>
+      <c r="C34" s="28"/>
+      <c r="D34" s="88"/>
+      <c r="E34" s="88"/>
+      <c r="F34" s="88"/>
+      <c r="G34" s="88"/>
+      <c r="H34" s="28"/>
+      <c r="I34" s="28"/>
+      <c r="J34" s="61"/>
+      <c r="K34" s="61"/>
+      <c r="L34" s="61"/>
+      <c r="M34" s="61"/>
+      <c r="N34" s="28"/>
+      <c r="O34" s="28"/>
+      <c r="P34" s="28"/>
+      <c r="Q34" s="61"/>
+      <c r="R34" s="61"/>
     </row>
     <row r="35" spans="2:18">
-      <c r="B35" s="78"/>
-      <c r="C35" s="78"/>
-      <c r="D35" s="78"/>
-      <c r="E35" s="78"/>
-      <c r="F35" s="78"/>
-      <c r="G35" s="78"/>
-      <c r="H35" s="23"/>
-      <c r="I35" s="23"/>
-      <c r="J35" s="136" t="s">
+      <c r="B35" s="88"/>
+      <c r="C35" s="88"/>
+      <c r="D35" s="88"/>
+      <c r="E35" s="88"/>
+      <c r="F35" s="88"/>
+      <c r="G35" s="88"/>
+      <c r="H35" s="28"/>
+      <c r="I35" s="28"/>
+      <c r="J35" s="187" t="s">
         <v>141</v>
       </c>
-      <c r="K35" s="136"/>
-      <c r="L35" s="136"/>
-      <c r="M35" s="136"/>
-      <c r="N35" s="26"/>
-      <c r="O35" s="23"/>
-      <c r="P35" s="23"/>
-      <c r="Q35" s="23"/>
-      <c r="R35" s="50"/>
+      <c r="K35" s="187"/>
+      <c r="L35" s="187"/>
+      <c r="M35" s="187"/>
+      <c r="N35" s="33"/>
+      <c r="O35" s="28"/>
+      <c r="P35" s="28"/>
+      <c r="Q35" s="28"/>
+      <c r="R35" s="61"/>
     </row>
     <row r="36" spans="10:10">
       <c r="J36" s="4" t="s">
@@ -7300,48 +7535,48 @@
       <c r="A40" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="B40" s="106"/>
-      <c r="C40" s="107"/>
-      <c r="D40" s="108"/>
-      <c r="E40" s="109"/>
-      <c r="F40" s="107" t="s">
+      <c r="B40" s="162"/>
+      <c r="C40" s="163"/>
+      <c r="D40" s="164"/>
+      <c r="E40" s="165"/>
+      <c r="F40" s="163" t="s">
         <v>155</v>
       </c>
-      <c r="G40" s="109" t="s">
+      <c r="G40" s="165" t="s">
         <v>149</v>
       </c>
-      <c r="H40" s="109" t="s">
+      <c r="H40" s="165" t="s">
         <v>147</v>
       </c>
-      <c r="I40" s="108" t="s">
+      <c r="I40" s="164" t="s">
         <v>143</v>
       </c>
-      <c r="J40" s="40" t="s">
+      <c r="J40" s="49" t="s">
         <v>35</v>
       </c>
-      <c r="K40" s="40" t="s">
+      <c r="K40" s="49" t="s">
         <v>197</v>
       </c>
-      <c r="L40" s="69" t="s">
+      <c r="L40" s="81" t="s">
         <v>198</v>
       </c>
       <c r="M40" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="N40" s="40"/>
+      <c r="N40" s="49"/>
     </row>
     <row r="41" customFormat="1" spans="1:14">
       <c r="A41" s="12"/>
-      <c r="B41" s="110"/>
-      <c r="C41" s="42"/>
-      <c r="D41" s="42"/>
-      <c r="E41" s="111"/>
-      <c r="F41" s="112"/>
-      <c r="G41" s="42"/>
-      <c r="H41" s="42">
-        <v>1</v>
-      </c>
-      <c r="I41" s="43" t="s">
+      <c r="B41" s="166"/>
+      <c r="C41" s="51"/>
+      <c r="D41" s="51"/>
+      <c r="E41" s="167"/>
+      <c r="F41" s="168"/>
+      <c r="G41" s="51"/>
+      <c r="H41" s="51">
+        <v>1</v>
+      </c>
+      <c r="I41" s="52" t="s">
         <v>58</v>
       </c>
       <c r="J41" s="3" t="str">
@@ -7362,22 +7597,22 @@
     </row>
     <row r="42" customFormat="1" spans="1:14">
       <c r="A42" s="12"/>
-      <c r="B42" s="113"/>
-      <c r="C42" s="23"/>
-      <c r="D42" s="23"/>
-      <c r="E42" s="87">
-        <v>0</v>
-      </c>
-      <c r="F42" s="114">
-        <v>1</v>
-      </c>
-      <c r="G42" s="23" t="s">
+      <c r="B42" s="169"/>
+      <c r="C42" s="28"/>
+      <c r="D42" s="28"/>
+      <c r="E42" s="146">
+        <v>0</v>
+      </c>
+      <c r="F42" s="170">
+        <v>1</v>
+      </c>
+      <c r="G42" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="H42" s="23">
-        <v>0</v>
-      </c>
-      <c r="I42" s="24" t="s">
+      <c r="H42" s="28">
+        <v>0</v>
+      </c>
+      <c r="I42" s="29" t="s">
         <v>58</v>
       </c>
       <c r="J42" s="3" t="str">
@@ -7398,26 +7633,26 @@
     </row>
     <row r="43" customFormat="1" spans="1:14">
       <c r="A43" s="12"/>
-      <c r="B43" s="113"/>
-      <c r="C43" s="23" t="s">
+      <c r="B43" s="169"/>
+      <c r="C43" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="D43" s="23" t="s">
+      <c r="D43" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="E43" s="87">
-        <v>1</v>
-      </c>
-      <c r="F43" s="114">
-        <v>1</v>
-      </c>
-      <c r="G43" s="23" t="s">
+      <c r="E43" s="146">
+        <v>1</v>
+      </c>
+      <c r="F43" s="170">
+        <v>1</v>
+      </c>
+      <c r="G43" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="H43" s="23">
-        <v>0</v>
-      </c>
-      <c r="I43" s="24" t="s">
+      <c r="H43" s="28">
+        <v>0</v>
+      </c>
+      <c r="I43" s="29" t="s">
         <v>58</v>
       </c>
       <c r="J43" s="3" t="str">
@@ -7438,24 +7673,24 @@
     </row>
     <row r="44" customFormat="1" spans="1:14">
       <c r="A44" s="12"/>
-      <c r="B44" s="113"/>
-      <c r="C44" s="23"/>
-      <c r="D44" s="23">
-        <v>0</v>
-      </c>
-      <c r="E44" s="87">
-        <v>0</v>
-      </c>
-      <c r="F44" s="114">
-        <v>0</v>
-      </c>
-      <c r="G44" s="23" t="s">
+      <c r="B44" s="169"/>
+      <c r="C44" s="28"/>
+      <c r="D44" s="28">
+        <v>0</v>
+      </c>
+      <c r="E44" s="146">
+        <v>0</v>
+      </c>
+      <c r="F44" s="170">
+        <v>0</v>
+      </c>
+      <c r="G44" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="H44" s="23">
-        <v>0</v>
-      </c>
-      <c r="I44" s="24" t="s">
+      <c r="H44" s="28">
+        <v>0</v>
+      </c>
+      <c r="I44" s="29" t="s">
         <v>58</v>
       </c>
       <c r="J44" s="3" t="str">
@@ -7476,24 +7711,24 @@
     </row>
     <row r="45" customFormat="1" spans="1:14">
       <c r="A45" s="12"/>
-      <c r="B45" s="113"/>
-      <c r="C45" s="23"/>
-      <c r="D45" s="23">
-        <v>0</v>
-      </c>
-      <c r="E45" s="87">
-        <v>1</v>
-      </c>
-      <c r="F45" s="114">
-        <v>0</v>
-      </c>
-      <c r="G45" s="23" t="s">
+      <c r="B45" s="169"/>
+      <c r="C45" s="28"/>
+      <c r="D45" s="28">
+        <v>0</v>
+      </c>
+      <c r="E45" s="146">
+        <v>1</v>
+      </c>
+      <c r="F45" s="170">
+        <v>0</v>
+      </c>
+      <c r="G45" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="H45" s="23">
-        <v>0</v>
-      </c>
-      <c r="I45" s="24" t="s">
+      <c r="H45" s="28">
+        <v>0</v>
+      </c>
+      <c r="I45" s="29" t="s">
         <v>58</v>
       </c>
       <c r="J45" s="3" t="str">
@@ -7514,24 +7749,24 @@
     </row>
     <row r="46" customFormat="1" spans="1:14">
       <c r="A46" s="12"/>
-      <c r="B46" s="113"/>
-      <c r="C46" s="23"/>
-      <c r="D46" s="23">
-        <v>1</v>
-      </c>
-      <c r="E46" s="87">
-        <v>0</v>
-      </c>
-      <c r="F46" s="114">
-        <v>0</v>
-      </c>
-      <c r="G46" s="23" t="s">
+      <c r="B46" s="169"/>
+      <c r="C46" s="28"/>
+      <c r="D46" s="28">
+        <v>1</v>
+      </c>
+      <c r="E46" s="146">
+        <v>0</v>
+      </c>
+      <c r="F46" s="170">
+        <v>0</v>
+      </c>
+      <c r="G46" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="H46" s="23">
-        <v>0</v>
-      </c>
-      <c r="I46" s="24" t="s">
+      <c r="H46" s="28">
+        <v>0</v>
+      </c>
+      <c r="I46" s="29" t="s">
         <v>58</v>
       </c>
       <c r="J46" s="3" t="str">
@@ -7552,26 +7787,26 @@
     </row>
     <row r="47" customFormat="1" spans="1:14">
       <c r="A47" s="12"/>
-      <c r="B47" s="115"/>
-      <c r="C47" s="38" t="s">
+      <c r="B47" s="171"/>
+      <c r="C47" s="48" t="s">
         <v>58</v>
       </c>
-      <c r="D47" s="38">
-        <v>1</v>
-      </c>
-      <c r="E47" s="81">
-        <v>1</v>
-      </c>
-      <c r="F47" s="82">
-        <v>0</v>
-      </c>
-      <c r="G47" s="38" t="s">
+      <c r="D47" s="48">
+        <v>1</v>
+      </c>
+      <c r="E47" s="141">
+        <v>1</v>
+      </c>
+      <c r="F47" s="142">
+        <v>0</v>
+      </c>
+      <c r="G47" s="48" t="s">
         <v>58</v>
       </c>
-      <c r="H47" s="38">
-        <v>0</v>
-      </c>
-      <c r="I47" s="39" t="s">
+      <c r="H47" s="48">
+        <v>0</v>
+      </c>
+      <c r="I47" s="53" t="s">
         <v>58</v>
       </c>
       <c r="J47" s="3" t="str">
@@ -7601,989 +7836,1985 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N36"/>
+  <dimension ref="A1:Q36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F25" sqref="F25"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B$1:B$1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.61261261261261" defaultRowHeight="14.55"/>
+  <cols>
+    <col min="1" max="1" width="16.8468468468468" style="7" customWidth="1"/>
+    <col min="2" max="2" width="3.7027027027027" style="85" customWidth="1"/>
+    <col min="3" max="3" width="3.46846846846847" style="86" customWidth="1"/>
+    <col min="4" max="11" width="2.46846846846847" style="28" customWidth="1"/>
+    <col min="12" max="12" width="19.7567567567568" style="7" customWidth="1"/>
+    <col min="13" max="13" width="15.981981981982" style="7" customWidth="1"/>
+    <col min="14" max="14" width="17.6036036036036" style="7" customWidth="1"/>
+    <col min="15" max="15" width="10.972972972973" style="28" customWidth="1"/>
+    <col min="16" max="16" width="21.6666666666667" style="28" customWidth="1"/>
+    <col min="17" max="17" width="67.4144144144144" style="7" customWidth="1"/>
+    <col min="18" max="16384" width="8.61261261261261" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="82" customFormat="1" spans="2:17">
+      <c r="B1" s="87"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="87">
+        <v>7</v>
+      </c>
+      <c r="E1" s="87">
+        <v>6</v>
+      </c>
+      <c r="F1" s="87">
+        <v>5</v>
+      </c>
+      <c r="G1" s="87">
+        <v>4</v>
+      </c>
+      <c r="H1" s="87">
+        <v>3</v>
+      </c>
+      <c r="I1" s="87">
+        <v>2</v>
+      </c>
+      <c r="J1" s="87">
+        <v>1</v>
+      </c>
+      <c r="K1" s="87">
+        <v>0</v>
+      </c>
+      <c r="L1" s="82" t="s">
+        <v>28</v>
+      </c>
+      <c r="M1" s="82" t="s">
+        <v>29</v>
+      </c>
+      <c r="N1" s="82" t="s">
+        <v>1</v>
+      </c>
+      <c r="O1" s="87" t="s">
+        <v>140</v>
+      </c>
+      <c r="P1" s="87" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q1" s="82" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="2" s="83" customFormat="1" spans="2:16">
+      <c r="B2" s="89"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="89"/>
+      <c r="J2" s="89"/>
+      <c r="K2" s="89"/>
+      <c r="O2" s="89"/>
+      <c r="P2" s="89"/>
+    </row>
+    <row r="3" s="61" customFormat="1" spans="1:17">
+      <c r="A3" s="91"/>
+      <c r="B3" s="92"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="93"/>
+      <c r="E3" s="94"/>
+      <c r="F3" s="94"/>
+      <c r="G3" s="95"/>
+      <c r="H3" s="93"/>
+      <c r="I3" s="94"/>
+      <c r="J3" s="94"/>
+      <c r="K3" s="52" t="s">
+        <v>43</v>
+      </c>
+      <c r="L3" s="120"/>
+      <c r="M3" s="120" t="s">
+        <v>143</v>
+      </c>
+      <c r="N3" s="121" t="s">
+        <v>144</v>
+      </c>
+      <c r="O3" s="51" t="s">
+        <v>145</v>
+      </c>
+      <c r="P3" s="52" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q3" s="126"/>
+    </row>
+    <row r="4" s="61" customFormat="1" spans="1:17">
+      <c r="A4" s="96"/>
+      <c r="B4" s="97" t="str">
+        <f>DEC2HEX(C4,2)</f>
+        <v>00</v>
+      </c>
+      <c r="C4" s="98">
+        <f>IF(D4=1,128,0)+IF(E4=1,64,0)+IF(F4=1,32,0)+IF(G4=1,16,0)+IF(H4=1,8,0)+IF(I4=1,4,0)+IF(J4=1,2,0)+IF(K4=1,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D4" s="98"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="99"/>
+      <c r="H4" s="98">
+        <v>0</v>
+      </c>
+      <c r="I4" s="88">
+        <v>0</v>
+      </c>
+      <c r="J4" s="28">
+        <v>0</v>
+      </c>
+      <c r="K4" s="29"/>
+      <c r="M4" s="64" t="s">
+        <v>147</v>
+      </c>
+      <c r="N4" s="122"/>
+      <c r="O4" s="28"/>
+      <c r="P4" s="29"/>
+      <c r="Q4" s="127"/>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="100"/>
+      <c r="B5" s="97" t="str">
+        <f t="shared" ref="B5:B11" si="0">DEC2HEX(C5,2)</f>
+        <v>02</v>
+      </c>
+      <c r="C5" s="98">
+        <f t="shared" ref="C5:C11" si="1">IF(D5=1,128,0)+IF(E5=1,64,0)+IF(F5=1,32,0)+IF(G5=1,16,0)+IF(H5=1,8,0)+IF(I5=1,4,0)+IF(J5=1,2,0)+IF(K5=1,1,0)</f>
+        <v>2</v>
+      </c>
+      <c r="D5" s="27"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="27">
+        <v>0</v>
+      </c>
+      <c r="I5" s="28">
+        <v>0</v>
+      </c>
+      <c r="J5" s="28">
+        <v>1</v>
+      </c>
+      <c r="K5" s="29"/>
+      <c r="M5" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="N5" s="111"/>
+      <c r="P5" s="29"/>
+      <c r="Q5" s="62"/>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" s="100"/>
+      <c r="B6" s="97" t="str">
+        <f t="shared" si="0"/>
+        <v>04</v>
+      </c>
+      <c r="C6" s="98">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="D6" s="27"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="27">
+        <v>0</v>
+      </c>
+      <c r="I6" s="28">
+        <v>1</v>
+      </c>
+      <c r="J6" s="28">
+        <v>0</v>
+      </c>
+      <c r="K6" s="29"/>
+      <c r="M6" s="64" t="s">
+        <v>170</v>
+      </c>
+      <c r="N6" s="111"/>
+      <c r="P6" s="29"/>
+      <c r="Q6" s="62"/>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" s="100"/>
+      <c r="B7" s="97" t="str">
+        <f t="shared" si="0"/>
+        <v>06</v>
+      </c>
+      <c r="C7" s="98">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="D7" s="27"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="27">
+        <v>0</v>
+      </c>
+      <c r="I7" s="28">
+        <v>1</v>
+      </c>
+      <c r="J7" s="28">
+        <v>1</v>
+      </c>
+      <c r="K7" s="29"/>
+      <c r="M7" s="64" t="s">
+        <v>171</v>
+      </c>
+      <c r="N7" s="111"/>
+      <c r="P7" s="29"/>
+      <c r="Q7" s="62"/>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" s="100"/>
+      <c r="B8" s="97" t="str">
+        <f t="shared" si="0"/>
+        <v>08</v>
+      </c>
+      <c r="C8" s="98">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="D8" s="27"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="27">
+        <v>1</v>
+      </c>
+      <c r="I8" s="28">
+        <v>0</v>
+      </c>
+      <c r="J8" s="28">
+        <v>0</v>
+      </c>
+      <c r="K8" s="29"/>
+      <c r="M8" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="N8" s="111"/>
+      <c r="P8" s="29"/>
+      <c r="Q8" s="62"/>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" s="100"/>
+      <c r="B9" s="97" t="str">
+        <f t="shared" si="0"/>
+        <v>0A</v>
+      </c>
+      <c r="C9" s="98">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="D9" s="27"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="27">
+        <v>1</v>
+      </c>
+      <c r="I9" s="28">
+        <v>0</v>
+      </c>
+      <c r="J9" s="28">
+        <v>1</v>
+      </c>
+      <c r="K9" s="29"/>
+      <c r="M9" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="N9" s="111"/>
+      <c r="P9" s="29"/>
+      <c r="Q9" s="62"/>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" s="100"/>
+      <c r="B10" s="97" t="str">
+        <f t="shared" si="0"/>
+        <v>0C</v>
+      </c>
+      <c r="C10" s="98">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="D10" s="27"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="27">
+        <v>1</v>
+      </c>
+      <c r="I10" s="28">
+        <v>1</v>
+      </c>
+      <c r="J10" s="28">
+        <v>0</v>
+      </c>
+      <c r="K10" s="29"/>
+      <c r="M10" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="N10" s="111"/>
+      <c r="P10" s="29"/>
+      <c r="Q10" s="62"/>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11" s="100"/>
+      <c r="B11" s="97" t="str">
+        <f t="shared" si="0"/>
+        <v>0E</v>
+      </c>
+      <c r="C11" s="98">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="D11" s="27"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="27">
+        <v>1</v>
+      </c>
+      <c r="I11" s="28">
+        <v>1</v>
+      </c>
+      <c r="J11" s="28">
+        <v>1</v>
+      </c>
+      <c r="K11" s="29"/>
+      <c r="M11" s="64" t="s">
+        <v>169</v>
+      </c>
+      <c r="N11" s="111"/>
+      <c r="P11" s="29"/>
+      <c r="Q11" s="62"/>
+    </row>
+    <row r="12" s="61" customFormat="1" spans="1:17">
+      <c r="A12" s="101"/>
+      <c r="B12" s="97"/>
+      <c r="C12" s="98"/>
+      <c r="D12" s="98"/>
+      <c r="E12" s="88"/>
+      <c r="F12" s="88"/>
+      <c r="G12" s="99" t="s">
+        <v>43</v>
+      </c>
+      <c r="H12" s="98"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="29"/>
+      <c r="M12" s="64" t="s">
+        <v>149</v>
+      </c>
+      <c r="N12" s="122" t="s">
+        <v>150</v>
+      </c>
+      <c r="O12" s="28" t="s">
+        <v>145</v>
+      </c>
+      <c r="P12" s="29" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q12" s="127"/>
+    </row>
+    <row r="13" s="84" customFormat="1" outlineLevel="1" spans="1:17">
+      <c r="A13" s="102" t="s">
+        <v>172</v>
+      </c>
+      <c r="B13" s="103"/>
+      <c r="C13" s="104"/>
+      <c r="D13" s="104"/>
+      <c r="E13" s="105"/>
+      <c r="F13" s="90"/>
+      <c r="G13" s="106"/>
+      <c r="H13" s="104"/>
+      <c r="I13" s="90"/>
+      <c r="J13" s="105"/>
+      <c r="K13" s="114"/>
+      <c r="L13" s="84" t="s">
+        <v>168</v>
+      </c>
+      <c r="N13" s="123"/>
+      <c r="O13" s="105"/>
+      <c r="P13" s="114"/>
+      <c r="Q13" s="128"/>
+    </row>
+    <row r="14" s="64" customFormat="1" outlineLevel="1" spans="1:17">
+      <c r="A14" s="107"/>
+      <c r="B14" s="108"/>
+      <c r="C14" s="109"/>
+      <c r="D14" s="109"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="63"/>
+      <c r="G14" s="110"/>
+      <c r="H14" s="109"/>
+      <c r="I14" s="63"/>
+      <c r="J14" s="33"/>
+      <c r="K14" s="34"/>
+      <c r="N14" s="124" t="s">
+        <v>173</v>
+      </c>
+      <c r="O14" s="33">
+        <v>1</v>
+      </c>
+      <c r="P14" s="34" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q14" s="129" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="A15" s="111"/>
+      <c r="B15" s="112"/>
+      <c r="C15" s="113"/>
+      <c r="D15" s="27"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="27"/>
+      <c r="K15" s="29"/>
+      <c r="N15" s="111" t="s">
+        <v>1</v>
+      </c>
+      <c r="O15" s="28" t="s">
+        <v>145</v>
+      </c>
+      <c r="P15" s="29" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q15" s="62"/>
+    </row>
+    <row r="16" s="84" customFormat="1" outlineLevel="1" spans="1:17">
+      <c r="A16" s="102" t="s">
+        <v>178</v>
+      </c>
+      <c r="B16" s="103"/>
+      <c r="C16" s="104"/>
+      <c r="D16" s="104"/>
+      <c r="E16" s="105"/>
+      <c r="F16" s="90"/>
+      <c r="G16" s="106"/>
+      <c r="H16" s="104"/>
+      <c r="I16" s="90"/>
+      <c r="J16" s="105"/>
+      <c r="K16" s="114"/>
+      <c r="L16" s="84" t="s">
+        <v>170</v>
+      </c>
+      <c r="N16" s="123"/>
+      <c r="O16" s="105"/>
+      <c r="P16" s="114"/>
+      <c r="Q16" s="128"/>
+    </row>
+    <row r="17" s="61" customFormat="1" outlineLevel="1" spans="1:17">
+      <c r="A17" s="101"/>
+      <c r="B17" s="97"/>
+      <c r="C17" s="98"/>
+      <c r="D17" s="98"/>
+      <c r="E17" s="88"/>
+      <c r="F17" s="88"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="98"/>
+      <c r="I17" s="88"/>
+      <c r="J17" s="28"/>
+      <c r="K17" s="29"/>
+      <c r="N17" s="122" t="s">
+        <v>179</v>
+      </c>
+      <c r="O17" s="28">
+        <v>4</v>
+      </c>
+      <c r="P17" s="29" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q17" s="130" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="18" s="61" customFormat="1" outlineLevel="1" spans="1:17">
+      <c r="A18" s="101"/>
+      <c r="B18" s="97"/>
+      <c r="C18" s="98"/>
+      <c r="D18" s="98"/>
+      <c r="E18" s="88"/>
+      <c r="F18" s="88"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="98"/>
+      <c r="I18" s="88"/>
+      <c r="J18" s="28"/>
+      <c r="K18" s="29"/>
+      <c r="N18" s="122" t="s">
+        <v>181</v>
+      </c>
+      <c r="O18" s="28" t="s">
+        <v>145</v>
+      </c>
+      <c r="P18" s="29" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q18" s="130" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="19" s="84" customFormat="1" outlineLevel="1" spans="1:17">
+      <c r="A19" s="102" t="s">
+        <v>184</v>
+      </c>
+      <c r="B19" s="103"/>
+      <c r="C19" s="104"/>
+      <c r="D19" s="104"/>
+      <c r="E19" s="105"/>
+      <c r="F19" s="90"/>
+      <c r="G19" s="106"/>
+      <c r="H19" s="104"/>
+      <c r="I19" s="90"/>
+      <c r="J19" s="105"/>
+      <c r="K19" s="114"/>
+      <c r="L19" s="84" t="s">
+        <v>171</v>
+      </c>
+      <c r="N19" s="123"/>
+      <c r="O19" s="105"/>
+      <c r="P19" s="114"/>
+      <c r="Q19" s="128"/>
+    </row>
+    <row r="20" s="61" customFormat="1" outlineLevel="1" spans="1:17">
+      <c r="A20" s="101"/>
+      <c r="B20" s="97"/>
+      <c r="C20" s="98"/>
+      <c r="D20" s="98"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="88"/>
+      <c r="G20" s="99"/>
+      <c r="H20" s="98"/>
+      <c r="I20" s="88"/>
+      <c r="J20" s="28"/>
+      <c r="K20" s="29"/>
+      <c r="N20" s="122" t="s">
+        <v>185</v>
+      </c>
+      <c r="O20" s="28">
+        <v>4</v>
+      </c>
+      <c r="P20" s="29" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q20" s="130" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="21" s="61" customFormat="1" outlineLevel="1" spans="1:17">
+      <c r="A21" s="101"/>
+      <c r="B21" s="97"/>
+      <c r="C21" s="98"/>
+      <c r="D21" s="98"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="88" t="s">
+        <v>43</v>
+      </c>
+      <c r="G21" s="99"/>
+      <c r="H21" s="98"/>
+      <c r="I21" s="88"/>
+      <c r="J21" s="28"/>
+      <c r="K21" s="29"/>
+      <c r="M21" s="61" t="s">
+        <v>187</v>
+      </c>
+      <c r="N21" s="122" t="s">
+        <v>188</v>
+      </c>
+      <c r="O21" s="28" t="s">
+        <v>189</v>
+      </c>
+      <c r="P21" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q21" s="130" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="22" s="61" customFormat="1" outlineLevel="1" spans="1:17">
+      <c r="A22" s="101"/>
+      <c r="B22" s="97"/>
+      <c r="C22" s="98"/>
+      <c r="D22" s="98"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="88"/>
+      <c r="G22" s="99"/>
+      <c r="H22" s="98"/>
+      <c r="I22" s="88"/>
+      <c r="J22" s="28"/>
+      <c r="K22" s="29"/>
+      <c r="L22" s="61" t="s">
+        <v>187</v>
+      </c>
+      <c r="N22" s="122" t="s">
+        <v>181</v>
+      </c>
+      <c r="O22" s="28" t="s">
+        <v>145</v>
+      </c>
+      <c r="P22" s="29" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q22" s="130" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="23" s="61" customFormat="1" outlineLevel="1" spans="1:17">
+      <c r="A23" s="101"/>
+      <c r="B23" s="97"/>
+      <c r="C23" s="98"/>
+      <c r="D23" s="98"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="88"/>
+      <c r="G23" s="99"/>
+      <c r="H23" s="98"/>
+      <c r="I23" s="88"/>
+      <c r="J23" s="28"/>
+      <c r="K23" s="29"/>
+      <c r="L23" s="61" t="s">
+        <v>193</v>
+      </c>
+      <c r="N23" s="122" t="s">
+        <v>181</v>
+      </c>
+      <c r="O23" s="28" t="s">
+        <v>145</v>
+      </c>
+      <c r="P23" s="29" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q23" s="130" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="24" s="84" customFormat="1" outlineLevel="1" spans="1:17">
+      <c r="A24" s="102" t="s">
+        <v>71</v>
+      </c>
+      <c r="B24" s="103"/>
+      <c r="C24" s="104"/>
+      <c r="D24" s="104"/>
+      <c r="E24" s="90"/>
+      <c r="F24" s="90"/>
+      <c r="G24" s="114"/>
+      <c r="H24" s="104"/>
+      <c r="I24" s="90"/>
+      <c r="J24" s="105"/>
+      <c r="K24" s="114"/>
+      <c r="L24" s="84" t="s">
+        <v>158</v>
+      </c>
+      <c r="N24" s="123"/>
+      <c r="O24" s="105"/>
+      <c r="P24" s="114"/>
+      <c r="Q24" s="128"/>
+    </row>
+    <row r="25" s="61" customFormat="1" outlineLevel="1" spans="1:17">
+      <c r="A25" s="101"/>
+      <c r="B25" s="97"/>
+      <c r="C25" s="98"/>
+      <c r="D25" s="98"/>
+      <c r="E25" s="88"/>
+      <c r="F25" s="88"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="98"/>
+      <c r="I25" s="88"/>
+      <c r="J25" s="28"/>
+      <c r="K25" s="29"/>
+      <c r="M25" s="64"/>
+      <c r="N25" s="122" t="s">
+        <v>66</v>
+      </c>
+      <c r="O25" s="28">
+        <v>4</v>
+      </c>
+      <c r="P25" s="29" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q25" s="127"/>
+    </row>
+    <row r="26" s="61" customFormat="1" outlineLevel="1" spans="1:17">
+      <c r="A26" s="101"/>
+      <c r="B26" s="97"/>
+      <c r="C26" s="98"/>
+      <c r="D26" s="98"/>
+      <c r="E26" s="88"/>
+      <c r="F26" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="G26" s="99"/>
+      <c r="H26" s="98"/>
+      <c r="I26" s="88"/>
+      <c r="J26" s="28"/>
+      <c r="K26" s="29"/>
+      <c r="M26" s="61" t="s">
+        <v>159</v>
+      </c>
+      <c r="N26" s="122" t="s">
+        <v>160</v>
+      </c>
+      <c r="O26" s="28">
+        <v>4</v>
+      </c>
+      <c r="P26" s="29" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q26" s="127" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="27" s="61" customFormat="1" outlineLevel="1" spans="1:17">
+      <c r="A27" s="101"/>
+      <c r="B27" s="97"/>
+      <c r="C27" s="98"/>
+      <c r="D27" s="98"/>
+      <c r="E27" s="88"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="99"/>
+      <c r="H27" s="98"/>
+      <c r="I27" s="88"/>
+      <c r="J27" s="28"/>
+      <c r="K27" s="29"/>
+      <c r="L27" s="61" t="s">
+        <v>159</v>
+      </c>
+      <c r="N27" s="122" t="s">
+        <v>163</v>
+      </c>
+      <c r="O27" s="28" t="s">
+        <v>145</v>
+      </c>
+      <c r="P27" s="29" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q27" s="127"/>
+    </row>
+    <row r="28" s="61" customFormat="1" outlineLevel="1" spans="1:17">
+      <c r="A28" s="101"/>
+      <c r="B28" s="97"/>
+      <c r="C28" s="98"/>
+      <c r="D28" s="98"/>
+      <c r="E28" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="F28" s="88"/>
+      <c r="G28" s="99"/>
+      <c r="H28" s="98"/>
+      <c r="I28" s="88"/>
+      <c r="J28" s="28"/>
+      <c r="K28" s="29"/>
+      <c r="M28" s="64" t="s">
+        <v>165</v>
+      </c>
+      <c r="N28" s="122" t="s">
+        <v>108</v>
+      </c>
+      <c r="O28" s="28" t="s">
+        <v>145</v>
+      </c>
+      <c r="P28" s="29" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q28" s="127"/>
+    </row>
+    <row r="29" s="84" customFormat="1" outlineLevel="1" spans="1:17">
+      <c r="A29" s="102" t="s">
+        <v>114</v>
+      </c>
+      <c r="B29" s="103"/>
+      <c r="C29" s="104"/>
+      <c r="D29" s="104"/>
+      <c r="E29" s="90"/>
+      <c r="F29" s="90"/>
+      <c r="G29" s="114"/>
+      <c r="H29" s="104"/>
+      <c r="I29" s="90"/>
+      <c r="J29" s="105"/>
+      <c r="K29" s="114"/>
+      <c r="L29" s="84" t="s">
+        <v>157</v>
+      </c>
+      <c r="N29" s="123"/>
+      <c r="O29" s="105"/>
+      <c r="P29" s="114"/>
+      <c r="Q29" s="128"/>
+    </row>
+    <row r="30" s="61" customFormat="1" outlineLevel="1" spans="1:17">
+      <c r="A30" s="101"/>
+      <c r="B30" s="97"/>
+      <c r="C30" s="98"/>
+      <c r="D30" s="98"/>
+      <c r="E30" s="88"/>
+      <c r="F30" s="88"/>
+      <c r="G30" s="29"/>
+      <c r="H30" s="98"/>
+      <c r="I30" s="88"/>
+      <c r="J30" s="28"/>
+      <c r="K30" s="29"/>
+      <c r="M30" s="64"/>
+      <c r="N30" s="122"/>
+      <c r="O30" s="28"/>
+      <c r="P30" s="29"/>
+      <c r="Q30" s="127"/>
+    </row>
+    <row r="31" s="84" customFormat="1" outlineLevel="1" spans="1:17">
+      <c r="A31" s="102" t="s">
+        <v>210</v>
+      </c>
+      <c r="B31" s="103"/>
+      <c r="C31" s="104"/>
+      <c r="D31" s="104"/>
+      <c r="E31" s="105"/>
+      <c r="F31" s="90"/>
+      <c r="G31" s="106"/>
+      <c r="H31" s="104"/>
+      <c r="I31" s="90"/>
+      <c r="J31" s="105"/>
+      <c r="K31" s="114"/>
+      <c r="L31" s="84" t="s">
+        <v>54</v>
+      </c>
+      <c r="N31" s="123"/>
+      <c r="O31" s="105"/>
+      <c r="P31" s="114"/>
+      <c r="Q31" s="128"/>
+    </row>
+    <row r="32" s="64" customFormat="1" outlineLevel="1" spans="1:17">
+      <c r="A32" s="107"/>
+      <c r="B32" s="108"/>
+      <c r="C32" s="109"/>
+      <c r="D32" s="109"/>
+      <c r="E32" s="33"/>
+      <c r="F32" s="63"/>
+      <c r="G32" s="110"/>
+      <c r="H32" s="109"/>
+      <c r="I32" s="63"/>
+      <c r="J32" s="33"/>
+      <c r="K32" s="34"/>
+      <c r="N32" s="124"/>
+      <c r="O32" s="33"/>
+      <c r="P32" s="34"/>
+      <c r="Q32" s="129"/>
+    </row>
+    <row r="33" s="64" customFormat="1" outlineLevel="1" spans="1:17">
+      <c r="A33" s="107"/>
+      <c r="B33" s="108"/>
+      <c r="C33" s="109"/>
+      <c r="D33" s="109"/>
+      <c r="E33" s="33"/>
+      <c r="F33" s="63"/>
+      <c r="G33" s="110"/>
+      <c r="H33" s="109"/>
+      <c r="I33" s="63"/>
+      <c r="J33" s="33"/>
+      <c r="K33" s="34"/>
+      <c r="N33" s="124"/>
+      <c r="O33" s="33"/>
+      <c r="P33" s="34"/>
+      <c r="Q33" s="129"/>
+    </row>
+    <row r="34" s="84" customFormat="1" outlineLevel="1" spans="1:17">
+      <c r="A34" s="102" t="s">
+        <v>175</v>
+      </c>
+      <c r="B34" s="103"/>
+      <c r="C34" s="104"/>
+      <c r="D34" s="104"/>
+      <c r="E34" s="105"/>
+      <c r="F34" s="90"/>
+      <c r="G34" s="106"/>
+      <c r="H34" s="104"/>
+      <c r="I34" s="90"/>
+      <c r="J34" s="105"/>
+      <c r="K34" s="114"/>
+      <c r="L34" s="84" t="s">
+        <v>169</v>
+      </c>
+      <c r="N34" s="123"/>
+      <c r="O34" s="105"/>
+      <c r="P34" s="114"/>
+      <c r="Q34" s="128"/>
+    </row>
+    <row r="35" s="64" customFormat="1" outlineLevel="1" spans="1:17">
+      <c r="A35" s="107"/>
+      <c r="B35" s="108"/>
+      <c r="C35" s="109"/>
+      <c r="D35" s="109"/>
+      <c r="E35" s="33"/>
+      <c r="F35" s="63" t="s">
+        <v>43</v>
+      </c>
+      <c r="G35" s="110"/>
+      <c r="H35" s="109"/>
+      <c r="I35" s="63"/>
+      <c r="J35" s="33"/>
+      <c r="K35" s="34"/>
+      <c r="N35" s="124" t="s">
+        <v>176</v>
+      </c>
+      <c r="O35" s="33" t="s">
+        <v>145</v>
+      </c>
+      <c r="P35" s="34" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q35" s="129" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="36" s="64" customFormat="1" outlineLevel="1" spans="1:17">
+      <c r="A36" s="115"/>
+      <c r="B36" s="116"/>
+      <c r="C36" s="117"/>
+      <c r="D36" s="117"/>
+      <c r="E36" s="42"/>
+      <c r="F36" s="118"/>
+      <c r="G36" s="119"/>
+      <c r="H36" s="117"/>
+      <c r="I36" s="118"/>
+      <c r="J36" s="42"/>
+      <c r="K36" s="43"/>
+      <c r="L36" s="71"/>
+      <c r="M36" s="71"/>
+      <c r="N36" s="125" t="s">
+        <v>173</v>
+      </c>
+      <c r="O36" s="42" t="s">
+        <v>145</v>
+      </c>
+      <c r="P36" s="43" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q36" s="131" t="s">
+        <v>174</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:P36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="131" zoomScaleNormal="131" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.55"/>
   <cols>
     <col min="1" max="1" width="15.4414414414414" style="12" customWidth="1"/>
-    <col min="2" max="9" width="3" style="3" customWidth="1"/>
-    <col min="10" max="10" width="22.2342342342342" customWidth="1"/>
-    <col min="11" max="11" width="22.2342342342342" style="3" customWidth="1"/>
-    <col min="12" max="12" width="15.8558558558559" customWidth="1"/>
-    <col min="13" max="13" width="17.3693693693694" style="4" customWidth="1"/>
-    <col min="14" max="14" width="102.711711711712" customWidth="1"/>
+    <col min="2" max="2" width="3.46846846846847" style="13" customWidth="1"/>
+    <col min="3" max="3" width="3.46846846846847" style="3" customWidth="1"/>
+    <col min="4" max="11" width="3" style="3" customWidth="1"/>
+    <col min="12" max="12" width="22.2342342342342" customWidth="1"/>
+    <col min="13" max="13" width="22.2342342342342" style="3" customWidth="1"/>
+    <col min="14" max="14" width="15.8558558558559" customWidth="1"/>
+    <col min="15" max="15" width="17.3693693693694" style="4" customWidth="1"/>
+    <col min="16" max="16" width="102.711711711712" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="5" customFormat="1" spans="2:14">
-      <c r="B1" s="13">
+    <row r="1" s="5" customFormat="1" spans="2:16">
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="15">
         <v>7</v>
       </c>
-      <c r="C1" s="14">
+      <c r="E1" s="16">
         <v>6</v>
       </c>
-      <c r="D1" s="14">
+      <c r="F1" s="16">
         <v>5</v>
       </c>
-      <c r="E1" s="15">
+      <c r="G1" s="17">
         <v>4</v>
       </c>
-      <c r="F1" s="13">
+      <c r="H1" s="15">
         <v>3</v>
       </c>
-      <c r="G1" s="14">
+      <c r="I1" s="16">
         <v>2</v>
       </c>
-      <c r="H1" s="14">
-        <v>1</v>
-      </c>
-      <c r="I1" s="15">
-        <v>0</v>
-      </c>
-      <c r="J1" s="44" t="s">
+      <c r="J1" s="16">
+        <v>1</v>
+      </c>
+      <c r="K1" s="17">
+        <v>0</v>
+      </c>
+      <c r="L1" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="M1" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="L1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="M1" s="45" t="s">
+      <c r="N1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="O1" s="55" t="s">
         <v>140</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="P1" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" s="6" customFormat="1" spans="1:14">
-      <c r="A2" s="16"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="47"/>
-      <c r="L2" s="47"/>
-      <c r="M2" s="48"/>
-      <c r="N2" s="49"/>
-    </row>
-    <row r="3" s="7" customFormat="1" spans="1:14">
-      <c r="A3" s="21"/>
-      <c r="B3" s="22"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="24" t="s">
-        <v>208</v>
-      </c>
-      <c r="J3" s="50"/>
-      <c r="K3" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="M3" s="50"/>
-      <c r="N3" s="51"/>
-    </row>
-    <row r="4" s="8" customFormat="1" spans="1:14">
+    <row r="2" s="6" customFormat="1" spans="1:16">
+      <c r="A2" s="18"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="58"/>
+      <c r="N2" s="58"/>
+      <c r="O2" s="59"/>
+      <c r="P2" s="60"/>
+    </row>
+    <row r="3" s="7" customFormat="1" spans="1:16">
+      <c r="A3" s="24"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="29" t="s">
+        <v>211</v>
+      </c>
+      <c r="L3" s="61"/>
+      <c r="M3" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="O3" s="61"/>
+      <c r="P3" s="62"/>
+    </row>
+    <row r="4" s="8" customFormat="1" spans="1:16">
       <c r="A4" s="5"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="26" t="s">
-        <v>210</v>
-      </c>
-      <c r="I4" s="27"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="M4" s="53"/>
-      <c r="N4" s="54"/>
-    </row>
-    <row r="5" s="6" customFormat="1" spans="1:14">
-      <c r="A5" s="16" t="s">
+      <c r="B4" s="30"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="63"/>
+      <c r="J4" s="33" t="s">
+        <v>213</v>
+      </c>
+      <c r="K4" s="34"/>
+      <c r="L4" s="64"/>
+      <c r="M4" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="O4" s="65"/>
+      <c r="P4" s="66"/>
+    </row>
+    <row r="5" s="6" customFormat="1" spans="1:16">
+      <c r="A5" s="18" t="s">
+        <v>215</v>
+      </c>
+      <c r="B5" s="19"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="56"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="57" t="s">
+        <v>216</v>
+      </c>
+      <c r="M5" s="58"/>
+      <c r="N5" s="58"/>
+      <c r="O5" s="59"/>
+      <c r="P5" s="60"/>
+    </row>
+    <row r="6" s="7" customFormat="1" outlineLevel="1" spans="1:16">
+      <c r="A6" s="24"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="28" t="s">
+        <v>217</v>
+      </c>
+      <c r="J6" s="28"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="61"/>
+      <c r="M6" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="O6" s="61"/>
+      <c r="P6" s="62"/>
+    </row>
+    <row r="7" s="7" customFormat="1" outlineLevel="1" spans="1:16">
+      <c r="A7" s="24"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="27" t="s">
+        <v>219</v>
+      </c>
+      <c r="I7" s="28"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="29"/>
+      <c r="L7" s="61"/>
+      <c r="M7" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="O7" s="61"/>
+      <c r="P7" s="62"/>
+    </row>
+    <row r="8" s="8" customFormat="1" outlineLevel="1" spans="1:16">
+      <c r="A8" s="5"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33" t="s">
+        <v>221</v>
+      </c>
+      <c r="G8" s="34" t="s">
+        <v>221</v>
+      </c>
+      <c r="H8" s="32"/>
+      <c r="I8" s="63"/>
+      <c r="J8" s="33"/>
+      <c r="K8" s="34"/>
+      <c r="L8" s="64"/>
+      <c r="N8" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="O8" s="65"/>
+      <c r="P8" s="66"/>
+    </row>
+    <row r="9" s="9" customFormat="1" outlineLevel="1" spans="1:16">
+      <c r="A9" s="35"/>
+      <c r="B9" s="36"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="63"/>
+      <c r="J9" s="33"/>
+      <c r="K9" s="34"/>
+      <c r="L9" s="64" t="s">
+        <v>223</v>
+      </c>
+      <c r="M9" s="8"/>
+      <c r="N9" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="O9" s="61" t="s">
+        <v>224</v>
+      </c>
+      <c r="P9" s="67" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="10" s="9" customFormat="1" outlineLevel="1" spans="1:16">
+      <c r="A10" s="35"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="63"/>
+      <c r="J10" s="33"/>
+      <c r="K10" s="34"/>
+      <c r="L10" s="64" t="s">
+        <v>226</v>
+      </c>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="O10" s="61" t="s">
+        <v>224</v>
+      </c>
+      <c r="P10" s="68" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="11" outlineLevel="1" spans="4:16">
+      <c r="D11" s="27"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="29"/>
+      <c r="L11" s="61" t="s">
+        <v>226</v>
+      </c>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="O11" s="61" t="s">
+        <v>227</v>
+      </c>
+      <c r="P11" s="67"/>
+    </row>
+    <row r="12" s="10" customFormat="1" spans="1:16">
+      <c r="A12" s="38" t="s">
+        <v>229</v>
+      </c>
+      <c r="B12" s="39"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="57" t="s">
+        <v>230</v>
+      </c>
+      <c r="M12" s="58"/>
+      <c r="N12" s="58"/>
+      <c r="O12" s="57"/>
+      <c r="P12" s="60"/>
+    </row>
+    <row r="13" outlineLevel="1" spans="4:16">
+      <c r="D13" s="27"/>
+      <c r="E13" s="28"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="28" t="s">
+        <v>231</v>
+      </c>
+      <c r="K13" s="29"/>
+      <c r="L13" s="61"/>
+      <c r="M13" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="N13" s="7"/>
+      <c r="O13" s="61"/>
+      <c r="P13" s="62"/>
+    </row>
+    <row r="14" s="9" customFormat="1" outlineLevel="1" spans="1:16">
+      <c r="A14" s="35"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33">
+        <v>1</v>
+      </c>
+      <c r="G14" s="34">
+        <v>1</v>
+      </c>
+      <c r="H14" s="32"/>
+      <c r="I14" s="63"/>
+      <c r="J14" s="33"/>
+      <c r="K14" s="34"/>
+      <c r="L14" s="69"/>
+      <c r="M14" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="N14" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="O14" s="70"/>
+      <c r="P14" s="66"/>
+    </row>
+    <row r="15" s="8" customFormat="1" outlineLevel="1" spans="1:16">
+      <c r="A15" s="5"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33" t="s">
+        <v>221</v>
+      </c>
+      <c r="G15" s="34" t="s">
+        <v>221</v>
+      </c>
+      <c r="H15" s="32"/>
+      <c r="I15" s="63"/>
+      <c r="J15" s="33"/>
+      <c r="K15" s="34"/>
+      <c r="L15" s="64" t="s">
+        <v>235</v>
+      </c>
+      <c r="M15" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="N15" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="O15" s="65"/>
+      <c r="P15" s="66" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="16" outlineLevel="1" spans="4:16">
+      <c r="D16" s="27"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="28"/>
+      <c r="J16" s="28"/>
+      <c r="K16" s="29"/>
+      <c r="L16" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="N16" t="s">
+        <v>1</v>
+      </c>
+      <c r="O16" s="70" t="s">
+        <v>239</v>
+      </c>
+      <c r="P16" s="66" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="17" outlineLevel="1" spans="4:16">
+      <c r="D17" s="27"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="28"/>
+      <c r="K17" s="29"/>
+      <c r="L17" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="N17" t="s">
+        <v>241</v>
+      </c>
+      <c r="O17" s="70" t="s">
+        <v>239</v>
+      </c>
+      <c r="P17" s="67" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="18" outlineLevel="1" spans="4:16">
+      <c r="D18" s="27"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="28"/>
+      <c r="K18" s="29"/>
+      <c r="L18" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="M18" s="7"/>
+      <c r="N18" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="O18" s="64" t="s">
+        <v>241</v>
+      </c>
+      <c r="P18" s="62"/>
+    </row>
+    <row r="19" s="10" customFormat="1" spans="1:16">
+      <c r="A19" s="38" t="s">
+        <v>243</v>
+      </c>
+      <c r="B19" s="39"/>
+      <c r="C19" s="40"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="23"/>
+      <c r="L19" s="57" t="s">
         <v>212</v>
       </c>
-      <c r="B5" s="17"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="46" t="s">
-        <v>213</v>
-      </c>
-      <c r="K5" s="47"/>
-      <c r="L5" s="47"/>
-      <c r="M5" s="48"/>
-      <c r="N5" s="49"/>
-    </row>
-    <row r="6" s="7" customFormat="1" outlineLevel="1" spans="1:14">
-      <c r="A6" s="21"/>
-      <c r="B6" s="22"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="23" t="s">
-        <v>214</v>
-      </c>
-      <c r="H6" s="23"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="50"/>
-      <c r="K6" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="M6" s="50"/>
-      <c r="N6" s="51"/>
-    </row>
-    <row r="7" s="7" customFormat="1" outlineLevel="1" spans="1:14">
-      <c r="A7" s="21"/>
-      <c r="B7" s="22"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="22" t="s">
-        <v>216</v>
-      </c>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="50"/>
-      <c r="K7" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="M7" s="50"/>
-      <c r="N7" s="51"/>
-    </row>
-    <row r="8" s="8" customFormat="1" outlineLevel="1" spans="1:14">
-      <c r="A8" s="5"/>
-      <c r="B8" s="25"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26" t="s">
-        <v>218</v>
-      </c>
-      <c r="E8" s="27" t="s">
-        <v>218</v>
-      </c>
-      <c r="F8" s="25"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="27"/>
-      <c r="J8" s="52"/>
-      <c r="L8" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="M8" s="53"/>
-      <c r="N8" s="54"/>
-    </row>
-    <row r="9" s="9" customFormat="1" outlineLevel="1" spans="1:14">
-      <c r="A9" s="29"/>
-      <c r="B9" s="25"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="27"/>
-      <c r="J9" s="52" t="s">
-        <v>220</v>
-      </c>
-      <c r="K9" s="8"/>
-      <c r="L9" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="M9" s="50" t="s">
-        <v>221</v>
-      </c>
-      <c r="N9" s="55" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="10" s="9" customFormat="1" outlineLevel="1" spans="1:14">
-      <c r="A10" s="29"/>
-      <c r="B10" s="25"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="27"/>
-      <c r="J10" s="52" t="s">
-        <v>223</v>
-      </c>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="M10" s="50" t="s">
-        <v>221</v>
-      </c>
-      <c r="N10" s="56" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="11" outlineLevel="1" spans="2:14">
-      <c r="B11" s="22"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="50" t="s">
-        <v>223</v>
-      </c>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="M11" s="50" t="s">
-        <v>224</v>
-      </c>
-      <c r="N11" s="55"/>
-    </row>
-    <row r="12" s="10" customFormat="1" spans="1:14">
-      <c r="A12" s="30" t="s">
-        <v>226</v>
-      </c>
-      <c r="B12" s="17"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="46" t="s">
-        <v>227</v>
-      </c>
-      <c r="K12" s="47"/>
-      <c r="L12" s="47"/>
-      <c r="M12" s="46"/>
-      <c r="N12" s="49"/>
-    </row>
-    <row r="13" outlineLevel="1" spans="2:14">
-      <c r="B13" s="22"/>
-      <c r="C13" s="23"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="23" t="s">
-        <v>228</v>
-      </c>
-      <c r="I13" s="24"/>
-      <c r="J13" s="50"/>
-      <c r="K13" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="L13" s="7"/>
-      <c r="M13" s="50"/>
-      <c r="N13" s="51"/>
-    </row>
-    <row r="14" s="9" customFormat="1" outlineLevel="1" spans="1:14">
-      <c r="A14" s="29"/>
-      <c r="B14" s="25"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="26">
-        <v>1</v>
-      </c>
-      <c r="E14" s="27">
-        <v>1</v>
-      </c>
-      <c r="F14" s="25"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="26"/>
-      <c r="I14" s="27"/>
-      <c r="J14" s="57"/>
-      <c r="K14" s="9" t="s">
-        <v>230</v>
-      </c>
-      <c r="L14" s="9" t="s">
-        <v>231</v>
-      </c>
-      <c r="M14" s="58"/>
-      <c r="N14" s="54"/>
-    </row>
-    <row r="15" s="8" customFormat="1" outlineLevel="1" spans="1:14">
-      <c r="A15" s="5"/>
-      <c r="B15" s="25"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="26" t="s">
-        <v>218</v>
-      </c>
-      <c r="E15" s="27" t="s">
-        <v>218</v>
-      </c>
-      <c r="F15" s="25"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="27"/>
-      <c r="J15" s="52" t="s">
-        <v>232</v>
-      </c>
-      <c r="K15" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="L15" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="M15" s="53"/>
-      <c r="N15" s="54" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="16" outlineLevel="1" spans="2:14">
-      <c r="B16" s="22"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="24"/>
-      <c r="J16" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="L16" t="s">
-        <v>1</v>
-      </c>
-      <c r="M16" s="58" t="s">
-        <v>236</v>
-      </c>
-      <c r="N16" s="54" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="17" outlineLevel="1" spans="2:14">
-      <c r="B17" s="22"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="24"/>
-      <c r="J17" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="L17" t="s">
-        <v>238</v>
-      </c>
-      <c r="M17" s="58" t="s">
-        <v>236</v>
-      </c>
-      <c r="N17" s="55" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="18" outlineLevel="1" spans="2:14">
-      <c r="B18" s="22"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="23"/>
-      <c r="I18" s="24"/>
-      <c r="J18" s="50" t="s">
-        <v>87</v>
-      </c>
-      <c r="K18" s="7"/>
-      <c r="L18" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="M18" s="52" t="s">
-        <v>238</v>
-      </c>
-      <c r="N18" s="51"/>
-    </row>
-    <row r="19" s="10" customFormat="1" spans="1:14">
-      <c r="A19" s="30" t="s">
-        <v>240</v>
-      </c>
-      <c r="B19" s="17"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="46" t="s">
-        <v>209</v>
-      </c>
-      <c r="K19" s="47"/>
-      <c r="L19" s="47"/>
-      <c r="M19" s="46"/>
-      <c r="N19" s="49"/>
-    </row>
-    <row r="20" s="9" customFormat="1" outlineLevel="1" spans="1:14">
-      <c r="A20" s="29"/>
-      <c r="B20" s="25">
-        <v>0</v>
-      </c>
-      <c r="C20" s="26">
-        <v>0</v>
-      </c>
-      <c r="D20" s="26">
-        <v>0</v>
-      </c>
-      <c r="E20" s="27">
-        <v>0</v>
-      </c>
-      <c r="F20" s="25">
-        <v>0</v>
-      </c>
-      <c r="G20" s="26">
-        <v>0</v>
-      </c>
-      <c r="H20" s="26">
-        <v>0</v>
-      </c>
-      <c r="I20" s="27">
-        <v>1</v>
-      </c>
-      <c r="J20" s="52"/>
-      <c r="K20" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="L20" s="8"/>
-      <c r="M20" s="52"/>
-      <c r="N20" s="54" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="21" s="9" customFormat="1" outlineLevel="1" spans="1:14">
-      <c r="A21" s="29"/>
-      <c r="B21" s="25">
-        <v>1</v>
-      </c>
-      <c r="C21" s="26">
-        <v>0</v>
-      </c>
-      <c r="D21" s="26">
-        <v>0</v>
-      </c>
-      <c r="E21" s="27">
-        <v>0</v>
-      </c>
-      <c r="F21" s="25">
-        <v>0</v>
-      </c>
-      <c r="G21" s="26">
-        <v>0</v>
-      </c>
-      <c r="H21" s="26">
-        <v>0</v>
-      </c>
-      <c r="I21" s="27">
-        <v>1</v>
-      </c>
-      <c r="J21" s="52"/>
-      <c r="K21" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="L21" s="8"/>
-      <c r="M21" s="52"/>
-      <c r="N21" s="54" t="s">
+      <c r="M19" s="58"/>
+      <c r="N19" s="58"/>
+      <c r="O19" s="57"/>
+      <c r="P19" s="60"/>
+    </row>
+    <row r="20" s="9" customFormat="1" outlineLevel="1" spans="1:16">
+      <c r="A20" s="35"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="32">
+        <v>0</v>
+      </c>
+      <c r="E20" s="33">
+        <v>0</v>
+      </c>
+      <c r="F20" s="33">
+        <v>0</v>
+      </c>
+      <c r="G20" s="34">
+        <v>0</v>
+      </c>
+      <c r="H20" s="32">
+        <v>0</v>
+      </c>
+      <c r="I20" s="33">
+        <v>0</v>
+      </c>
+      <c r="J20" s="33">
+        <v>0</v>
+      </c>
+      <c r="K20" s="34">
+        <v>1</v>
+      </c>
+      <c r="L20" s="64"/>
+      <c r="M20" s="8" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="22" s="9" customFormat="1" outlineLevel="1" spans="1:14">
-      <c r="A22" s="29"/>
-      <c r="B22" s="31">
-        <v>0</v>
-      </c>
-      <c r="C22" s="32">
-        <v>0</v>
-      </c>
-      <c r="D22" s="32">
-        <v>1</v>
-      </c>
-      <c r="E22" s="33">
-        <v>1</v>
-      </c>
-      <c r="F22" s="31">
-        <v>0</v>
-      </c>
-      <c r="G22" s="32">
-        <v>0</v>
-      </c>
-      <c r="H22" s="32">
-        <v>0</v>
-      </c>
-      <c r="I22" s="33">
-        <v>1</v>
-      </c>
-      <c r="J22" s="59"/>
-      <c r="K22" s="60" t="s">
+      <c r="N20" s="8"/>
+      <c r="O20" s="64"/>
+      <c r="P20" s="66" t="s">
         <v>245</v>
       </c>
-      <c r="L22" s="60" t="s">
-        <v>1</v>
-      </c>
-      <c r="M22" s="59">
+    </row>
+    <row r="21" s="9" customFormat="1" outlineLevel="1" spans="1:16">
+      <c r="A21" s="35"/>
+      <c r="B21" s="36"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="32">
+        <v>1</v>
+      </c>
+      <c r="E21" s="33">
+        <v>0</v>
+      </c>
+      <c r="F21" s="33">
+        <v>0</v>
+      </c>
+      <c r="G21" s="34">
+        <v>0</v>
+      </c>
+      <c r="H21" s="32">
+        <v>0</v>
+      </c>
+      <c r="I21" s="33">
+        <v>0</v>
+      </c>
+      <c r="J21" s="33">
+        <v>0</v>
+      </c>
+      <c r="K21" s="34">
+        <v>1</v>
+      </c>
+      <c r="L21" s="64"/>
+      <c r="M21" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="N21" s="8"/>
+      <c r="O21" s="64"/>
+      <c r="P21" s="66" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="22" s="9" customFormat="1" outlineLevel="1" spans="1:16">
+      <c r="A22" s="35"/>
+      <c r="B22" s="36"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="41">
+        <v>0</v>
+      </c>
+      <c r="E22" s="42">
+        <v>0</v>
+      </c>
+      <c r="F22" s="42">
+        <v>1</v>
+      </c>
+      <c r="G22" s="43">
+        <v>1</v>
+      </c>
+      <c r="H22" s="41">
+        <v>0</v>
+      </c>
+      <c r="I22" s="42">
+        <v>0</v>
+      </c>
+      <c r="J22" s="42">
+        <v>0</v>
+      </c>
+      <c r="K22" s="43">
+        <v>1</v>
+      </c>
+      <c r="L22" s="71"/>
+      <c r="M22" s="72" t="s">
+        <v>248</v>
+      </c>
+      <c r="N22" s="72" t="s">
+        <v>1</v>
+      </c>
+      <c r="O22" s="71">
         <v>8</v>
       </c>
-      <c r="N22" s="61" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="23" s="9" customFormat="1" outlineLevel="1" spans="1:14">
-      <c r="A23" s="29"/>
-      <c r="B23" s="34">
-        <v>0</v>
-      </c>
-      <c r="C23" s="35">
-        <v>1</v>
-      </c>
-      <c r="D23" s="35" t="s">
-        <v>58</v>
-      </c>
-      <c r="E23" s="36" t="s">
-        <v>58</v>
-      </c>
-      <c r="F23" s="34">
-        <v>1</v>
-      </c>
-      <c r="G23" s="35">
-        <v>1</v>
-      </c>
-      <c r="H23" s="35">
-        <v>1</v>
-      </c>
-      <c r="I23" s="36">
-        <v>1</v>
-      </c>
-      <c r="J23" s="62"/>
-      <c r="K23" s="63" t="s">
-        <v>247</v>
-      </c>
-      <c r="L23" s="63"/>
-      <c r="M23" s="62" t="s">
+      <c r="P22" s="73" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="23" s="9" customFormat="1" outlineLevel="1" spans="1:16">
+      <c r="A23" s="35"/>
+      <c r="B23" s="36"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="44">
+        <v>0</v>
+      </c>
+      <c r="E23" s="45">
+        <v>1</v>
+      </c>
+      <c r="F23" s="45">
+        <v>0</v>
+      </c>
+      <c r="G23" s="46">
+        <v>0</v>
+      </c>
+      <c r="H23" s="44">
+        <v>0</v>
+      </c>
+      <c r="I23" s="45">
+        <v>1</v>
+      </c>
+      <c r="J23" s="45">
+        <v>1</v>
+      </c>
+      <c r="K23" s="46">
+        <v>1</v>
+      </c>
+      <c r="L23" s="74"/>
+      <c r="M23" s="75" t="s">
+        <v>250</v>
+      </c>
+      <c r="N23" s="75"/>
+      <c r="O23" s="74" t="s">
         <v>145</v>
       </c>
-      <c r="N23" s="64" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="24" s="9" customFormat="1" outlineLevel="1" spans="1:14">
-      <c r="A24" s="29"/>
-      <c r="B24" s="25">
-        <v>1</v>
-      </c>
-      <c r="C24" s="26">
-        <v>0</v>
-      </c>
-      <c r="D24" s="26" t="s">
-        <v>58</v>
-      </c>
-      <c r="E24" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="F24" s="25">
-        <v>1</v>
-      </c>
-      <c r="G24" s="26">
-        <v>1</v>
-      </c>
-      <c r="H24" s="26">
-        <v>1</v>
-      </c>
-      <c r="I24" s="27">
-        <v>1</v>
-      </c>
-      <c r="J24" s="52"/>
-      <c r="K24" s="8" t="s">
-        <v>249</v>
-      </c>
-      <c r="L24" s="8"/>
-      <c r="M24" s="52" t="s">
+      <c r="P23" s="76" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="24" s="9" customFormat="1" outlineLevel="1" spans="1:16">
+      <c r="A24" s="35"/>
+      <c r="B24" s="36"/>
+      <c r="C24" s="37"/>
+      <c r="D24" s="32">
+        <v>1</v>
+      </c>
+      <c r="E24" s="33">
+        <v>0</v>
+      </c>
+      <c r="F24" s="33">
+        <v>0</v>
+      </c>
+      <c r="G24" s="34">
+        <v>0</v>
+      </c>
+      <c r="H24" s="32">
+        <v>0</v>
+      </c>
+      <c r="I24" s="33">
+        <v>1</v>
+      </c>
+      <c r="J24" s="33">
+        <v>1</v>
+      </c>
+      <c r="K24" s="34">
+        <v>1</v>
+      </c>
+      <c r="L24" s="64"/>
+      <c r="M24" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="N24" s="8"/>
+      <c r="O24" s="64" t="s">
         <v>145</v>
       </c>
-      <c r="N24" s="65" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="25" outlineLevel="1" spans="2:14">
-      <c r="B25" s="37">
-        <v>1</v>
-      </c>
-      <c r="C25" s="38">
-        <v>1</v>
-      </c>
-      <c r="D25" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="E25" s="39" t="s">
-        <v>58</v>
-      </c>
-      <c r="F25" s="37">
-        <v>1</v>
-      </c>
-      <c r="G25" s="38">
-        <v>1</v>
-      </c>
-      <c r="H25" s="38">
-        <v>1</v>
-      </c>
-      <c r="I25" s="39">
-        <v>1</v>
-      </c>
-      <c r="J25" s="66"/>
-      <c r="K25" s="67" t="s">
-        <v>251</v>
-      </c>
-      <c r="L25" s="67"/>
-      <c r="M25" s="59" t="s">
+      <c r="P24" s="77" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="25" outlineLevel="1" spans="4:16">
+      <c r="D25" s="47">
+        <v>1</v>
+      </c>
+      <c r="E25" s="48">
+        <v>1</v>
+      </c>
+      <c r="F25" s="42">
+        <v>0</v>
+      </c>
+      <c r="G25" s="43">
+        <v>0</v>
+      </c>
+      <c r="H25" s="41">
+        <v>0</v>
+      </c>
+      <c r="I25" s="42">
+        <v>1</v>
+      </c>
+      <c r="J25" s="48">
+        <v>1</v>
+      </c>
+      <c r="K25" s="53">
+        <v>1</v>
+      </c>
+      <c r="L25" s="78"/>
+      <c r="M25" s="79" t="s">
+        <v>254</v>
+      </c>
+      <c r="N25" s="79"/>
+      <c r="O25" s="71" t="s">
         <v>145</v>
       </c>
-      <c r="N25" s="68" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="26" spans="10:14">
-      <c r="J26" s="50"/>
-      <c r="K26"/>
-      <c r="M26" s="57"/>
-      <c r="N26" s="9"/>
-    </row>
-    <row r="27" s="11" customFormat="1" spans="1:13">
+      <c r="P25" s="80" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="26" spans="12:16">
+      <c r="L26" s="61"/>
+      <c r="M26"/>
+      <c r="O26" s="69"/>
+      <c r="P26" s="9"/>
+    </row>
+    <row r="27" s="11" customFormat="1" spans="1:15">
       <c r="A27" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="B27" s="40"/>
-      <c r="C27" s="40"/>
-      <c r="D27" s="40"/>
-      <c r="E27" s="40"/>
-      <c r="F27" s="40"/>
-      <c r="G27" s="40"/>
-      <c r="H27" s="40"/>
-      <c r="I27" s="40"/>
-      <c r="J27" s="40" t="s">
-        <v>35</v>
-      </c>
-      <c r="K27" s="40" t="s">
-        <v>197</v>
-      </c>
-      <c r="M27" s="69"/>
+      <c r="B27" s="49"/>
+      <c r="C27" s="49"/>
+      <c r="D27" s="49"/>
+      <c r="E27" s="49"/>
+      <c r="F27" s="49"/>
+      <c r="G27" s="49"/>
+      <c r="H27" s="49"/>
+      <c r="I27" s="49"/>
+      <c r="J27" s="49"/>
+      <c r="K27" s="49"/>
+      <c r="L27" s="49"/>
+      <c r="M27" s="49"/>
+      <c r="O27" s="81"/>
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="12" t="s">
-        <v>253</v>
-      </c>
-      <c r="B28" s="41"/>
-      <c r="C28" s="42"/>
-      <c r="D28" s="42">
-        <v>0</v>
-      </c>
-      <c r="E28" s="43">
-        <v>0</v>
-      </c>
-      <c r="F28" s="41">
-        <v>0</v>
-      </c>
-      <c r="G28" s="42">
-        <v>0</v>
-      </c>
-      <c r="H28" s="42">
-        <v>0</v>
-      </c>
-      <c r="I28" s="43">
-        <v>0</v>
-      </c>
-      <c r="J28" s="3" t="str">
-        <f>DEC2HEX(K28,2)</f>
+        <v>256</v>
+      </c>
+      <c r="B28" s="1" t="str">
+        <f>DEC2HEX(C28,2)</f>
         <v>00</v>
       </c>
-      <c r="K28" s="3">
-        <f>IF(B28=1,128,0)+IF(C28=1,64,0)+IF(D28=1,32,0)+IF(E28=1,16,0)+IF(F28=1,8,0)+IF(G28=1,4,0)+IF(H28=1,2,0)+IF(I28=1,1,0)</f>
+      <c r="C28" s="3">
+        <f>IF(D28=1,128,0)+IF(E28=1,64,0)+IF(F28=1,32,0)+IF(G28=1,16,0)+IF(H28=1,8,0)+IF(I28=1,4,0)+IF(J28=1,2,0)+IF(K28=1,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D28" s="50"/>
+      <c r="E28" s="51"/>
+      <c r="F28" s="51">
+        <v>0</v>
+      </c>
+      <c r="G28" s="52">
+        <v>0</v>
+      </c>
+      <c r="H28" s="50">
+        <v>0</v>
+      </c>
+      <c r="I28" s="51">
+        <v>0</v>
+      </c>
+      <c r="J28" s="51">
+        <v>0</v>
+      </c>
+      <c r="K28" s="52">
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="12" t="s">
-        <v>254</v>
-      </c>
-      <c r="B29" s="22"/>
-      <c r="C29" s="23"/>
-      <c r="D29" s="23">
-        <v>0</v>
-      </c>
-      <c r="E29" s="24">
-        <v>1</v>
-      </c>
-      <c r="F29" s="22">
-        <v>0</v>
-      </c>
-      <c r="G29" s="23">
-        <v>0</v>
-      </c>
-      <c r="H29" s="23">
-        <v>0</v>
-      </c>
-      <c r="I29" s="24">
-        <v>0</v>
-      </c>
-      <c r="J29" s="3" t="str">
-        <f>DEC2HEX(K29,2)</f>
+        <v>257</v>
+      </c>
+      <c r="B29" s="1" t="str">
+        <f>DEC2HEX(C29,2)</f>
         <v>10</v>
       </c>
-      <c r="K29" s="3">
-        <f>IF(B29=1,128,0)+IF(C29=1,64,0)+IF(D29=1,32,0)+IF(E29=1,16,0)+IF(F29=1,8,0)+IF(G29=1,4,0)+IF(H29=1,2,0)+IF(I29=1,1,0)</f>
+      <c r="C29" s="3">
+        <f>IF(D29=1,128,0)+IF(E29=1,64,0)+IF(F29=1,32,0)+IF(G29=1,16,0)+IF(H29=1,8,0)+IF(I29=1,4,0)+IF(J29=1,2,0)+IF(K29=1,1,0)</f>
         <v>16</v>
+      </c>
+      <c r="D29" s="27"/>
+      <c r="E29" s="28"/>
+      <c r="F29" s="28">
+        <v>0</v>
+      </c>
+      <c r="G29" s="29">
+        <v>1</v>
+      </c>
+      <c r="H29" s="27">
+        <v>0</v>
+      </c>
+      <c r="I29" s="28">
+        <v>0</v>
+      </c>
+      <c r="J29" s="28">
+        <v>0</v>
+      </c>
+      <c r="K29" s="29">
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:11">
       <c r="A30" s="12" t="s">
-        <v>255</v>
-      </c>
-      <c r="B30" s="22"/>
-      <c r="C30" s="23"/>
-      <c r="D30" s="23">
-        <v>1</v>
-      </c>
-      <c r="E30" s="24">
-        <v>0</v>
-      </c>
-      <c r="F30" s="22">
-        <v>0</v>
-      </c>
-      <c r="G30" s="23">
-        <v>0</v>
-      </c>
-      <c r="H30" s="23">
-        <v>0</v>
-      </c>
-      <c r="I30" s="24">
-        <v>0</v>
-      </c>
-      <c r="J30" s="3" t="str">
-        <f>DEC2HEX(K30,2)</f>
+        <v>258</v>
+      </c>
+      <c r="B30" s="1" t="str">
+        <f>DEC2HEX(C30,2)</f>
         <v>20</v>
       </c>
-      <c r="K30" s="3">
-        <f>IF(B30=1,128,0)+IF(C30=1,64,0)+IF(D30=1,32,0)+IF(E30=1,16,0)+IF(F30=1,8,0)+IF(G30=1,4,0)+IF(H30=1,2,0)+IF(I30=1,1,0)</f>
+      <c r="C30" s="3">
+        <f>IF(D30=1,128,0)+IF(E30=1,64,0)+IF(F30=1,32,0)+IF(G30=1,16,0)+IF(H30=1,8,0)+IF(I30=1,4,0)+IF(J30=1,2,0)+IF(K30=1,1,0)</f>
         <v>32</v>
+      </c>
+      <c r="D30" s="27"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="28">
+        <v>1</v>
+      </c>
+      <c r="G30" s="29">
+        <v>0</v>
+      </c>
+      <c r="H30" s="27">
+        <v>0</v>
+      </c>
+      <c r="I30" s="28">
+        <v>0</v>
+      </c>
+      <c r="J30" s="28">
+        <v>0</v>
+      </c>
+      <c r="K30" s="29">
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:11">
       <c r="A31" s="12" t="s">
-        <v>256</v>
-      </c>
-      <c r="B31" s="37"/>
-      <c r="C31" s="38"/>
-      <c r="D31" s="38">
-        <v>1</v>
-      </c>
-      <c r="E31" s="39">
-        <v>1</v>
-      </c>
-      <c r="F31" s="37">
-        <v>0</v>
-      </c>
-      <c r="G31" s="38">
-        <v>0</v>
-      </c>
-      <c r="H31" s="38">
-        <v>0</v>
-      </c>
-      <c r="I31" s="39">
-        <v>0</v>
-      </c>
-      <c r="J31" s="3" t="str">
-        <f>DEC2HEX(K31,2)</f>
+        <v>259</v>
+      </c>
+      <c r="B31" s="1" t="str">
+        <f>DEC2HEX(C31,2)</f>
         <v>30</v>
       </c>
-      <c r="K31" s="3">
-        <f>IF(B31=1,128,0)+IF(C31=1,64,0)+IF(D31=1,32,0)+IF(E31=1,16,0)+IF(F31=1,8,0)+IF(G31=1,4,0)+IF(H31=1,2,0)+IF(I31=1,1,0)</f>
+      <c r="C31" s="3">
+        <f>IF(D31=1,128,0)+IF(E31=1,64,0)+IF(F31=1,32,0)+IF(G31=1,16,0)+IF(H31=1,8,0)+IF(I31=1,4,0)+IF(J31=1,2,0)+IF(K31=1,1,0)</f>
         <v>48</v>
+      </c>
+      <c r="D31" s="47"/>
+      <c r="E31" s="48"/>
+      <c r="F31" s="48">
+        <v>1</v>
+      </c>
+      <c r="G31" s="53">
+        <v>1</v>
+      </c>
+      <c r="H31" s="47">
+        <v>0</v>
+      </c>
+      <c r="I31" s="48">
+        <v>0</v>
+      </c>
+      <c r="J31" s="48">
+        <v>0</v>
+      </c>
+      <c r="K31" s="53">
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:11">
       <c r="A32" s="12" t="s">
-        <v>257</v>
-      </c>
-      <c r="B32" s="37"/>
-      <c r="C32" s="38" t="s">
+        <v>260</v>
+      </c>
+      <c r="B32" s="1" t="str">
+        <f>DEC2HEX(C32,2)</f>
+        <v>08</v>
+      </c>
+      <c r="C32" s="3">
+        <f>IF(D32=1,128,0)+IF(E32=1,64,0)+IF(F32=1,32,0)+IF(G32=1,16,0)+IF(H32=1,8,0)+IF(I32=1,4,0)+IF(J32=1,2,0)+IF(K32=1,1,0)</f>
+        <v>8</v>
+      </c>
+      <c r="D32" s="47"/>
+      <c r="E32" s="48" t="s">
         <v>58</v>
       </c>
-      <c r="D32" s="38" t="s">
+      <c r="F32" s="48" t="s">
         <v>58</v>
       </c>
-      <c r="E32" s="39" t="s">
+      <c r="G32" s="53" t="s">
         <v>58</v>
       </c>
-      <c r="F32" s="37">
-        <v>1</v>
-      </c>
-      <c r="G32" s="38">
-        <v>0</v>
-      </c>
-      <c r="H32" s="38">
-        <v>0</v>
-      </c>
-      <c r="I32" s="39">
-        <v>0</v>
-      </c>
-      <c r="J32" s="3" t="str">
-        <f>DEC2HEX(K32,2)</f>
-        <v>08</v>
-      </c>
-      <c r="K32" s="3">
-        <f>IF(B32=1,128,0)+IF(C32=1,64,0)+IF(D32=1,32,0)+IF(E32=1,16,0)+IF(F32=1,8,0)+IF(G32=1,4,0)+IF(H32=1,2,0)+IF(I32=1,1,0)</f>
-        <v>8</v>
+      <c r="H32" s="47">
+        <v>1</v>
+      </c>
+      <c r="I32" s="48">
+        <v>0</v>
+      </c>
+      <c r="J32" s="48">
+        <v>0</v>
+      </c>
+      <c r="K32" s="53">
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:11">
       <c r="A33" s="12" t="s">
-        <v>258</v>
-      </c>
-      <c r="B33" s="22"/>
-      <c r="C33" s="23"/>
-      <c r="D33" s="23">
-        <v>1</v>
-      </c>
-      <c r="E33" s="24">
-        <v>1</v>
-      </c>
-      <c r="F33" s="22"/>
-      <c r="G33" s="23">
-        <v>0</v>
-      </c>
-      <c r="H33" s="23">
-        <v>1</v>
-      </c>
-      <c r="I33" s="24">
-        <v>0</v>
-      </c>
-      <c r="J33" s="3" t="str">
-        <f t="shared" ref="J33:J44" si="0">DEC2HEX(K33,2)</f>
+        <v>261</v>
+      </c>
+      <c r="B33" s="1" t="str">
+        <f>DEC2HEX(C33,2)</f>
         <v>32</v>
       </c>
-      <c r="K33" s="3">
-        <f t="shared" ref="K33:K44" si="1">IF(B33=1,128,0)+IF(C33=1,64,0)+IF(D33=1,32,0)+IF(E33=1,16,0)+IF(F33=1,8,0)+IF(G33=1,4,0)+IF(H33=1,2,0)+IF(I33=1,1,0)</f>
+      <c r="C33" s="3">
+        <f>IF(D33=1,128,0)+IF(E33=1,64,0)+IF(F33=1,32,0)+IF(G33=1,16,0)+IF(H33=1,8,0)+IF(I33=1,4,0)+IF(J33=1,2,0)+IF(K33=1,1,0)</f>
         <v>50</v>
+      </c>
+      <c r="D33" s="27"/>
+      <c r="E33" s="28"/>
+      <c r="F33" s="28">
+        <v>1</v>
+      </c>
+      <c r="G33" s="29">
+        <v>1</v>
+      </c>
+      <c r="H33" s="27"/>
+      <c r="I33" s="28">
+        <v>0</v>
+      </c>
+      <c r="J33" s="28">
+        <v>1</v>
+      </c>
+      <c r="K33" s="29">
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:11">
       <c r="A34" s="12" t="s">
-        <v>259</v>
-      </c>
-      <c r="B34" s="22"/>
-      <c r="C34" s="23"/>
-      <c r="D34" s="23" t="s">
+        <v>262</v>
+      </c>
+      <c r="B34" s="1" t="str">
+        <f>DEC2HEX(C34,2)</f>
+        <v>02</v>
+      </c>
+      <c r="C34" s="3">
+        <f>IF(D34=1,128,0)+IF(E34=1,64,0)+IF(F34=1,32,0)+IF(G34=1,16,0)+IF(H34=1,8,0)+IF(I34=1,4,0)+IF(J34=1,2,0)+IF(K34=1,1,0)</f>
+        <v>2</v>
+      </c>
+      <c r="D34" s="27"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="E34" s="24" t="s">
+      <c r="G34" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="F34" s="22"/>
-      <c r="G34" s="23">
-        <v>0</v>
-      </c>
-      <c r="H34" s="23">
-        <v>1</v>
-      </c>
-      <c r="I34" s="24">
-        <v>0</v>
-      </c>
-      <c r="J34" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>02</v>
-      </c>
-      <c r="K34" s="3">
-        <f t="shared" si="1"/>
-        <v>2</v>
+      <c r="H34" s="27"/>
+      <c r="I34" s="28">
+        <v>0</v>
+      </c>
+      <c r="J34" s="28">
+        <v>1</v>
+      </c>
+      <c r="K34" s="29">
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:11">
       <c r="A35" s="12" t="s">
-        <v>260</v>
-      </c>
-      <c r="B35" s="22"/>
-      <c r="C35" s="23"/>
-      <c r="D35" s="23">
-        <v>1</v>
-      </c>
-      <c r="E35" s="24">
-        <v>1</v>
-      </c>
-      <c r="F35" s="22"/>
-      <c r="G35" s="23">
-        <v>1</v>
-      </c>
-      <c r="H35" s="23">
-        <v>1</v>
-      </c>
-      <c r="I35" s="24">
-        <v>0</v>
-      </c>
-      <c r="J35" s="3" t="str">
-        <f t="shared" si="0"/>
+        <v>263</v>
+      </c>
+      <c r="B35" s="1" t="str">
+        <f>DEC2HEX(C35,2)</f>
         <v>36</v>
       </c>
-      <c r="K35" s="3">
-        <f t="shared" si="1"/>
+      <c r="C35" s="3">
+        <f>IF(D35=1,128,0)+IF(E35=1,64,0)+IF(F35=1,32,0)+IF(G35=1,16,0)+IF(H35=1,8,0)+IF(I35=1,4,0)+IF(J35=1,2,0)+IF(K35=1,1,0)</f>
         <v>54</v>
+      </c>
+      <c r="D35" s="27"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="28">
+        <v>1</v>
+      </c>
+      <c r="G35" s="29">
+        <v>1</v>
+      </c>
+      <c r="H35" s="27"/>
+      <c r="I35" s="28">
+        <v>1</v>
+      </c>
+      <c r="J35" s="28">
+        <v>1</v>
+      </c>
+      <c r="K35" s="29">
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:11">
       <c r="A36" s="12" t="s">
-        <v>261</v>
-      </c>
-      <c r="B36" s="37"/>
-      <c r="C36" s="38"/>
-      <c r="D36" s="38" t="s">
+        <v>264</v>
+      </c>
+      <c r="B36" s="1" t="str">
+        <f>DEC2HEX(C36,2)</f>
+        <v>06</v>
+      </c>
+      <c r="C36" s="3">
+        <f>IF(D36=1,128,0)+IF(E36=1,64,0)+IF(F36=1,32,0)+IF(G36=1,16,0)+IF(H36=1,8,0)+IF(I36=1,4,0)+IF(J36=1,2,0)+IF(K36=1,1,0)</f>
+        <v>6</v>
+      </c>
+      <c r="D36" s="47"/>
+      <c r="E36" s="48"/>
+      <c r="F36" s="48" t="s">
         <v>58</v>
       </c>
-      <c r="E36" s="39" t="s">
+      <c r="G36" s="53" t="s">
         <v>58</v>
       </c>
-      <c r="F36" s="37"/>
-      <c r="G36" s="38">
-        <v>1</v>
-      </c>
-      <c r="H36" s="38">
-        <v>1</v>
-      </c>
-      <c r="I36" s="39">
-        <v>0</v>
-      </c>
-      <c r="J36" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>06</v>
-      </c>
-      <c r="K36" s="3">
-        <f t="shared" si="1"/>
-        <v>6</v>
+      <c r="H36" s="47"/>
+      <c r="I36" s="48">
+        <v>1</v>
+      </c>
+      <c r="J36" s="48">
+        <v>1</v>
+      </c>
+      <c r="K36" s="53">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="N23" r:id="rId1" location="time" display="http://www.w3.org/TR/xmlschema-2/#time"/>
-    <hyperlink ref="N24" r:id="rId1" location="date" display="http://www.w3.org/TR/xmlschema-2/#date"/>
-    <hyperlink ref="N25" r:id="rId1" location="dateTime" display="http://www.w3.org/TR/xmlschema-2/#dateTime"/>
+    <hyperlink ref="P23" r:id="rId1" location="time" display="http://www.w3.org/TR/xmlschema-2/#time"/>
+    <hyperlink ref="P24" r:id="rId1" location="date" display="http://www.w3.org/TR/xmlschema-2/#date"/>
+    <hyperlink ref="P25" r:id="rId1" location="dateTime" display="http://www.w3.org/TR/xmlschema-2/#dateTime"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="portrait"/>
@@ -8591,7 +9822,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:K13"/>
@@ -8608,10 +9839,10 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>43</v>
@@ -8626,12 +9857,12 @@
         <v>108</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -8645,26 +9876,26 @@
         <v>0</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>108</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="I2" s="4"/>
       <c r="J2" s="4" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="K2" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -8678,13 +9909,13 @@
         <v>0</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>108</v>
@@ -8694,10 +9925,10 @@
       </c>
       <c r="I3" s="4"/>
       <c r="J3" s="4" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="K3" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -8714,25 +9945,25 @@
         <v>0</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="J4" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -8749,25 +9980,25 @@
         <v>0</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="J5" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -8781,28 +10012,28 @@
         <v>1</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="H6" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="J6" t="s">
         <v>278</v>
       </c>
-      <c r="I6" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="J6" t="s">
-        <v>275</v>
-      </c>
       <c r="K6" s="4" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -8816,28 +10047,28 @@
         <v>1</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="H7" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="J7" t="s">
         <v>278</v>
       </c>
-      <c r="I7" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="J7" t="s">
-        <v>275</v>
-      </c>
       <c r="K7" s="4" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -8851,26 +10082,26 @@
         <v>0</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>108</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="I8" s="4"/>
       <c r="J8" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="K8" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -8884,13 +10115,13 @@
         <v>0</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>108</v>
@@ -8900,10 +10131,10 @@
       </c>
       <c r="I9" s="4"/>
       <c r="J9" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="K9" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -8917,28 +10148,28 @@
         <v>1</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="E10" s="3">
         <v>0</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="J10" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="K10" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -8952,28 +10183,28 @@
         <v>1</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="E11" s="3">
         <v>0</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="J11" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="K11" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -8987,28 +10218,28 @@
         <v>1</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="J12" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="K12" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -9022,28 +10253,28 @@
         <v>1</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="J13" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="K13" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
     </row>
   </sheetData>

--- a/Protocol/Morph Protocol.xlsx
+++ b/Protocol/Morph Protocol.xlsx
@@ -4,16 +4,15 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28755" windowHeight="15180" activeTab="5"/>
+    <workbookView windowWidth="28755" windowHeight="15180" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Connection" sheetId="13" r:id="rId1"/>
     <sheet name="LinkType" sheetId="5" r:id="rId2"/>
     <sheet name="LinkType Data" sheetId="22" r:id="rId3"/>
-    <sheet name="ValueType" sheetId="24" r:id="rId4"/>
-    <sheet name="ValueType 2" sheetId="25" r:id="rId5"/>
-    <sheet name="SimpleType" sheetId="23" r:id="rId6"/>
-    <sheet name="LinkSequence" sheetId="21" r:id="rId7"/>
+    <sheet name="ValueType" sheetId="25" r:id="rId4"/>
+    <sheet name="SimpleType" sheetId="23" r:id="rId5"/>
+    <sheet name="LinkSequence" sheetId="21" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,96 +32,6 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Author</author>
-  </authors>
-  <commentList>
-    <comment ref="L6" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-            <charset val="134"/>
-          </rPr>
-          <t>Note:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-ReferenceID can be ServletID or StreamID.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="M13" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-            <charset val="134"/>
-          </rPr>
-          <t>This consists if Morph links.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="M14" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-            <charset val="134"/>
-          </rPr>
-          <t>This consists if Morph links.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="L15" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-            <charset val="134"/>
-          </rPr>
-          <t>Note:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-If the servet represents an array, and we're specifying an element in that array, then this value specifies the array, and the following value represent the index.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="M15" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-            <charset val="134"/>
-          </rPr>
-          <t>This consists of a value (starting with a ValueType).</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Author</author>
@@ -191,7 +100,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="277">
   <si>
     <t>Field</t>
   </si>
@@ -780,13 +689,31 @@
     <t>+</t>
   </si>
   <si>
-    <t>String</t>
+    <t>Identifier</t>
   </si>
   <si>
     <t>IsNull</t>
   </si>
   <si>
-    <t>IsNull=False</t>
+    <t>IsSimpleType</t>
+  </si>
+  <si>
+    <t>IsStruct</t>
+  </si>
+  <si>
+    <t>IsArray</t>
+  </si>
+  <si>
+    <t>IsServlet</t>
+  </si>
+  <si>
+    <t>IsStream</t>
+  </si>
+  <si>
+    <t>IsException ?</t>
+  </si>
+  <si>
+    <t>IsCustomType</t>
   </si>
   <si>
     <t>HasTypeName</t>
@@ -795,91 +722,25 @@
     <t>TypeName</t>
   </si>
   <si>
-    <t>IsValue/IsReference</t>
-  </si>
-  <si>
-    <t>ReferenceID</t>
+    <t>Simple</t>
+  </si>
+  <si>
+    <t>SimpleType</t>
+  </si>
+  <si>
+    <t>See SimpleType tab.</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>Struct</t>
+  </si>
+  <si>
+    <t>StructElemCount</t>
   </si>
   <si>
     <t>int</t>
-  </si>
-  <si>
-    <t>Reference</t>
-  </si>
-  <si>
-    <t>IsReference</t>
-  </si>
-  <si>
-    <t>IsStream/IsServlet</t>
-  </si>
-  <si>
-    <t>IsStream</t>
-  </si>
-  <si>
-    <t>IsServlet</t>
-  </si>
-  <si>
-    <t>HasDevicePath</t>
-  </si>
-  <si>
-    <t>DevicePathSize</t>
-  </si>
-  <si>
-    <t>DevicesLength</t>
-  </si>
-  <si>
-    <t>Number of bytes that Devices consists of.</t>
-  </si>
-  <si>
-    <t>DevicePath</t>
-  </si>
-  <si>
-    <t>Morph links</t>
-  </si>
-  <si>
-    <t>HasArrayIndex</t>
-  </si>
-  <si>
-    <t>ValueType</t>
-  </si>
-  <si>
-    <t>IsValue</t>
-  </si>
-  <si>
-    <t>IsSimpleType</t>
-  </si>
-  <si>
-    <t>IsCustomType</t>
-  </si>
-  <si>
-    <t>IsStruct</t>
-  </si>
-  <si>
-    <t>IsArray</t>
-  </si>
-  <si>
-    <t>Simple</t>
-  </si>
-  <si>
-    <t>SimpleType</t>
-  </si>
-  <si>
-    <t>See SimpleType tab.</t>
-  </si>
-  <si>
-    <t>Custom</t>
-  </si>
-  <si>
-    <t>CustomTypeName</t>
-  </si>
-  <si>
-    <t>Developer's proprietary type.</t>
-  </si>
-  <si>
-    <t>Struct</t>
-  </si>
-  <si>
-    <t>StructElemCount</t>
   </si>
   <si>
     <r>
@@ -918,9 +779,6 @@
     <t>Values</t>
   </si>
   <si>
-    <t>...</t>
-  </si>
-  <si>
     <t>Each value begins with its own ValueType.</t>
   </si>
   <si>
@@ -984,57 +842,30 @@
     <t>not IsArrayElemType</t>
   </si>
   <si>
-    <t>String: 2 bytes representing byte count of the string, followed by UTF-8 characters</t>
-  </si>
-  <si>
-    <t>SimpleType: See tab SimpleType</t>
-  </si>
-  <si>
-    <t>Examples</t>
-  </si>
-  <si>
-    <t>Decimal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Value type </t>
-  </si>
-  <si>
-    <t>Values obtained</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(ValueName), </t>
-  </si>
-  <si>
-    <t>(ValueName), (TypeName), ReferenceID</t>
-  </si>
-  <si>
-    <t>(ValueName), (TypeName), ReferenceID, ApartmentID, (DevicePath), (Index)</t>
-  </si>
-  <si>
-    <t>IsSimple</t>
-  </si>
-  <si>
-    <t>(ValueName), (TypeName), SimpleType</t>
-  </si>
-  <si>
-    <t>(ValueName), (TypeName), StructElemCount, Values</t>
-  </si>
-  <si>
-    <t>(ValueName), (TypeName), (CustomTypeName), SimpleType</t>
-  </si>
-  <si>
-    <t>(ValueName), (TypeName), ArrayElemCount, (ArrayElemType), Values</t>
-  </si>
-  <si>
-    <t>Identifier</t>
-  </si>
-  <si>
-    <t>IsException ?</t>
+    <t>HasArrayIndex</t>
+  </si>
+  <si>
+    <t>ValueType</t>
+  </si>
+  <si>
+    <t>HasDevicePath</t>
+  </si>
+  <si>
+    <t>DevicePathSize</t>
+  </si>
+  <si>
+    <t>DevicesLength</t>
   </si>
   <si>
     <t>Number of bytes that DevicePath consists of.</t>
   </si>
   <si>
+    <t>DevicePath</t>
+  </si>
+  <si>
+    <t>Morph links</t>
+  </si>
+  <si>
     <t>Exception</t>
   </si>
   <si>
@@ -1054,6 +885,18 @@
   </si>
   <si>
     <t>StackTraceSize</t>
+  </si>
+  <si>
+    <t>String</t>
+  </si>
+  <si>
+    <t>Custom</t>
+  </si>
+  <si>
+    <t>CustomTypeName</t>
+  </si>
+  <si>
+    <t>Developer's proprietary type.</t>
   </si>
   <si>
     <t>Identifier:</t>
@@ -1275,6 +1118,9 @@
   </si>
   <si>
     <t>http://www.w3.org/TR/xmlschema-2/#dateTime</t>
+  </si>
+  <si>
+    <t>Examples</t>
   </si>
   <si>
     <t>Int8</t>
@@ -1805,7 +1651,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="76">
+  <borders count="62">
     <border>
       <left/>
       <right/>
@@ -1935,171 +1781,6 @@
         <color auto="1"/>
       </left>
       <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="dashed">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dashed">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="dashed">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dashed">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="dashed">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dashed">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="dashed">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dashed">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -2377,6 +2058,17 @@
       <top style="hair">
         <color auto="1"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -2755,7 +2447,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="68" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="54" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2767,34 +2459,34 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="69" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="55" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="69" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="55" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="70" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="56" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="71" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="57" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="72" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="58" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="71" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="57" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="73" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="59" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="74" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="60" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="75" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="61" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2879,7 +2571,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="334">
+  <cellXfs count="279">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3253,171 +2945,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" textRotation="74"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" textRotation="74"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" textRotation="74"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" textRotation="74"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3439,175 +2972,175 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3619,9 +3152,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3630,85 +3163,85 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="59" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="45" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="39" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -4166,7 +3699,7 @@
       <c r="A13" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="331">
+      <c r="B13" s="276">
         <v>57344</v>
       </c>
     </row>
@@ -4174,12 +3707,12 @@
       <c r="A14" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="334" t="s">
+      <c r="B14" s="279" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="15" spans="2:2">
-      <c r="B15" s="333"/>
+      <c r="B15" s="278"/>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="11" t="s">
@@ -4190,7 +3723,7 @@
       <c r="A17" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="331">
+      <c r="B17" s="276">
         <v>57429</v>
       </c>
     </row>
@@ -4198,12 +3731,12 @@
       <c r="A18" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="334" t="s">
+      <c r="B18" s="279" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="19" spans="2:2">
-      <c r="B19" s="333"/>
+      <c r="B19" s="278"/>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
@@ -4243,22 +3776,22 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14159292035398" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="4" width="3" style="214" customWidth="1"/>
-    <col min="5" max="8" width="3" style="215" customWidth="1"/>
+    <col min="1" max="4" width="3" style="159" customWidth="1"/>
+    <col min="5" max="8" width="3" style="160" customWidth="1"/>
     <col min="9" max="10" width="6" style="73" customWidth="1"/>
-    <col min="11" max="11" width="15" style="216" customWidth="1"/>
-    <col min="12" max="12" width="25" style="216" customWidth="1"/>
-    <col min="13" max="13" width="22.7079646017699" style="216" customWidth="1"/>
-    <col min="14" max="14" width="6.14159292035398" style="214" customWidth="1"/>
-    <col min="15" max="15" width="13.2920353982301" style="214" customWidth="1"/>
-    <col min="16" max="16" width="17.7079646017699" style="216" customWidth="1"/>
-    <col min="17" max="17" width="46.858407079646" style="217" customWidth="1"/>
-    <col min="18" max="19" width="6.85840707964602" style="214" customWidth="1"/>
-    <col min="20" max="16384" width="9.14159292035398" style="216"/>
+    <col min="11" max="11" width="15" style="161" customWidth="1"/>
+    <col min="12" max="12" width="25" style="161" customWidth="1"/>
+    <col min="13" max="13" width="22.7079646017699" style="161" customWidth="1"/>
+    <col min="14" max="14" width="6.14159292035398" style="159" customWidth="1"/>
+    <col min="15" max="15" width="13.2920353982301" style="159" customWidth="1"/>
+    <col min="16" max="16" width="17.7079646017699" style="161" customWidth="1"/>
+    <col min="17" max="17" width="46.858407079646" style="162" customWidth="1"/>
+    <col min="18" max="19" width="6.85840707964602" style="159" customWidth="1"/>
+    <col min="20" max="16384" width="9.14159292035398" style="161"/>
   </cols>
   <sheetData>
     <row r="1" s="12" customFormat="1" ht="30" customHeight="1" spans="1:19">
-      <c r="A1" s="218" t="s">
+      <c r="A1" s="163" t="s">
         <v>24</v>
       </c>
       <c r="B1" s="24" t="s">
@@ -4285,14 +3818,14 @@
       <c r="M1" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="N1" s="276" t="s">
+      <c r="N1" s="221" t="s">
         <v>30</v>
       </c>
-      <c r="O1" s="276"/>
+      <c r="O1" s="221"/>
       <c r="P1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="Q1" s="320" t="s">
+      <c r="Q1" s="265" t="s">
         <v>31</v>
       </c>
       <c r="R1" s="1" t="s">
@@ -4303,47 +3836,47 @@
       </c>
     </row>
     <row r="2" s="12" customFormat="1" spans="1:19">
-      <c r="A2" s="219">
+      <c r="A2" s="164">
         <v>7</v>
       </c>
-      <c r="B2" s="220">
+      <c r="B2" s="165">
         <v>6</v>
       </c>
-      <c r="C2" s="220">
+      <c r="C2" s="165">
         <v>5</v>
       </c>
-      <c r="D2" s="220">
+      <c r="D2" s="165">
         <v>4</v>
       </c>
-      <c r="E2" s="221">
+      <c r="E2" s="166">
         <v>3</v>
       </c>
-      <c r="F2" s="221">
+      <c r="F2" s="166">
         <v>2</v>
       </c>
-      <c r="G2" s="221">
-        <v>1</v>
-      </c>
-      <c r="H2" s="222">
-        <v>0</v>
-      </c>
-      <c r="I2" s="277" t="s">
+      <c r="G2" s="166">
+        <v>1</v>
+      </c>
+      <c r="H2" s="167">
+        <v>0</v>
+      </c>
+      <c r="I2" s="222" t="s">
         <v>34</v>
       </c>
-      <c r="J2" s="278" t="s">
+      <c r="J2" s="223" t="s">
         <v>35</v>
       </c>
-      <c r="K2" s="279"/>
-      <c r="L2" s="280"/>
-      <c r="M2" s="280"/>
-      <c r="N2" s="281" t="s">
+      <c r="K2" s="224"/>
+      <c r="L2" s="225"/>
+      <c r="M2" s="225"/>
+      <c r="N2" s="226" t="s">
         <v>36</v>
       </c>
-      <c r="O2" s="281" t="s">
+      <c r="O2" s="226" t="s">
         <v>37</v>
       </c>
-      <c r="P2" s="280"/>
-      <c r="Q2" s="321"/>
+      <c r="P2" s="225"/>
+      <c r="Q2" s="266"/>
       <c r="R2" s="1" t="str">
         <f>CONCATENATE(ROUND(AVERAGE(R3:R68)*100/3,0),"%")</f>
         <v>81%</v>
@@ -4353,2173 +3886,2173 @@
         <v>69%</v>
       </c>
     </row>
-    <row r="3" s="211" customFormat="1" spans="1:19">
-      <c r="A3" s="223"/>
-      <c r="B3" s="224"/>
-      <c r="C3" s="225"/>
-      <c r="D3" s="226"/>
-      <c r="E3" s="224">
-        <v>0</v>
-      </c>
-      <c r="F3" s="225">
-        <v>0</v>
-      </c>
-      <c r="G3" s="225">
-        <v>0</v>
-      </c>
-      <c r="H3" s="226">
-        <v>0</v>
-      </c>
-      <c r="I3" s="282">
+    <row r="3" s="156" customFormat="1" spans="1:19">
+      <c r="A3" s="168"/>
+      <c r="B3" s="169"/>
+      <c r="C3" s="170"/>
+      <c r="D3" s="171"/>
+      <c r="E3" s="169">
+        <v>0</v>
+      </c>
+      <c r="F3" s="170">
+        <v>0</v>
+      </c>
+      <c r="G3" s="170">
+        <v>0</v>
+      </c>
+      <c r="H3" s="171">
+        <v>0</v>
+      </c>
+      <c r="I3" s="227">
         <f>SUM(E3*8,F3*4,G3*2,H3)</f>
         <v>0</v>
       </c>
-      <c r="J3" s="283">
+      <c r="J3" s="228">
         <f>IF(I3&lt;=9,I3,CHAR(I3-10+CODE("A")))</f>
         <v>0</v>
       </c>
-      <c r="K3" s="284" t="s">
+      <c r="K3" s="229" t="s">
         <v>38</v>
       </c>
-      <c r="L3" s="285"/>
-      <c r="M3" s="286"/>
-      <c r="N3" s="224">
-        <v>1</v>
-      </c>
-      <c r="O3" s="225">
-        <v>1</v>
-      </c>
-      <c r="P3" s="287"/>
-      <c r="Q3" s="322" t="s">
+      <c r="L3" s="230"/>
+      <c r="M3" s="231"/>
+      <c r="N3" s="169">
+        <v>1</v>
+      </c>
+      <c r="O3" s="170">
+        <v>1</v>
+      </c>
+      <c r="P3" s="232"/>
+      <c r="Q3" s="267" t="s">
         <v>39</v>
       </c>
-      <c r="R3" s="323">
+      <c r="R3" s="268">
         <v>3</v>
       </c>
-      <c r="S3" s="323">
+      <c r="S3" s="268">
         <v>4</v>
       </c>
     </row>
-    <row r="4" s="211" customFormat="1" spans="1:19">
-      <c r="A4" s="223" t="s">
+    <row r="4" s="156" customFormat="1" spans="1:19">
+      <c r="A4" s="168" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="224" t="str">
+      <c r="B4" s="169" t="str">
         <f>IF(COUNTA(B5:B8)&gt;0,"z","")</f>
         <v>z</v>
       </c>
-      <c r="C4" s="225" t="str">
+      <c r="C4" s="170" t="str">
         <f>IF(COUNTA(C5:C8)&gt;0,"y","")</f>
         <v>y</v>
       </c>
-      <c r="D4" s="226" t="str">
+      <c r="D4" s="171" t="str">
         <f>IF(COUNTA(D5:D8)&gt;0,"x","")</f>
         <v>x</v>
       </c>
-      <c r="E4" s="224">
-        <v>1</v>
-      </c>
-      <c r="F4" s="225">
-        <v>0</v>
-      </c>
-      <c r="G4" s="225">
-        <v>0</v>
-      </c>
-      <c r="H4" s="226">
-        <v>0</v>
-      </c>
-      <c r="I4" s="282">
+      <c r="E4" s="169">
+        <v>1</v>
+      </c>
+      <c r="F4" s="170">
+        <v>0</v>
+      </c>
+      <c r="G4" s="170">
+        <v>0</v>
+      </c>
+      <c r="H4" s="171">
+        <v>0</v>
+      </c>
+      <c r="I4" s="227">
         <f>SUM(E4*8,F4*4,G4*2,H4)</f>
         <v>8</v>
       </c>
-      <c r="J4" s="283">
+      <c r="J4" s="228">
         <f>IF(I4&lt;=9,I4,CHAR(I4-10+CODE("A")))</f>
         <v>8</v>
       </c>
-      <c r="K4" s="284" t="s">
+      <c r="K4" s="229" t="s">
         <v>41</v>
       </c>
-      <c r="L4" s="284"/>
-      <c r="M4" s="288"/>
-      <c r="N4" s="289">
+      <c r="L4" s="229"/>
+      <c r="M4" s="233"/>
+      <c r="N4" s="234">
         <f>1+SUM(N5:N8)</f>
         <v>5</v>
       </c>
-      <c r="O4" s="290">
+      <c r="O4" s="235">
         <f>1+SUM(O5:O8)</f>
         <v>13</v>
       </c>
-      <c r="P4" s="287"/>
-      <c r="Q4" s="322" t="s">
+      <c r="P4" s="232"/>
+      <c r="Q4" s="267" t="s">
         <v>42</v>
       </c>
-      <c r="R4" s="323">
+      <c r="R4" s="268">
         <v>3</v>
       </c>
-      <c r="S4" s="323">
+      <c r="S4" s="268">
         <v>4</v>
       </c>
     </row>
     <row r="5" hidden="1" outlineLevel="1" spans="1:17">
-      <c r="A5" s="227"/>
-      <c r="B5" s="228"/>
-      <c r="C5" s="229"/>
-      <c r="D5" s="230" t="s">
+      <c r="A5" s="172"/>
+      <c r="B5" s="173"/>
+      <c r="C5" s="174"/>
+      <c r="D5" s="175" t="s">
         <v>43</v>
       </c>
-      <c r="E5" s="231"/>
-      <c r="F5" s="232"/>
-      <c r="G5" s="232"/>
-      <c r="H5" s="233"/>
+      <c r="E5" s="176"/>
+      <c r="F5" s="177"/>
+      <c r="G5" s="177"/>
+      <c r="H5" s="178"/>
       <c r="I5" s="127"/>
       <c r="J5" s="128"/>
-      <c r="K5" s="291"/>
-      <c r="L5" s="291"/>
-      <c r="M5" s="292" t="s">
+      <c r="K5" s="236"/>
+      <c r="L5" s="236"/>
+      <c r="M5" s="237" t="s">
         <v>44</v>
       </c>
-      <c r="N5" s="275"/>
-      <c r="O5" s="234">
+      <c r="N5" s="220"/>
+      <c r="O5" s="179">
         <v>4</v>
       </c>
-      <c r="P5" s="293" t="s">
+      <c r="P5" s="238" t="s">
         <v>45</v>
       </c>
-      <c r="Q5" s="324"/>
+      <c r="Q5" s="269"/>
     </row>
     <row r="6" hidden="1" outlineLevel="1" spans="1:17">
-      <c r="A6" s="227"/>
-      <c r="B6" s="228"/>
-      <c r="C6" s="234" t="s">
+      <c r="A6" s="172"/>
+      <c r="B6" s="173"/>
+      <c r="C6" s="179" t="s">
         <v>43</v>
       </c>
-      <c r="D6" s="230"/>
-      <c r="E6" s="231"/>
-      <c r="F6" s="232"/>
-      <c r="G6" s="232"/>
-      <c r="H6" s="233"/>
+      <c r="D6" s="175"/>
+      <c r="E6" s="176"/>
+      <c r="F6" s="177"/>
+      <c r="G6" s="177"/>
+      <c r="H6" s="178"/>
       <c r="I6" s="127"/>
       <c r="J6" s="128"/>
-      <c r="K6" s="291"/>
-      <c r="L6" s="291"/>
-      <c r="M6" s="292" t="s">
+      <c r="K6" s="236"/>
+      <c r="L6" s="236"/>
+      <c r="M6" s="237" t="s">
         <v>46</v>
       </c>
-      <c r="N6" s="275"/>
-      <c r="O6" s="234"/>
-      <c r="P6" s="293"/>
-      <c r="Q6" s="324"/>
+      <c r="N6" s="220"/>
+      <c r="O6" s="179"/>
+      <c r="P6" s="238"/>
+      <c r="Q6" s="269"/>
     </row>
     <row r="7" hidden="1" outlineLevel="1" spans="1:17">
-      <c r="A7" s="227"/>
-      <c r="B7" s="228"/>
-      <c r="C7" s="234"/>
-      <c r="D7" s="235"/>
-      <c r="E7" s="231"/>
-      <c r="F7" s="232"/>
-      <c r="G7" s="232"/>
-      <c r="H7" s="233"/>
+      <c r="A7" s="172"/>
+      <c r="B7" s="173"/>
+      <c r="C7" s="179"/>
+      <c r="D7" s="180"/>
+      <c r="E7" s="176"/>
+      <c r="F7" s="177"/>
+      <c r="G7" s="177"/>
+      <c r="H7" s="178"/>
       <c r="I7" s="127"/>
       <c r="J7" s="128"/>
-      <c r="K7" s="291"/>
-      <c r="L7" s="291"/>
-      <c r="M7" s="292"/>
-      <c r="N7" s="275">
+      <c r="K7" s="236"/>
+      <c r="L7" s="236"/>
+      <c r="M7" s="237"/>
+      <c r="N7" s="220">
         <v>4</v>
       </c>
-      <c r="O7" s="234">
+      <c r="O7" s="179">
         <v>4</v>
       </c>
-      <c r="P7" s="293" t="s">
+      <c r="P7" s="238" t="s">
         <v>47</v>
       </c>
-      <c r="Q7" s="324"/>
-    </row>
-    <row r="8" s="212" customFormat="1" hidden="1" outlineLevel="1" spans="1:19">
-      <c r="A8" s="236"/>
-      <c r="B8" s="237" t="s">
+      <c r="Q7" s="269"/>
+    </row>
+    <row r="8" s="157" customFormat="1" hidden="1" outlineLevel="1" spans="1:19">
+      <c r="A8" s="181"/>
+      <c r="B8" s="182" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="238"/>
-      <c r="D8" s="239"/>
-      <c r="E8" s="240"/>
-      <c r="F8" s="241"/>
-      <c r="G8" s="241"/>
-      <c r="H8" s="242"/>
+      <c r="C8" s="183"/>
+      <c r="D8" s="184"/>
+      <c r="E8" s="185"/>
+      <c r="F8" s="186"/>
+      <c r="G8" s="186"/>
+      <c r="H8" s="187"/>
       <c r="I8" s="127"/>
       <c r="J8" s="128"/>
-      <c r="K8" s="205"/>
-      <c r="L8" s="205"/>
-      <c r="M8" s="294" t="s">
+      <c r="K8" s="150"/>
+      <c r="L8" s="150"/>
+      <c r="M8" s="239" t="s">
         <v>48</v>
       </c>
-      <c r="N8" s="250"/>
-      <c r="O8" s="238">
+      <c r="N8" s="195"/>
+      <c r="O8" s="183">
         <v>4</v>
       </c>
-      <c r="P8" s="295" t="s">
+      <c r="P8" s="240" t="s">
         <v>49</v>
       </c>
-      <c r="Q8" s="325"/>
+      <c r="Q8" s="270"/>
       <c r="R8" s="106"/>
       <c r="S8" s="106"/>
     </row>
-    <row r="9" s="212" customFormat="1" hidden="1" outlineLevel="1" spans="1:19">
-      <c r="A9" s="243"/>
-      <c r="B9" s="244"/>
-      <c r="C9" s="245"/>
-      <c r="D9" s="246"/>
-      <c r="E9" s="247"/>
-      <c r="F9" s="248"/>
-      <c r="G9" s="248"/>
-      <c r="H9" s="249"/>
+    <row r="9" s="157" customFormat="1" hidden="1" outlineLevel="1" spans="1:19">
+      <c r="A9" s="188"/>
+      <c r="B9" s="189"/>
+      <c r="C9" s="190"/>
+      <c r="D9" s="191"/>
+      <c r="E9" s="192"/>
+      <c r="F9" s="193"/>
+      <c r="G9" s="193"/>
+      <c r="H9" s="194"/>
       <c r="I9" s="127"/>
       <c r="J9" s="128"/>
       <c r="K9" s="129"/>
       <c r="L9" s="129"/>
-      <c r="M9" s="296"/>
-      <c r="N9" s="297">
-        <v>0</v>
-      </c>
-      <c r="O9" s="245" t="s">
+      <c r="M9" s="241"/>
+      <c r="N9" s="242">
+        <v>0</v>
+      </c>
+      <c r="O9" s="190" t="s">
         <v>47</v>
       </c>
-      <c r="P9" s="298" t="s">
+      <c r="P9" s="243" t="s">
         <v>50</v>
       </c>
-      <c r="Q9" s="326"/>
+      <c r="Q9" s="271"/>
       <c r="R9" s="106"/>
       <c r="S9" s="106"/>
     </row>
     <row r="10" hidden="1" outlineLevel="1" spans="1:17">
-      <c r="A10" s="243"/>
-      <c r="B10" s="244"/>
-      <c r="C10" s="245"/>
-      <c r="D10" s="246"/>
-      <c r="E10" s="247"/>
-      <c r="F10" s="248"/>
-      <c r="G10" s="248"/>
-      <c r="H10" s="249"/>
+      <c r="A10" s="188"/>
+      <c r="B10" s="189"/>
+      <c r="C10" s="190"/>
+      <c r="D10" s="191"/>
+      <c r="E10" s="192"/>
+      <c r="F10" s="193"/>
+      <c r="G10" s="193"/>
+      <c r="H10" s="194"/>
       <c r="I10" s="127"/>
       <c r="J10" s="128"/>
       <c r="K10" s="129"/>
       <c r="L10" s="129" t="s">
         <v>51</v>
       </c>
-      <c r="M10" s="296"/>
-      <c r="N10" s="297">
-        <v>0</v>
-      </c>
-      <c r="O10" s="245" t="s">
+      <c r="M10" s="241"/>
+      <c r="N10" s="242">
+        <v>0</v>
+      </c>
+      <c r="O10" s="190" t="s">
         <v>49</v>
       </c>
-      <c r="P10" s="298" t="s">
+      <c r="P10" s="243" t="s">
         <v>52</v>
       </c>
-      <c r="Q10" s="326"/>
-    </row>
-    <row r="11" s="211" customFormat="1" collapsed="1" spans="1:19">
-      <c r="A11" s="223" t="s">
+      <c r="Q10" s="271"/>
+    </row>
+    <row r="11" s="156" customFormat="1" collapsed="1" spans="1:19">
+      <c r="A11" s="168" t="s">
         <v>40</v>
       </c>
-      <c r="B11" s="224" t="str">
+      <c r="B11" s="169" t="str">
         <f>IF(COUNTA(B12:B14)&gt;0,"z","")</f>
         <v/>
       </c>
-      <c r="C11" s="225" t="str">
+      <c r="C11" s="170" t="str">
         <f>IF(COUNTA(C12:C14)&gt;0,"y","")</f>
         <v/>
       </c>
-      <c r="D11" s="226" t="str">
+      <c r="D11" s="171" t="str">
         <f>IF(COUNTA(D12:D14)&gt;0,"x","")</f>
         <v>x</v>
       </c>
-      <c r="E11" s="224">
-        <v>0</v>
-      </c>
-      <c r="F11" s="225">
-        <v>1</v>
-      </c>
-      <c r="G11" s="225">
-        <v>0</v>
-      </c>
-      <c r="H11" s="226">
-        <v>0</v>
-      </c>
-      <c r="I11" s="282">
+      <c r="E11" s="169">
+        <v>0</v>
+      </c>
+      <c r="F11" s="170">
+        <v>1</v>
+      </c>
+      <c r="G11" s="170">
+        <v>0</v>
+      </c>
+      <c r="H11" s="171">
+        <v>0</v>
+      </c>
+      <c r="I11" s="227">
         <f>SUM(E11*8,F11*4,G11*2,H11)</f>
         <v>4</v>
       </c>
-      <c r="J11" s="283">
+      <c r="J11" s="228">
         <f>IF(I11&lt;=9,I11,CHAR(I11-10+CODE("A")))</f>
         <v>4</v>
       </c>
-      <c r="K11" s="284" t="s">
+      <c r="K11" s="229" t="s">
         <v>53</v>
       </c>
-      <c r="L11" s="284"/>
-      <c r="M11" s="288"/>
-      <c r="N11" s="289">
+      <c r="L11" s="229"/>
+      <c r="M11" s="233"/>
+      <c r="N11" s="234">
         <f>1+SUM(N12:N14)</f>
         <v>5</v>
       </c>
-      <c r="O11" s="290" t="str">
+      <c r="O11" s="235" t="str">
         <f>CONCATENATE(1+SUM(O12:O14)," + 2 GB")</f>
         <v>9 + 2 GB</v>
       </c>
-      <c r="P11" s="287"/>
-      <c r="Q11" s="322"/>
-      <c r="R11" s="323">
+      <c r="P11" s="232"/>
+      <c r="Q11" s="267"/>
+      <c r="R11" s="268">
         <v>3</v>
       </c>
-      <c r="S11" s="323">
+      <c r="S11" s="268">
         <v>4</v>
       </c>
     </row>
     <row r="12" ht="15" customHeight="1" outlineLevel="1" spans="1:17">
-      <c r="A12" s="227"/>
-      <c r="B12" s="228"/>
-      <c r="C12" s="234"/>
-      <c r="D12" s="230" t="s">
+      <c r="A12" s="172"/>
+      <c r="B12" s="173"/>
+      <c r="C12" s="179"/>
+      <c r="D12" s="175" t="s">
         <v>43</v>
       </c>
-      <c r="E12" s="231"/>
-      <c r="F12" s="232"/>
-      <c r="G12" s="232"/>
-      <c r="H12" s="233"/>
+      <c r="E12" s="176"/>
+      <c r="F12" s="177"/>
+      <c r="G12" s="177"/>
+      <c r="H12" s="178"/>
       <c r="I12" s="127"/>
       <c r="J12" s="128"/>
-      <c r="K12" s="291"/>
-      <c r="L12" s="291"/>
-      <c r="M12" s="292" t="s">
+      <c r="K12" s="236"/>
+      <c r="L12" s="236"/>
+      <c r="M12" s="237" t="s">
         <v>54</v>
       </c>
-      <c r="N12" s="228"/>
-      <c r="O12" s="229">
+      <c r="N12" s="173"/>
+      <c r="O12" s="174">
         <v>4</v>
       </c>
-      <c r="P12" s="293" t="s">
+      <c r="P12" s="238" t="s">
         <v>55</v>
       </c>
-      <c r="Q12" s="324"/>
+      <c r="Q12" s="269"/>
     </row>
     <row r="13" ht="15" customHeight="1" outlineLevel="1" spans="1:17">
-      <c r="A13" s="236"/>
-      <c r="B13" s="250"/>
-      <c r="C13" s="251"/>
-      <c r="D13" s="252"/>
-      <c r="E13" s="240"/>
-      <c r="F13" s="241"/>
-      <c r="G13" s="241"/>
-      <c r="H13" s="242"/>
+      <c r="A13" s="181"/>
+      <c r="B13" s="195"/>
+      <c r="C13" s="196"/>
+      <c r="D13" s="197"/>
+      <c r="E13" s="185"/>
+      <c r="F13" s="186"/>
+      <c r="G13" s="186"/>
+      <c r="H13" s="187"/>
       <c r="I13" s="127"/>
       <c r="J13" s="128"/>
-      <c r="K13" s="205"/>
-      <c r="L13" s="205"/>
-      <c r="M13" s="294"/>
-      <c r="N13" s="250">
+      <c r="K13" s="150"/>
+      <c r="L13" s="150"/>
+      <c r="M13" s="239"/>
+      <c r="N13" s="195">
         <v>4</v>
       </c>
-      <c r="O13" s="238">
+      <c r="O13" s="183">
         <v>4</v>
       </c>
-      <c r="P13" s="295" t="s">
+      <c r="P13" s="240" t="s">
         <v>30</v>
       </c>
-      <c r="Q13" s="325"/>
+      <c r="Q13" s="270"/>
     </row>
     <row r="14" ht="15" customHeight="1" outlineLevel="1" spans="1:17">
-      <c r="A14" s="253"/>
-      <c r="B14" s="254"/>
-      <c r="C14" s="255"/>
-      <c r="D14" s="256"/>
-      <c r="E14" s="257"/>
-      <c r="F14" s="258"/>
-      <c r="G14" s="258"/>
-      <c r="H14" s="259"/>
+      <c r="A14" s="198"/>
+      <c r="B14" s="199"/>
+      <c r="C14" s="200"/>
+      <c r="D14" s="201"/>
+      <c r="E14" s="202"/>
+      <c r="F14" s="203"/>
+      <c r="G14" s="203"/>
+      <c r="H14" s="204"/>
       <c r="I14" s="127"/>
       <c r="J14" s="128"/>
-      <c r="K14" s="299"/>
-      <c r="L14" s="299"/>
-      <c r="M14" s="300"/>
-      <c r="N14" s="254">
-        <v>0</v>
-      </c>
-      <c r="O14" s="268" t="s">
+      <c r="K14" s="244"/>
+      <c r="L14" s="244"/>
+      <c r="M14" s="245"/>
+      <c r="N14" s="199">
+        <v>0</v>
+      </c>
+      <c r="O14" s="213" t="s">
         <v>56</v>
       </c>
-      <c r="P14" s="301" t="s">
+      <c r="P14" s="246" t="s">
         <v>53</v>
       </c>
-      <c r="Q14" s="327"/>
-    </row>
-    <row r="15" s="211" customFormat="1" spans="1:19">
-      <c r="A15" s="223" t="s">
+      <c r="Q14" s="272"/>
+    </row>
+    <row r="15" s="156" customFormat="1" spans="1:19">
+      <c r="A15" s="168" t="s">
         <v>40</v>
       </c>
-      <c r="B15" s="224" t="str">
+      <c r="B15" s="169" t="str">
         <f>IF(COUNTA(B16:B17)&gt;0,"z","")</f>
         <v/>
       </c>
-      <c r="C15" s="225" t="str">
+      <c r="C15" s="170" t="str">
         <f>IF(COUNTA(C16:C17)&gt;0,"y","")</f>
         <v/>
       </c>
-      <c r="D15" s="226" t="str">
+      <c r="D15" s="171" t="str">
         <f>IF(COUNTA(D16:D17)&gt;0,"x","")</f>
         <v/>
       </c>
-      <c r="E15" s="224">
-        <v>1</v>
-      </c>
-      <c r="F15" s="225">
-        <v>1</v>
-      </c>
-      <c r="G15" s="225">
-        <v>0</v>
-      </c>
-      <c r="H15" s="226">
-        <v>0</v>
-      </c>
-      <c r="I15" s="282">
+      <c r="E15" s="169">
+        <v>1</v>
+      </c>
+      <c r="F15" s="170">
+        <v>1</v>
+      </c>
+      <c r="G15" s="170">
+        <v>0</v>
+      </c>
+      <c r="H15" s="171">
+        <v>0</v>
+      </c>
+      <c r="I15" s="227">
         <f>SUM(E15*8,F15*4,G15*2,H15)</f>
         <v>12</v>
       </c>
-      <c r="J15" s="283" t="str">
+      <c r="J15" s="228" t="str">
         <f>IF(I15&lt;=9,I15,CHAR(I15-10+CODE("A")))</f>
         <v>C</v>
       </c>
-      <c r="K15" s="288" t="s">
+      <c r="K15" s="233" t="s">
         <v>57</v>
       </c>
-      <c r="L15" s="285"/>
-      <c r="M15" s="286"/>
-      <c r="N15" s="289" t="s">
+      <c r="L15" s="230"/>
+      <c r="M15" s="231"/>
+      <c r="N15" s="234" t="s">
         <v>58</v>
       </c>
-      <c r="O15" s="290" t="s">
+      <c r="O15" s="235" t="s">
         <v>58</v>
       </c>
-      <c r="P15" s="287"/>
-      <c r="Q15" s="322" t="s">
+      <c r="P15" s="232"/>
+      <c r="Q15" s="267" t="s">
         <v>53</v>
       </c>
-      <c r="R15" s="323">
-        <v>0</v>
-      </c>
-      <c r="S15" s="323">
+      <c r="R15" s="268">
+        <v>0</v>
+      </c>
+      <c r="S15" s="268">
         <v>0</v>
       </c>
     </row>
     <row r="16" ht="15" hidden="1" customHeight="1" outlineLevel="1" spans="1:17">
-      <c r="A16" s="260"/>
-      <c r="B16" s="261"/>
-      <c r="C16" s="262"/>
-      <c r="D16" s="263"/>
-      <c r="E16" s="264"/>
-      <c r="F16" s="265"/>
-      <c r="G16" s="265"/>
-      <c r="H16" s="266"/>
+      <c r="A16" s="205"/>
+      <c r="B16" s="206"/>
+      <c r="C16" s="207"/>
+      <c r="D16" s="208"/>
+      <c r="E16" s="209"/>
+      <c r="F16" s="210"/>
+      <c r="G16" s="210"/>
+      <c r="H16" s="211"/>
       <c r="I16" s="127"/>
       <c r="J16" s="128"/>
-      <c r="K16" s="302"/>
-      <c r="L16" s="302"/>
-      <c r="M16" s="303"/>
-      <c r="N16" s="304"/>
-      <c r="O16" s="262"/>
-      <c r="P16" s="305"/>
-      <c r="Q16" s="328"/>
+      <c r="K16" s="247"/>
+      <c r="L16" s="247"/>
+      <c r="M16" s="248"/>
+      <c r="N16" s="249"/>
+      <c r="O16" s="207"/>
+      <c r="P16" s="250"/>
+      <c r="Q16" s="273"/>
     </row>
     <row r="17" ht="15" hidden="1" customHeight="1" outlineLevel="1" spans="1:17">
-      <c r="A17" s="253"/>
-      <c r="B17" s="267"/>
-      <c r="C17" s="268"/>
-      <c r="D17" s="269"/>
-      <c r="E17" s="257"/>
-      <c r="F17" s="258"/>
-      <c r="G17" s="258"/>
-      <c r="H17" s="259"/>
+      <c r="A17" s="198"/>
+      <c r="B17" s="212"/>
+      <c r="C17" s="213"/>
+      <c r="D17" s="214"/>
+      <c r="E17" s="202"/>
+      <c r="F17" s="203"/>
+      <c r="G17" s="203"/>
+      <c r="H17" s="204"/>
       <c r="I17" s="127"/>
       <c r="J17" s="128"/>
-      <c r="K17" s="299"/>
-      <c r="L17" s="299"/>
-      <c r="M17" s="300"/>
-      <c r="N17" s="254"/>
-      <c r="O17" s="268"/>
-      <c r="P17" s="301"/>
-      <c r="Q17" s="327"/>
-    </row>
-    <row r="18" s="211" customFormat="1" collapsed="1" spans="1:19">
-      <c r="A18" s="223" t="s">
+      <c r="K17" s="244"/>
+      <c r="L17" s="244"/>
+      <c r="M17" s="245"/>
+      <c r="N17" s="199"/>
+      <c r="O17" s="213"/>
+      <c r="P17" s="246"/>
+      <c r="Q17" s="272"/>
+    </row>
+    <row r="18" s="156" customFormat="1" collapsed="1" spans="1:19">
+      <c r="A18" s="168" t="s">
         <v>40</v>
       </c>
-      <c r="B18" s="224" t="str">
+      <c r="B18" s="169" t="str">
         <f>IF(COUNTA(B19:B22)&gt;0,"z","")</f>
         <v>z</v>
       </c>
-      <c r="C18" s="225" t="str">
+      <c r="C18" s="170" t="str">
         <f>IF(COUNTA(C19:C22)&gt;0,"y","")</f>
         <v>y</v>
       </c>
-      <c r="D18" s="226" t="str">
+      <c r="D18" s="171" t="str">
         <f>IF(COUNTA(D19:D22)&gt;0,"x","")</f>
         <v>x</v>
       </c>
-      <c r="E18" s="224">
-        <v>0</v>
-      </c>
-      <c r="F18" s="225">
-        <v>0</v>
-      </c>
-      <c r="G18" s="225">
-        <v>1</v>
-      </c>
-      <c r="H18" s="226">
-        <v>0</v>
-      </c>
-      <c r="I18" s="282">
+      <c r="E18" s="169">
+        <v>0</v>
+      </c>
+      <c r="F18" s="170">
+        <v>0</v>
+      </c>
+      <c r="G18" s="170">
+        <v>1</v>
+      </c>
+      <c r="H18" s="171">
+        <v>0</v>
+      </c>
+      <c r="I18" s="227">
         <f>SUM(E18*8,F18*4,G18*2,H18)</f>
         <v>2</v>
       </c>
-      <c r="J18" s="283">
+      <c r="J18" s="228">
         <f>IF(I18&lt;=9,I18,CHAR(I18-10+CODE("A")))</f>
         <v>2</v>
       </c>
-      <c r="K18" s="284" t="s">
+      <c r="K18" s="229" t="s">
         <v>59</v>
       </c>
-      <c r="L18" s="285"/>
-      <c r="M18" s="286"/>
-      <c r="N18" s="289">
+      <c r="L18" s="230"/>
+      <c r="M18" s="231"/>
+      <c r="N18" s="234">
         <v>5</v>
       </c>
-      <c r="O18" s="290" t="s">
+      <c r="O18" s="235" t="s">
         <v>60</v>
       </c>
-      <c r="P18" s="287"/>
-      <c r="Q18" s="322"/>
-      <c r="R18" s="323">
+      <c r="P18" s="232"/>
+      <c r="Q18" s="267"/>
+      <c r="R18" s="268">
         <v>3</v>
       </c>
-      <c r="S18" s="323">
+      <c r="S18" s="268">
         <v>4</v>
       </c>
     </row>
-    <row r="19" s="213" customFormat="1" hidden="1" outlineLevel="1" spans="1:19">
-      <c r="A19" s="270"/>
-      <c r="B19" s="264"/>
-      <c r="C19" s="271">
-        <v>0</v>
-      </c>
-      <c r="D19" s="272">
-        <v>0</v>
-      </c>
-      <c r="E19" s="264"/>
-      <c r="F19" s="265"/>
-      <c r="G19" s="265"/>
-      <c r="H19" s="266"/>
+    <row r="19" s="158" customFormat="1" hidden="1" outlineLevel="1" spans="1:19">
+      <c r="A19" s="215"/>
+      <c r="B19" s="209"/>
+      <c r="C19" s="216">
+        <v>0</v>
+      </c>
+      <c r="D19" s="217">
+        <v>0</v>
+      </c>
+      <c r="E19" s="209"/>
+      <c r="F19" s="210"/>
+      <c r="G19" s="210"/>
+      <c r="H19" s="211"/>
       <c r="I19" s="127"/>
       <c r="J19" s="128"/>
-      <c r="K19" s="306"/>
-      <c r="L19" s="306"/>
-      <c r="M19" s="307" t="s">
+      <c r="K19" s="251"/>
+      <c r="L19" s="251"/>
+      <c r="M19" s="252" t="s">
         <v>61</v>
       </c>
-      <c r="N19" s="273" t="s">
+      <c r="N19" s="218" t="s">
         <v>62</v>
       </c>
-      <c r="O19" s="271" t="s">
+      <c r="O19" s="216" t="s">
         <v>62</v>
       </c>
-      <c r="P19" s="308" t="s">
+      <c r="P19" s="253" t="s">
         <v>63</v>
       </c>
-      <c r="Q19" s="329" t="s">
+      <c r="Q19" s="274" t="s">
         <v>64</v>
       </c>
-      <c r="R19" s="215"/>
-      <c r="S19" s="215"/>
-    </row>
-    <row r="20" s="213" customFormat="1" hidden="1" outlineLevel="1" spans="1:19">
-      <c r="A20" s="270"/>
-      <c r="B20" s="264"/>
-      <c r="C20" s="271">
-        <v>0</v>
-      </c>
-      <c r="D20" s="272">
-        <v>1</v>
-      </c>
-      <c r="E20" s="264"/>
-      <c r="F20" s="265"/>
-      <c r="G20" s="265"/>
-      <c r="H20" s="266"/>
+      <c r="R19" s="160"/>
+      <c r="S19" s="160"/>
+    </row>
+    <row r="20" s="158" customFormat="1" hidden="1" outlineLevel="1" spans="1:19">
+      <c r="A20" s="215"/>
+      <c r="B20" s="209"/>
+      <c r="C20" s="216">
+        <v>0</v>
+      </c>
+      <c r="D20" s="217">
+        <v>1</v>
+      </c>
+      <c r="E20" s="209"/>
+      <c r="F20" s="210"/>
+      <c r="G20" s="210"/>
+      <c r="H20" s="211"/>
       <c r="I20" s="127"/>
       <c r="J20" s="128"/>
-      <c r="K20" s="306"/>
-      <c r="L20" s="306"/>
-      <c r="M20" s="307" t="s">
+      <c r="K20" s="251"/>
+      <c r="L20" s="251"/>
+      <c r="M20" s="252" t="s">
         <v>65</v>
       </c>
-      <c r="N20" s="273">
+      <c r="N20" s="218">
         <v>4</v>
       </c>
-      <c r="O20" s="271">
+      <c r="O20" s="216">
         <v>4</v>
       </c>
-      <c r="P20" s="308" t="s">
+      <c r="P20" s="253" t="s">
         <v>66</v>
       </c>
-      <c r="Q20" s="329" t="s">
+      <c r="Q20" s="274" t="s">
         <v>64</v>
       </c>
-      <c r="R20" s="215"/>
-      <c r="S20" s="215"/>
-    </row>
-    <row r="21" s="213" customFormat="1" hidden="1" outlineLevel="1" spans="1:19">
-      <c r="A21" s="270"/>
-      <c r="B21" s="273" t="s">
+      <c r="R20" s="160"/>
+      <c r="S20" s="160"/>
+    </row>
+    <row r="21" s="158" customFormat="1" hidden="1" outlineLevel="1" spans="1:19">
+      <c r="A21" s="215"/>
+      <c r="B21" s="218" t="s">
         <v>43</v>
       </c>
-      <c r="C21" s="271"/>
-      <c r="D21" s="272"/>
-      <c r="E21" s="264"/>
-      <c r="F21" s="265"/>
-      <c r="G21" s="265"/>
-      <c r="H21" s="266"/>
+      <c r="C21" s="216"/>
+      <c r="D21" s="217"/>
+      <c r="E21" s="209"/>
+      <c r="F21" s="210"/>
+      <c r="G21" s="210"/>
+      <c r="H21" s="211"/>
       <c r="I21" s="127"/>
       <c r="J21" s="128"/>
-      <c r="K21" s="306"/>
-      <c r="L21" s="306" t="s">
+      <c r="K21" s="251"/>
+      <c r="L21" s="251" t="s">
         <v>65</v>
       </c>
-      <c r="M21" s="307" t="s">
+      <c r="M21" s="252" t="s">
         <v>67</v>
       </c>
-      <c r="N21" s="273">
+      <c r="N21" s="218">
         <v>8</v>
       </c>
-      <c r="O21" s="271">
+      <c r="O21" s="216">
         <v>8</v>
       </c>
-      <c r="P21" s="308" t="s">
+      <c r="P21" s="253" t="s">
         <v>68</v>
       </c>
-      <c r="Q21" s="329"/>
-      <c r="R21" s="215"/>
-      <c r="S21" s="215"/>
+      <c r="Q21" s="274"/>
+      <c r="R21" s="160"/>
+      <c r="S21" s="160"/>
     </row>
     <row r="22" ht="15" hidden="1" customHeight="1" outlineLevel="1" spans="1:17">
-      <c r="A22" s="227"/>
-      <c r="B22" s="228"/>
-      <c r="C22" s="229">
-        <v>1</v>
-      </c>
-      <c r="D22" s="230">
-        <v>1</v>
-      </c>
-      <c r="E22" s="231"/>
-      <c r="F22" s="232"/>
-      <c r="G22" s="232"/>
-      <c r="H22" s="233"/>
+      <c r="A22" s="172"/>
+      <c r="B22" s="173"/>
+      <c r="C22" s="174">
+        <v>1</v>
+      </c>
+      <c r="D22" s="175">
+        <v>1</v>
+      </c>
+      <c r="E22" s="176"/>
+      <c r="F22" s="177"/>
+      <c r="G22" s="177"/>
+      <c r="H22" s="178"/>
       <c r="I22" s="127"/>
       <c r="J22" s="128"/>
-      <c r="K22" s="291"/>
-      <c r="L22" s="291"/>
-      <c r="M22" s="292" t="s">
+      <c r="K22" s="236"/>
+      <c r="L22" s="236"/>
+      <c r="M22" s="237" t="s">
         <v>69</v>
       </c>
-      <c r="N22" s="275">
+      <c r="N22" s="220">
         <v>4</v>
       </c>
-      <c r="O22" s="234">
+      <c r="O22" s="179">
         <v>4</v>
       </c>
-      <c r="P22" s="293" t="s">
+      <c r="P22" s="238" t="s">
         <v>70</v>
       </c>
-      <c r="Q22" s="324" t="s">
+      <c r="Q22" s="269" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="23" s="211" customFormat="1" collapsed="1" spans="1:19">
-      <c r="A23" s="223" t="s">
+    <row r="23" s="156" customFormat="1" collapsed="1" spans="1:19">
+      <c r="A23" s="168" t="s">
         <v>40</v>
       </c>
-      <c r="B23" s="224" t="str">
+      <c r="B23" s="169" t="str">
         <f>IF(COUNTA(B24:B25)&gt;0,"z","")</f>
         <v/>
       </c>
-      <c r="C23" s="225" t="str">
+      <c r="C23" s="170" t="str">
         <f>IF(COUNTA(C24:C25)&gt;0,"y","")</f>
         <v/>
       </c>
-      <c r="D23" s="226" t="str">
+      <c r="D23" s="171" t="str">
         <f>IF(COUNTA(D24:D25)&gt;0,"x","")</f>
         <v/>
       </c>
-      <c r="E23" s="224">
-        <v>1</v>
-      </c>
-      <c r="F23" s="225">
-        <v>0</v>
-      </c>
-      <c r="G23" s="225">
-        <v>1</v>
-      </c>
-      <c r="H23" s="226">
-        <v>0</v>
-      </c>
-      <c r="I23" s="282">
+      <c r="E23" s="169">
+        <v>1</v>
+      </c>
+      <c r="F23" s="170">
+        <v>0</v>
+      </c>
+      <c r="G23" s="170">
+        <v>1</v>
+      </c>
+      <c r="H23" s="171">
+        <v>0</v>
+      </c>
+      <c r="I23" s="227">
         <f>SUM(E23*8,F23*4,G23*2,H23)</f>
         <v>10</v>
       </c>
-      <c r="J23" s="283" t="str">
+      <c r="J23" s="228" t="str">
         <f>IF(I23&lt;=9,I23,CHAR(I23-10+CODE("A")))</f>
         <v>A</v>
       </c>
-      <c r="K23" s="284" t="s">
+      <c r="K23" s="229" t="s">
         <v>71</v>
       </c>
-      <c r="L23" s="285"/>
-      <c r="M23" s="286"/>
-      <c r="N23" s="289">
+      <c r="L23" s="230"/>
+      <c r="M23" s="231"/>
+      <c r="N23" s="234">
         <f>1+SUM(N24:N25)</f>
         <v>5</v>
       </c>
-      <c r="O23" s="290">
+      <c r="O23" s="235">
         <f>1+SUM(O24:O25)</f>
         <v>5</v>
       </c>
-      <c r="P23" s="287"/>
-      <c r="Q23" s="322" t="s">
+      <c r="P23" s="232"/>
+      <c r="Q23" s="267" t="s">
         <v>72</v>
       </c>
-      <c r="R23" s="323">
+      <c r="R23" s="268">
         <v>3</v>
       </c>
-      <c r="S23" s="323">
+      <c r="S23" s="268">
         <v>4</v>
       </c>
     </row>
-    <row r="24" s="213" customFormat="1" hidden="1" outlineLevel="1" spans="1:19">
-      <c r="A24" s="274"/>
-      <c r="B24" s="247"/>
-      <c r="C24" s="248"/>
-      <c r="D24" s="249"/>
-      <c r="E24" s="247"/>
-      <c r="F24" s="248"/>
-      <c r="G24" s="248"/>
-      <c r="H24" s="249"/>
+    <row r="24" s="158" customFormat="1" hidden="1" outlineLevel="1" spans="1:19">
+      <c r="A24" s="219"/>
+      <c r="B24" s="192"/>
+      <c r="C24" s="193"/>
+      <c r="D24" s="194"/>
+      <c r="E24" s="192"/>
+      <c r="F24" s="193"/>
+      <c r="G24" s="193"/>
+      <c r="H24" s="194"/>
       <c r="I24" s="127"/>
       <c r="J24" s="128"/>
-      <c r="K24" s="309"/>
-      <c r="L24" s="310"/>
-      <c r="M24" s="311"/>
-      <c r="N24" s="312">
+      <c r="K24" s="254"/>
+      <c r="L24" s="255"/>
+      <c r="M24" s="256"/>
+      <c r="N24" s="257">
         <v>4</v>
       </c>
-      <c r="O24" s="313">
+      <c r="O24" s="258">
         <v>4</v>
       </c>
-      <c r="P24" s="314" t="s">
+      <c r="P24" s="259" t="s">
         <v>73</v>
       </c>
-      <c r="Q24" s="330"/>
-      <c r="R24" s="215"/>
-      <c r="S24" s="215"/>
+      <c r="Q24" s="275"/>
+      <c r="R24" s="160"/>
+      <c r="S24" s="160"/>
     </row>
     <row r="25" ht="15" hidden="1" customHeight="1" outlineLevel="1" spans="1:17">
-      <c r="A25" s="253"/>
-      <c r="B25" s="254"/>
-      <c r="C25" s="268"/>
-      <c r="D25" s="269"/>
-      <c r="E25" s="257"/>
-      <c r="F25" s="258"/>
-      <c r="G25" s="258"/>
-      <c r="H25" s="259"/>
+      <c r="A25" s="198"/>
+      <c r="B25" s="199"/>
+      <c r="C25" s="213"/>
+      <c r="D25" s="214"/>
+      <c r="E25" s="202"/>
+      <c r="F25" s="203"/>
+      <c r="G25" s="203"/>
+      <c r="H25" s="204"/>
       <c r="I25" s="127"/>
       <c r="J25" s="128"/>
-      <c r="K25" s="299"/>
-      <c r="L25" s="299"/>
-      <c r="M25" s="300"/>
-      <c r="N25" s="267"/>
-      <c r="O25" s="255"/>
-      <c r="P25" s="301"/>
-      <c r="Q25" s="327"/>
-    </row>
-    <row r="26" s="211" customFormat="1" collapsed="1" spans="1:19">
-      <c r="A26" s="223" t="s">
+      <c r="K25" s="244"/>
+      <c r="L25" s="244"/>
+      <c r="M25" s="245"/>
+      <c r="N25" s="212"/>
+      <c r="O25" s="200"/>
+      <c r="P25" s="246"/>
+      <c r="Q25" s="272"/>
+    </row>
+    <row r="26" s="156" customFormat="1" collapsed="1" spans="1:19">
+      <c r="A26" s="168" t="s">
         <v>40</v>
       </c>
-      <c r="B26" s="224" t="str">
+      <c r="B26" s="169" t="str">
         <f>IF(COUNTA(B27:B30)&gt;0,"z","")</f>
         <v>z</v>
       </c>
-      <c r="C26" s="225" t="str">
+      <c r="C26" s="170" t="str">
         <f>IF(COUNTA(C27:C30)&gt;0,"y","")</f>
         <v>y</v>
       </c>
-      <c r="D26" s="226" t="str">
+      <c r="D26" s="171" t="str">
         <f>IF(COUNTA(D27:D30)&gt;0,"x","")</f>
         <v>x</v>
       </c>
-      <c r="E26" s="224">
-        <v>0</v>
-      </c>
-      <c r="F26" s="225">
-        <v>1</v>
-      </c>
-      <c r="G26" s="225">
-        <v>1</v>
-      </c>
-      <c r="H26" s="226">
-        <v>0</v>
-      </c>
-      <c r="I26" s="282">
+      <c r="E26" s="169">
+        <v>0</v>
+      </c>
+      <c r="F26" s="170">
+        <v>1</v>
+      </c>
+      <c r="G26" s="170">
+        <v>1</v>
+      </c>
+      <c r="H26" s="171">
+        <v>0</v>
+      </c>
+      <c r="I26" s="227">
         <f>SUM(E26*8,F26*4,G26*2,H26)</f>
         <v>6</v>
       </c>
-      <c r="J26" s="283">
+      <c r="J26" s="228">
         <f>IF(I26&lt;=9,I26,CHAR(I26-10+CODE("A")))</f>
         <v>6</v>
       </c>
-      <c r="K26" s="284" t="s">
+      <c r="K26" s="229" t="s">
         <v>74</v>
       </c>
-      <c r="L26" s="284"/>
-      <c r="M26" s="288"/>
-      <c r="N26" s="289" t="s">
+      <c r="L26" s="229"/>
+      <c r="M26" s="233"/>
+      <c r="N26" s="234" t="s">
         <v>60</v>
       </c>
-      <c r="O26" s="290" t="str">
+      <c r="O26" s="235" t="str">
         <f>CONCATENATE(1+SUM(O27:O30)," + str")</f>
         <v>1 + str</v>
       </c>
-      <c r="P26" s="287"/>
-      <c r="Q26" s="322" t="s">
+      <c r="P26" s="232"/>
+      <c r="Q26" s="267" t="s">
         <v>75</v>
       </c>
-      <c r="R26" s="323">
+      <c r="R26" s="268">
         <v>3</v>
       </c>
-      <c r="S26" s="323">
+      <c r="S26" s="268">
         <v>4</v>
       </c>
     </row>
     <row r="27" ht="15" hidden="1" customHeight="1" outlineLevel="1" spans="1:17">
-      <c r="A27" s="227"/>
-      <c r="B27" s="228"/>
-      <c r="C27" s="229"/>
-      <c r="D27" s="230"/>
-      <c r="E27" s="231"/>
-      <c r="F27" s="232"/>
-      <c r="G27" s="232"/>
-      <c r="H27" s="233"/>
+      <c r="A27" s="172"/>
+      <c r="B27" s="173"/>
+      <c r="C27" s="174"/>
+      <c r="D27" s="175"/>
+      <c r="E27" s="176"/>
+      <c r="F27" s="177"/>
+      <c r="G27" s="177"/>
+      <c r="H27" s="178"/>
       <c r="I27" s="127"/>
       <c r="J27" s="128"/>
-      <c r="K27" s="291"/>
-      <c r="L27" s="205"/>
-      <c r="M27" s="292"/>
-      <c r="N27" s="237" t="s">
+      <c r="K27" s="236"/>
+      <c r="L27" s="150"/>
+      <c r="M27" s="237"/>
+      <c r="N27" s="182" t="s">
         <v>62</v>
       </c>
-      <c r="O27" s="251" t="s">
+      <c r="O27" s="196" t="s">
         <v>62</v>
       </c>
-      <c r="P27" s="295" t="s">
+      <c r="P27" s="240" t="s">
         <v>76</v>
       </c>
-      <c r="Q27" s="324"/>
+      <c r="Q27" s="269"/>
     </row>
     <row r="28" ht="15" hidden="1" customHeight="1" outlineLevel="1" spans="1:17">
-      <c r="A28" s="236"/>
-      <c r="B28" s="237"/>
-      <c r="C28" s="251"/>
-      <c r="D28" s="252" t="s">
+      <c r="A28" s="181"/>
+      <c r="B28" s="182"/>
+      <c r="C28" s="196"/>
+      <c r="D28" s="197" t="s">
         <v>43</v>
       </c>
-      <c r="E28" s="240"/>
-      <c r="F28" s="241"/>
-      <c r="G28" s="241"/>
-      <c r="H28" s="242"/>
+      <c r="E28" s="185"/>
+      <c r="F28" s="186"/>
+      <c r="G28" s="186"/>
+      <c r="H28" s="187"/>
       <c r="I28" s="127"/>
       <c r="J28" s="128"/>
-      <c r="K28" s="205"/>
-      <c r="L28" s="205"/>
-      <c r="M28" s="294" t="s">
+      <c r="K28" s="150"/>
+      <c r="L28" s="150"/>
+      <c r="M28" s="239" t="s">
         <v>77</v>
       </c>
-      <c r="N28" s="237"/>
-      <c r="O28" s="251"/>
-      <c r="P28" s="295"/>
-      <c r="Q28" s="325"/>
+      <c r="N28" s="182"/>
+      <c r="O28" s="196"/>
+      <c r="P28" s="240"/>
+      <c r="Q28" s="270"/>
     </row>
     <row r="29" ht="15" hidden="1" customHeight="1" outlineLevel="1" spans="1:17">
-      <c r="A29" s="236"/>
-      <c r="B29" s="237"/>
-      <c r="C29" s="251" t="s">
+      <c r="A29" s="181"/>
+      <c r="B29" s="182"/>
+      <c r="C29" s="196" t="s">
         <v>43</v>
       </c>
-      <c r="D29" s="252"/>
-      <c r="E29" s="240"/>
-      <c r="F29" s="241"/>
-      <c r="G29" s="241"/>
-      <c r="H29" s="242"/>
+      <c r="D29" s="197"/>
+      <c r="E29" s="185"/>
+      <c r="F29" s="186"/>
+      <c r="G29" s="186"/>
+      <c r="H29" s="187"/>
       <c r="I29" s="127"/>
       <c r="J29" s="128"/>
-      <c r="K29" s="205"/>
-      <c r="L29" s="205" t="s">
+      <c r="K29" s="150"/>
+      <c r="L29" s="150" t="s">
         <v>78</v>
       </c>
-      <c r="M29" s="294" t="s">
+      <c r="M29" s="239" t="s">
         <v>79</v>
       </c>
-      <c r="N29" s="237"/>
-      <c r="O29" s="251"/>
-      <c r="P29" s="295"/>
-      <c r="Q29" s="325"/>
+      <c r="N29" s="182"/>
+      <c r="O29" s="196"/>
+      <c r="P29" s="240"/>
+      <c r="Q29" s="270"/>
     </row>
     <row r="30" ht="15" hidden="1" customHeight="1" outlineLevel="1" spans="1:17">
-      <c r="A30" s="253"/>
-      <c r="B30" s="254" t="s">
+      <c r="A30" s="198"/>
+      <c r="B30" s="199" t="s">
         <v>43</v>
       </c>
-      <c r="C30" s="268"/>
-      <c r="D30" s="256"/>
-      <c r="E30" s="257"/>
-      <c r="F30" s="258"/>
-      <c r="G30" s="258"/>
-      <c r="H30" s="259"/>
+      <c r="C30" s="213"/>
+      <c r="D30" s="201"/>
+      <c r="E30" s="202"/>
+      <c r="F30" s="203"/>
+      <c r="G30" s="203"/>
+      <c r="H30" s="204"/>
       <c r="I30" s="127"/>
       <c r="J30" s="128"/>
-      <c r="K30" s="299"/>
-      <c r="L30" s="205" t="s">
+      <c r="K30" s="244"/>
+      <c r="L30" s="150" t="s">
         <v>78</v>
       </c>
-      <c r="M30" s="294" t="s">
+      <c r="M30" s="239" t="s">
         <v>80</v>
       </c>
-      <c r="N30" s="254"/>
-      <c r="O30" s="268"/>
-      <c r="P30" s="301"/>
-      <c r="Q30" s="327"/>
+      <c r="N30" s="199"/>
+      <c r="O30" s="213"/>
+      <c r="P30" s="246"/>
+      <c r="Q30" s="272"/>
     </row>
     <row r="31" s="34" customFormat="1" collapsed="1" spans="1:19">
-      <c r="A31" s="223" t="s">
+      <c r="A31" s="168" t="s">
         <v>40</v>
       </c>
-      <c r="B31" s="224" t="str">
+      <c r="B31" s="169" t="str">
         <f>IF(COUNTA(B32:B34)&gt;0,"z","")</f>
         <v/>
       </c>
-      <c r="C31" s="225" t="str">
+      <c r="C31" s="170" t="str">
         <f>IF(COUNTA(C32:C34)&gt;0,"y","")</f>
         <v/>
       </c>
-      <c r="D31" s="226" t="str">
+      <c r="D31" s="171" t="str">
         <f>IF(COUNTA(D32:D34)&gt;0,"x","")</f>
         <v/>
       </c>
-      <c r="E31" s="224">
-        <v>1</v>
-      </c>
-      <c r="F31" s="225">
-        <v>1</v>
-      </c>
-      <c r="G31" s="225">
-        <v>1</v>
-      </c>
-      <c r="H31" s="226">
-        <v>0</v>
-      </c>
-      <c r="I31" s="282">
+      <c r="E31" s="169">
+        <v>1</v>
+      </c>
+      <c r="F31" s="170">
+        <v>1</v>
+      </c>
+      <c r="G31" s="170">
+        <v>1</v>
+      </c>
+      <c r="H31" s="171">
+        <v>0</v>
+      </c>
+      <c r="I31" s="227">
         <f>SUM(E31*8,F31*4,G31*2,H31)</f>
         <v>14</v>
       </c>
-      <c r="J31" s="283" t="str">
+      <c r="J31" s="228" t="str">
         <f>IF(I31&lt;=9,I31,CHAR(I31-10+CODE("A")))</f>
         <v>E</v>
       </c>
-      <c r="K31" s="284"/>
-      <c r="L31" s="285"/>
-      <c r="M31" s="286"/>
-      <c r="N31" s="289"/>
-      <c r="O31" s="290"/>
-      <c r="P31" s="287"/>
-      <c r="Q31" s="322"/>
-      <c r="R31" s="323"/>
-      <c r="S31" s="323"/>
+      <c r="K31" s="229"/>
+      <c r="L31" s="230"/>
+      <c r="M31" s="231"/>
+      <c r="N31" s="234"/>
+      <c r="O31" s="235"/>
+      <c r="P31" s="232"/>
+      <c r="Q31" s="267"/>
+      <c r="R31" s="268"/>
+      <c r="S31" s="268"/>
     </row>
     <row r="32" s="12" customFormat="1" ht="15" hidden="1" customHeight="1" outlineLevel="1" spans="1:19">
-      <c r="A32" s="227"/>
-      <c r="B32" s="228"/>
-      <c r="C32" s="229"/>
-      <c r="D32" s="230"/>
-      <c r="E32" s="231"/>
-      <c r="F32" s="232"/>
-      <c r="G32" s="232"/>
-      <c r="H32" s="233"/>
+      <c r="A32" s="172"/>
+      <c r="B32" s="173"/>
+      <c r="C32" s="174"/>
+      <c r="D32" s="175"/>
+      <c r="E32" s="176"/>
+      <c r="F32" s="177"/>
+      <c r="G32" s="177"/>
+      <c r="H32" s="178"/>
       <c r="I32" s="127"/>
       <c r="J32" s="128"/>
-      <c r="K32" s="291"/>
-      <c r="L32" s="291"/>
-      <c r="M32" s="292"/>
-      <c r="N32" s="275"/>
-      <c r="O32" s="234"/>
-      <c r="P32" s="293"/>
-      <c r="Q32" s="324"/>
-      <c r="R32" s="214"/>
-      <c r="S32" s="214"/>
+      <c r="K32" s="236"/>
+      <c r="L32" s="236"/>
+      <c r="M32" s="237"/>
+      <c r="N32" s="220"/>
+      <c r="O32" s="179"/>
+      <c r="P32" s="238"/>
+      <c r="Q32" s="269"/>
+      <c r="R32" s="159"/>
+      <c r="S32" s="159"/>
     </row>
     <row r="33" s="12" customFormat="1" ht="15" hidden="1" customHeight="1" outlineLevel="1" spans="1:19">
-      <c r="A33" s="227"/>
-      <c r="B33" s="228"/>
-      <c r="C33" s="234"/>
-      <c r="D33" s="235"/>
-      <c r="E33" s="231"/>
-      <c r="F33" s="232"/>
-      <c r="G33" s="232"/>
-      <c r="H33" s="233"/>
+      <c r="A33" s="172"/>
+      <c r="B33" s="173"/>
+      <c r="C33" s="179"/>
+      <c r="D33" s="180"/>
+      <c r="E33" s="176"/>
+      <c r="F33" s="177"/>
+      <c r="G33" s="177"/>
+      <c r="H33" s="178"/>
       <c r="I33" s="127"/>
       <c r="J33" s="128"/>
-      <c r="K33" s="291"/>
-      <c r="L33" s="291"/>
-      <c r="M33" s="292"/>
-      <c r="N33" s="275"/>
-      <c r="O33" s="234"/>
-      <c r="P33" s="293"/>
-      <c r="Q33" s="324"/>
-      <c r="R33" s="214"/>
-      <c r="S33" s="214"/>
+      <c r="K33" s="236"/>
+      <c r="L33" s="236"/>
+      <c r="M33" s="237"/>
+      <c r="N33" s="220"/>
+      <c r="O33" s="179"/>
+      <c r="P33" s="238"/>
+      <c r="Q33" s="269"/>
+      <c r="R33" s="159"/>
+      <c r="S33" s="159"/>
     </row>
     <row r="34" s="12" customFormat="1" ht="15" hidden="1" customHeight="1" outlineLevel="1" spans="1:19">
-      <c r="A34" s="253"/>
-      <c r="B34" s="254"/>
-      <c r="C34" s="255"/>
-      <c r="D34" s="256"/>
-      <c r="E34" s="257"/>
-      <c r="F34" s="258"/>
-      <c r="G34" s="258"/>
-      <c r="H34" s="259"/>
+      <c r="A34" s="198"/>
+      <c r="B34" s="199"/>
+      <c r="C34" s="200"/>
+      <c r="D34" s="201"/>
+      <c r="E34" s="202"/>
+      <c r="F34" s="203"/>
+      <c r="G34" s="203"/>
+      <c r="H34" s="204"/>
       <c r="I34" s="127"/>
       <c r="J34" s="128"/>
-      <c r="K34" s="299"/>
-      <c r="L34" s="299"/>
-      <c r="M34" s="300"/>
-      <c r="N34" s="254"/>
-      <c r="O34" s="268"/>
-      <c r="P34" s="301"/>
-      <c r="Q34" s="327"/>
-      <c r="R34" s="214"/>
-      <c r="S34" s="214"/>
-    </row>
-    <row r="35" s="211" customFormat="1" collapsed="1" spans="1:19">
-      <c r="A35" s="223" t="s">
+      <c r="K34" s="244"/>
+      <c r="L34" s="244"/>
+      <c r="M34" s="245"/>
+      <c r="N34" s="199"/>
+      <c r="O34" s="213"/>
+      <c r="P34" s="246"/>
+      <c r="Q34" s="272"/>
+      <c r="R34" s="159"/>
+      <c r="S34" s="159"/>
+    </row>
+    <row r="35" s="156" customFormat="1" collapsed="1" spans="1:19">
+      <c r="A35" s="168" t="s">
         <v>40</v>
       </c>
-      <c r="B35" s="224" t="str">
+      <c r="B35" s="169" t="str">
         <f>IF(COUNTA(B36)&gt;0,"z","")</f>
         <v/>
       </c>
-      <c r="C35" s="225" t="str">
+      <c r="C35" s="170" t="str">
         <f>IF(COUNTA(C36)&gt;0,"y","")</f>
         <v/>
       </c>
-      <c r="D35" s="226" t="str">
+      <c r="D35" s="171" t="str">
         <f>IF(COUNTA(D36)&gt;0,"x","")</f>
         <v/>
       </c>
-      <c r="E35" s="224">
-        <v>0</v>
-      </c>
-      <c r="F35" s="225">
-        <v>0</v>
-      </c>
-      <c r="G35" s="225">
-        <v>0</v>
-      </c>
-      <c r="H35" s="226">
-        <v>1</v>
-      </c>
-      <c r="I35" s="282">
+      <c r="E35" s="169">
+        <v>0</v>
+      </c>
+      <c r="F35" s="170">
+        <v>0</v>
+      </c>
+      <c r="G35" s="170">
+        <v>0</v>
+      </c>
+      <c r="H35" s="171">
+        <v>1</v>
+      </c>
+      <c r="I35" s="227">
         <f>SUM(E35*8,F35*4,G35*2,H35)</f>
         <v>1</v>
       </c>
-      <c r="J35" s="283">
+      <c r="J35" s="228">
         <f>IF(I35&lt;=9,I35,CHAR(I35-10+CODE("A")))</f>
         <v>1</v>
       </c>
-      <c r="K35" s="284" t="s">
+      <c r="K35" s="229" t="s">
         <v>81</v>
       </c>
-      <c r="L35" s="285"/>
-      <c r="M35" s="286"/>
-      <c r="N35" s="289">
+      <c r="L35" s="230"/>
+      <c r="M35" s="231"/>
+      <c r="N35" s="234">
         <f>1+SUM(N36)</f>
         <v>5</v>
       </c>
-      <c r="O35" s="290">
+      <c r="O35" s="235">
         <f>1+SUM(O36)</f>
         <v>5</v>
       </c>
-      <c r="P35" s="287"/>
-      <c r="Q35" s="322" t="s">
+      <c r="P35" s="232"/>
+      <c r="Q35" s="267" t="s">
         <v>82</v>
       </c>
-      <c r="R35" s="323">
+      <c r="R35" s="268">
         <v>3</v>
       </c>
-      <c r="S35" s="323">
+      <c r="S35" s="268">
         <v>0</v>
       </c>
     </row>
     <row r="36" ht="15" hidden="1" customHeight="1" outlineLevel="1" spans="1:17">
-      <c r="A36" s="253"/>
-      <c r="B36" s="267"/>
-      <c r="C36" s="255"/>
-      <c r="D36" s="269"/>
-      <c r="E36" s="257"/>
-      <c r="F36" s="258"/>
-      <c r="G36" s="258"/>
-      <c r="H36" s="259"/>
+      <c r="A36" s="198"/>
+      <c r="B36" s="212"/>
+      <c r="C36" s="200"/>
+      <c r="D36" s="214"/>
+      <c r="E36" s="202"/>
+      <c r="F36" s="203"/>
+      <c r="G36" s="203"/>
+      <c r="H36" s="204"/>
       <c r="I36" s="127"/>
       <c r="J36" s="128"/>
-      <c r="K36" s="299"/>
-      <c r="L36" s="299"/>
-      <c r="M36" s="300"/>
-      <c r="N36" s="254">
+      <c r="K36" s="244"/>
+      <c r="L36" s="244"/>
+      <c r="M36" s="245"/>
+      <c r="N36" s="199">
         <v>4</v>
       </c>
-      <c r="O36" s="268">
+      <c r="O36" s="213">
         <v>4</v>
       </c>
-      <c r="P36" s="301" t="s">
+      <c r="P36" s="246" t="s">
         <v>83</v>
       </c>
-      <c r="Q36" s="327"/>
-    </row>
-    <row r="37" s="211" customFormat="1" collapsed="1" spans="1:19">
-      <c r="A37" s="223" t="s">
+      <c r="Q36" s="272"/>
+    </row>
+    <row r="37" s="156" customFormat="1" collapsed="1" spans="1:19">
+      <c r="A37" s="168" t="s">
         <v>40</v>
       </c>
-      <c r="B37" s="224" t="str">
+      <c r="B37" s="169" t="str">
         <f>IF(COUNTA(B38:B42)&gt;0,"z","")</f>
         <v>z</v>
       </c>
-      <c r="C37" s="225" t="str">
+      <c r="C37" s="170" t="str">
         <f>IF(COUNTA(C38:C42)&gt;0,"y","")</f>
         <v>y</v>
       </c>
-      <c r="D37" s="226" t="str">
+      <c r="D37" s="171" t="str">
         <f>IF(COUNTA(D38:D42)&gt;0,"x","")</f>
         <v>x</v>
       </c>
-      <c r="E37" s="224">
-        <v>1</v>
-      </c>
-      <c r="F37" s="225">
-        <v>0</v>
-      </c>
-      <c r="G37" s="225">
-        <v>0</v>
-      </c>
-      <c r="H37" s="226">
-        <v>1</v>
-      </c>
-      <c r="I37" s="282">
+      <c r="E37" s="169">
+        <v>1</v>
+      </c>
+      <c r="F37" s="170">
+        <v>0</v>
+      </c>
+      <c r="G37" s="170">
+        <v>0</v>
+      </c>
+      <c r="H37" s="171">
+        <v>1</v>
+      </c>
+      <c r="I37" s="227">
         <f>SUM(E37*8,F37*4,G37*2,H37)</f>
         <v>9</v>
       </c>
-      <c r="J37" s="283">
+      <c r="J37" s="228">
         <f>IF(I37&lt;=9,I37,CHAR(I37-10+CODE("A")))</f>
         <v>9</v>
       </c>
-      <c r="K37" s="284" t="s">
+      <c r="K37" s="229" t="s">
         <v>84</v>
       </c>
-      <c r="L37" s="284"/>
-      <c r="M37" s="288"/>
-      <c r="N37" s="289">
+      <c r="L37" s="229"/>
+      <c r="M37" s="233"/>
+      <c r="N37" s="234">
         <v>5</v>
       </c>
-      <c r="O37" s="290" t="s">
+      <c r="O37" s="235" t="s">
         <v>85</v>
       </c>
-      <c r="P37" s="287"/>
-      <c r="Q37" s="322" t="s">
+      <c r="P37" s="232"/>
+      <c r="Q37" s="267" t="s">
         <v>82</v>
       </c>
-      <c r="R37" s="323">
+      <c r="R37" s="268">
         <v>3</v>
       </c>
-      <c r="S37" s="323">
+      <c r="S37" s="268">
         <v>4</v>
       </c>
     </row>
     <row r="38" ht="15" hidden="1" customHeight="1" outlineLevel="1" spans="1:17">
-      <c r="A38" s="227"/>
-      <c r="B38" s="228"/>
-      <c r="C38" s="234"/>
-      <c r="D38" s="230" t="s">
+      <c r="A38" s="172"/>
+      <c r="B38" s="173"/>
+      <c r="C38" s="179"/>
+      <c r="D38" s="175" t="s">
         <v>43</v>
       </c>
-      <c r="E38" s="231"/>
-      <c r="F38" s="232"/>
-      <c r="G38" s="232"/>
-      <c r="H38" s="233"/>
+      <c r="E38" s="176"/>
+      <c r="F38" s="177"/>
+      <c r="G38" s="177"/>
+      <c r="H38" s="178"/>
       <c r="I38" s="127"/>
       <c r="J38" s="128"/>
-      <c r="K38" s="291"/>
-      <c r="L38" s="315"/>
-      <c r="M38" s="316" t="s">
+      <c r="K38" s="236"/>
+      <c r="L38" s="260"/>
+      <c r="M38" s="261" t="s">
         <v>86</v>
       </c>
-      <c r="N38" s="228"/>
-      <c r="O38" s="234"/>
-      <c r="P38" s="293"/>
-      <c r="Q38" s="324"/>
+      <c r="N38" s="173"/>
+      <c r="O38" s="179"/>
+      <c r="P38" s="238"/>
+      <c r="Q38" s="269"/>
     </row>
     <row r="39" ht="15" hidden="1" customHeight="1" outlineLevel="1" spans="1:17">
-      <c r="A39" s="236"/>
-      <c r="B39" s="250"/>
-      <c r="C39" s="251" t="s">
+      <c r="A39" s="181"/>
+      <c r="B39" s="195"/>
+      <c r="C39" s="196" t="s">
         <v>43</v>
       </c>
-      <c r="D39" s="252"/>
-      <c r="E39" s="240"/>
-      <c r="F39" s="241"/>
-      <c r="G39" s="241"/>
-      <c r="H39" s="242"/>
+      <c r="D39" s="197"/>
+      <c r="E39" s="185"/>
+      <c r="F39" s="186"/>
+      <c r="G39" s="186"/>
+      <c r="H39" s="187"/>
       <c r="I39" s="127"/>
       <c r="J39" s="128"/>
-      <c r="K39" s="205"/>
-      <c r="L39" s="205"/>
-      <c r="M39" s="294" t="s">
+      <c r="K39" s="150"/>
+      <c r="L39" s="150"/>
+      <c r="M39" s="239" t="s">
         <v>87</v>
       </c>
-      <c r="N39" s="237"/>
-      <c r="O39" s="251" t="s">
+      <c r="N39" s="182"/>
+      <c r="O39" s="196" t="s">
         <v>62</v>
       </c>
-      <c r="P39" s="295" t="s">
+      <c r="P39" s="240" t="s">
         <v>88</v>
       </c>
-      <c r="Q39" s="325"/>
+      <c r="Q39" s="270"/>
     </row>
     <row r="40" ht="15" hidden="1" customHeight="1" outlineLevel="1" spans="1:17">
-      <c r="A40" s="236"/>
-      <c r="B40" s="250"/>
-      <c r="C40" s="251"/>
-      <c r="D40" s="252"/>
-      <c r="E40" s="240"/>
-      <c r="F40" s="241"/>
-      <c r="G40" s="241"/>
-      <c r="H40" s="242"/>
+      <c r="A40" s="181"/>
+      <c r="B40" s="195"/>
+      <c r="C40" s="196"/>
+      <c r="D40" s="197"/>
+      <c r="E40" s="185"/>
+      <c r="F40" s="186"/>
+      <c r="G40" s="186"/>
+      <c r="H40" s="187"/>
       <c r="I40" s="127"/>
       <c r="J40" s="128"/>
-      <c r="K40" s="205"/>
-      <c r="L40" s="205" t="s">
+      <c r="K40" s="150"/>
+      <c r="L40" s="150" t="s">
         <v>89</v>
       </c>
-      <c r="M40" s="294"/>
-      <c r="N40" s="250"/>
-      <c r="O40" s="251">
+      <c r="M40" s="239"/>
+      <c r="N40" s="195"/>
+      <c r="O40" s="196">
         <v>4</v>
       </c>
-      <c r="P40" s="295" t="s">
+      <c r="P40" s="240" t="s">
         <v>90</v>
       </c>
-      <c r="Q40" s="325"/>
+      <c r="Q40" s="270"/>
     </row>
     <row r="41" ht="15" hidden="1" customHeight="1" outlineLevel="1" spans="1:17">
-      <c r="A41" s="236"/>
-      <c r="B41" s="250"/>
-      <c r="C41" s="251"/>
-      <c r="D41" s="252"/>
-      <c r="E41" s="240"/>
-      <c r="F41" s="241"/>
-      <c r="G41" s="241"/>
-      <c r="H41" s="242"/>
+      <c r="A41" s="181"/>
+      <c r="B41" s="195"/>
+      <c r="C41" s="196"/>
+      <c r="D41" s="197"/>
+      <c r="E41" s="185"/>
+      <c r="F41" s="186"/>
+      <c r="G41" s="186"/>
+      <c r="H41" s="187"/>
       <c r="I41" s="127"/>
       <c r="J41" s="128"/>
-      <c r="K41" s="205"/>
-      <c r="L41" s="205" t="s">
+      <c r="K41" s="150"/>
+      <c r="L41" s="150" t="s">
         <v>91</v>
       </c>
-      <c r="M41" s="294"/>
-      <c r="N41" s="250"/>
-      <c r="O41" s="251">
+      <c r="M41" s="239"/>
+      <c r="N41" s="195"/>
+      <c r="O41" s="196">
         <v>16</v>
       </c>
-      <c r="P41" s="295" t="s">
+      <c r="P41" s="240" t="s">
         <v>92</v>
       </c>
-      <c r="Q41" s="325"/>
+      <c r="Q41" s="270"/>
     </row>
     <row r="42" ht="15" hidden="1" customHeight="1" outlineLevel="1" spans="1:17">
-      <c r="A42" s="253"/>
-      <c r="B42" s="254" t="s">
+      <c r="A42" s="198"/>
+      <c r="B42" s="199" t="s">
         <v>43</v>
       </c>
-      <c r="C42" s="268"/>
-      <c r="D42" s="269"/>
-      <c r="E42" s="257"/>
-      <c r="F42" s="258"/>
-      <c r="G42" s="258"/>
-      <c r="H42" s="259"/>
+      <c r="C42" s="213"/>
+      <c r="D42" s="214"/>
+      <c r="E42" s="202"/>
+      <c r="F42" s="203"/>
+      <c r="G42" s="203"/>
+      <c r="H42" s="204"/>
       <c r="I42" s="127"/>
       <c r="J42" s="128"/>
-      <c r="K42" s="299"/>
-      <c r="L42" s="299"/>
-      <c r="M42" s="300" t="s">
+      <c r="K42" s="244"/>
+      <c r="L42" s="244"/>
+      <c r="M42" s="245" t="s">
         <v>93</v>
       </c>
-      <c r="N42" s="267"/>
-      <c r="O42" s="268">
+      <c r="N42" s="212"/>
+      <c r="O42" s="213">
         <v>2</v>
       </c>
-      <c r="P42" s="301" t="s">
+      <c r="P42" s="246" t="s">
         <v>94</v>
       </c>
-      <c r="Q42" s="327"/>
-    </row>
-    <row r="43" s="211" customFormat="1" collapsed="1" spans="1:19">
-      <c r="A43" s="223" t="s">
+      <c r="Q42" s="272"/>
+    </row>
+    <row r="43" s="156" customFormat="1" collapsed="1" spans="1:19">
+      <c r="A43" s="168" t="s">
         <v>40</v>
       </c>
-      <c r="B43" s="224" t="str">
+      <c r="B43" s="169" t="str">
         <f>IF(COUNTA(B44)&gt;0,"z","")</f>
         <v/>
       </c>
-      <c r="C43" s="225" t="str">
+      <c r="C43" s="170" t="str">
         <f>IF(COUNTA(C44)&gt;0,"y","")</f>
         <v/>
       </c>
-      <c r="D43" s="226" t="str">
+      <c r="D43" s="171" t="str">
         <f>IF(COUNTA(D44)&gt;0,"x","")</f>
         <v/>
       </c>
-      <c r="E43" s="224">
-        <v>0</v>
-      </c>
-      <c r="F43" s="225">
-        <v>1</v>
-      </c>
-      <c r="G43" s="225">
-        <v>0</v>
-      </c>
-      <c r="H43" s="226">
-        <v>1</v>
-      </c>
-      <c r="I43" s="282">
+      <c r="E43" s="169">
+        <v>0</v>
+      </c>
+      <c r="F43" s="170">
+        <v>1</v>
+      </c>
+      <c r="G43" s="170">
+        <v>0</v>
+      </c>
+      <c r="H43" s="171">
+        <v>1</v>
+      </c>
+      <c r="I43" s="227">
         <f>SUM(E43*8,F43*4,G43*2,H43)</f>
         <v>5</v>
       </c>
-      <c r="J43" s="283">
+      <c r="J43" s="228">
         <f>IF(I43&lt;=9,I43,CHAR(I43-10+CODE("A")))</f>
         <v>5</v>
       </c>
-      <c r="K43" s="288"/>
-      <c r="L43" s="285"/>
-      <c r="M43" s="286"/>
-      <c r="N43" s="289"/>
-      <c r="O43" s="290"/>
-      <c r="P43" s="317"/>
-      <c r="Q43" s="322"/>
-      <c r="R43" s="323"/>
-      <c r="S43" s="323"/>
+      <c r="K43" s="233"/>
+      <c r="L43" s="230"/>
+      <c r="M43" s="231"/>
+      <c r="N43" s="234"/>
+      <c r="O43" s="235"/>
+      <c r="P43" s="262"/>
+      <c r="Q43" s="267"/>
+      <c r="R43" s="268"/>
+      <c r="S43" s="268"/>
     </row>
     <row r="44" ht="15" hidden="1" customHeight="1" outlineLevel="1" spans="1:17">
-      <c r="A44" s="253"/>
-      <c r="B44" s="254"/>
-      <c r="C44" s="268"/>
-      <c r="D44" s="269"/>
-      <c r="E44" s="257"/>
-      <c r="F44" s="258"/>
-      <c r="G44" s="258"/>
-      <c r="H44" s="259"/>
+      <c r="A44" s="198"/>
+      <c r="B44" s="199"/>
+      <c r="C44" s="213"/>
+      <c r="D44" s="214"/>
+      <c r="E44" s="202"/>
+      <c r="F44" s="203"/>
+      <c r="G44" s="203"/>
+      <c r="H44" s="204"/>
       <c r="I44" s="127"/>
       <c r="J44" s="128"/>
-      <c r="K44" s="318"/>
-      <c r="L44" s="299"/>
-      <c r="M44" s="300"/>
-      <c r="N44" s="267"/>
-      <c r="O44" s="255"/>
-      <c r="P44" s="319"/>
-      <c r="Q44" s="327"/>
-    </row>
-    <row r="45" s="211" customFormat="1" collapsed="1" spans="1:19">
-      <c r="A45" s="223" t="s">
+      <c r="K44" s="263"/>
+      <c r="L44" s="244"/>
+      <c r="M44" s="245"/>
+      <c r="N44" s="212"/>
+      <c r="O44" s="200"/>
+      <c r="P44" s="264"/>
+      <c r="Q44" s="272"/>
+    </row>
+    <row r="45" s="156" customFormat="1" collapsed="1" spans="1:19">
+      <c r="A45" s="168" t="s">
         <v>40</v>
       </c>
-      <c r="B45" s="224" t="str">
+      <c r="B45" s="169" t="str">
         <f>IF(COUNTA(B46:B50)&gt;0,"z","")</f>
         <v/>
       </c>
-      <c r="C45" s="225" t="str">
+      <c r="C45" s="170" t="str">
         <f>IF(COUNTA(C46:C50)&gt;0,"y","")</f>
         <v/>
       </c>
-      <c r="D45" s="226" t="str">
+      <c r="D45" s="171" t="str">
         <f>IF(COUNTA(D46:D50)&gt;0,"x","")</f>
         <v/>
       </c>
-      <c r="E45" s="224">
-        <v>1</v>
-      </c>
-      <c r="F45" s="225">
-        <v>1</v>
-      </c>
-      <c r="G45" s="225">
-        <v>0</v>
-      </c>
-      <c r="H45" s="226">
-        <v>1</v>
-      </c>
-      <c r="I45" s="282">
+      <c r="E45" s="169">
+        <v>1</v>
+      </c>
+      <c r="F45" s="170">
+        <v>1</v>
+      </c>
+      <c r="G45" s="170">
+        <v>0</v>
+      </c>
+      <c r="H45" s="171">
+        <v>1</v>
+      </c>
+      <c r="I45" s="227">
         <f>SUM(E45*8,F45*4,G45*2,H45)</f>
         <v>13</v>
       </c>
-      <c r="J45" s="283" t="str">
+      <c r="J45" s="228" t="str">
         <f>IF(I45&lt;=9,I45,CHAR(I45-10+CODE("A")))</f>
         <v>D</v>
       </c>
-      <c r="K45" s="284"/>
-      <c r="L45" s="285"/>
-      <c r="M45" s="286"/>
-      <c r="N45" s="289"/>
-      <c r="O45" s="290"/>
-      <c r="P45" s="287"/>
-      <c r="Q45" s="322"/>
-      <c r="R45" s="323"/>
-      <c r="S45" s="323"/>
+      <c r="K45" s="229"/>
+      <c r="L45" s="230"/>
+      <c r="M45" s="231"/>
+      <c r="N45" s="234"/>
+      <c r="O45" s="235"/>
+      <c r="P45" s="232"/>
+      <c r="Q45" s="267"/>
+      <c r="R45" s="268"/>
+      <c r="S45" s="268"/>
     </row>
     <row r="46" ht="15" hidden="1" customHeight="1" outlineLevel="1" spans="1:17">
-      <c r="A46" s="236"/>
-      <c r="B46" s="250"/>
-      <c r="C46" s="251"/>
-      <c r="D46" s="252"/>
-      <c r="E46" s="240"/>
-      <c r="F46" s="241"/>
-      <c r="G46" s="241"/>
-      <c r="H46" s="242"/>
+      <c r="A46" s="181"/>
+      <c r="B46" s="195"/>
+      <c r="C46" s="196"/>
+      <c r="D46" s="197"/>
+      <c r="E46" s="185"/>
+      <c r="F46" s="186"/>
+      <c r="G46" s="186"/>
+      <c r="H46" s="187"/>
       <c r="I46" s="127"/>
       <c r="J46" s="128"/>
-      <c r="K46" s="205"/>
-      <c r="L46" s="205"/>
-      <c r="M46" s="294"/>
-      <c r="N46" s="237"/>
-      <c r="O46" s="251"/>
-      <c r="P46" s="295"/>
-      <c r="Q46" s="325"/>
+      <c r="K46" s="150"/>
+      <c r="L46" s="150"/>
+      <c r="M46" s="239"/>
+      <c r="N46" s="182"/>
+      <c r="O46" s="196"/>
+      <c r="P46" s="240"/>
+      <c r="Q46" s="270"/>
     </row>
     <row r="47" ht="15" hidden="1" customHeight="1" outlineLevel="1" spans="1:17">
-      <c r="A47" s="236"/>
-      <c r="B47" s="250"/>
-      <c r="C47" s="251"/>
-      <c r="D47" s="252"/>
-      <c r="E47" s="240"/>
-      <c r="F47" s="241"/>
-      <c r="G47" s="241"/>
-      <c r="H47" s="242"/>
+      <c r="A47" s="181"/>
+      <c r="B47" s="195"/>
+      <c r="C47" s="196"/>
+      <c r="D47" s="197"/>
+      <c r="E47" s="185"/>
+      <c r="F47" s="186"/>
+      <c r="G47" s="186"/>
+      <c r="H47" s="187"/>
       <c r="I47" s="127"/>
       <c r="J47" s="128"/>
-      <c r="K47" s="205"/>
-      <c r="L47" s="205"/>
-      <c r="M47" s="294"/>
-      <c r="N47" s="237"/>
-      <c r="O47" s="251"/>
-      <c r="P47" s="295"/>
-      <c r="Q47" s="325"/>
+      <c r="K47" s="150"/>
+      <c r="L47" s="150"/>
+      <c r="M47" s="239"/>
+      <c r="N47" s="182"/>
+      <c r="O47" s="196"/>
+      <c r="P47" s="240"/>
+      <c r="Q47" s="270"/>
     </row>
     <row r="48" ht="15" hidden="1" customHeight="1" outlineLevel="1" spans="1:17">
-      <c r="A48" s="236"/>
-      <c r="B48" s="250"/>
-      <c r="C48" s="251"/>
-      <c r="D48" s="252"/>
-      <c r="E48" s="240"/>
-      <c r="F48" s="241"/>
-      <c r="G48" s="241"/>
-      <c r="H48" s="242"/>
+      <c r="A48" s="181"/>
+      <c r="B48" s="195"/>
+      <c r="C48" s="196"/>
+      <c r="D48" s="197"/>
+      <c r="E48" s="185"/>
+      <c r="F48" s="186"/>
+      <c r="G48" s="186"/>
+      <c r="H48" s="187"/>
       <c r="I48" s="127"/>
       <c r="J48" s="128"/>
-      <c r="K48" s="205"/>
-      <c r="L48" s="205"/>
-      <c r="M48" s="294"/>
-      <c r="N48" s="237"/>
-      <c r="O48" s="251"/>
-      <c r="P48" s="295"/>
-      <c r="Q48" s="325"/>
+      <c r="K48" s="150"/>
+      <c r="L48" s="150"/>
+      <c r="M48" s="239"/>
+      <c r="N48" s="182"/>
+      <c r="O48" s="196"/>
+      <c r="P48" s="240"/>
+      <c r="Q48" s="270"/>
     </row>
     <row r="49" ht="15" hidden="1" customHeight="1" outlineLevel="1" spans="1:17">
-      <c r="A49" s="236"/>
-      <c r="B49" s="250"/>
-      <c r="C49" s="251"/>
-      <c r="D49" s="252"/>
-      <c r="E49" s="240"/>
-      <c r="F49" s="241"/>
-      <c r="G49" s="241"/>
-      <c r="H49" s="242"/>
+      <c r="A49" s="181"/>
+      <c r="B49" s="195"/>
+      <c r="C49" s="196"/>
+      <c r="D49" s="197"/>
+      <c r="E49" s="185"/>
+      <c r="F49" s="186"/>
+      <c r="G49" s="186"/>
+      <c r="H49" s="187"/>
       <c r="I49" s="127"/>
       <c r="J49" s="128"/>
-      <c r="K49" s="205"/>
-      <c r="L49" s="205"/>
-      <c r="M49" s="294"/>
-      <c r="N49" s="237"/>
-      <c r="O49" s="251"/>
-      <c r="P49" s="295"/>
-      <c r="Q49" s="325"/>
+      <c r="K49" s="150"/>
+      <c r="L49" s="150"/>
+      <c r="M49" s="239"/>
+      <c r="N49" s="182"/>
+      <c r="O49" s="196"/>
+      <c r="P49" s="240"/>
+      <c r="Q49" s="270"/>
     </row>
     <row r="50" ht="15" hidden="1" customHeight="1" outlineLevel="1" spans="1:17">
-      <c r="A50" s="253"/>
-      <c r="B50" s="254"/>
-      <c r="C50" s="255"/>
-      <c r="D50" s="256"/>
-      <c r="E50" s="257"/>
-      <c r="F50" s="258"/>
-      <c r="G50" s="258"/>
-      <c r="H50" s="259"/>
+      <c r="A50" s="198"/>
+      <c r="B50" s="199"/>
+      <c r="C50" s="200"/>
+      <c r="D50" s="201"/>
+      <c r="E50" s="202"/>
+      <c r="F50" s="203"/>
+      <c r="G50" s="203"/>
+      <c r="H50" s="204"/>
       <c r="I50" s="127"/>
       <c r="J50" s="128"/>
-      <c r="K50" s="299"/>
-      <c r="L50" s="299"/>
-      <c r="M50" s="300"/>
-      <c r="N50" s="267"/>
-      <c r="O50" s="255"/>
-      <c r="P50" s="301"/>
-      <c r="Q50" s="327"/>
-    </row>
-    <row r="51" s="211" customFormat="1" collapsed="1" spans="1:19">
-      <c r="A51" s="223" t="s">
+      <c r="K50" s="244"/>
+      <c r="L50" s="244"/>
+      <c r="M50" s="245"/>
+      <c r="N50" s="212"/>
+      <c r="O50" s="200"/>
+      <c r="P50" s="246"/>
+      <c r="Q50" s="272"/>
+    </row>
+    <row r="51" s="156" customFormat="1" collapsed="1" spans="1:19">
+      <c r="A51" s="168" t="s">
         <v>40</v>
       </c>
-      <c r="B51" s="224" t="str">
+      <c r="B51" s="169" t="str">
         <f>IF(COUNTA(B52:B59)&gt;0,"z","")</f>
         <v>z</v>
       </c>
-      <c r="C51" s="225" t="str">
+      <c r="C51" s="170" t="str">
         <f>IF(COUNTA(C52:C59)&gt;0,"y","")</f>
         <v>y</v>
       </c>
-      <c r="D51" s="226" t="str">
+      <c r="D51" s="171" t="str">
         <f>IF(COUNTA(D52:D59)&gt;0,"x","")</f>
         <v>x</v>
       </c>
-      <c r="E51" s="224">
-        <v>0</v>
-      </c>
-      <c r="F51" s="225">
-        <v>0</v>
-      </c>
-      <c r="G51" s="225">
-        <v>1</v>
-      </c>
-      <c r="H51" s="226">
-        <v>1</v>
-      </c>
-      <c r="I51" s="282">
+      <c r="E51" s="169">
+        <v>0</v>
+      </c>
+      <c r="F51" s="170">
+        <v>0</v>
+      </c>
+      <c r="G51" s="170">
+        <v>1</v>
+      </c>
+      <c r="H51" s="171">
+        <v>1</v>
+      </c>
+      <c r="I51" s="227">
         <f>SUM(E51*8,F51*4,G51*2,H51)</f>
         <v>3</v>
       </c>
-      <c r="J51" s="283">
+      <c r="J51" s="228">
         <f>IF(I51&lt;=9,I51,CHAR(I51-10+CODE("A")))</f>
         <v>3</v>
       </c>
-      <c r="K51" s="284" t="s">
+      <c r="K51" s="229" t="s">
         <v>95</v>
       </c>
-      <c r="L51" s="285"/>
-      <c r="M51" s="286"/>
-      <c r="N51" s="289">
+      <c r="L51" s="230"/>
+      <c r="M51" s="231"/>
+      <c r="N51" s="234">
         <v>9</v>
       </c>
-      <c r="O51" s="290">
+      <c r="O51" s="235">
         <v>9</v>
       </c>
-      <c r="P51" s="287"/>
-      <c r="Q51" s="322" t="s">
+      <c r="P51" s="232"/>
+      <c r="Q51" s="267" t="s">
         <v>42</v>
       </c>
-      <c r="R51" s="323">
+      <c r="R51" s="268">
         <v>3</v>
       </c>
-      <c r="S51" s="323">
+      <c r="S51" s="268">
         <v>4</v>
       </c>
     </row>
     <row r="52" ht="15" hidden="1" customHeight="1" outlineLevel="1" spans="1:17">
-      <c r="A52" s="227"/>
-      <c r="B52" s="275"/>
-      <c r="C52" s="234"/>
-      <c r="D52" s="230" t="s">
+      <c r="A52" s="172"/>
+      <c r="B52" s="220"/>
+      <c r="C52" s="179"/>
+      <c r="D52" s="175" t="s">
         <v>43</v>
       </c>
-      <c r="E52" s="231"/>
-      <c r="F52" s="232"/>
-      <c r="G52" s="232"/>
-      <c r="H52" s="233"/>
+      <c r="E52" s="176"/>
+      <c r="F52" s="177"/>
+      <c r="G52" s="177"/>
+      <c r="H52" s="178"/>
       <c r="I52" s="127"/>
       <c r="J52" s="128"/>
-      <c r="K52" s="291"/>
-      <c r="L52" s="291"/>
-      <c r="M52" s="292" t="s">
+      <c r="K52" s="236"/>
+      <c r="L52" s="236"/>
+      <c r="M52" s="237" t="s">
         <v>96</v>
       </c>
-      <c r="N52" s="228"/>
-      <c r="O52" s="229"/>
-      <c r="P52" s="293"/>
-      <c r="Q52" s="324"/>
+      <c r="N52" s="173"/>
+      <c r="O52" s="174"/>
+      <c r="P52" s="238"/>
+      <c r="Q52" s="269"/>
     </row>
     <row r="53" ht="15" hidden="1" customHeight="1" outlineLevel="1" spans="1:17">
-      <c r="A53" s="227"/>
-      <c r="B53" s="275"/>
-      <c r="C53" s="234" t="s">
+      <c r="A53" s="172"/>
+      <c r="B53" s="220"/>
+      <c r="C53" s="179" t="s">
         <v>43</v>
       </c>
-      <c r="D53" s="230"/>
-      <c r="E53" s="231"/>
-      <c r="F53" s="232"/>
-      <c r="G53" s="232"/>
-      <c r="H53" s="233"/>
+      <c r="D53" s="175"/>
+      <c r="E53" s="176"/>
+      <c r="F53" s="177"/>
+      <c r="G53" s="177"/>
+      <c r="H53" s="178"/>
       <c r="I53" s="127"/>
       <c r="J53" s="128"/>
-      <c r="K53" s="291"/>
-      <c r="L53" s="291"/>
-      <c r="M53" s="292" t="s">
+      <c r="K53" s="236"/>
+      <c r="L53" s="236"/>
+      <c r="M53" s="237" t="s">
         <v>97</v>
       </c>
-      <c r="N53" s="228"/>
-      <c r="O53" s="229"/>
-      <c r="P53" s="293"/>
-      <c r="Q53" s="324"/>
+      <c r="N53" s="173"/>
+      <c r="O53" s="174"/>
+      <c r="P53" s="238"/>
+      <c r="Q53" s="269"/>
     </row>
     <row r="54" ht="15" hidden="1" customHeight="1" outlineLevel="1" spans="1:17">
-      <c r="A54" s="227"/>
-      <c r="B54" s="275" t="s">
+      <c r="A54" s="172"/>
+      <c r="B54" s="220" t="s">
         <v>43</v>
       </c>
-      <c r="C54" s="234"/>
-      <c r="D54" s="230"/>
-      <c r="E54" s="231"/>
-      <c r="F54" s="232"/>
-      <c r="G54" s="232"/>
-      <c r="H54" s="233"/>
+      <c r="C54" s="179"/>
+      <c r="D54" s="175"/>
+      <c r="E54" s="176"/>
+      <c r="F54" s="177"/>
+      <c r="G54" s="177"/>
+      <c r="H54" s="178"/>
       <c r="I54" s="127"/>
       <c r="J54" s="128"/>
-      <c r="K54" s="291"/>
-      <c r="L54" s="291" t="s">
+      <c r="K54" s="236"/>
+      <c r="L54" s="236" t="s">
         <v>98</v>
       </c>
-      <c r="M54" s="292" t="s">
+      <c r="M54" s="237" t="s">
         <v>99</v>
       </c>
-      <c r="N54" s="228"/>
-      <c r="O54" s="229"/>
-      <c r="P54" s="293"/>
-      <c r="Q54" s="324"/>
+      <c r="N54" s="173"/>
+      <c r="O54" s="174"/>
+      <c r="P54" s="238"/>
+      <c r="Q54" s="269"/>
     </row>
     <row r="55" ht="15" hidden="1" customHeight="1" outlineLevel="1" spans="1:17">
-      <c r="A55" s="227"/>
-      <c r="B55" s="275" t="s">
+      <c r="A55" s="172"/>
+      <c r="B55" s="220" t="s">
         <v>43</v>
       </c>
-      <c r="C55" s="234"/>
-      <c r="D55" s="230"/>
-      <c r="E55" s="231"/>
-      <c r="F55" s="232"/>
-      <c r="G55" s="232"/>
-      <c r="H55" s="233"/>
+      <c r="C55" s="179"/>
+      <c r="D55" s="175"/>
+      <c r="E55" s="176"/>
+      <c r="F55" s="177"/>
+      <c r="G55" s="177"/>
+      <c r="H55" s="178"/>
       <c r="I55" s="127"/>
       <c r="J55" s="128"/>
-      <c r="K55" s="291"/>
-      <c r="L55" s="291" t="s">
+      <c r="K55" s="236"/>
+      <c r="L55" s="236" t="s">
         <v>100</v>
       </c>
-      <c r="M55" s="292" t="s">
+      <c r="M55" s="237" t="s">
         <v>101</v>
       </c>
-      <c r="N55" s="228"/>
-      <c r="O55" s="229"/>
-      <c r="P55" s="293"/>
-      <c r="Q55" s="324"/>
+      <c r="N55" s="173"/>
+      <c r="O55" s="174"/>
+      <c r="P55" s="238"/>
+      <c r="Q55" s="269"/>
     </row>
     <row r="56" ht="15" hidden="1" customHeight="1" outlineLevel="1" spans="1:17">
-      <c r="A56" s="227"/>
-      <c r="B56" s="275" t="s">
+      <c r="A56" s="172"/>
+      <c r="B56" s="220" t="s">
         <v>43</v>
       </c>
-      <c r="C56" s="234"/>
-      <c r="D56" s="230"/>
-      <c r="E56" s="231"/>
-      <c r="F56" s="232"/>
-      <c r="G56" s="232"/>
-      <c r="H56" s="233"/>
+      <c r="C56" s="179"/>
+      <c r="D56" s="175"/>
+      <c r="E56" s="176"/>
+      <c r="F56" s="177"/>
+      <c r="G56" s="177"/>
+      <c r="H56" s="178"/>
       <c r="I56" s="127"/>
       <c r="J56" s="128"/>
-      <c r="K56" s="291"/>
-      <c r="L56" s="291" t="s">
+      <c r="K56" s="236"/>
+      <c r="L56" s="236" t="s">
         <v>96</v>
       </c>
-      <c r="M56" s="292" t="s">
+      <c r="M56" s="237" t="s">
         <v>102</v>
       </c>
-      <c r="N56" s="228"/>
-      <c r="O56" s="229"/>
-      <c r="P56" s="293"/>
-      <c r="Q56" s="324"/>
+      <c r="N56" s="173"/>
+      <c r="O56" s="174"/>
+      <c r="P56" s="238"/>
+      <c r="Q56" s="269"/>
     </row>
     <row r="57" ht="15" hidden="1" customHeight="1" outlineLevel="1" spans="1:17">
-      <c r="A57" s="227"/>
-      <c r="B57" s="275"/>
-      <c r="C57" s="229"/>
-      <c r="D57" s="235"/>
-      <c r="E57" s="231"/>
-      <c r="F57" s="232"/>
-      <c r="G57" s="232"/>
-      <c r="H57" s="233"/>
+      <c r="A57" s="172"/>
+      <c r="B57" s="220"/>
+      <c r="C57" s="174"/>
+      <c r="D57" s="180"/>
+      <c r="E57" s="176"/>
+      <c r="F57" s="177"/>
+      <c r="G57" s="177"/>
+      <c r="H57" s="178"/>
       <c r="I57" s="127"/>
       <c r="J57" s="128"/>
-      <c r="K57" s="291"/>
-      <c r="L57" s="291" t="s">
+      <c r="K57" s="236"/>
+      <c r="L57" s="236" t="s">
         <v>103</v>
       </c>
-      <c r="M57" s="292"/>
-      <c r="N57" s="228">
+      <c r="M57" s="237"/>
+      <c r="N57" s="173">
         <v>4</v>
       </c>
-      <c r="O57" s="229">
+      <c r="O57" s="174">
         <v>4</v>
       </c>
-      <c r="P57" s="293" t="s">
+      <c r="P57" s="238" t="s">
         <v>104</v>
       </c>
-      <c r="Q57" s="324"/>
+      <c r="Q57" s="269"/>
     </row>
     <row r="58" ht="15" hidden="1" customHeight="1" outlineLevel="1" spans="1:17">
-      <c r="A58" s="227"/>
-      <c r="B58" s="275"/>
-      <c r="C58" s="234"/>
-      <c r="D58" s="230"/>
-      <c r="E58" s="231"/>
-      <c r="F58" s="232"/>
-      <c r="G58" s="232"/>
-      <c r="H58" s="233"/>
+      <c r="A58" s="172"/>
+      <c r="B58" s="220"/>
+      <c r="C58" s="179"/>
+      <c r="D58" s="175"/>
+      <c r="E58" s="176"/>
+      <c r="F58" s="177"/>
+      <c r="G58" s="177"/>
+      <c r="H58" s="178"/>
       <c r="I58" s="127"/>
       <c r="J58" s="128"/>
-      <c r="K58" s="291"/>
-      <c r="L58" s="291" t="s">
+      <c r="K58" s="236"/>
+      <c r="L58" s="236" t="s">
         <v>105</v>
       </c>
-      <c r="M58" s="292"/>
-      <c r="N58" s="228">
+      <c r="M58" s="237"/>
+      <c r="N58" s="173">
         <v>4</v>
       </c>
-      <c r="O58" s="229">
+      <c r="O58" s="174">
         <v>4</v>
       </c>
-      <c r="P58" s="293" t="s">
+      <c r="P58" s="238" t="s">
         <v>106</v>
       </c>
-      <c r="Q58" s="324"/>
+      <c r="Q58" s="269"/>
     </row>
     <row r="59" ht="15" hidden="1" customHeight="1" outlineLevel="1" spans="1:17">
-      <c r="A59" s="253"/>
-      <c r="B59" s="267"/>
-      <c r="C59" s="268"/>
-      <c r="D59" s="269"/>
-      <c r="E59" s="257"/>
-      <c r="F59" s="258"/>
-      <c r="G59" s="258"/>
-      <c r="H59" s="259"/>
+      <c r="A59" s="198"/>
+      <c r="B59" s="212"/>
+      <c r="C59" s="213"/>
+      <c r="D59" s="214"/>
+      <c r="E59" s="202"/>
+      <c r="F59" s="203"/>
+      <c r="G59" s="203"/>
+      <c r="H59" s="204"/>
       <c r="I59" s="127"/>
       <c r="J59" s="128"/>
-      <c r="K59" s="299"/>
-      <c r="L59" s="299" t="s">
+      <c r="K59" s="244"/>
+      <c r="L59" s="244" t="s">
         <v>107</v>
       </c>
-      <c r="M59" s="300"/>
-      <c r="N59" s="254">
+      <c r="M59" s="245"/>
+      <c r="N59" s="199">
         <v>4</v>
       </c>
-      <c r="O59" s="268">
+      <c r="O59" s="213">
         <v>4</v>
       </c>
-      <c r="P59" s="301" t="s">
+      <c r="P59" s="246" t="s">
         <v>108</v>
       </c>
-      <c r="Q59" s="327"/>
-    </row>
-    <row r="60" s="211" customFormat="1" collapsed="1" spans="1:19">
-      <c r="A60" s="223" t="s">
+      <c r="Q59" s="272"/>
+    </row>
+    <row r="60" s="156" customFormat="1" collapsed="1" spans="1:19">
+      <c r="A60" s="168" t="s">
         <v>40</v>
       </c>
-      <c r="B60" s="224" t="str">
+      <c r="B60" s="169" t="str">
         <f>IF(COUNTA(B61:B63)&gt;0,"z","")</f>
         <v/>
       </c>
-      <c r="C60" s="225" t="str">
+      <c r="C60" s="170" t="str">
         <f>IF(COUNTA(C61:C63)&gt;0,"y","")</f>
         <v/>
       </c>
-      <c r="D60" s="226" t="str">
+      <c r="D60" s="171" t="str">
         <f>IF(COUNTA(D61:D63)&gt;0,"x","")</f>
         <v/>
       </c>
-      <c r="E60" s="224">
-        <v>1</v>
-      </c>
-      <c r="F60" s="225">
-        <v>0</v>
-      </c>
-      <c r="G60" s="225">
-        <v>1</v>
-      </c>
-      <c r="H60" s="226">
-        <v>1</v>
-      </c>
-      <c r="I60" s="282">
+      <c r="E60" s="169">
+        <v>1</v>
+      </c>
+      <c r="F60" s="170">
+        <v>0</v>
+      </c>
+      <c r="G60" s="170">
+        <v>1</v>
+      </c>
+      <c r="H60" s="171">
+        <v>1</v>
+      </c>
+      <c r="I60" s="227">
         <f>SUM(E60*8,F60*4,G60*2,H60)</f>
         <v>11</v>
       </c>
-      <c r="J60" s="283" t="str">
+      <c r="J60" s="228" t="str">
         <f>IF(I60&lt;=9,I60,CHAR(I60-10+CODE("A")))</f>
         <v>B</v>
       </c>
-      <c r="K60" s="284" t="s">
+      <c r="K60" s="229" t="s">
         <v>109</v>
       </c>
-      <c r="L60" s="285"/>
-      <c r="M60" s="286"/>
-      <c r="N60" s="289" t="s">
+      <c r="L60" s="230"/>
+      <c r="M60" s="231"/>
+      <c r="N60" s="234" t="s">
         <v>58</v>
       </c>
-      <c r="O60" s="290" t="s">
+      <c r="O60" s="235" t="s">
         <v>58</v>
       </c>
-      <c r="P60" s="287"/>
-      <c r="Q60" s="322" t="s">
+      <c r="P60" s="232"/>
+      <c r="Q60" s="267" t="s">
         <v>53</v>
       </c>
-      <c r="R60" s="323">
-        <v>1</v>
-      </c>
-      <c r="S60" s="323">
+      <c r="R60" s="268">
+        <v>1</v>
+      </c>
+      <c r="S60" s="268">
         <v>0</v>
       </c>
     </row>
     <row r="61" ht="15" hidden="1" customHeight="1" outlineLevel="1" spans="1:17">
-      <c r="A61" s="227"/>
-      <c r="B61" s="228"/>
-      <c r="C61" s="229"/>
-      <c r="D61" s="230"/>
-      <c r="E61" s="231"/>
-      <c r="F61" s="232"/>
-      <c r="G61" s="232"/>
-      <c r="H61" s="233"/>
+      <c r="A61" s="172"/>
+      <c r="B61" s="173"/>
+      <c r="C61" s="174"/>
+      <c r="D61" s="175"/>
+      <c r="E61" s="176"/>
+      <c r="F61" s="177"/>
+      <c r="G61" s="177"/>
+      <c r="H61" s="178"/>
       <c r="I61" s="127"/>
       <c r="J61" s="128"/>
-      <c r="K61" s="291"/>
-      <c r="L61" s="291"/>
-      <c r="M61" s="292" t="s">
+      <c r="K61" s="236"/>
+      <c r="L61" s="236"/>
+      <c r="M61" s="237" t="s">
         <v>110</v>
       </c>
-      <c r="N61" s="228"/>
-      <c r="O61" s="229"/>
-      <c r="P61" s="293"/>
-      <c r="Q61" s="324"/>
+      <c r="N61" s="173"/>
+      <c r="O61" s="174"/>
+      <c r="P61" s="238"/>
+      <c r="Q61" s="269"/>
     </row>
     <row r="62" ht="15" hidden="1" customHeight="1" outlineLevel="1" spans="1:17">
-      <c r="A62" s="227"/>
-      <c r="B62" s="228"/>
-      <c r="C62" s="229"/>
-      <c r="D62" s="230"/>
-      <c r="E62" s="231"/>
-      <c r="F62" s="232"/>
-      <c r="G62" s="232"/>
-      <c r="H62" s="233"/>
+      <c r="A62" s="172"/>
+      <c r="B62" s="173"/>
+      <c r="C62" s="174"/>
+      <c r="D62" s="175"/>
+      <c r="E62" s="176"/>
+      <c r="F62" s="177"/>
+      <c r="G62" s="177"/>
+      <c r="H62" s="178"/>
       <c r="I62" s="127"/>
       <c r="J62" s="128"/>
-      <c r="K62" s="291"/>
-      <c r="L62" s="291"/>
-      <c r="M62" s="292" t="s">
+      <c r="K62" s="236"/>
+      <c r="L62" s="236"/>
+      <c r="M62" s="237" t="s">
         <v>111</v>
       </c>
-      <c r="N62" s="228"/>
-      <c r="O62" s="229"/>
-      <c r="P62" s="293"/>
-      <c r="Q62" s="324"/>
+      <c r="N62" s="173"/>
+      <c r="O62" s="174"/>
+      <c r="P62" s="238"/>
+      <c r="Q62" s="269"/>
     </row>
     <row r="63" ht="15" hidden="1" customHeight="1" outlineLevel="1" spans="1:17">
-      <c r="A63" s="253"/>
-      <c r="B63" s="267"/>
-      <c r="C63" s="268"/>
-      <c r="D63" s="256"/>
-      <c r="E63" s="257"/>
-      <c r="F63" s="258"/>
-      <c r="G63" s="258"/>
-      <c r="H63" s="259"/>
+      <c r="A63" s="198"/>
+      <c r="B63" s="212"/>
+      <c r="C63" s="213"/>
+      <c r="D63" s="201"/>
+      <c r="E63" s="202"/>
+      <c r="F63" s="203"/>
+      <c r="G63" s="203"/>
+      <c r="H63" s="204"/>
       <c r="I63" s="127"/>
       <c r="J63" s="128"/>
-      <c r="K63" s="299"/>
-      <c r="L63" s="299"/>
-      <c r="M63" s="300" t="s">
+      <c r="K63" s="244"/>
+      <c r="L63" s="244"/>
+      <c r="M63" s="245" t="s">
         <v>112</v>
       </c>
-      <c r="N63" s="267"/>
-      <c r="O63" s="255"/>
-      <c r="P63" s="301" t="s">
+      <c r="N63" s="212"/>
+      <c r="O63" s="200"/>
+      <c r="P63" s="246" t="s">
         <v>113</v>
       </c>
-      <c r="Q63" s="327"/>
-    </row>
-    <row r="64" s="211" customFormat="1" collapsed="1" spans="1:19">
-      <c r="A64" s="223" t="s">
+      <c r="Q63" s="272"/>
+    </row>
+    <row r="64" s="156" customFormat="1" collapsed="1" spans="1:19">
+      <c r="A64" s="168" t="s">
         <v>40</v>
       </c>
-      <c r="B64" s="224" t="str">
+      <c r="B64" s="169" t="str">
         <f>IF(COUNTA(B65:B67)&gt;0,"z","")</f>
         <v/>
       </c>
-      <c r="C64" s="225" t="str">
+      <c r="C64" s="170" t="str">
         <f>IF(COUNTA(C65:C67)&gt;0,"y","")</f>
         <v/>
       </c>
-      <c r="D64" s="226" t="str">
+      <c r="D64" s="171" t="str">
         <f>IF(COUNTA(D65:D67)&gt;0,"x","")</f>
         <v/>
       </c>
-      <c r="E64" s="224">
-        <v>0</v>
-      </c>
-      <c r="F64" s="225">
-        <v>1</v>
-      </c>
-      <c r="G64" s="225">
-        <v>1</v>
-      </c>
-      <c r="H64" s="226">
-        <v>1</v>
-      </c>
-      <c r="I64" s="282">
+      <c r="E64" s="169">
+        <v>0</v>
+      </c>
+      <c r="F64" s="170">
+        <v>1</v>
+      </c>
+      <c r="G64" s="170">
+        <v>1</v>
+      </c>
+      <c r="H64" s="171">
+        <v>1</v>
+      </c>
+      <c r="I64" s="227">
         <f>SUM(E64*8,F64*4,G64*2,H64)</f>
         <v>7</v>
       </c>
-      <c r="J64" s="283">
+      <c r="J64" s="228">
         <f>IF(I64&lt;=9,I64,CHAR(I64-10+CODE("A")))</f>
         <v>7</v>
       </c>
-      <c r="K64" s="284" t="s">
+      <c r="K64" s="229" t="s">
         <v>114</v>
       </c>
-      <c r="L64" s="284"/>
-      <c r="M64" s="288"/>
-      <c r="N64" s="289">
+      <c r="L64" s="229"/>
+      <c r="M64" s="233"/>
+      <c r="N64" s="234">
         <f>1+SUM(N65:N67)</f>
         <v>5</v>
       </c>
-      <c r="O64" s="290">
+      <c r="O64" s="235">
         <f>1+SUM(O65:O67)</f>
         <v>5</v>
       </c>
-      <c r="P64" s="287"/>
-      <c r="Q64" s="322" t="s">
+      <c r="P64" s="232"/>
+      <c r="Q64" s="267" t="s">
         <v>53</v>
       </c>
-      <c r="R64" s="323">
-        <v>1</v>
-      </c>
-      <c r="S64" s="323">
+      <c r="R64" s="268">
+        <v>1</v>
+      </c>
+      <c r="S64" s="268">
         <v>1</v>
       </c>
     </row>
     <row r="65" ht="15" hidden="1" customHeight="1" outlineLevel="1" spans="1:17">
-      <c r="A65" s="227"/>
-      <c r="B65" s="228"/>
-      <c r="C65" s="229"/>
-      <c r="D65" s="235"/>
-      <c r="E65" s="231"/>
-      <c r="F65" s="232"/>
-      <c r="G65" s="232"/>
-      <c r="H65" s="233"/>
+      <c r="A65" s="172"/>
+      <c r="B65" s="173"/>
+      <c r="C65" s="174"/>
+      <c r="D65" s="180"/>
+      <c r="E65" s="176"/>
+      <c r="F65" s="177"/>
+      <c r="G65" s="177"/>
+      <c r="H65" s="178"/>
       <c r="I65" s="127"/>
       <c r="J65" s="128"/>
-      <c r="K65" s="291"/>
-      <c r="L65" s="315"/>
-      <c r="M65" s="316"/>
-      <c r="N65" s="228">
+      <c r="K65" s="236"/>
+      <c r="L65" s="260"/>
+      <c r="M65" s="261"/>
+      <c r="N65" s="173">
         <v>4</v>
       </c>
-      <c r="O65" s="229">
+      <c r="O65" s="174">
         <v>4</v>
       </c>
-      <c r="P65" s="293" t="s">
+      <c r="P65" s="238" t="s">
         <v>115</v>
       </c>
-      <c r="Q65" s="324"/>
+      <c r="Q65" s="269"/>
     </row>
     <row r="66" ht="15" hidden="1" customHeight="1" outlineLevel="1" spans="1:17">
-      <c r="A66" s="227"/>
-      <c r="B66" s="228"/>
-      <c r="C66" s="229"/>
-      <c r="D66" s="230"/>
-      <c r="E66" s="231"/>
-      <c r="F66" s="232"/>
-      <c r="G66" s="232"/>
-      <c r="H66" s="233"/>
+      <c r="A66" s="172"/>
+      <c r="B66" s="173"/>
+      <c r="C66" s="174"/>
+      <c r="D66" s="175"/>
+      <c r="E66" s="176"/>
+      <c r="F66" s="177"/>
+      <c r="G66" s="177"/>
+      <c r="H66" s="178"/>
       <c r="I66" s="127"/>
       <c r="J66" s="128"/>
-      <c r="K66" s="291"/>
-      <c r="L66" s="291"/>
-      <c r="M66" s="292" t="s">
+      <c r="K66" s="236"/>
+      <c r="L66" s="236"/>
+      <c r="M66" s="237" t="s">
         <v>110</v>
       </c>
-      <c r="N66" s="228"/>
-      <c r="O66" s="229"/>
-      <c r="P66" s="293"/>
-      <c r="Q66" s="324"/>
+      <c r="N66" s="173"/>
+      <c r="O66" s="174"/>
+      <c r="P66" s="238"/>
+      <c r="Q66" s="269"/>
     </row>
     <row r="67" ht="15" hidden="1" customHeight="1" outlineLevel="1" spans="1:17">
-      <c r="A67" s="227"/>
-      <c r="B67" s="275"/>
-      <c r="C67" s="234"/>
-      <c r="D67" s="235"/>
-      <c r="E67" s="231"/>
-      <c r="F67" s="232"/>
-      <c r="G67" s="232"/>
-      <c r="H67" s="233"/>
+      <c r="A67" s="172"/>
+      <c r="B67" s="220"/>
+      <c r="C67" s="179"/>
+      <c r="D67" s="180"/>
+      <c r="E67" s="176"/>
+      <c r="F67" s="177"/>
+      <c r="G67" s="177"/>
+      <c r="H67" s="178"/>
       <c r="I67" s="127"/>
       <c r="J67" s="128"/>
-      <c r="K67" s="291"/>
-      <c r="L67" s="291"/>
-      <c r="M67" s="292" t="s">
+      <c r="K67" s="236"/>
+      <c r="L67" s="236"/>
+      <c r="M67" s="237" t="s">
         <v>116</v>
       </c>
-      <c r="N67" s="228"/>
-      <c r="O67" s="229"/>
-      <c r="P67" s="293"/>
-      <c r="Q67" s="324"/>
-    </row>
-    <row r="68" s="211" customFormat="1" collapsed="1" spans="1:19">
-      <c r="A68" s="223" t="s">
+      <c r="N67" s="173"/>
+      <c r="O67" s="174"/>
+      <c r="P67" s="238"/>
+      <c r="Q67" s="269"/>
+    </row>
+    <row r="68" s="156" customFormat="1" collapsed="1" spans="1:19">
+      <c r="A68" s="168" t="s">
         <v>40</v>
       </c>
-      <c r="B68" s="224" t="str">
+      <c r="B68" s="169" t="str">
         <f>IF(COUNTA(B69:B72)&gt;0,"z","")</f>
         <v/>
       </c>
-      <c r="C68" s="225" t="str">
+      <c r="C68" s="170" t="str">
         <f>IF(COUNTA(C69:C72)&gt;0,"y","")</f>
         <v/>
       </c>
-      <c r="D68" s="226" t="str">
+      <c r="D68" s="171" t="str">
         <f>IF(COUNTA(D69:D72)&gt;0,"x","")</f>
         <v/>
       </c>
-      <c r="E68" s="224">
-        <v>1</v>
-      </c>
-      <c r="F68" s="225">
-        <v>1</v>
-      </c>
-      <c r="G68" s="225">
-        <v>1</v>
-      </c>
-      <c r="H68" s="226">
-        <v>1</v>
-      </c>
-      <c r="I68" s="282">
+      <c r="E68" s="169">
+        <v>1</v>
+      </c>
+      <c r="F68" s="170">
+        <v>1</v>
+      </c>
+      <c r="G68" s="170">
+        <v>1</v>
+      </c>
+      <c r="H68" s="171">
+        <v>1</v>
+      </c>
+      <c r="I68" s="227">
         <f>SUM(E68*8,F68*4,G68*2,H68)</f>
         <v>15</v>
       </c>
-      <c r="J68" s="283" t="str">
+      <c r="J68" s="228" t="str">
         <f>IF(I68&lt;=9,I68,CHAR(I68-10+CODE("A")))</f>
         <v>F</v>
       </c>
-      <c r="K68" s="284"/>
-      <c r="L68" s="284"/>
-      <c r="M68" s="288"/>
-      <c r="N68" s="289"/>
-      <c r="O68" s="290"/>
-      <c r="P68" s="287"/>
-      <c r="Q68" s="322"/>
-      <c r="R68" s="323"/>
-      <c r="S68" s="323"/>
+      <c r="K68" s="229"/>
+      <c r="L68" s="229"/>
+      <c r="M68" s="233"/>
+      <c r="N68" s="234"/>
+      <c r="O68" s="235"/>
+      <c r="P68" s="232"/>
+      <c r="Q68" s="267"/>
+      <c r="R68" s="268"/>
+      <c r="S68" s="268"/>
     </row>
     <row r="69" ht="15" hidden="1" customHeight="1" outlineLevel="1" spans="1:17">
-      <c r="A69" s="227"/>
-      <c r="B69" s="228"/>
-      <c r="C69" s="229"/>
-      <c r="D69" s="235"/>
-      <c r="E69" s="231"/>
-      <c r="F69" s="232"/>
-      <c r="G69" s="232"/>
-      <c r="H69" s="233"/>
+      <c r="A69" s="172"/>
+      <c r="B69" s="173"/>
+      <c r="C69" s="174"/>
+      <c r="D69" s="180"/>
+      <c r="E69" s="176"/>
+      <c r="F69" s="177"/>
+      <c r="G69" s="177"/>
+      <c r="H69" s="178"/>
       <c r="I69" s="127"/>
       <c r="J69" s="128"/>
-      <c r="K69" s="291"/>
-      <c r="L69" s="291"/>
-      <c r="M69" s="292"/>
-      <c r="N69" s="228"/>
-      <c r="O69" s="229"/>
-      <c r="P69" s="293"/>
-      <c r="Q69" s="324"/>
+      <c r="K69" s="236"/>
+      <c r="L69" s="236"/>
+      <c r="M69" s="237"/>
+      <c r="N69" s="173"/>
+      <c r="O69" s="174"/>
+      <c r="P69" s="238"/>
+      <c r="Q69" s="269"/>
     </row>
     <row r="70" ht="15" hidden="1" customHeight="1" outlineLevel="1" spans="1:17">
-      <c r="A70" s="227"/>
-      <c r="B70" s="228"/>
-      <c r="C70" s="229"/>
-      <c r="D70" s="230"/>
-      <c r="E70" s="231"/>
-      <c r="F70" s="232"/>
-      <c r="G70" s="232"/>
-      <c r="H70" s="233"/>
+      <c r="A70" s="172"/>
+      <c r="B70" s="173"/>
+      <c r="C70" s="174"/>
+      <c r="D70" s="175"/>
+      <c r="E70" s="176"/>
+      <c r="F70" s="177"/>
+      <c r="G70" s="177"/>
+      <c r="H70" s="178"/>
       <c r="I70" s="127"/>
       <c r="J70" s="128"/>
-      <c r="K70" s="291"/>
-      <c r="L70" s="291"/>
-      <c r="M70" s="292"/>
-      <c r="N70" s="228"/>
-      <c r="O70" s="229"/>
-      <c r="P70" s="293"/>
-      <c r="Q70" s="324"/>
+      <c r="K70" s="236"/>
+      <c r="L70" s="236"/>
+      <c r="M70" s="237"/>
+      <c r="N70" s="173"/>
+      <c r="O70" s="174"/>
+      <c r="P70" s="238"/>
+      <c r="Q70" s="269"/>
     </row>
     <row r="71" ht="15" hidden="1" customHeight="1" outlineLevel="1" spans="1:17">
-      <c r="A71" s="227"/>
-      <c r="B71" s="228"/>
-      <c r="C71" s="229"/>
-      <c r="D71" s="235"/>
-      <c r="E71" s="231"/>
-      <c r="F71" s="232"/>
-      <c r="G71" s="232"/>
-      <c r="H71" s="233"/>
+      <c r="A71" s="172"/>
+      <c r="B71" s="173"/>
+      <c r="C71" s="174"/>
+      <c r="D71" s="180"/>
+      <c r="E71" s="176"/>
+      <c r="F71" s="177"/>
+      <c r="G71" s="177"/>
+      <c r="H71" s="178"/>
       <c r="I71" s="127"/>
       <c r="J71" s="128"/>
-      <c r="K71" s="291"/>
-      <c r="L71" s="291"/>
-      <c r="M71" s="292"/>
-      <c r="N71" s="228"/>
-      <c r="O71" s="229"/>
-      <c r="P71" s="293"/>
-      <c r="Q71" s="324"/>
+      <c r="K71" s="236"/>
+      <c r="L71" s="236"/>
+      <c r="M71" s="237"/>
+      <c r="N71" s="173"/>
+      <c r="O71" s="174"/>
+      <c r="P71" s="238"/>
+      <c r="Q71" s="269"/>
     </row>
     <row r="72" ht="15" hidden="1" customHeight="1" outlineLevel="1" spans="1:17">
-      <c r="A72" s="253"/>
-      <c r="B72" s="267"/>
-      <c r="C72" s="255"/>
-      <c r="D72" s="256"/>
-      <c r="E72" s="257"/>
-      <c r="F72" s="258"/>
-      <c r="G72" s="258"/>
-      <c r="H72" s="259"/>
+      <c r="A72" s="198"/>
+      <c r="B72" s="212"/>
+      <c r="C72" s="200"/>
+      <c r="D72" s="201"/>
+      <c r="E72" s="202"/>
+      <c r="F72" s="203"/>
+      <c r="G72" s="203"/>
+      <c r="H72" s="204"/>
       <c r="I72" s="127"/>
       <c r="J72" s="128"/>
-      <c r="K72" s="299"/>
-      <c r="L72" s="299"/>
-      <c r="M72" s="300"/>
-      <c r="N72" s="254"/>
-      <c r="O72" s="268"/>
-      <c r="P72" s="301"/>
-      <c r="Q72" s="327"/>
+      <c r="K72" s="244"/>
+      <c r="L72" s="244"/>
+      <c r="M72" s="245"/>
+      <c r="N72" s="199"/>
+      <c r="O72" s="213"/>
+      <c r="P72" s="246"/>
+      <c r="Q72" s="272"/>
     </row>
     <row r="73" collapsed="1"/>
     <row r="74" spans="2:16">
@@ -6529,7 +6062,7 @@
       <c r="K74" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="O74" s="216"/>
+      <c r="O74" s="161"/>
       <c r="P74" s="11" t="s">
         <v>117</v>
       </c>
@@ -6538,13 +6071,13 @@
       <c r="J75" s="73">
         <v>0</v>
       </c>
-      <c r="K75" s="216" t="s">
+      <c r="K75" s="161" t="s">
         <v>118</v>
       </c>
       <c r="O75" s="73">
         <v>0</v>
       </c>
-      <c r="P75" s="216" t="s">
+      <c r="P75" s="161" t="s">
         <v>119</v>
       </c>
     </row>
@@ -6580,7 +6113,7 @@
       <c r="J78" s="73">
         <v>3</v>
       </c>
-      <c r="K78" s="216" t="s">
+      <c r="K78" s="161" t="s">
         <v>124</v>
       </c>
       <c r="O78" s="73">
@@ -6591,7 +6124,7 @@
       </c>
     </row>
     <row r="79" spans="10:16">
-      <c r="J79" s="216"/>
+      <c r="J79" s="161"/>
       <c r="O79" s="73">
         <v>4</v>
       </c>
@@ -6640,31 +6173,31 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="202"/>
-      <c r="B2" s="203" t="s">
+      <c r="A2" s="147"/>
+      <c r="B2" s="148" t="s">
         <v>125</v>
       </c>
-      <c r="C2" s="204" t="s">
+      <c r="C2" s="149" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="205"/>
-      <c r="B3" s="206" t="s">
+      <c r="A3" s="150"/>
+      <c r="B3" s="151" t="s">
         <v>127</v>
       </c>
-      <c r="C3" s="207" t="s">
+      <c r="C3" s="152" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="208" t="s">
+      <c r="A4" s="153" t="s">
         <v>129</v>
       </c>
       <c r="B4" s="95" t="s">
         <v>130</v>
       </c>
-      <c r="C4" s="209"/>
+      <c r="C4" s="154"/>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
@@ -6692,22 +6225,22 @@
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="210" t="s">
+      <c r="A12" s="155" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="210" t="s">
+      <c r="A13" s="155" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="210" t="s">
+      <c r="A14" s="155" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="210" t="s">
+      <c r="A15" s="155" t="s">
         <v>139</v>
       </c>
     </row>
@@ -6721,1172 +6254,12 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:R47"/>
-  <sheetViews>
-    <sheetView zoomScale="166" zoomScaleNormal="166" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="G55" sqref="G55"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14159292035398" defaultRowHeight="14.25"/>
-  <cols>
-    <col min="1" max="1" width="15.5132743362832" style="2" customWidth="1"/>
-    <col min="2" max="9" width="3.00884955752212" style="4" customWidth="1"/>
-    <col min="10" max="11" width="18.2212389380531" style="4" customWidth="1"/>
-    <col min="12" max="12" width="15.5929203539823" style="4" customWidth="1"/>
-    <col min="13" max="13" width="24.9203539823009" style="4" customWidth="1"/>
-    <col min="14" max="14" width="27.8495575221239" style="3" customWidth="1"/>
-    <col min="15" max="15" width="76.2920353982301" style="4" customWidth="1"/>
-    <col min="16" max="17" width="11.4247787610619" style="4" customWidth="1"/>
-    <col min="18" max="18" width="71.2920353982301" style="4" customWidth="1"/>
-    <col min="19" max="16384" width="9.14159292035398" style="4"/>
-  </cols>
-  <sheetData>
-    <row r="1" s="2" customFormat="1" spans="2:15">
-      <c r="B1" s="1">
-        <v>7</v>
-      </c>
-      <c r="C1" s="1">
-        <v>6</v>
-      </c>
-      <c r="D1" s="1">
-        <v>5</v>
-      </c>
-      <c r="E1" s="1">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1">
-        <v>3</v>
-      </c>
-      <c r="G1" s="1">
-        <v>2</v>
-      </c>
-      <c r="H1" s="1">
-        <v>1</v>
-      </c>
-      <c r="I1" s="1">
-        <v>0</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="2" s="147" customFormat="1" ht="15" spans="2:14">
-      <c r="B2" s="149"/>
-      <c r="C2" s="149"/>
-      <c r="D2" s="149"/>
-      <c r="E2" s="149"/>
-      <c r="F2" s="149"/>
-      <c r="G2" s="149"/>
-      <c r="H2" s="149"/>
-      <c r="I2" s="149"/>
-      <c r="M2" s="149"/>
-      <c r="N2" s="149"/>
-    </row>
-    <row r="3" spans="2:15">
-      <c r="B3" s="150"/>
-      <c r="C3" s="151"/>
-      <c r="D3" s="151"/>
-      <c r="E3" s="152"/>
-      <c r="F3" s="153"/>
-      <c r="G3" s="151"/>
-      <c r="H3" s="151"/>
-      <c r="I3" s="187" t="s">
-        <v>43</v>
-      </c>
-      <c r="J3" s="188"/>
-      <c r="K3" s="189" t="s">
-        <v>143</v>
-      </c>
-      <c r="L3" s="189" t="s">
-        <v>144</v>
-      </c>
-      <c r="M3" s="187" t="s">
-        <v>145</v>
-      </c>
-      <c r="N3" s="187" t="s">
-        <v>146</v>
-      </c>
-      <c r="O3" s="190"/>
-    </row>
-    <row r="4" spans="2:15">
-      <c r="B4" s="116"/>
-      <c r="C4" s="106"/>
-      <c r="D4" s="106"/>
-      <c r="E4" s="154"/>
-      <c r="F4" s="155"/>
-      <c r="G4" s="106"/>
-      <c r="H4" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="I4" s="27"/>
-      <c r="J4" s="91"/>
-      <c r="K4" s="74" t="s">
-        <v>147</v>
-      </c>
-      <c r="L4" s="71"/>
-      <c r="M4" s="27"/>
-      <c r="N4" s="27"/>
-      <c r="O4" s="191"/>
-    </row>
-    <row r="5" spans="2:15">
-      <c r="B5" s="116"/>
-      <c r="C5" s="106"/>
-      <c r="D5" s="106"/>
-      <c r="E5" s="154"/>
-      <c r="F5" s="155"/>
-      <c r="G5" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="H5" s="25"/>
-      <c r="I5" s="27"/>
-      <c r="J5" s="91" t="s">
-        <v>148</v>
-      </c>
-      <c r="K5" s="74" t="s">
-        <v>149</v>
-      </c>
-      <c r="L5" s="71" t="s">
-        <v>150</v>
-      </c>
-      <c r="M5" s="27" t="s">
-        <v>145</v>
-      </c>
-      <c r="N5" s="27" t="s">
-        <v>146</v>
-      </c>
-      <c r="O5" s="191"/>
-    </row>
-    <row r="6" spans="2:15">
-      <c r="B6" s="53"/>
-      <c r="C6" s="54"/>
-      <c r="D6" s="54"/>
-      <c r="E6" s="156"/>
-      <c r="F6" s="157" t="s">
-        <v>43</v>
-      </c>
-      <c r="G6" s="54"/>
-      <c r="H6" s="54"/>
-      <c r="I6" s="61"/>
-      <c r="J6" s="94" t="s">
-        <v>148</v>
-      </c>
-      <c r="K6" s="96" t="s">
-        <v>151</v>
-      </c>
-      <c r="L6" s="101" t="s">
-        <v>152</v>
-      </c>
-      <c r="M6" s="61">
-        <v>4</v>
-      </c>
-      <c r="N6" s="61" t="s">
-        <v>153</v>
-      </c>
-      <c r="O6" s="192"/>
-    </row>
-    <row r="7" s="148" customFormat="1" spans="1:15">
-      <c r="A7" s="147" t="s">
-        <v>154</v>
-      </c>
-      <c r="B7" s="158"/>
-      <c r="C7" s="123"/>
-      <c r="D7" s="123"/>
-      <c r="E7" s="159"/>
-      <c r="F7" s="160"/>
-      <c r="G7" s="123"/>
-      <c r="H7" s="123"/>
-      <c r="I7" s="130"/>
-      <c r="J7" s="137" t="s">
-        <v>155</v>
-      </c>
-      <c r="K7" s="105"/>
-      <c r="L7" s="105"/>
-      <c r="M7" s="130"/>
-      <c r="N7" s="130"/>
-      <c r="O7" s="193"/>
-    </row>
-    <row r="8" outlineLevel="1" spans="2:15">
-      <c r="B8" s="116"/>
-      <c r="C8" s="106"/>
-      <c r="D8" s="106"/>
-      <c r="E8" s="161" t="s">
-        <v>43</v>
-      </c>
-      <c r="F8" s="155"/>
-      <c r="G8" s="106"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="27"/>
-      <c r="J8" s="91"/>
-      <c r="K8" s="74" t="s">
-        <v>156</v>
-      </c>
-      <c r="L8" s="71"/>
-      <c r="M8" s="27"/>
-      <c r="N8" s="27"/>
-      <c r="O8" s="191"/>
-    </row>
-    <row r="9" s="148" customFormat="1" outlineLevel="1" spans="1:15">
-      <c r="A9" s="147" t="s">
-        <v>114</v>
-      </c>
-      <c r="B9" s="162"/>
-      <c r="C9" s="163"/>
-      <c r="D9" s="163"/>
-      <c r="E9" s="164"/>
-      <c r="F9" s="165"/>
-      <c r="G9" s="163"/>
-      <c r="H9" s="166"/>
-      <c r="I9" s="194"/>
-      <c r="J9" s="195" t="s">
-        <v>157</v>
-      </c>
-      <c r="K9" s="196"/>
-      <c r="L9" s="196"/>
-      <c r="M9" s="194"/>
-      <c r="N9" s="194"/>
-      <c r="O9" s="197"/>
-    </row>
-    <row r="10" outlineLevel="1" spans="2:15">
-      <c r="B10" s="116"/>
-      <c r="C10" s="106"/>
-      <c r="D10" s="106"/>
-      <c r="E10" s="161"/>
-      <c r="F10" s="155"/>
-      <c r="G10" s="106"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="27"/>
-      <c r="J10" s="94"/>
-      <c r="K10" s="74"/>
-      <c r="L10" s="101"/>
-      <c r="M10" s="61"/>
-      <c r="N10" s="61"/>
-      <c r="O10" s="191"/>
-    </row>
-    <row r="11" s="148" customFormat="1" outlineLevel="1" spans="1:15">
-      <c r="A11" s="147" t="s">
-        <v>71</v>
-      </c>
-      <c r="B11" s="162"/>
-      <c r="C11" s="163"/>
-      <c r="D11" s="163"/>
-      <c r="E11" s="164"/>
-      <c r="F11" s="165"/>
-      <c r="G11" s="163"/>
-      <c r="H11" s="166"/>
-      <c r="I11" s="194"/>
-      <c r="J11" s="137" t="s">
-        <v>158</v>
-      </c>
-      <c r="K11" s="196"/>
-      <c r="L11" s="105"/>
-      <c r="M11" s="130"/>
-      <c r="N11" s="130"/>
-      <c r="O11" s="197"/>
-    </row>
-    <row r="12" outlineLevel="1" spans="2:15">
-      <c r="B12" s="116"/>
-      <c r="C12" s="106"/>
-      <c r="D12" s="106"/>
-      <c r="E12" s="161"/>
-      <c r="F12" s="155"/>
-      <c r="G12" s="106"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="27"/>
-      <c r="J12" s="91"/>
-      <c r="K12" s="74"/>
-      <c r="L12" s="71" t="s">
-        <v>66</v>
-      </c>
-      <c r="M12" s="27">
-        <v>4</v>
-      </c>
-      <c r="N12" s="27" t="s">
-        <v>153</v>
-      </c>
-      <c r="O12" s="191"/>
-    </row>
-    <row r="13" outlineLevel="1" spans="2:15">
-      <c r="B13" s="116"/>
-      <c r="C13" s="106"/>
-      <c r="D13" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="E13" s="154"/>
-      <c r="F13" s="155"/>
-      <c r="G13" s="106"/>
-      <c r="H13" s="25"/>
-      <c r="I13" s="27"/>
-      <c r="J13" s="91"/>
-      <c r="K13" s="71" t="s">
-        <v>159</v>
-      </c>
-      <c r="L13" s="71" t="s">
-        <v>160</v>
-      </c>
-      <c r="M13" s="27">
-        <v>8</v>
-      </c>
-      <c r="N13" s="27" t="s">
-        <v>161</v>
-      </c>
-      <c r="O13" s="191" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="14" outlineLevel="1" spans="2:15">
-      <c r="B14" s="116"/>
-      <c r="C14" s="106"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="154"/>
-      <c r="F14" s="155"/>
-      <c r="G14" s="106"/>
-      <c r="H14" s="25"/>
-      <c r="I14" s="27"/>
-      <c r="J14" s="91" t="s">
-        <v>159</v>
-      </c>
-      <c r="K14" s="71"/>
-      <c r="L14" s="71" t="s">
-        <v>163</v>
-      </c>
-      <c r="M14" s="27" t="s">
-        <v>145</v>
-      </c>
-      <c r="N14" s="27" t="s">
-        <v>164</v>
-      </c>
-      <c r="O14" s="191"/>
-    </row>
-    <row r="15" outlineLevel="1" spans="2:15">
-      <c r="B15" s="167"/>
-      <c r="C15" s="54" t="s">
-        <v>43</v>
-      </c>
-      <c r="D15" s="168"/>
-      <c r="E15" s="169"/>
-      <c r="F15" s="170"/>
-      <c r="G15" s="168"/>
-      <c r="H15" s="54"/>
-      <c r="I15" s="61"/>
-      <c r="J15" s="94"/>
-      <c r="K15" s="96" t="s">
-        <v>165</v>
-      </c>
-      <c r="L15" s="101" t="s">
-        <v>108</v>
-      </c>
-      <c r="M15" s="61" t="s">
-        <v>145</v>
-      </c>
-      <c r="N15" s="61" t="s">
-        <v>166</v>
-      </c>
-      <c r="O15" s="192"/>
-    </row>
-    <row r="16" s="148" customFormat="1" spans="1:15">
-      <c r="A16" s="147" t="s">
-        <v>1</v>
-      </c>
-      <c r="B16" s="122"/>
-      <c r="C16" s="123"/>
-      <c r="D16" s="108"/>
-      <c r="E16" s="171"/>
-      <c r="F16" s="172"/>
-      <c r="G16" s="108"/>
-      <c r="H16" s="123"/>
-      <c r="I16" s="130"/>
-      <c r="J16" s="137" t="s">
-        <v>167</v>
-      </c>
-      <c r="K16" s="105"/>
-      <c r="L16" s="105"/>
-      <c r="M16" s="130"/>
-      <c r="N16" s="130"/>
-      <c r="O16" s="193"/>
-    </row>
-    <row r="17" s="79" customFormat="1" outlineLevel="1" spans="1:15">
-      <c r="A17" s="173"/>
-      <c r="B17" s="127"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="73">
-        <v>0</v>
-      </c>
-      <c r="E17" s="174">
-        <v>0</v>
-      </c>
-      <c r="F17" s="175"/>
-      <c r="G17" s="73"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="30"/>
-      <c r="J17" s="138"/>
-      <c r="K17" s="74" t="s">
-        <v>168</v>
-      </c>
-      <c r="L17" s="74"/>
-      <c r="M17" s="30"/>
-      <c r="N17" s="30"/>
-      <c r="O17" s="198"/>
-    </row>
-    <row r="18" s="79" customFormat="1" outlineLevel="1" spans="1:15">
-      <c r="A18" s="173"/>
-      <c r="B18" s="127"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="73">
-        <v>1</v>
-      </c>
-      <c r="E18" s="174">
-        <v>0</v>
-      </c>
-      <c r="F18" s="175"/>
-      <c r="G18" s="73"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="30"/>
-      <c r="J18" s="138"/>
-      <c r="K18" s="74" t="s">
-        <v>169</v>
-      </c>
-      <c r="L18" s="74"/>
-      <c r="M18" s="30"/>
-      <c r="N18" s="30"/>
-      <c r="O18" s="198"/>
-    </row>
-    <row r="19" s="79" customFormat="1" outlineLevel="1" spans="1:15">
-      <c r="A19" s="173"/>
-      <c r="B19" s="127"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="73">
-        <v>0</v>
-      </c>
-      <c r="E19" s="174">
-        <v>1</v>
-      </c>
-      <c r="F19" s="175"/>
-      <c r="G19" s="73"/>
-      <c r="H19" s="28"/>
-      <c r="I19" s="30"/>
-      <c r="J19" s="138"/>
-      <c r="K19" s="74" t="s">
-        <v>170</v>
-      </c>
-      <c r="L19" s="74"/>
-      <c r="M19" s="30"/>
-      <c r="N19" s="30"/>
-      <c r="O19" s="198"/>
-    </row>
-    <row r="20" s="79" customFormat="1" outlineLevel="1" spans="1:15">
-      <c r="A20" s="173"/>
-      <c r="B20" s="127"/>
-      <c r="C20" s="28"/>
-      <c r="D20" s="73">
-        <v>1</v>
-      </c>
-      <c r="E20" s="174">
-        <v>1</v>
-      </c>
-      <c r="F20" s="175"/>
-      <c r="G20" s="73"/>
-      <c r="H20" s="28"/>
-      <c r="I20" s="30"/>
-      <c r="J20" s="138"/>
-      <c r="K20" s="74" t="s">
-        <v>171</v>
-      </c>
-      <c r="L20" s="74"/>
-      <c r="M20" s="30"/>
-      <c r="N20" s="30"/>
-      <c r="O20" s="198"/>
-    </row>
-    <row r="21" s="148" customFormat="1" outlineLevel="1" spans="1:15">
-      <c r="A21" s="147" t="s">
-        <v>172</v>
-      </c>
-      <c r="B21" s="162"/>
-      <c r="C21" s="166"/>
-      <c r="D21" s="163"/>
-      <c r="E21" s="176"/>
-      <c r="F21" s="165"/>
-      <c r="G21" s="163"/>
-      <c r="H21" s="166"/>
-      <c r="I21" s="194"/>
-      <c r="J21" s="195" t="s">
-        <v>168</v>
-      </c>
-      <c r="K21" s="196"/>
-      <c r="L21" s="196"/>
-      <c r="M21" s="194"/>
-      <c r="N21" s="194"/>
-      <c r="O21" s="197"/>
-    </row>
-    <row r="22" s="79" customFormat="1" outlineLevel="1" spans="1:15">
-      <c r="A22" s="173"/>
-      <c r="B22" s="127"/>
-      <c r="C22" s="28"/>
-      <c r="D22" s="73"/>
-      <c r="E22" s="174"/>
-      <c r="F22" s="175"/>
-      <c r="G22" s="73"/>
-      <c r="H22" s="28"/>
-      <c r="I22" s="30"/>
-      <c r="J22" s="138"/>
-      <c r="K22" s="74"/>
-      <c r="L22" s="74" t="s">
-        <v>173</v>
-      </c>
-      <c r="M22" s="30">
-        <v>1</v>
-      </c>
-      <c r="N22" s="30" t="s">
-        <v>173</v>
-      </c>
-      <c r="O22" s="198" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="23" s="148" customFormat="1" outlineLevel="1" spans="1:15">
-      <c r="A23" s="147" t="s">
-        <v>175</v>
-      </c>
-      <c r="B23" s="162"/>
-      <c r="C23" s="166"/>
-      <c r="D23" s="163"/>
-      <c r="E23" s="176"/>
-      <c r="F23" s="165"/>
-      <c r="G23" s="163"/>
-      <c r="H23" s="166"/>
-      <c r="I23" s="194"/>
-      <c r="J23" s="195" t="s">
-        <v>169</v>
-      </c>
-      <c r="K23" s="196"/>
-      <c r="L23" s="196"/>
-      <c r="M23" s="194"/>
-      <c r="N23" s="194"/>
-      <c r="O23" s="197"/>
-    </row>
-    <row r="24" s="79" customFormat="1" outlineLevel="1" spans="1:15">
-      <c r="A24" s="173"/>
-      <c r="B24" s="127"/>
-      <c r="C24" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="D24" s="73"/>
-      <c r="E24" s="174"/>
-      <c r="F24" s="175"/>
-      <c r="G24" s="73"/>
-      <c r="H24" s="28"/>
-      <c r="I24" s="30"/>
-      <c r="J24" s="138"/>
-      <c r="K24" s="74"/>
-      <c r="L24" s="74" t="s">
-        <v>176</v>
-      </c>
-      <c r="M24" s="30" t="s">
-        <v>145</v>
-      </c>
-      <c r="N24" s="30" t="s">
-        <v>146</v>
-      </c>
-      <c r="O24" s="198" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="25" s="79" customFormat="1" outlineLevel="1" spans="1:15">
-      <c r="A25" s="173"/>
-      <c r="B25" s="127"/>
-      <c r="C25" s="28"/>
-      <c r="D25" s="73"/>
-      <c r="E25" s="174"/>
-      <c r="F25" s="175"/>
-      <c r="G25" s="73"/>
-      <c r="H25" s="28"/>
-      <c r="I25" s="30"/>
-      <c r="J25" s="138"/>
-      <c r="K25" s="74"/>
-      <c r="L25" s="74" t="s">
-        <v>173</v>
-      </c>
-      <c r="M25" s="30" t="s">
-        <v>145</v>
-      </c>
-      <c r="N25" s="30" t="s">
-        <v>173</v>
-      </c>
-      <c r="O25" s="198" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="26" s="148" customFormat="1" outlineLevel="1" spans="1:15">
-      <c r="A26" s="147" t="s">
-        <v>178</v>
-      </c>
-      <c r="B26" s="162"/>
-      <c r="C26" s="166"/>
-      <c r="D26" s="163"/>
-      <c r="E26" s="176"/>
-      <c r="F26" s="165"/>
-      <c r="G26" s="163"/>
-      <c r="H26" s="166"/>
-      <c r="I26" s="194"/>
-      <c r="J26" s="195" t="s">
-        <v>170</v>
-      </c>
-      <c r="K26" s="196"/>
-      <c r="L26" s="196"/>
-      <c r="M26" s="194"/>
-      <c r="N26" s="194"/>
-      <c r="O26" s="197"/>
-    </row>
-    <row r="27" outlineLevel="1" spans="2:15">
-      <c r="B27" s="116"/>
-      <c r="C27" s="106"/>
-      <c r="D27" s="106"/>
-      <c r="E27" s="161"/>
-      <c r="F27" s="155"/>
-      <c r="G27" s="106"/>
-      <c r="H27" s="25"/>
-      <c r="I27" s="27"/>
-      <c r="J27" s="91"/>
-      <c r="K27" s="71"/>
-      <c r="L27" s="71" t="s">
-        <v>179</v>
-      </c>
-      <c r="M27" s="27">
-        <v>4</v>
-      </c>
-      <c r="N27" s="27" t="s">
-        <v>153</v>
-      </c>
-      <c r="O27" s="199" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="28" outlineLevel="1" spans="2:15">
-      <c r="B28" s="116"/>
-      <c r="C28" s="106"/>
-      <c r="D28" s="106"/>
-      <c r="E28" s="161"/>
-      <c r="F28" s="155"/>
-      <c r="G28" s="106"/>
-      <c r="H28" s="25"/>
-      <c r="I28" s="27"/>
-      <c r="J28" s="91"/>
-      <c r="K28" s="71"/>
-      <c r="L28" s="71" t="s">
-        <v>181</v>
-      </c>
-      <c r="M28" s="27" t="s">
-        <v>145</v>
-      </c>
-      <c r="N28" s="27" t="s">
-        <v>182</v>
-      </c>
-      <c r="O28" s="199" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="29" s="148" customFormat="1" outlineLevel="1" spans="1:15">
-      <c r="A29" s="147" t="s">
-        <v>184</v>
-      </c>
-      <c r="B29" s="162"/>
-      <c r="C29" s="166"/>
-      <c r="D29" s="163"/>
-      <c r="E29" s="176"/>
-      <c r="F29" s="165"/>
-      <c r="G29" s="163"/>
-      <c r="H29" s="166"/>
-      <c r="I29" s="194"/>
-      <c r="J29" s="195" t="s">
-        <v>171</v>
-      </c>
-      <c r="K29" s="196"/>
-      <c r="L29" s="196"/>
-      <c r="M29" s="194"/>
-      <c r="N29" s="194"/>
-      <c r="O29" s="197"/>
-    </row>
-    <row r="30" outlineLevel="1" spans="2:15">
-      <c r="B30" s="116"/>
-      <c r="C30" s="25"/>
-      <c r="D30" s="106"/>
-      <c r="E30" s="154"/>
-      <c r="F30" s="155"/>
-      <c r="G30" s="106"/>
-      <c r="H30" s="25"/>
-      <c r="I30" s="27"/>
-      <c r="J30" s="91"/>
-      <c r="K30" s="71"/>
-      <c r="L30" s="71" t="s">
-        <v>185</v>
-      </c>
-      <c r="M30" s="27">
-        <v>4</v>
-      </c>
-      <c r="N30" s="27" t="s">
-        <v>153</v>
-      </c>
-      <c r="O30" s="199" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="31" outlineLevel="1" spans="2:15">
-      <c r="B31" s="116"/>
-      <c r="C31" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="D31" s="106"/>
-      <c r="E31" s="154"/>
-      <c r="F31" s="155"/>
-      <c r="G31" s="106"/>
-      <c r="H31" s="25"/>
-      <c r="I31" s="27"/>
-      <c r="J31" s="91"/>
-      <c r="K31" s="71" t="s">
-        <v>187</v>
-      </c>
-      <c r="L31" s="71" t="s">
-        <v>188</v>
-      </c>
-      <c r="M31" s="27" t="s">
-        <v>189</v>
-      </c>
-      <c r="N31" s="27" t="s">
-        <v>190</v>
-      </c>
-      <c r="O31" s="199" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="32" outlineLevel="1" spans="2:15">
-      <c r="B32" s="116"/>
-      <c r="C32" s="25"/>
-      <c r="D32" s="106"/>
-      <c r="E32" s="154"/>
-      <c r="F32" s="155"/>
-      <c r="G32" s="106"/>
-      <c r="H32" s="25"/>
-      <c r="I32" s="27"/>
-      <c r="J32" s="91" t="s">
-        <v>187</v>
-      </c>
-      <c r="K32" s="71"/>
-      <c r="L32" s="71" t="s">
-        <v>181</v>
-      </c>
-      <c r="M32" s="27" t="s">
-        <v>145</v>
-      </c>
-      <c r="N32" s="27" t="s">
-        <v>182</v>
-      </c>
-      <c r="O32" s="199" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="33" outlineLevel="1" spans="2:15">
-      <c r="B33" s="167"/>
-      <c r="C33" s="54"/>
-      <c r="D33" s="168"/>
-      <c r="E33" s="169"/>
-      <c r="F33" s="170"/>
-      <c r="G33" s="168"/>
-      <c r="H33" s="54"/>
-      <c r="I33" s="61"/>
-      <c r="J33" s="94" t="s">
-        <v>193</v>
-      </c>
-      <c r="K33" s="101"/>
-      <c r="L33" s="101" t="s">
-        <v>181</v>
-      </c>
-      <c r="M33" s="61" t="s">
-        <v>145</v>
-      </c>
-      <c r="N33" s="61" t="s">
-        <v>182</v>
-      </c>
-      <c r="O33" s="200" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="34" spans="2:18">
-      <c r="B34" s="25"/>
-      <c r="C34" s="25"/>
-      <c r="D34" s="106"/>
-      <c r="E34" s="106"/>
-      <c r="F34" s="106"/>
-      <c r="G34" s="106"/>
-      <c r="H34" s="25"/>
-      <c r="I34" s="25"/>
-      <c r="J34" s="71"/>
-      <c r="K34" s="71"/>
-      <c r="L34" s="71"/>
-      <c r="M34" s="71"/>
-      <c r="N34" s="25"/>
-      <c r="O34" s="25"/>
-      <c r="P34" s="25"/>
-      <c r="Q34" s="71"/>
-      <c r="R34" s="71"/>
-    </row>
-    <row r="35" spans="2:18">
-      <c r="B35" s="106"/>
-      <c r="C35" s="106"/>
-      <c r="D35" s="106"/>
-      <c r="E35" s="106"/>
-      <c r="F35" s="106"/>
-      <c r="G35" s="106"/>
-      <c r="H35" s="25"/>
-      <c r="I35" s="25"/>
-      <c r="J35" s="201" t="s">
-        <v>141</v>
-      </c>
-      <c r="K35" s="201"/>
-      <c r="L35" s="201"/>
-      <c r="M35" s="201"/>
-      <c r="N35" s="28"/>
-      <c r="O35" s="25"/>
-      <c r="P35" s="25"/>
-      <c r="Q35" s="25"/>
-      <c r="R35" s="71"/>
-    </row>
-    <row r="36" spans="10:10">
-      <c r="J36" s="4" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="37" spans="10:10">
-      <c r="J37" s="4" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="40" s="11" customFormat="1" ht="72.1" spans="1:14">
-      <c r="A40" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="B40" s="177"/>
-      <c r="C40" s="178"/>
-      <c r="D40" s="179"/>
-      <c r="E40" s="180"/>
-      <c r="F40" s="178" t="s">
-        <v>155</v>
-      </c>
-      <c r="G40" s="180" t="s">
-        <v>149</v>
-      </c>
-      <c r="H40" s="180" t="s">
-        <v>147</v>
-      </c>
-      <c r="I40" s="179" t="s">
-        <v>143</v>
-      </c>
-      <c r="J40" s="59" t="s">
-        <v>35</v>
-      </c>
-      <c r="K40" s="59" t="s">
-        <v>197</v>
-      </c>
-      <c r="L40" s="102" t="s">
-        <v>198</v>
-      </c>
-      <c r="M40" s="11" t="s">
-        <v>199</v>
-      </c>
-      <c r="N40" s="59"/>
-    </row>
-    <row r="41" customFormat="1" spans="1:14">
-      <c r="A41" s="12"/>
-      <c r="B41" s="181"/>
-      <c r="C41" s="48"/>
-      <c r="D41" s="48"/>
-      <c r="E41" s="182"/>
-      <c r="F41" s="183"/>
-      <c r="G41" s="48"/>
-      <c r="H41" s="48">
-        <v>1</v>
-      </c>
-      <c r="I41" s="60" t="s">
-        <v>58</v>
-      </c>
-      <c r="J41" s="3" t="str">
-        <f t="shared" ref="J41:J47" si="0">DEC2HEX(K41,2)</f>
-        <v>02</v>
-      </c>
-      <c r="K41" s="3">
-        <f t="shared" ref="K41:K47" si="1">IF(B41=1,128,0)+IF(C41=1,64,0)+IF(D41=1,32,0)+IF(E41=1,16,0)+IF(F41=1,8,0)+IF(G41=1,4,0)+IF(H41=1,2,0)+IF(I41=1,1,0)</f>
-        <v>2</v>
-      </c>
-      <c r="L41" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="M41" t="s">
-        <v>200</v>
-      </c>
-      <c r="N41" s="3"/>
-    </row>
-    <row r="42" customFormat="1" spans="1:14">
-      <c r="A42" s="12"/>
-      <c r="B42" s="184"/>
-      <c r="C42" s="25"/>
-      <c r="D42" s="25"/>
-      <c r="E42" s="161">
-        <v>0</v>
-      </c>
-      <c r="F42" s="185">
-        <v>1</v>
-      </c>
-      <c r="G42" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="H42" s="25">
-        <v>0</v>
-      </c>
-      <c r="I42" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="J42" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>08</v>
-      </c>
-      <c r="K42" s="3">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="L42" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="M42" t="s">
-        <v>201</v>
-      </c>
-      <c r="N42" s="3"/>
-    </row>
-    <row r="43" customFormat="1" spans="1:14">
-      <c r="A43" s="12"/>
-      <c r="B43" s="184"/>
-      <c r="C43" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="D43" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="E43" s="161">
-        <v>1</v>
-      </c>
-      <c r="F43" s="185">
-        <v>1</v>
-      </c>
-      <c r="G43" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="H43" s="25">
-        <v>0</v>
-      </c>
-      <c r="I43" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="J43" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="K43" s="3">
-        <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="L43" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="M43" t="s">
-        <v>202</v>
-      </c>
-      <c r="N43" s="3"/>
-    </row>
-    <row r="44" customFormat="1" spans="1:14">
-      <c r="A44" s="12"/>
-      <c r="B44" s="184"/>
-      <c r="C44" s="25"/>
-      <c r="D44" s="25">
-        <v>0</v>
-      </c>
-      <c r="E44" s="161">
-        <v>0</v>
-      </c>
-      <c r="F44" s="185">
-        <v>0</v>
-      </c>
-      <c r="G44" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="H44" s="25">
-        <v>0</v>
-      </c>
-      <c r="I44" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="J44" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>00</v>
-      </c>
-      <c r="K44" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L44" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="M44" t="s">
-        <v>204</v>
-      </c>
-      <c r="N44" s="3"/>
-    </row>
-    <row r="45" customFormat="1" spans="1:14">
-      <c r="A45" s="12"/>
-      <c r="B45" s="184"/>
-      <c r="C45" s="25"/>
-      <c r="D45" s="25">
-        <v>0</v>
-      </c>
-      <c r="E45" s="161">
-        <v>1</v>
-      </c>
-      <c r="F45" s="185">
-        <v>0</v>
-      </c>
-      <c r="G45" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="H45" s="25">
-        <v>0</v>
-      </c>
-      <c r="I45" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="J45" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="K45" s="3">
-        <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="L45" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="M45" t="s">
-        <v>205</v>
-      </c>
-      <c r="N45" s="3"/>
-    </row>
-    <row r="46" customFormat="1" spans="1:14">
-      <c r="A46" s="12"/>
-      <c r="B46" s="184"/>
-      <c r="C46" s="25"/>
-      <c r="D46" s="25">
-        <v>1</v>
-      </c>
-      <c r="E46" s="161">
-        <v>0</v>
-      </c>
-      <c r="F46" s="185">
-        <v>0</v>
-      </c>
-      <c r="G46" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="H46" s="25">
-        <v>0</v>
-      </c>
-      <c r="I46" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="J46" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="K46" s="3">
-        <f t="shared" si="1"/>
-        <v>32</v>
-      </c>
-      <c r="L46" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="M46" t="s">
-        <v>206</v>
-      </c>
-      <c r="N46" s="3"/>
-    </row>
-    <row r="47" customFormat="1" spans="1:14">
-      <c r="A47" s="12"/>
-      <c r="B47" s="186"/>
-      <c r="C47" s="54" t="s">
-        <v>58</v>
-      </c>
-      <c r="D47" s="54">
-        <v>1</v>
-      </c>
-      <c r="E47" s="156">
-        <v>1</v>
-      </c>
-      <c r="F47" s="157">
-        <v>0</v>
-      </c>
-      <c r="G47" s="54" t="s">
-        <v>58</v>
-      </c>
-      <c r="H47" s="54">
-        <v>0</v>
-      </c>
-      <c r="I47" s="61" t="s">
-        <v>58</v>
-      </c>
-      <c r="J47" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="K47" s="3">
-        <f t="shared" si="1"/>
-        <v>48</v>
-      </c>
-      <c r="L47" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="M47" t="s">
-        <v>207</v>
-      </c>
-      <c r="N47" s="3"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
   <dimension ref="A1:Q42"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="I41" sqref="I41"/>
+      <selection pane="bottomLeft" activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.61061946902655" defaultRowHeight="14.25"/>
@@ -7989,7 +6362,7 @@
         <v>145</v>
       </c>
       <c r="P3" s="60" t="s">
-        <v>208</v>
+        <v>146</v>
       </c>
       <c r="Q3" s="141"/>
     </row>
@@ -8048,7 +6421,7 @@
       </c>
       <c r="K5" s="27"/>
       <c r="M5" s="7" t="s">
-        <v>168</v>
+        <v>148</v>
       </c>
       <c r="N5" s="129"/>
       <c r="P5" s="27"/>
@@ -8077,7 +6450,7 @@
       </c>
       <c r="K6" s="27"/>
       <c r="M6" s="74" t="s">
-        <v>170</v>
+        <v>149</v>
       </c>
       <c r="N6" s="129"/>
       <c r="P6" s="27"/>
@@ -8106,7 +6479,7 @@
       </c>
       <c r="K7" s="27"/>
       <c r="M7" s="74" t="s">
-        <v>171</v>
+        <v>150</v>
       </c>
       <c r="N7" s="129"/>
       <c r="P7" s="27"/>
@@ -8135,7 +6508,7 @@
       </c>
       <c r="K8" s="27"/>
       <c r="M8" s="7" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="N8" s="129"/>
       <c r="P8" s="27"/>
@@ -8164,7 +6537,7 @@
       </c>
       <c r="K9" s="27"/>
       <c r="M9" s="7" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="N9" s="129"/>
       <c r="P9" s="27"/>
@@ -8193,7 +6566,7 @@
       </c>
       <c r="K10" s="27"/>
       <c r="M10" s="7" t="s">
-        <v>209</v>
+        <v>153</v>
       </c>
       <c r="N10" s="129"/>
       <c r="P10" s="27"/>
@@ -8222,7 +6595,7 @@
       </c>
       <c r="K11" s="27"/>
       <c r="M11" s="74" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="N11" s="129"/>
       <c r="P11" s="27"/>
@@ -8243,22 +6616,22 @@
       <c r="J12" s="25"/>
       <c r="K12" s="27"/>
       <c r="M12" s="74" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="N12" s="91" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="O12" s="25" t="s">
         <v>145</v>
       </c>
       <c r="P12" s="27" t="s">
-        <v>208</v>
+        <v>146</v>
       </c>
       <c r="Q12" s="142"/>
     </row>
     <row r="13" s="105" customFormat="1" outlineLevel="1" spans="1:17">
       <c r="A13" s="120" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="B13" s="121"/>
       <c r="C13" s="122"/>
@@ -8271,7 +6644,7 @@
       <c r="J13" s="123"/>
       <c r="K13" s="130"/>
       <c r="L13" s="105" t="s">
-        <v>168</v>
+        <v>148</v>
       </c>
       <c r="N13" s="137"/>
       <c r="O13" s="123"/>
@@ -8291,16 +6664,16 @@
       <c r="J14" s="28"/>
       <c r="K14" s="30"/>
       <c r="N14" s="138" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="O14" s="28">
         <v>1</v>
       </c>
       <c r="P14" s="30" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="Q14" s="144" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -8318,13 +6691,13 @@
         <v>145</v>
       </c>
       <c r="P15" s="27" t="s">
-        <v>182</v>
+        <v>160</v>
       </c>
       <c r="Q15" s="72"/>
     </row>
     <row r="16" s="105" customFormat="1" outlineLevel="1" spans="1:17">
       <c r="A16" s="120" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
       <c r="B16" s="121"/>
       <c r="C16" s="122"/>
@@ -8337,7 +6710,7 @@
       <c r="J16" s="123"/>
       <c r="K16" s="130"/>
       <c r="L16" s="105" t="s">
-        <v>170</v>
+        <v>149</v>
       </c>
       <c r="N16" s="137"/>
       <c r="O16" s="123"/>
@@ -8357,16 +6730,16 @@
       <c r="J17" s="25"/>
       <c r="K17" s="27"/>
       <c r="N17" s="91" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="O17" s="25">
         <v>4</v>
       </c>
       <c r="P17" s="27" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="Q17" s="145" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
     </row>
     <row r="18" s="71" customFormat="1" outlineLevel="1" spans="1:17">
@@ -8382,21 +6755,21 @@
       <c r="J18" s="25"/>
       <c r="K18" s="27"/>
       <c r="N18" s="91" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="O18" s="25" t="s">
         <v>145</v>
       </c>
       <c r="P18" s="27" t="s">
-        <v>182</v>
+        <v>160</v>
       </c>
       <c r="Q18" s="145" t="s">
-        <v>183</v>
+        <v>166</v>
       </c>
     </row>
     <row r="19" s="105" customFormat="1" outlineLevel="1" spans="1:17">
       <c r="A19" s="120" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
       <c r="B19" s="121"/>
       <c r="C19" s="122"/>
@@ -8409,7 +6782,7 @@
       <c r="J19" s="123"/>
       <c r="K19" s="130"/>
       <c r="L19" s="105" t="s">
-        <v>171</v>
+        <v>150</v>
       </c>
       <c r="N19" s="137"/>
       <c r="O19" s="123"/>
@@ -8429,16 +6802,16 @@
       <c r="J20" s="25"/>
       <c r="K20" s="27"/>
       <c r="N20" s="91" t="s">
-        <v>185</v>
+        <v>168</v>
       </c>
       <c r="O20" s="25">
         <v>4</v>
       </c>
       <c r="P20" s="27" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="Q20" s="145" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
     </row>
     <row r="21" s="71" customFormat="1" outlineLevel="1" spans="1:17">
@@ -8456,19 +6829,19 @@
       <c r="J21" s="25"/>
       <c r="K21" s="27"/>
       <c r="M21" s="71" t="s">
-        <v>187</v>
+        <v>170</v>
       </c>
       <c r="N21" s="91" t="s">
-        <v>188</v>
+        <v>171</v>
       </c>
       <c r="O21" s="25" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
       <c r="P21" s="27" t="s">
-        <v>190</v>
+        <v>173</v>
       </c>
       <c r="Q21" s="145" t="s">
-        <v>191</v>
+        <v>174</v>
       </c>
     </row>
     <row r="22" s="71" customFormat="1" outlineLevel="1" spans="1:17">
@@ -8484,19 +6857,19 @@
       <c r="J22" s="25"/>
       <c r="K22" s="27"/>
       <c r="L22" s="71" t="s">
-        <v>187</v>
+        <v>170</v>
       </c>
       <c r="N22" s="91" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="O22" s="25" t="s">
         <v>145</v>
       </c>
       <c r="P22" s="27" t="s">
-        <v>182</v>
+        <v>160</v>
       </c>
       <c r="Q22" s="145" t="s">
-        <v>192</v>
+        <v>175</v>
       </c>
     </row>
     <row r="23" s="71" customFormat="1" outlineLevel="1" spans="1:17">
@@ -8512,19 +6885,19 @@
       <c r="J23" s="25"/>
       <c r="K23" s="27"/>
       <c r="L23" s="71" t="s">
-        <v>193</v>
+        <v>176</v>
       </c>
       <c r="N23" s="91" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="O23" s="25" t="s">
         <v>145</v>
       </c>
       <c r="P23" s="27" t="s">
-        <v>182</v>
+        <v>160</v>
       </c>
       <c r="Q23" s="145" t="s">
-        <v>183</v>
+        <v>166</v>
       </c>
     </row>
     <row r="24" s="105" customFormat="1" outlineLevel="1" spans="1:17">
@@ -8542,7 +6915,7 @@
       <c r="J24" s="123"/>
       <c r="K24" s="130"/>
       <c r="L24" s="105" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="N24" s="137"/>
       <c r="O24" s="123"/>
@@ -8569,7 +6942,7 @@
         <v>4</v>
       </c>
       <c r="P25" s="27" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="Q25" s="142"/>
     </row>
@@ -8588,7 +6961,7 @@
       <c r="J26" s="25"/>
       <c r="K26" s="27"/>
       <c r="M26" s="74" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="N26" s="91" t="s">
         <v>108</v>
@@ -8597,7 +6970,7 @@
         <v>145</v>
       </c>
       <c r="P26" s="27" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="Q26" s="142"/>
     </row>
@@ -8616,19 +6989,19 @@
       <c r="J27" s="25"/>
       <c r="K27" s="27"/>
       <c r="M27" s="71" t="s">
-        <v>159</v>
+        <v>179</v>
       </c>
       <c r="N27" s="91" t="s">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="O27" s="25">
         <v>4</v>
       </c>
       <c r="P27" s="27" t="s">
-        <v>161</v>
+        <v>181</v>
       </c>
       <c r="Q27" s="142" t="s">
-        <v>210</v>
+        <v>182</v>
       </c>
     </row>
     <row r="28" s="71" customFormat="1" outlineLevel="1" spans="1:17">
@@ -8644,16 +7017,16 @@
       <c r="J28" s="25"/>
       <c r="K28" s="27"/>
       <c r="L28" s="71" t="s">
-        <v>159</v>
+        <v>179</v>
       </c>
       <c r="N28" s="91" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="O28" s="25" t="s">
         <v>145</v>
       </c>
       <c r="P28" s="27" t="s">
-        <v>164</v>
+        <v>184</v>
       </c>
       <c r="Q28" s="142"/>
     </row>
@@ -8672,7 +7045,7 @@
       <c r="J29" s="123"/>
       <c r="K29" s="130"/>
       <c r="L29" s="105" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="N29" s="137"/>
       <c r="O29" s="123"/>
@@ -8699,7 +7072,7 @@
     </row>
     <row r="31" s="105" customFormat="1" outlineLevel="1" spans="1:17">
       <c r="A31" s="120" t="s">
-        <v>211</v>
+        <v>185</v>
       </c>
       <c r="B31" s="121"/>
       <c r="C31" s="122"/>
@@ -8729,14 +7102,14 @@
       </c>
       <c r="F32" s="73"/>
       <c r="G32" s="128" t="s">
-        <v>212</v>
+        <v>186</v>
       </c>
       <c r="H32" s="127"/>
       <c r="I32" s="73"/>
       <c r="J32" s="28"/>
       <c r="K32" s="30"/>
       <c r="M32" s="74" t="s">
-        <v>213</v>
+        <v>187</v>
       </c>
       <c r="N32" s="138"/>
       <c r="O32" s="28"/>
@@ -8756,10 +7129,10 @@
       <c r="J33" s="28"/>
       <c r="K33" s="30"/>
       <c r="L33" s="74" t="s">
-        <v>213</v>
+        <v>187</v>
       </c>
       <c r="N33" s="138" t="s">
-        <v>214</v>
+        <v>188</v>
       </c>
       <c r="O33" s="28">
         <v>4</v>
@@ -8780,10 +7153,10 @@
       <c r="J34" s="28"/>
       <c r="K34" s="30"/>
       <c r="L34" s="74" t="s">
-        <v>213</v>
+        <v>187</v>
       </c>
       <c r="N34" s="138" t="s">
-        <v>215</v>
+        <v>189</v>
       </c>
       <c r="O34" s="28">
         <v>4</v>
@@ -8799,7 +7172,7 @@
         <v>43</v>
       </c>
       <c r="E35" s="28" t="s">
-        <v>212</v>
+        <v>186</v>
       </c>
       <c r="F35" s="73"/>
       <c r="G35" s="128"/>
@@ -8808,22 +7181,22 @@
       <c r="J35" s="28"/>
       <c r="K35" s="30"/>
       <c r="M35" s="74" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="N35" s="138" t="s">
-        <v>217</v>
+        <v>191</v>
       </c>
       <c r="O35" s="28" t="s">
         <v>145</v>
       </c>
       <c r="P35" s="30" t="s">
-        <v>146</v>
+        <v>192</v>
       </c>
       <c r="Q35" s="144"/>
     </row>
     <row r="36" s="105" customFormat="1" outlineLevel="1" spans="1:17">
       <c r="A36" s="120" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="B36" s="121"/>
       <c r="C36" s="122"/>
@@ -8836,7 +7209,7 @@
       <c r="J36" s="123"/>
       <c r="K36" s="130"/>
       <c r="L36" s="105" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="N36" s="137"/>
       <c r="O36" s="123"/>
@@ -8858,16 +7231,16 @@
       <c r="J37" s="28"/>
       <c r="K37" s="30"/>
       <c r="N37" s="138" t="s">
-        <v>176</v>
+        <v>194</v>
       </c>
       <c r="O37" s="28" t="s">
         <v>145</v>
       </c>
       <c r="P37" s="30" t="s">
-        <v>208</v>
+        <v>146</v>
       </c>
       <c r="Q37" s="144" t="s">
-        <v>177</v>
+        <v>195</v>
       </c>
     </row>
     <row r="38" s="74" customFormat="1" outlineLevel="1" spans="1:17">
@@ -8885,33 +7258,33 @@
       <c r="L38" s="96"/>
       <c r="M38" s="96"/>
       <c r="N38" s="140" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="O38" s="93" t="s">
         <v>145</v>
       </c>
       <c r="P38" s="139" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="Q38" s="146" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
     </row>
     <row r="41" spans="2:13">
       <c r="B41" s="103"/>
       <c r="L41" s="7" t="s">
-        <v>218</v>
+        <v>196</v>
       </c>
       <c r="M41" s="7" t="s">
-        <v>219</v>
+        <v>197</v>
       </c>
     </row>
     <row r="42" spans="12:13">
       <c r="L42" s="7" t="s">
-        <v>220</v>
+        <v>198</v>
       </c>
       <c r="M42" s="7" t="s">
-        <v>221</v>
+        <v>199</v>
       </c>
     </row>
   </sheetData>
@@ -8921,13 +7294,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:P41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="131" zoomScaleNormal="131" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="131" zoomScaleNormal="131" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="O15" sqref="O15"/>
     </sheetView>
@@ -9018,11 +7391,11 @@
       <c r="I3" s="25"/>
       <c r="J3" s="25"/>
       <c r="K3" s="27" t="s">
-        <v>222</v>
+        <v>200</v>
       </c>
       <c r="L3" s="71"/>
       <c r="M3" s="7" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="O3" s="71"/>
       <c r="P3" s="72"/>
@@ -9038,19 +7411,19 @@
       <c r="H4" s="29"/>
       <c r="I4" s="73"/>
       <c r="J4" s="28" t="s">
-        <v>224</v>
+        <v>202</v>
       </c>
       <c r="K4" s="30"/>
       <c r="L4" s="74"/>
       <c r="M4" s="8" t="s">
-        <v>225</v>
+        <v>203</v>
       </c>
       <c r="O4" s="75"/>
       <c r="P4" s="76"/>
     </row>
     <row r="5" s="6" customFormat="1" spans="1:16">
       <c r="A5" s="17" t="s">
-        <v>226</v>
+        <v>204</v>
       </c>
       <c r="B5" s="18"/>
       <c r="C5" s="19"/>
@@ -9063,7 +7436,7 @@
       <c r="J5" s="21"/>
       <c r="K5" s="22"/>
       <c r="L5" s="67" t="s">
-        <v>227</v>
+        <v>205</v>
       </c>
       <c r="M5" s="68"/>
       <c r="N5" s="68"/>
@@ -9080,13 +7453,13 @@
       <c r="G6" s="27"/>
       <c r="H6" s="26"/>
       <c r="I6" s="25" t="s">
-        <v>228</v>
+        <v>206</v>
       </c>
       <c r="J6" s="25"/>
       <c r="K6" s="27"/>
       <c r="L6" s="71"/>
       <c r="M6" s="7" t="s">
-        <v>229</v>
+        <v>207</v>
       </c>
       <c r="O6" s="71"/>
       <c r="P6" s="72"/>
@@ -9098,10 +7471,10 @@
       <c r="D7" s="29"/>
       <c r="E7" s="28"/>
       <c r="F7" s="28" t="s">
-        <v>230</v>
+        <v>208</v>
       </c>
       <c r="G7" s="30" t="s">
-        <v>230</v>
+        <v>208</v>
       </c>
       <c r="H7" s="29"/>
       <c r="I7" s="73"/>
@@ -9109,7 +7482,7 @@
       <c r="K7" s="30"/>
       <c r="L7" s="74"/>
       <c r="N7" s="8" t="s">
-        <v>231</v>
+        <v>209</v>
       </c>
       <c r="O7" s="75"/>
       <c r="P7" s="76"/>
@@ -9132,13 +7505,13 @@
         <v>1</v>
       </c>
       <c r="O8" s="77" t="s">
-        <v>232</v>
+        <v>210</v>
       </c>
       <c r="P8" s="78"/>
     </row>
     <row r="9" s="10" customFormat="1" spans="1:16">
       <c r="A9" s="34" t="s">
-        <v>233</v>
+        <v>211</v>
       </c>
       <c r="B9" s="35"/>
       <c r="C9" s="36"/>
@@ -9151,7 +7524,7 @@
       <c r="J9" s="21"/>
       <c r="K9" s="22"/>
       <c r="L9" s="67" t="s">
-        <v>234</v>
+        <v>212</v>
       </c>
       <c r="M9" s="68"/>
       <c r="N9" s="68"/>
@@ -9164,12 +7537,12 @@
       <c r="G10" s="27"/>
       <c r="H10" s="26"/>
       <c r="I10" s="25" t="s">
-        <v>235</v>
+        <v>213</v>
       </c>
       <c r="K10" s="27"/>
       <c r="L10" s="71"/>
       <c r="M10" s="7" t="s">
-        <v>236</v>
+        <v>214</v>
       </c>
       <c r="N10" s="7"/>
       <c r="O10" s="71"/>
@@ -9193,10 +7566,10 @@
       <c r="K11" s="30"/>
       <c r="L11" s="79"/>
       <c r="M11" s="9" t="s">
-        <v>237</v>
+        <v>215</v>
       </c>
       <c r="N11" s="9" t="s">
-        <v>238</v>
+        <v>216</v>
       </c>
       <c r="O11" s="77"/>
       <c r="P11" s="76"/>
@@ -9208,23 +7581,23 @@
       <c r="D12" s="29"/>
       <c r="E12" s="28"/>
       <c r="F12" s="28" t="s">
-        <v>230</v>
+        <v>208</v>
       </c>
       <c r="G12" s="30" t="s">
-        <v>230</v>
+        <v>208</v>
       </c>
       <c r="H12" s="29"/>
       <c r="I12" s="73"/>
       <c r="J12" s="28"/>
       <c r="K12" s="30"/>
       <c r="L12" s="74" t="s">
-        <v>239</v>
+        <v>217</v>
       </c>
       <c r="M12" s="8" t="s">
-        <v>240</v>
+        <v>218</v>
       </c>
       <c r="N12" s="8" t="s">
-        <v>231</v>
+        <v>209</v>
       </c>
       <c r="O12" s="75"/>
       <c r="P12" s="76"/>
@@ -9239,16 +7612,16 @@
       <c r="J13" s="25"/>
       <c r="K13" s="27"/>
       <c r="L13" s="7" t="s">
-        <v>241</v>
+        <v>219</v>
       </c>
       <c r="N13" t="s">
         <v>1</v>
       </c>
       <c r="O13" s="77" t="s">
-        <v>232</v>
+        <v>210</v>
       </c>
       <c r="P13" s="76" t="s">
-        <v>242</v>
+        <v>220</v>
       </c>
     </row>
     <row r="14" outlineLevel="1" spans="4:16">
@@ -9264,13 +7637,13 @@
         <v>87</v>
       </c>
       <c r="N14" t="s">
-        <v>243</v>
+        <v>221</v>
       </c>
       <c r="O14" s="77" t="s">
-        <v>232</v>
+        <v>210</v>
       </c>
       <c r="P14" s="78" t="s">
-        <v>244</v>
+        <v>222</v>
       </c>
     </row>
     <row r="15" outlineLevel="1" spans="4:16">
@@ -9290,15 +7663,15 @@
         <v>1</v>
       </c>
       <c r="O15" s="74" t="s">
-        <v>243</v>
+        <v>221</v>
       </c>
       <c r="P15" s="78" t="s">
-        <v>245</v>
+        <v>223</v>
       </c>
     </row>
     <row r="16" s="10" customFormat="1" spans="1:16">
       <c r="A16" s="34" t="s">
-        <v>246</v>
+        <v>224</v>
       </c>
       <c r="B16" s="35"/>
       <c r="C16" s="36"/>
@@ -9311,7 +7684,7 @@
       <c r="J16" s="21"/>
       <c r="K16" s="22"/>
       <c r="L16" s="67" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="M16" s="68"/>
       <c r="N16" s="68"/>
@@ -9362,14 +7735,14 @@
       <c r="F19" s="39"/>
       <c r="G19" s="40"/>
       <c r="H19" s="37" t="s">
-        <v>247</v>
+        <v>225</v>
       </c>
       <c r="I19" s="38"/>
       <c r="J19" s="38"/>
       <c r="K19" s="40"/>
       <c r="L19" s="80"/>
       <c r="M19" s="81" t="s">
-        <v>248</v>
+        <v>226</v>
       </c>
       <c r="N19" s="81"/>
       <c r="O19" s="80"/>
@@ -9389,12 +7762,12 @@
       <c r="K20" s="40"/>
       <c r="L20" s="80"/>
       <c r="M20" s="81" t="s">
-        <v>249</v>
+        <v>227</v>
       </c>
       <c r="N20" s="81"/>
       <c r="O20" s="82"/>
       <c r="P20" s="82" t="s">
-        <v>250</v>
+        <v>228</v>
       </c>
     </row>
     <row r="21" s="9" customFormat="1" outlineLevel="1" spans="1:16">
@@ -9451,7 +7824,7 @@
       </c>
       <c r="L22" s="84"/>
       <c r="M22" s="85" t="s">
-        <v>251</v>
+        <v>229</v>
       </c>
       <c r="N22" s="85" t="s">
         <v>1</v>
@@ -9460,7 +7833,7 @@
         <v>8</v>
       </c>
       <c r="P22" s="86" t="s">
-        <v>252</v>
+        <v>230</v>
       </c>
     </row>
     <row r="23" s="9" customFormat="1" outlineLevel="1" spans="1:16">
@@ -9499,12 +7872,12 @@
       </c>
       <c r="L23" s="74"/>
       <c r="M23" s="8" t="s">
-        <v>253</v>
+        <v>231</v>
       </c>
       <c r="N23" s="8"/>
       <c r="O23" s="74"/>
       <c r="P23" s="76" t="s">
-        <v>254</v>
+        <v>232</v>
       </c>
     </row>
     <row r="24" s="9" customFormat="1" outlineLevel="1" spans="1:16">
@@ -9543,12 +7916,12 @@
       </c>
       <c r="L24" s="74"/>
       <c r="M24" s="8" t="s">
-        <v>255</v>
+        <v>233</v>
       </c>
       <c r="N24" s="8"/>
       <c r="O24" s="74"/>
       <c r="P24" s="76" t="s">
-        <v>256</v>
+        <v>234</v>
       </c>
     </row>
     <row r="25" outlineLevel="1" spans="2:16">
@@ -9586,7 +7959,7 @@
       </c>
       <c r="L25" s="87"/>
       <c r="M25" s="88" t="s">
-        <v>257</v>
+        <v>235</v>
       </c>
       <c r="N25" s="88"/>
       <c r="O25" s="89" t="s">
@@ -9629,7 +8002,7 @@
       </c>
       <c r="L26" s="91"/>
       <c r="M26" t="s">
-        <v>258</v>
+        <v>236</v>
       </c>
       <c r="O26" s="79" t="s">
         <v>58</v>
@@ -9671,7 +8044,7 @@
       </c>
       <c r="L27" s="91"/>
       <c r="M27" t="s">
-        <v>259</v>
+        <v>237</v>
       </c>
       <c r="O27" s="79" t="s">
         <v>145</v>
@@ -9713,7 +8086,7 @@
       </c>
       <c r="L28" s="94"/>
       <c r="M28" s="95" t="s">
-        <v>260</v>
+        <v>238</v>
       </c>
       <c r="N28" s="95"/>
       <c r="O28" s="96" t="s">
@@ -9757,14 +8130,14 @@
       </c>
       <c r="L29" s="89"/>
       <c r="M29" s="98" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
       <c r="N29" s="98"/>
       <c r="O29" s="89" t="s">
         <v>145</v>
       </c>
       <c r="P29" s="99" t="s">
-        <v>262</v>
+        <v>240</v>
       </c>
     </row>
     <row r="30" s="9" customFormat="1" outlineLevel="1" spans="1:16">
@@ -9803,14 +8176,14 @@
       </c>
       <c r="L30" s="74"/>
       <c r="M30" s="8" t="s">
-        <v>263</v>
+        <v>241</v>
       </c>
       <c r="N30" s="8"/>
       <c r="O30" s="74" t="s">
         <v>145</v>
       </c>
       <c r="P30" s="100" t="s">
-        <v>264</v>
+        <v>242</v>
       </c>
     </row>
     <row r="31" outlineLevel="1" spans="2:16">
@@ -9848,14 +8221,14 @@
       </c>
       <c r="L31" s="101"/>
       <c r="M31" s="95" t="s">
-        <v>265</v>
+        <v>243</v>
       </c>
       <c r="N31" s="95"/>
       <c r="O31" s="96" t="s">
         <v>145</v>
       </c>
       <c r="P31" s="97" t="s">
-        <v>266</v>
+        <v>244</v>
       </c>
     </row>
     <row r="32" spans="12:16">
@@ -9866,7 +8239,7 @@
     </row>
     <row r="33" s="11" customFormat="1" spans="1:15">
       <c r="A33" s="11" t="s">
-        <v>196</v>
+        <v>245</v>
       </c>
       <c r="B33" s="59"/>
       <c r="C33" s="59"/>
@@ -9884,7 +8257,7 @@
     </row>
     <row r="34" spans="1:11">
       <c r="A34" s="12" t="s">
-        <v>267</v>
+        <v>246</v>
       </c>
       <c r="B34" s="1" t="str">
         <f>DEC2HEX(C34,2)</f>
@@ -9917,7 +8290,7 @@
     </row>
     <row r="35" spans="1:11">
       <c r="A35" s="12" t="s">
-        <v>268</v>
+        <v>247</v>
       </c>
       <c r="B35" s="1" t="str">
         <f>DEC2HEX(C35,2)</f>
@@ -9950,7 +8323,7 @@
     </row>
     <row r="36" spans="1:11">
       <c r="A36" s="12" t="s">
-        <v>269</v>
+        <v>248</v>
       </c>
       <c r="B36" s="1" t="str">
         <f>DEC2HEX(C36,2)</f>
@@ -9983,7 +8356,7 @@
     </row>
     <row r="37" spans="1:11">
       <c r="A37" s="12" t="s">
-        <v>270</v>
+        <v>249</v>
       </c>
       <c r="B37" s="1" t="str">
         <f>DEC2HEX(C37,2)</f>
@@ -10016,7 +8389,7 @@
     </row>
     <row r="38" spans="1:11">
       <c r="A38" s="12" t="s">
-        <v>271</v>
+        <v>250</v>
       </c>
       <c r="B38" s="1" t="str">
         <f>DEC2HEX(C38,2)</f>
@@ -10047,7 +8420,7 @@
     </row>
     <row r="39" spans="1:11">
       <c r="A39" s="12" t="s">
-        <v>272</v>
+        <v>251</v>
       </c>
       <c r="B39" s="1" t="str">
         <f>DEC2HEX(C39,2)</f>
@@ -10078,7 +8451,7 @@
     </row>
     <row r="40" spans="1:11">
       <c r="A40" s="12" t="s">
-        <v>273</v>
+        <v>252</v>
       </c>
       <c r="B40" s="1" t="str">
         <f>DEC2HEX(C40,2)</f>
@@ -10109,7 +8482,7 @@
     </row>
     <row r="41" spans="1:11">
       <c r="A41" s="12" t="s">
-        <v>274</v>
+        <v>253</v>
       </c>
       <c r="B41" s="1" t="str">
         <f>DEC2HEX(C41,2)</f>
@@ -10150,7 +8523,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:K13"/>
@@ -10167,10 +8540,10 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
-        <v>230</v>
+        <v>208</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>43</v>
@@ -10185,12 +8558,12 @@
         <v>108</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>276</v>
+        <v>255</v>
       </c>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2" t="s">
-        <v>277</v>
+        <v>256</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -10204,26 +8577,26 @@
         <v>0</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>278</v>
+        <v>257</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>279</v>
+        <v>258</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>280</v>
+        <v>259</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>108</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>281</v>
+        <v>260</v>
       </c>
       <c r="I2" s="4"/>
       <c r="J2" s="4" t="s">
-        <v>282</v>
+        <v>261</v>
       </c>
       <c r="K2" t="s">
-        <v>283</v>
+        <v>262</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -10237,13 +8610,13 @@
         <v>0</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>278</v>
+        <v>257</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>279</v>
+        <v>258</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>247</v>
+        <v>225</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>108</v>
@@ -10253,10 +8626,10 @@
       </c>
       <c r="I3" s="4"/>
       <c r="J3" s="4" t="s">
-        <v>282</v>
+        <v>261</v>
       </c>
       <c r="K3" t="s">
-        <v>283</v>
+        <v>262</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -10273,25 +8646,25 @@
         <v>0</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>284</v>
+        <v>263</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>279</v>
+        <v>258</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>285</v>
+        <v>264</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>286</v>
+        <v>265</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>287</v>
+        <v>266</v>
       </c>
       <c r="J4" t="s">
-        <v>288</v>
+        <v>267</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>289</v>
+        <v>268</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -10308,25 +8681,25 @@
         <v>0</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>284</v>
+        <v>263</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>279</v>
+        <v>258</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>285</v>
+        <v>264</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>286</v>
+        <v>265</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>290</v>
+        <v>269</v>
       </c>
       <c r="J5" t="s">
-        <v>288</v>
+        <v>267</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>289</v>
+        <v>268</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -10340,28 +8713,28 @@
         <v>1</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>278</v>
+        <v>257</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>284</v>
+        <v>263</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>279</v>
+        <v>258</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>285</v>
+        <v>264</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>291</v>
+        <v>270</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>287</v>
+        <v>266</v>
       </c>
       <c r="J6" t="s">
-        <v>288</v>
+        <v>267</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>289</v>
+        <v>268</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -10375,28 +8748,28 @@
         <v>1</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>278</v>
+        <v>257</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>284</v>
+        <v>263</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>279</v>
+        <v>258</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>285</v>
+        <v>264</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>291</v>
+        <v>270</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>290</v>
+        <v>269</v>
       </c>
       <c r="J7" t="s">
-        <v>288</v>
+        <v>267</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>289</v>
+        <v>268</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -10410,26 +8783,26 @@
         <v>0</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>279</v>
+        <v>258</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>284</v>
+        <v>263</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>280</v>
+        <v>259</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>108</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>292</v>
+        <v>271</v>
       </c>
       <c r="I8" s="4"/>
       <c r="J8" t="s">
-        <v>293</v>
+        <v>272</v>
       </c>
       <c r="K8" t="s">
-        <v>294</v>
+        <v>273</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -10443,13 +8816,13 @@
         <v>0</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>279</v>
+        <v>258</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>284</v>
+        <v>263</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>280</v>
+        <v>259</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>108</v>
@@ -10459,10 +8832,10 @@
       </c>
       <c r="I9" s="4"/>
       <c r="J9" t="s">
-        <v>293</v>
+        <v>272</v>
       </c>
       <c r="K9" t="s">
-        <v>294</v>
+        <v>273</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -10476,28 +8849,28 @@
         <v>1</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>278</v>
+        <v>257</v>
       </c>
       <c r="E10" s="3">
         <v>0</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>279</v>
+        <v>258</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>285</v>
+        <v>264</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>295</v>
+        <v>274</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>287</v>
+        <v>266</v>
       </c>
       <c r="J10" t="s">
-        <v>296</v>
+        <v>275</v>
       </c>
       <c r="K10" t="s">
-        <v>297</v>
+        <v>276</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -10511,28 +8884,28 @@
         <v>1</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>278</v>
+        <v>257</v>
       </c>
       <c r="E11" s="3">
         <v>0</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>279</v>
+        <v>258</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>285</v>
+        <v>264</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>295</v>
+        <v>274</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>290</v>
+        <v>269</v>
       </c>
       <c r="J11" t="s">
-        <v>296</v>
+        <v>275</v>
       </c>
       <c r="K11" t="s">
-        <v>297</v>
+        <v>276</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -10546,28 +8919,28 @@
         <v>1</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>278</v>
+        <v>257</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>284</v>
+        <v>263</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>279</v>
+        <v>258</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>285</v>
+        <v>264</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>291</v>
+        <v>270</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>287</v>
+        <v>266</v>
       </c>
       <c r="J12" t="s">
-        <v>296</v>
+        <v>275</v>
       </c>
       <c r="K12" t="s">
-        <v>297</v>
+        <v>276</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -10581,28 +8954,28 @@
         <v>1</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>278</v>
+        <v>257</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>284</v>
+        <v>263</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>279</v>
+        <v>258</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>285</v>
+        <v>264</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>291</v>
+        <v>270</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>290</v>
+        <v>269</v>
       </c>
       <c r="J13" t="s">
-        <v>296</v>
+        <v>275</v>
       </c>
       <c r="K13" t="s">
-        <v>297</v>
+        <v>276</v>
       </c>
     </row>
   </sheetData>
